--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,108 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Czech Republic First League</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Pardubice</t>
+  </si>
+  <si>
+    <t>Karviná</t>
+  </si>
+  <si>
+    <t>Teplice</t>
+  </si>
+  <si>
+    <t>Slavia Praha</t>
+  </si>
+  <si>
+    <t>Mladá Boleslav</t>
+  </si>
+  <si>
+    <t>Slovan Liberec</t>
+  </si>
+  <si>
+    <t>Slovácko</t>
+  </si>
+  <si>
+    <t>Sparta Praha</t>
+  </si>
+  <si>
+    <t>Bohemians 1905</t>
+  </si>
+  <si>
+    <t>Zlín</t>
+  </si>
+  <si>
+    <t>Viktoria Plzeň</t>
+  </si>
+  <si>
+    <t>Hradec Králové</t>
+  </si>
+  <si>
+    <t>Jablonec</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
+    <t>České Budějovice</t>
+  </si>
+  <si>
+    <t>Sigma Olomouc</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['6', '27', '34', '53']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['4', '70']</t>
+  </si>
+  <si>
+    <t>['8', '47', '57']</t>
+  </si>
+  <si>
+    <t>['19', '41', '64']</t>
+  </si>
+  <si>
+    <t>['36', '39', '76', '80']</t>
+  </si>
+  <si>
+    <t>['16', '55']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +854,1534 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6588795</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>13</v>
+      </c>
+      <c r="T2">
+        <v>3.2</v>
+      </c>
+      <c r="U2">
+        <v>2.3</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>3.4</v>
+      </c>
+      <c r="Y2">
+        <v>2.5</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>1.13</v>
+      </c>
+      <c r="AC2">
+        <v>2.19</v>
+      </c>
+      <c r="AD2">
+        <v>3.57</v>
+      </c>
+      <c r="AE2">
+        <v>3.08</v>
+      </c>
+      <c r="AF2">
+        <v>1.04</v>
+      </c>
+      <c r="AG2">
+        <v>13.75</v>
+      </c>
+      <c r="AH2">
+        <v>1.22</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>1.62</v>
+      </c>
+      <c r="AK2">
+        <v>2.23</v>
+      </c>
+      <c r="AL2">
+        <v>1.53</v>
+      </c>
+      <c r="AM2">
+        <v>2.38</v>
+      </c>
+      <c r="AN2">
+        <v>1.63</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.29</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>2.25</v>
+      </c>
+      <c r="AY2">
+        <v>6</v>
+      </c>
+      <c r="AZ2">
+        <v>1.8</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>1.43</v>
+      </c>
+      <c r="BD2">
+        <v>1.73</v>
+      </c>
+      <c r="BE2">
+        <v>2</v>
+      </c>
+      <c r="BF2">
+        <v>7</v>
+      </c>
+      <c r="BG2">
+        <v>6</v>
+      </c>
+      <c r="BH2">
+        <v>6</v>
+      </c>
+      <c r="BI2">
+        <v>5</v>
+      </c>
+      <c r="BJ2">
+        <v>13</v>
+      </c>
+      <c r="BK2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6588796</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>3.1</v>
+      </c>
+      <c r="U3">
+        <v>2.2</v>
+      </c>
+      <c r="V3">
+        <v>3.5</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>2.75</v>
+      </c>
+      <c r="Y3">
+        <v>2.75</v>
+      </c>
+      <c r="Z3">
+        <v>1.4</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>1.08</v>
+      </c>
+      <c r="AC3">
+        <v>2.81</v>
+      </c>
+      <c r="AD3">
+        <v>3.34</v>
+      </c>
+      <c r="AE3">
+        <v>2.47</v>
+      </c>
+      <c r="AF3">
+        <v>1.04</v>
+      </c>
+      <c r="AG3">
+        <v>13</v>
+      </c>
+      <c r="AH3">
+        <v>1.28</v>
+      </c>
+      <c r="AI3">
+        <v>3.5</v>
+      </c>
+      <c r="AJ3">
+        <v>1.88</v>
+      </c>
+      <c r="AK3">
+        <v>1.91</v>
+      </c>
+      <c r="AL3">
+        <v>1.75</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>1.34</v>
+      </c>
+      <c r="AO3">
+        <v>1.3</v>
+      </c>
+      <c r="AP3">
+        <v>1.65</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.58</v>
+      </c>
+      <c r="AY3">
+        <v>6.25</v>
+      </c>
+      <c r="AZ3">
+        <v>2.7</v>
+      </c>
+      <c r="BA3">
+        <v>1.14</v>
+      </c>
+      <c r="BB3">
+        <v>1.24</v>
+      </c>
+      <c r="BC3">
+        <v>1.45</v>
+      </c>
+      <c r="BD3">
+        <v>1.74</v>
+      </c>
+      <c r="BE3">
+        <v>2.23</v>
+      </c>
+      <c r="BF3">
+        <v>9</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>2</v>
+      </c>
+      <c r="BJ3">
+        <v>14</v>
+      </c>
+      <c r="BK3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6588797</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>2.3</v>
+      </c>
+      <c r="V4">
+        <v>2.25</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>2.63</v>
+      </c>
+      <c r="Z4">
+        <v>1.44</v>
+      </c>
+      <c r="AA4">
+        <v>6.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.11</v>
+      </c>
+      <c r="AC4">
+        <v>4.05</v>
+      </c>
+      <c r="AD4">
+        <v>3.82</v>
+      </c>
+      <c r="AE4">
+        <v>1.8</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>16</v>
+      </c>
+      <c r="AH4">
+        <v>1.2</v>
+      </c>
+      <c r="AI4">
+        <v>4.2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.65</v>
+      </c>
+      <c r="AK4">
+        <v>2.18</v>
+      </c>
+      <c r="AL4">
+        <v>1.75</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2.45</v>
+      </c>
+      <c r="AO4">
+        <v>1.21</v>
+      </c>
+      <c r="AP4">
+        <v>1.13</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>3.95</v>
+      </c>
+      <c r="AY4">
+        <v>7.25</v>
+      </c>
+      <c r="AZ4">
+        <v>1.32</v>
+      </c>
+      <c r="BA4">
+        <v>1.15</v>
+      </c>
+      <c r="BB4">
+        <v>1.27</v>
+      </c>
+      <c r="BC4">
+        <v>1.5</v>
+      </c>
+      <c r="BD4">
+        <v>1.83</v>
+      </c>
+      <c r="BE4">
+        <v>2.34</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4">
+        <v>3</v>
+      </c>
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4">
+        <v>5</v>
+      </c>
+      <c r="BJ4">
+        <v>6</v>
+      </c>
+      <c r="BK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6588798</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45129.54166666666</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>3.2</v>
+      </c>
+      <c r="V5">
+        <v>11</v>
+      </c>
+      <c r="W5">
+        <v>1.2</v>
+      </c>
+      <c r="X5">
+        <v>4.33</v>
+      </c>
+      <c r="Y5">
+        <v>1.91</v>
+      </c>
+      <c r="Z5">
+        <v>1.8</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>1.22</v>
+      </c>
+      <c r="AC5">
+        <v>1.15</v>
+      </c>
+      <c r="AD5">
+        <v>7.6</v>
+      </c>
+      <c r="AE5">
+        <v>14</v>
+      </c>
+      <c r="AF5">
+        <v>1.01</v>
+      </c>
+      <c r="AG5">
+        <v>27</v>
+      </c>
+      <c r="AH5">
+        <v>1.11</v>
+      </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <v>1.33</v>
+      </c>
+      <c r="AK5">
+        <v>3.04</v>
+      </c>
+      <c r="AL5">
+        <v>2.05</v>
+      </c>
+      <c r="AM5">
+        <v>1.7</v>
+      </c>
+      <c r="AN5">
+        <v>1.02</v>
+      </c>
+      <c r="AO5">
+        <v>1.07</v>
+      </c>
+      <c r="AP5">
+        <v>5.75</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.02</v>
+      </c>
+      <c r="AY5">
+        <v>19</v>
+      </c>
+      <c r="AZ5">
+        <v>19</v>
+      </c>
+      <c r="BA5">
+        <v>1.1</v>
+      </c>
+      <c r="BB5">
+        <v>1.19</v>
+      </c>
+      <c r="BC5">
+        <v>1.33</v>
+      </c>
+      <c r="BD5">
+        <v>1.59</v>
+      </c>
+      <c r="BE5">
+        <v>1.95</v>
+      </c>
+      <c r="BF5">
+        <v>6</v>
+      </c>
+      <c r="BG5">
+        <v>3</v>
+      </c>
+      <c r="BH5">
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <v>2</v>
+      </c>
+      <c r="BJ5">
+        <v>12</v>
+      </c>
+      <c r="BK5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6588799</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>2.4</v>
+      </c>
+      <c r="U6">
+        <v>2.38</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1.3</v>
+      </c>
+      <c r="X6">
+        <v>3.4</v>
+      </c>
+      <c r="Y6">
+        <v>2.38</v>
+      </c>
+      <c r="Z6">
+        <v>1.53</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>1.13</v>
+      </c>
+      <c r="AC6">
+        <v>1.83</v>
+      </c>
+      <c r="AD6">
+        <v>3.6</v>
+      </c>
+      <c r="AE6">
+        <v>3.65</v>
+      </c>
+      <c r="AF6">
+        <v>1.02</v>
+      </c>
+      <c r="AG6">
+        <v>17</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>4.2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.57</v>
+      </c>
+      <c r="AK6">
+        <v>2.15</v>
+      </c>
+      <c r="AL6">
+        <v>1.57</v>
+      </c>
+      <c r="AM6">
+        <v>2.25</v>
+      </c>
+      <c r="AN6">
+        <v>1.25</v>
+      </c>
+      <c r="AO6">
+        <v>1.25</v>
+      </c>
+      <c r="AP6">
+        <v>1.9</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.37</v>
+      </c>
+      <c r="AY6">
+        <v>6.75</v>
+      </c>
+      <c r="AZ6">
+        <v>3.5</v>
+      </c>
+      <c r="BA6">
+        <v>1.12</v>
+      </c>
+      <c r="BB6">
+        <v>1.23</v>
+      </c>
+      <c r="BC6">
+        <v>1.36</v>
+      </c>
+      <c r="BD6">
+        <v>1.68</v>
+      </c>
+      <c r="BE6">
+        <v>2.06</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <v>4</v>
+      </c>
+      <c r="BJ6">
+        <v>8</v>
+      </c>
+      <c r="BK6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6588800</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>2.63</v>
+      </c>
+      <c r="U7">
+        <v>2.3</v>
+      </c>
+      <c r="V7">
+        <v>3.75</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>6.5</v>
+      </c>
+      <c r="AB7">
+        <v>1.11</v>
+      </c>
+      <c r="AC7">
+        <v>2.14</v>
+      </c>
+      <c r="AD7">
+        <v>3.35</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>1.03</v>
+      </c>
+      <c r="AG7">
+        <v>14</v>
+      </c>
+      <c r="AH7">
+        <v>1.22</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>1.57</v>
+      </c>
+      <c r="AK7">
+        <v>2.15</v>
+      </c>
+      <c r="AL7">
+        <v>1.62</v>
+      </c>
+      <c r="AM7">
+        <v>2.2</v>
+      </c>
+      <c r="AN7">
+        <v>1.33</v>
+      </c>
+      <c r="AO7">
+        <v>1.28</v>
+      </c>
+      <c r="AP7">
+        <v>1.7</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.68</v>
+      </c>
+      <c r="AY7">
+        <v>5.75</v>
+      </c>
+      <c r="AZ7">
+        <v>2.45</v>
+      </c>
+      <c r="BA7">
+        <v>1.15</v>
+      </c>
+      <c r="BB7">
+        <v>1.25</v>
+      </c>
+      <c r="BC7">
+        <v>1.47</v>
+      </c>
+      <c r="BD7">
+        <v>1.8</v>
+      </c>
+      <c r="BE7">
+        <v>2.27</v>
+      </c>
+      <c r="BF7">
+        <v>7</v>
+      </c>
+      <c r="BG7">
+        <v>5</v>
+      </c>
+      <c r="BH7">
+        <v>7</v>
+      </c>
+      <c r="BI7">
+        <v>6</v>
+      </c>
+      <c r="BJ7">
+        <v>14</v>
+      </c>
+      <c r="BK7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6588801</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>2.05</v>
+      </c>
+      <c r="U8">
+        <v>2.4</v>
+      </c>
+      <c r="V8">
+        <v>5.5</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>3.4</v>
+      </c>
+      <c r="Y8">
+        <v>2.5</v>
+      </c>
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>1.13</v>
+      </c>
+      <c r="AC8">
+        <v>1.52</v>
+      </c>
+      <c r="AD8">
+        <v>4.1</v>
+      </c>
+      <c r="AE8">
+        <v>5.2</v>
+      </c>
+      <c r="AF8">
+        <v>1.03</v>
+      </c>
+      <c r="AG8">
+        <v>15</v>
+      </c>
+      <c r="AH8">
+        <v>1.2</v>
+      </c>
+      <c r="AI8">
+        <v>4.33</v>
+      </c>
+      <c r="AJ8">
+        <v>1.6</v>
+      </c>
+      <c r="AK8">
+        <v>2.15</v>
+      </c>
+      <c r="AL8">
+        <v>1.75</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>1.15</v>
+      </c>
+      <c r="AO8">
+        <v>1.21</v>
+      </c>
+      <c r="AP8">
+        <v>2.4</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.16</v>
+      </c>
+      <c r="AY8">
+        <v>8.75</v>
+      </c>
+      <c r="AZ8">
+        <v>6.25</v>
+      </c>
+      <c r="BA8">
+        <v>1.14</v>
+      </c>
+      <c r="BB8">
+        <v>1.22</v>
+      </c>
+      <c r="BC8">
+        <v>1.43</v>
+      </c>
+      <c r="BD8">
+        <v>1.68</v>
+      </c>
+      <c r="BE8">
+        <v>2.16</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6588802</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45130.54166666666</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>1.8</v>
+      </c>
+      <c r="U9">
+        <v>2.6</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>1.29</v>
+      </c>
+      <c r="X9">
+        <v>3.5</v>
+      </c>
+      <c r="Y9">
+        <v>2.25</v>
+      </c>
+      <c r="Z9">
+        <v>1.57</v>
+      </c>
+      <c r="AA9">
+        <v>5.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.14</v>
+      </c>
+      <c r="AC9">
+        <v>1.32</v>
+      </c>
+      <c r="AD9">
+        <v>5.2</v>
+      </c>
+      <c r="AE9">
+        <v>7.4</v>
+      </c>
+      <c r="AF9">
+        <v>1.02</v>
+      </c>
+      <c r="AG9">
+        <v>16</v>
+      </c>
+      <c r="AH9">
+        <v>1.16</v>
+      </c>
+      <c r="AI9">
+        <v>4.75</v>
+      </c>
+      <c r="AJ9">
+        <v>1.49</v>
+      </c>
+      <c r="AK9">
+        <v>2.44</v>
+      </c>
+      <c r="AL9">
+        <v>1.91</v>
+      </c>
+      <c r="AM9">
+        <v>1.91</v>
+      </c>
+      <c r="AN9">
+        <v>1.08</v>
+      </c>
+      <c r="AO9">
+        <v>1.15</v>
+      </c>
+      <c r="AP9">
+        <v>3.2</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.1</v>
+      </c>
+      <c r="AY9">
+        <v>10.5</v>
+      </c>
+      <c r="AZ9">
+        <v>8.25</v>
+      </c>
+      <c r="BA9">
+        <v>1.14</v>
+      </c>
+      <c r="BB9">
+        <v>1.24</v>
+      </c>
+      <c r="BC9">
+        <v>1.39</v>
+      </c>
+      <c r="BD9">
+        <v>1.71</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>12</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>3</v>
+      </c>
+      <c r="BI9">
+        <v>6</v>
+      </c>
+      <c r="BJ9">
+        <v>15</v>
+      </c>
+      <c r="BK9">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,12 +235,21 @@
     <t>Sparta Praha</t>
   </si>
   <si>
+    <t>Sigma Olomouc</t>
+  </si>
+  <si>
+    <t>Zlín</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
+    <t>České Budějovice</t>
+  </si>
+  <si>
     <t>Bohemians 1905</t>
   </si>
   <si>
-    <t>Zlín</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
@@ -250,15 +259,6 @@
     <t>Jablonec</t>
   </si>
   <si>
-    <t>Baník Ostrava</t>
-  </si>
-  <si>
-    <t>České Budějovice</t>
-  </si>
-  <si>
-    <t>Sigma Olomouc</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -283,6 +283,21 @@
     <t>['16', '55']</t>
   </si>
   <si>
+    <t>['15', '33', '66']</t>
+  </si>
+  <si>
+    <t>['78', '88']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -296,6 +311,24 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['8', '42']</t>
+  </si>
+  <si>
+    <t>['13', '73', '84']</t>
+  </si>
+  <si>
+    <t>['43', '58']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -901,7 +934,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -988,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1092,7 +1125,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1259,7 +1292,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1450,7 +1483,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1564,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1641,7 +1674,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1665,7 +1698,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1752,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1832,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1856,7 +1889,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2023,7 +2056,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2047,7 +2080,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2214,7 +2247,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2379,6 +2412,1534 @@
         <v>15</v>
       </c>
       <c r="BK9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6588803</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>2.15</v>
+      </c>
+      <c r="U10">
+        <v>2.3</v>
+      </c>
+      <c r="V10">
+        <v>4.8</v>
+      </c>
+      <c r="W10">
+        <v>1.32</v>
+      </c>
+      <c r="X10">
+        <v>3.1</v>
+      </c>
+      <c r="Y10">
+        <v>2.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.48</v>
+      </c>
+      <c r="AA10">
+        <v>6.25</v>
+      </c>
+      <c r="AB10">
+        <v>1.11</v>
+      </c>
+      <c r="AC10">
+        <v>1.64</v>
+      </c>
+      <c r="AD10">
+        <v>4.15</v>
+      </c>
+      <c r="AE10">
+        <v>4.94</v>
+      </c>
+      <c r="AF10">
+        <v>1.04</v>
+      </c>
+      <c r="AG10">
+        <v>14.75</v>
+      </c>
+      <c r="AH10">
+        <v>1.23</v>
+      </c>
+      <c r="AI10">
+        <v>4.17</v>
+      </c>
+      <c r="AJ10">
+        <v>1.65</v>
+      </c>
+      <c r="AK10">
+        <v>2.1</v>
+      </c>
+      <c r="AL10">
+        <v>1.72</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>1.2</v>
+      </c>
+      <c r="AO10">
+        <v>1.25</v>
+      </c>
+      <c r="AP10">
+        <v>2.15</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.51</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="AZ10">
+        <v>3.15</v>
+      </c>
+      <c r="BA10">
+        <v>1.12</v>
+      </c>
+      <c r="BB10">
+        <v>1.27</v>
+      </c>
+      <c r="BC10">
+        <v>1.51</v>
+      </c>
+      <c r="BD10">
+        <v>1.85</v>
+      </c>
+      <c r="BE10">
+        <v>2.23</v>
+      </c>
+      <c r="BF10">
+        <v>7</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>11</v>
+      </c>
+      <c r="BK10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6588804</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>5.25</v>
+      </c>
+      <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>1.28</v>
+      </c>
+      <c r="X11">
+        <v>3.4</v>
+      </c>
+      <c r="Y11">
+        <v>2.3</v>
+      </c>
+      <c r="Z11">
+        <v>1.55</v>
+      </c>
+      <c r="AA11">
+        <v>5.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.14</v>
+      </c>
+      <c r="AC11">
+        <v>6.1</v>
+      </c>
+      <c r="AD11">
+        <v>4.65</v>
+      </c>
+      <c r="AE11">
+        <v>1.48</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>18.75</v>
+      </c>
+      <c r="AH11">
+        <v>1.19</v>
+      </c>
+      <c r="AI11">
+        <v>4.78</v>
+      </c>
+      <c r="AJ11">
+        <v>1.6</v>
+      </c>
+      <c r="AK11">
+        <v>2.2</v>
+      </c>
+      <c r="AL11">
+        <v>1.7</v>
+      </c>
+      <c r="AM11">
+        <v>2.05</v>
+      </c>
+      <c r="AN11">
+        <v>2.5</v>
+      </c>
+      <c r="AO11">
+        <v>1.2</v>
+      </c>
+      <c r="AP11">
+        <v>1.16</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>3.15</v>
+      </c>
+      <c r="AY11">
+        <v>9</v>
+      </c>
+      <c r="AZ11">
+        <v>1.51</v>
+      </c>
+      <c r="BA11">
+        <v>1.17</v>
+      </c>
+      <c r="BB11">
+        <v>1.29</v>
+      </c>
+      <c r="BC11">
+        <v>1.59</v>
+      </c>
+      <c r="BD11">
+        <v>1.98</v>
+      </c>
+      <c r="BE11">
+        <v>2.38</v>
+      </c>
+      <c r="BF11">
+        <v>2</v>
+      </c>
+      <c r="BG11">
+        <v>7</v>
+      </c>
+      <c r="BH11">
+        <v>2</v>
+      </c>
+      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <v>4</v>
+      </c>
+      <c r="BK11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6588805</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>2.73</v>
+      </c>
+      <c r="U12">
+        <v>2.34</v>
+      </c>
+      <c r="V12">
+        <v>3.44</v>
+      </c>
+      <c r="W12">
+        <v>1.28</v>
+      </c>
+      <c r="X12">
+        <v>3.48</v>
+      </c>
+      <c r="Y12">
+        <v>2.32</v>
+      </c>
+      <c r="Z12">
+        <v>1.57</v>
+      </c>
+      <c r="AA12">
+        <v>5.25</v>
+      </c>
+      <c r="AB12">
+        <v>1.14</v>
+      </c>
+      <c r="AC12">
+        <v>2.11</v>
+      </c>
+      <c r="AD12">
+        <v>3.8</v>
+      </c>
+      <c r="AE12">
+        <v>3.15</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>18.25</v>
+      </c>
+      <c r="AH12">
+        <v>1.18</v>
+      </c>
+      <c r="AI12">
+        <v>4.97</v>
+      </c>
+      <c r="AJ12">
+        <v>1.57</v>
+      </c>
+      <c r="AK12">
+        <v>2.25</v>
+      </c>
+      <c r="AL12">
+        <v>1.48</v>
+      </c>
+      <c r="AM12">
+        <v>2.45</v>
+      </c>
+      <c r="AN12">
+        <v>1.42</v>
+      </c>
+      <c r="AO12">
+        <v>1.3</v>
+      </c>
+      <c r="AP12">
+        <v>1.58</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0.5</v>
+      </c>
+      <c r="AT12">
+        <v>0.5</v>
+      </c>
+      <c r="AU12">
+        <v>1.83</v>
+      </c>
+      <c r="AV12">
+        <v>1.29</v>
+      </c>
+      <c r="AW12">
+        <v>3.12</v>
+      </c>
+      <c r="AX12">
+        <v>2.1</v>
+      </c>
+      <c r="AY12">
+        <v>8.5</v>
+      </c>
+      <c r="AZ12">
+        <v>1.91</v>
+      </c>
+      <c r="BA12">
+        <v>1.13</v>
+      </c>
+      <c r="BB12">
+        <v>1.21</v>
+      </c>
+      <c r="BC12">
+        <v>1.4</v>
+      </c>
+      <c r="BD12">
+        <v>1.7</v>
+      </c>
+      <c r="BE12">
+        <v>2.05</v>
+      </c>
+      <c r="BF12">
+        <v>5</v>
+      </c>
+      <c r="BG12">
+        <v>3</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>7</v>
+      </c>
+      <c r="BJ12">
+        <v>9</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6588806</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45136.54166666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2.19</v>
+      </c>
+      <c r="V13">
+        <v>3.3</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2.66</v>
+      </c>
+      <c r="Z13">
+        <v>1.44</v>
+      </c>
+      <c r="AA13">
+        <v>6.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.09</v>
+      </c>
+      <c r="AC13">
+        <v>2.31</v>
+      </c>
+      <c r="AD13">
+        <v>3.45</v>
+      </c>
+      <c r="AE13">
+        <v>2.52</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>13</v>
+      </c>
+      <c r="AH13">
+        <v>1.26</v>
+      </c>
+      <c r="AI13">
+        <v>3.88</v>
+      </c>
+      <c r="AJ13">
+        <v>1.67</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>1.66</v>
+      </c>
+      <c r="AM13">
+        <v>2.16</v>
+      </c>
+      <c r="AN13">
+        <v>1.45</v>
+      </c>
+      <c r="AO13">
+        <v>1.32</v>
+      </c>
+      <c r="AP13">
+        <v>1.55</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.91</v>
+      </c>
+      <c r="AY13">
+        <v>8.5</v>
+      </c>
+      <c r="AZ13">
+        <v>2.2</v>
+      </c>
+      <c r="BA13">
+        <v>1.15</v>
+      </c>
+      <c r="BB13">
+        <v>1.24</v>
+      </c>
+      <c r="BC13">
+        <v>1.45</v>
+      </c>
+      <c r="BD13">
+        <v>1.98</v>
+      </c>
+      <c r="BE13">
+        <v>2.2</v>
+      </c>
+      <c r="BF13">
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <v>2</v>
+      </c>
+      <c r="BH13">
+        <v>5</v>
+      </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
+        <v>8</v>
+      </c>
+      <c r="BK13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6588809</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>2.3</v>
+      </c>
+      <c r="U14">
+        <v>2.3</v>
+      </c>
+      <c r="V14">
+        <v>4.2</v>
+      </c>
+      <c r="W14">
+        <v>1.33</v>
+      </c>
+      <c r="X14">
+        <v>3.05</v>
+      </c>
+      <c r="Y14">
+        <v>2.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.47</v>
+      </c>
+      <c r="AA14">
+        <v>5.95</v>
+      </c>
+      <c r="AB14">
+        <v>1.1</v>
+      </c>
+      <c r="AC14">
+        <v>1.83</v>
+      </c>
+      <c r="AD14">
+        <v>3.65</v>
+      </c>
+      <c r="AE14">
+        <v>3.75</v>
+      </c>
+      <c r="AF14">
+        <v>1.04</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
+        <v>1.22</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.66</v>
+      </c>
+      <c r="AK14">
+        <v>2.09</v>
+      </c>
+      <c r="AL14">
+        <v>1.66</v>
+      </c>
+      <c r="AM14">
+        <v>2.15</v>
+      </c>
+      <c r="AN14">
+        <v>1.18</v>
+      </c>
+      <c r="AO14">
+        <v>1.2</v>
+      </c>
+      <c r="AP14">
+        <v>1.87</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1.39</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>1.39</v>
+      </c>
+      <c r="AX14">
+        <v>1.41</v>
+      </c>
+      <c r="AY14">
+        <v>9.5</v>
+      </c>
+      <c r="AZ14">
+        <v>3.48</v>
+      </c>
+      <c r="BA14">
+        <v>1.12</v>
+      </c>
+      <c r="BB14">
+        <v>1.21</v>
+      </c>
+      <c r="BC14">
+        <v>1.41</v>
+      </c>
+      <c r="BD14">
+        <v>1.73</v>
+      </c>
+      <c r="BE14">
+        <v>2.09</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+      <c r="BH14">
+        <v>4</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>10</v>
+      </c>
+      <c r="BK14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6588807</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>2.85</v>
+      </c>
+      <c r="V15">
+        <v>1.68</v>
+      </c>
+      <c r="W15">
+        <v>1.2</v>
+      </c>
+      <c r="X15">
+        <v>4.15</v>
+      </c>
+      <c r="Y15">
+        <v>1.99</v>
+      </c>
+      <c r="Z15">
+        <v>1.74</v>
+      </c>
+      <c r="AA15">
+        <v>4.25</v>
+      </c>
+      <c r="AB15">
+        <v>1.19</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>5.75</v>
+      </c>
+      <c r="AE15">
+        <v>1.3</v>
+      </c>
+      <c r="AF15">
+        <v>1.02</v>
+      </c>
+      <c r="AG15">
+        <v>13</v>
+      </c>
+      <c r="AH15">
+        <v>1.12</v>
+      </c>
+      <c r="AI15">
+        <v>5.5</v>
+      </c>
+      <c r="AJ15">
+        <v>1.38</v>
+      </c>
+      <c r="AK15">
+        <v>2.9</v>
+      </c>
+      <c r="AL15">
+        <v>1.68</v>
+      </c>
+      <c r="AM15">
+        <v>2.1</v>
+      </c>
+      <c r="AN15">
+        <v>3.4</v>
+      </c>
+      <c r="AO15">
+        <v>1.09</v>
+      </c>
+      <c r="AP15">
+        <v>1.04</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>5.17</v>
+      </c>
+      <c r="AY15">
+        <v>11</v>
+      </c>
+      <c r="AZ15">
+        <v>1.21</v>
+      </c>
+      <c r="BA15">
+        <v>1.13</v>
+      </c>
+      <c r="BB15">
+        <v>1.22</v>
+      </c>
+      <c r="BC15">
+        <v>1.42</v>
+      </c>
+      <c r="BD15">
+        <v>1.75</v>
+      </c>
+      <c r="BE15">
+        <v>2.12</v>
+      </c>
+      <c r="BF15">
+        <v>4</v>
+      </c>
+      <c r="BG15">
+        <v>6</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>5</v>
+      </c>
+      <c r="BJ15">
+        <v>7</v>
+      </c>
+      <c r="BK15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6588808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>2.1</v>
+      </c>
+      <c r="U16">
+        <v>2.3</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>1.34</v>
+      </c>
+      <c r="X16">
+        <v>3.05</v>
+      </c>
+      <c r="Y16">
+        <v>2.6</v>
+      </c>
+      <c r="Z16">
+        <v>1.44</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>1.1</v>
+      </c>
+      <c r="AC16">
+        <v>1.63</v>
+      </c>
+      <c r="AD16">
+        <v>3.75</v>
+      </c>
+      <c r="AE16">
+        <v>4.9</v>
+      </c>
+      <c r="AF16">
+        <v>1.01</v>
+      </c>
+      <c r="AG16">
+        <v>10.25</v>
+      </c>
+      <c r="AH16">
+        <v>1.25</v>
+      </c>
+      <c r="AI16">
+        <v>3.75</v>
+      </c>
+      <c r="AJ16">
+        <v>1.73</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>1.8</v>
+      </c>
+      <c r="AM16">
+        <v>1.95</v>
+      </c>
+      <c r="AN16">
+        <v>1.11</v>
+      </c>
+      <c r="AO16">
+        <v>1.18</v>
+      </c>
+      <c r="AP16">
+        <v>2.3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.26</v>
+      </c>
+      <c r="AY16">
+        <v>10</v>
+      </c>
+      <c r="AZ16">
+        <v>4.86</v>
+      </c>
+      <c r="BA16">
+        <v>1.18</v>
+      </c>
+      <c r="BB16">
+        <v>1.26</v>
+      </c>
+      <c r="BC16">
+        <v>1.53</v>
+      </c>
+      <c r="BD16">
+        <v>1.79</v>
+      </c>
+      <c r="BE16">
+        <v>2.18</v>
+      </c>
+      <c r="BF16">
+        <v>6</v>
+      </c>
+      <c r="BG16">
+        <v>4</v>
+      </c>
+      <c r="BH16">
+        <v>8</v>
+      </c>
+      <c r="BI16">
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>14</v>
+      </c>
+      <c r="BK16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6588810</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>1.75</v>
+      </c>
+      <c r="U17">
+        <v>2.6</v>
+      </c>
+      <c r="V17">
+        <v>6.5</v>
+      </c>
+      <c r="W17">
+        <v>1.27</v>
+      </c>
+      <c r="X17">
+        <v>3.45</v>
+      </c>
+      <c r="Y17">
+        <v>2.34</v>
+      </c>
+      <c r="Z17">
+        <v>1.54</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>1.14</v>
+      </c>
+      <c r="AC17">
+        <v>1.33</v>
+      </c>
+      <c r="AD17">
+        <v>4.09</v>
+      </c>
+      <c r="AE17">
+        <v>6.11</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>11</v>
+      </c>
+      <c r="AH17">
+        <v>1.18</v>
+      </c>
+      <c r="AI17">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17">
+        <v>1.59</v>
+      </c>
+      <c r="AK17">
+        <v>2.22</v>
+      </c>
+      <c r="AL17">
+        <v>1.9</v>
+      </c>
+      <c r="AM17">
+        <v>1.83</v>
+      </c>
+      <c r="AN17">
+        <v>1.03</v>
+      </c>
+      <c r="AO17">
+        <v>1.11</v>
+      </c>
+      <c r="AP17">
+        <v>3.25</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0.8</v>
+      </c>
+      <c r="AW17">
+        <v>0.8</v>
+      </c>
+      <c r="AX17">
+        <v>1.3</v>
+      </c>
+      <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="AZ17">
+        <v>4.42</v>
+      </c>
+      <c r="BA17">
+        <v>1.15</v>
+      </c>
+      <c r="BB17">
+        <v>1.21</v>
+      </c>
+      <c r="BC17">
+        <v>1.4</v>
+      </c>
+      <c r="BD17">
+        <v>1.9</v>
+      </c>
+      <c r="BE17">
+        <v>2.01</v>
+      </c>
+      <c r="BF17">
+        <v>6</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>4</v>
+      </c>
+      <c r="BI17">
+        <v>5</v>
+      </c>
+      <c r="BJ17">
+        <v>10</v>
+      </c>
+      <c r="BK17">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,15 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['15', '22', '24', '47', '57']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['19', '22', '32', '49', '59']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['8', '48']</t>
+  </si>
+  <si>
+    <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['6', '19']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +952,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1125,7 +1143,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1212,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1698,7 +1716,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1889,7 +1907,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2080,7 +2098,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2361,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2462,7 +2480,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2653,7 +2671,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3226,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3417,7 +3435,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3608,7 +3626,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3799,7 +3817,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3941,6 +3959,770 @@
       </c>
       <c r="BK17">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6588818</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>12</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>2.1</v>
+      </c>
+      <c r="V18">
+        <v>4.2</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>2.75</v>
+      </c>
+      <c r="Y18">
+        <v>2.8</v>
+      </c>
+      <c r="Z18">
+        <v>1.39</v>
+      </c>
+      <c r="AA18">
+        <v>6.95</v>
+      </c>
+      <c r="AB18">
+        <v>1.07</v>
+      </c>
+      <c r="AC18">
+        <v>1.74</v>
+      </c>
+      <c r="AD18">
+        <v>3.74</v>
+      </c>
+      <c r="AE18">
+        <v>4.46</v>
+      </c>
+      <c r="AF18">
+        <v>1.02</v>
+      </c>
+      <c r="AG18">
+        <v>8.6</v>
+      </c>
+      <c r="AH18">
+        <v>1.3</v>
+      </c>
+      <c r="AI18">
+        <v>3.3</v>
+      </c>
+      <c r="AJ18">
+        <v>1.84</v>
+      </c>
+      <c r="AK18">
+        <v>1.95</v>
+      </c>
+      <c r="AL18">
+        <v>1.8</v>
+      </c>
+      <c r="AM18">
+        <v>1.95</v>
+      </c>
+      <c r="AN18">
+        <v>1.2</v>
+      </c>
+      <c r="AO18">
+        <v>1.22</v>
+      </c>
+      <c r="AP18">
+        <v>1.85</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1.5</v>
+      </c>
+      <c r="AT18">
+        <v>1.5</v>
+      </c>
+      <c r="AU18">
+        <v>1.12</v>
+      </c>
+      <c r="AV18">
+        <v>0.87</v>
+      </c>
+      <c r="AW18">
+        <v>1.99</v>
+      </c>
+      <c r="AX18">
+        <v>1.45</v>
+      </c>
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>3.32</v>
+      </c>
+      <c r="BA18">
+        <v>1.14</v>
+      </c>
+      <c r="BB18">
+        <v>1.22</v>
+      </c>
+      <c r="BC18">
+        <v>1.42</v>
+      </c>
+      <c r="BD18">
+        <v>1.88</v>
+      </c>
+      <c r="BE18">
+        <v>2.08</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>3</v>
+      </c>
+      <c r="BH18">
+        <v>10</v>
+      </c>
+      <c r="BI18">
+        <v>2</v>
+      </c>
+      <c r="BJ18">
+        <v>10</v>
+      </c>
+      <c r="BK18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6588813</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>1.5</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>1.21</v>
+      </c>
+      <c r="X19">
+        <v>3.95</v>
+      </c>
+      <c r="Y19">
+        <v>2.04</v>
+      </c>
+      <c r="Z19">
+        <v>1.71</v>
+      </c>
+      <c r="AA19">
+        <v>4.25</v>
+      </c>
+      <c r="AB19">
+        <v>1.19</v>
+      </c>
+      <c r="AC19">
+        <v>1.19</v>
+      </c>
+      <c r="AD19">
+        <v>6.9</v>
+      </c>
+      <c r="AE19">
+        <v>11.22</v>
+      </c>
+      <c r="AF19">
+        <v>1.01</v>
+      </c>
+      <c r="AG19">
+        <v>15</v>
+      </c>
+      <c r="AH19">
+        <v>1.17</v>
+      </c>
+      <c r="AI19">
+        <v>4.75</v>
+      </c>
+      <c r="AJ19">
+        <v>1.57</v>
+      </c>
+      <c r="AK19">
+        <v>2.3</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>1.75</v>
+      </c>
+      <c r="AN19">
+        <v>1.02</v>
+      </c>
+      <c r="AO19">
+        <v>1.05</v>
+      </c>
+      <c r="AP19">
+        <v>4.2</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>3</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>2.28</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>2.28</v>
+      </c>
+      <c r="AX19">
+        <v>1.09</v>
+      </c>
+      <c r="AY19">
+        <v>13</v>
+      </c>
+      <c r="AZ19">
+        <v>8.85</v>
+      </c>
+      <c r="BA19">
+        <v>1.1</v>
+      </c>
+      <c r="BB19">
+        <v>1.18</v>
+      </c>
+      <c r="BC19">
+        <v>1.28</v>
+      </c>
+      <c r="BD19">
+        <v>1.53</v>
+      </c>
+      <c r="BE19">
+        <v>1.8</v>
+      </c>
+      <c r="BF19">
+        <v>14</v>
+      </c>
+      <c r="BG19">
+        <v>4</v>
+      </c>
+      <c r="BH19">
+        <v>10</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>24</v>
+      </c>
+      <c r="BK19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6588814</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>3.3</v>
+      </c>
+      <c r="U20">
+        <v>2.2</v>
+      </c>
+      <c r="V20">
+        <v>2.8</v>
+      </c>
+      <c r="W20">
+        <v>1.35</v>
+      </c>
+      <c r="X20">
+        <v>2.95</v>
+      </c>
+      <c r="Y20">
+        <v>2.55</v>
+      </c>
+      <c r="Z20">
+        <v>1.46</v>
+      </c>
+      <c r="AA20">
+        <v>5.95</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>2.99</v>
+      </c>
+      <c r="AD20">
+        <v>3.56</v>
+      </c>
+      <c r="AE20">
+        <v>2.24</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>14.5</v>
+      </c>
+      <c r="AH20">
+        <v>1.22</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>1.75</v>
+      </c>
+      <c r="AK20">
+        <v>1.95</v>
+      </c>
+      <c r="AL20">
+        <v>1.6</v>
+      </c>
+      <c r="AM20">
+        <v>2.25</v>
+      </c>
+      <c r="AN20">
+        <v>1.53</v>
+      </c>
+      <c r="AO20">
+        <v>1.25</v>
+      </c>
+      <c r="AP20">
+        <v>1.4</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1.5</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>2.09</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>2.09</v>
+      </c>
+      <c r="AX20">
+        <v>2.53</v>
+      </c>
+      <c r="AY20">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20">
+        <v>1.69</v>
+      </c>
+      <c r="BA20">
+        <v>1.15</v>
+      </c>
+      <c r="BB20">
+        <v>1.22</v>
+      </c>
+      <c r="BC20">
+        <v>1.38</v>
+      </c>
+      <c r="BD20">
+        <v>1.67</v>
+      </c>
+      <c r="BE20">
+        <v>2.09</v>
+      </c>
+      <c r="BF20">
+        <v>3</v>
+      </c>
+      <c r="BG20">
+        <v>8</v>
+      </c>
+      <c r="BH20">
+        <v>13</v>
+      </c>
+      <c r="BI20">
+        <v>6</v>
+      </c>
+      <c r="BJ20">
+        <v>16</v>
+      </c>
+      <c r="BK20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6588811</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45143.54166666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>2.45</v>
+      </c>
+      <c r="U21">
+        <v>2.2</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>1.33</v>
+      </c>
+      <c r="X21">
+        <v>3.05</v>
+      </c>
+      <c r="Y21">
+        <v>2.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.47</v>
+      </c>
+      <c r="AA21">
+        <v>5.95</v>
+      </c>
+      <c r="AB21">
+        <v>1.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.85</v>
+      </c>
+      <c r="AD21">
+        <v>3.6</v>
+      </c>
+      <c r="AE21">
+        <v>3.7</v>
+      </c>
+      <c r="AF21">
+        <v>1.04</v>
+      </c>
+      <c r="AG21">
+        <v>14.75</v>
+      </c>
+      <c r="AH21">
+        <v>1.22</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>1.67</v>
+      </c>
+      <c r="AK21">
+        <v>2.14</v>
+      </c>
+      <c r="AL21">
+        <v>1.66</v>
+      </c>
+      <c r="AM21">
+        <v>2.15</v>
+      </c>
+      <c r="AN21">
+        <v>1.2</v>
+      </c>
+      <c r="AO21">
+        <v>1.22</v>
+      </c>
+      <c r="AP21">
+        <v>1.87</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>1.08</v>
+      </c>
+      <c r="AW21">
+        <v>1.08</v>
+      </c>
+      <c r="AX21">
+        <v>1.51</v>
+      </c>
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>3.15</v>
+      </c>
+      <c r="BA21">
+        <v>1.17</v>
+      </c>
+      <c r="BB21">
+        <v>1.31</v>
+      </c>
+      <c r="BC21">
+        <v>1.6</v>
+      </c>
+      <c r="BD21">
+        <v>1.98</v>
+      </c>
+      <c r="BE21">
+        <v>2.4</v>
+      </c>
+      <c r="BF21">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+      <c r="BH21">
+        <v>6</v>
+      </c>
+      <c r="BI21">
+        <v>10</v>
+      </c>
+      <c r="BJ21">
+        <v>8</v>
+      </c>
+      <c r="BK21">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,12 @@
     <t>['19', '22', '32', '49', '59']</t>
   </si>
   <si>
+    <t>['19', '45+1', '77']</t>
+  </si>
+  <si>
+    <t>['47', '60']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -347,6 +353,15 @@
   </si>
   <si>
     <t>['6', '19']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +967,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1143,7 +1158,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1421,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1716,7 +1731,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1806,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1907,7 +1922,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1994,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2098,7 +2113,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2480,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2671,7 +2686,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2952,7 +2967,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3244,7 +3259,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3435,7 +3450,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3626,7 +3641,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3817,7 +3832,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3904,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.5</v>
@@ -4008,7 +4023,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4140,13 +4155,13 @@
         <v>3</v>
       </c>
       <c r="BH18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI18">
         <v>2</v>
       </c>
       <c r="BJ18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK18">
         <v>5</v>
@@ -4199,7 +4214,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4331,16 +4346,16 @@
         <v>4</v>
       </c>
       <c r="BH19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BK19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4390,7 +4405,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4519,19 +4534,19 @@
         <v>3</v>
       </c>
       <c r="BG20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK20">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4581,7 +4596,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4707,22 +4722,786 @@
         <v>2.4</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG21">
         <v>5</v>
       </c>
       <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>9</v>
+      </c>
+      <c r="BJ21">
+        <v>12</v>
+      </c>
+      <c r="BK21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6588812</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>2.05</v>
+      </c>
+      <c r="U22">
+        <v>2.4</v>
+      </c>
+      <c r="V22">
+        <v>5.5</v>
+      </c>
+      <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
+        <v>3.4</v>
+      </c>
+      <c r="Y22">
+        <v>2.38</v>
+      </c>
+      <c r="Z22">
+        <v>1.53</v>
+      </c>
+      <c r="AA22">
         <v>6</v>
       </c>
-      <c r="BI21">
+      <c r="AB22">
+        <v>1.13</v>
+      </c>
+      <c r="AC22">
+        <v>1.52</v>
+      </c>
+      <c r="AD22">
+        <v>3.95</v>
+      </c>
+      <c r="AE22">
+        <v>4.8</v>
+      </c>
+      <c r="AF22">
+        <v>1.03</v>
+      </c>
+      <c r="AG22">
+        <v>11</v>
+      </c>
+      <c r="AH22">
+        <v>1.18</v>
+      </c>
+      <c r="AI22">
+        <v>4.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1.6</v>
+      </c>
+      <c r="AK22">
+        <v>2.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.7</v>
+      </c>
+      <c r="AM22">
+        <v>2.05</v>
+      </c>
+      <c r="AN22">
+        <v>1.1</v>
+      </c>
+      <c r="AO22">
+        <v>1.16</v>
+      </c>
+      <c r="AP22">
+        <v>2.45</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>1.75</v>
+      </c>
+      <c r="AV22">
+        <v>1.59</v>
+      </c>
+      <c r="AW22">
+        <v>3.34</v>
+      </c>
+      <c r="AX22">
+        <v>1.51</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>3.06</v>
+      </c>
+      <c r="BA22">
+        <v>1.1</v>
+      </c>
+      <c r="BB22">
+        <v>1.19</v>
+      </c>
+      <c r="BC22">
+        <v>1.32</v>
+      </c>
+      <c r="BD22">
+        <v>1.64</v>
+      </c>
+      <c r="BE22">
+        <v>1.98</v>
+      </c>
+      <c r="BF22">
+        <v>7</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BH22">
+        <v>3</v>
+      </c>
+      <c r="BI22">
+        <v>5</v>
+      </c>
+      <c r="BJ22">
         <v>10</v>
       </c>
-      <c r="BJ21">
+      <c r="BK22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6588815</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>3.2</v>
+      </c>
+      <c r="U23">
+        <v>2.2</v>
+      </c>
+      <c r="V23">
+        <v>3.2</v>
+      </c>
+      <c r="W23">
+        <v>1.36</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>2.75</v>
+      </c>
+      <c r="Z23">
+        <v>1.4</v>
+      </c>
+      <c r="AA23">
         <v>8</v>
       </c>
-      <c r="BK21">
+      <c r="AB23">
+        <v>1.08</v>
+      </c>
+      <c r="AC23">
+        <v>2.48</v>
+      </c>
+      <c r="AD23">
+        <v>3.2</v>
+      </c>
+      <c r="AE23">
+        <v>2.48</v>
+      </c>
+      <c r="AF23">
+        <v>1.05</v>
+      </c>
+      <c r="AG23">
+        <v>9</v>
+      </c>
+      <c r="AH23">
+        <v>1.28</v>
+      </c>
+      <c r="AI23">
+        <v>3.5</v>
+      </c>
+      <c r="AJ23">
+        <v>1.8</v>
+      </c>
+      <c r="AK23">
+        <v>1.91</v>
+      </c>
+      <c r="AL23">
+        <v>1.67</v>
+      </c>
+      <c r="AM23">
+        <v>2.1</v>
+      </c>
+      <c r="AN23">
+        <v>1.42</v>
+      </c>
+      <c r="AO23">
+        <v>1.25</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0.5</v>
+      </c>
+      <c r="AS23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>0.67</v>
+      </c>
+      <c r="AU23">
+        <v>0.8</v>
+      </c>
+      <c r="AV23">
+        <v>1.31</v>
+      </c>
+      <c r="AW23">
+        <v>2.11</v>
+      </c>
+      <c r="AX23">
+        <v>2.44</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>1.75</v>
+      </c>
+      <c r="BA23">
+        <v>1.2</v>
+      </c>
+      <c r="BB23">
+        <v>1.4</v>
+      </c>
+      <c r="BC23">
+        <v>1.72</v>
+      </c>
+      <c r="BD23">
+        <v>2.16</v>
+      </c>
+      <c r="BE23">
+        <v>2.45</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>6</v>
+      </c>
+      <c r="BH23">
+        <v>3</v>
+      </c>
+      <c r="BI23">
+        <v>5</v>
+      </c>
+      <c r="BJ23">
+        <v>7</v>
+      </c>
+      <c r="BK23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6588816</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>2.6</v>
+      </c>
+      <c r="U24">
+        <v>2.3</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>3.25</v>
+      </c>
+      <c r="Y24">
+        <v>2.63</v>
+      </c>
+      <c r="Z24">
+        <v>1.44</v>
+      </c>
+      <c r="AA24">
+        <v>6.5</v>
+      </c>
+      <c r="AB24">
+        <v>1.11</v>
+      </c>
+      <c r="AC24">
+        <v>1.91</v>
+      </c>
+      <c r="AD24">
+        <v>3.6</v>
+      </c>
+      <c r="AE24">
+        <v>3.4</v>
+      </c>
+      <c r="AF24">
+        <v>1.01</v>
+      </c>
+      <c r="AG24">
+        <v>10.5</v>
+      </c>
+      <c r="AH24">
+        <v>1.18</v>
+      </c>
+      <c r="AI24">
+        <v>4.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.7</v>
+      </c>
+      <c r="AK24">
+        <v>2.05</v>
+      </c>
+      <c r="AL24">
+        <v>1.67</v>
+      </c>
+      <c r="AM24">
+        <v>2.1</v>
+      </c>
+      <c r="AN24">
+        <v>1.22</v>
+      </c>
+      <c r="AO24">
+        <v>1.25</v>
+      </c>
+      <c r="AP24">
+        <v>1.75</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>1.5</v>
+      </c>
+      <c r="AT24">
+        <v>3</v>
+      </c>
+      <c r="AU24">
+        <v>1.87</v>
+      </c>
+      <c r="AV24">
+        <v>1.62</v>
+      </c>
+      <c r="AW24">
+        <v>3.49</v>
+      </c>
+      <c r="AX24">
+        <v>1.83</v>
+      </c>
+      <c r="AY24">
+        <v>8.5</v>
+      </c>
+      <c r="AZ24">
+        <v>2.2</v>
+      </c>
+      <c r="BA24">
+        <v>1.16</v>
+      </c>
+      <c r="BB24">
+        <v>1.28</v>
+      </c>
+      <c r="BC24">
+        <v>1.58</v>
+      </c>
+      <c r="BD24">
+        <v>1.83</v>
+      </c>
+      <c r="BE24">
+        <v>2.35</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>5</v>
+      </c>
+      <c r="BH24">
+        <v>6</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>9</v>
+      </c>
+      <c r="BK24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6588817</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45144.54166666666</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>1.44</v>
+      </c>
+      <c r="U25">
+        <v>3.2</v>
+      </c>
+      <c r="V25">
+        <v>11</v>
+      </c>
+      <c r="W25">
+        <v>1.18</v>
+      </c>
+      <c r="X25">
+        <v>4.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.83</v>
+      </c>
+      <c r="Z25">
+        <v>1.83</v>
+      </c>
+      <c r="AA25">
+        <v>3.75</v>
+      </c>
+      <c r="AB25">
+        <v>1.25</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>13</v>
+      </c>
+      <c r="AF25">
+        <v>1.01</v>
+      </c>
+      <c r="AG25">
+        <v>35.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.1</v>
+      </c>
+      <c r="AI25">
+        <v>7.35</v>
+      </c>
+      <c r="AJ25">
+        <v>1.35</v>
+      </c>
+      <c r="AK25">
+        <v>2.78</v>
+      </c>
+      <c r="AL25">
+        <v>2</v>
+      </c>
+      <c r="AM25">
+        <v>1.75</v>
+      </c>
+      <c r="AN25">
+        <v>1.04</v>
+      </c>
+      <c r="AO25">
+        <v>1.08</v>
+      </c>
+      <c r="AP25">
+        <v>5.5</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1.72</v>
+      </c>
+      <c r="AV25">
+        <v>1.37</v>
+      </c>
+      <c r="AW25">
+        <v>3.09</v>
+      </c>
+      <c r="AX25">
+        <v>1.08</v>
+      </c>
+      <c r="AY25">
         <v>15</v>
+      </c>
+      <c r="AZ25">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BA25">
+        <v>1.09</v>
+      </c>
+      <c r="BB25">
+        <v>1.18</v>
+      </c>
+      <c r="BC25">
+        <v>1.32</v>
+      </c>
+      <c r="BD25">
+        <v>1.6</v>
+      </c>
+      <c r="BE25">
+        <v>1.93</v>
+      </c>
+      <c r="BF25">
+        <v>18</v>
+      </c>
+      <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25">
+        <v>10</v>
+      </c>
+      <c r="BI25">
+        <v>5</v>
+      </c>
+      <c r="BJ25">
+        <v>28</v>
+      </c>
+      <c r="BK25">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,21 @@
     <t>['47', '60']</t>
   </si>
   <si>
+    <t>['90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['39', '55']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -362,6 +377,21 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['12', '26', '35', '39', '45+1']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +997,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1054,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1158,7 +1188,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1630,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1731,7 +1761,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1818,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>0.67</v>
@@ -1922,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2113,7 +2143,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2495,7 +2525,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2686,7 +2716,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2773,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -2964,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>0.67</v>
@@ -3155,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3259,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3346,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3450,7 +3480,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3641,7 +3671,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3731,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3832,7 +3862,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3922,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4023,7 +4053,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4214,7 +4244,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4405,7 +4435,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4596,7 +4626,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4787,7 +4817,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5169,7 +5199,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5360,7 +5390,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5501,6 +5531,1343 @@
         <v>28</v>
       </c>
       <c r="BK25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6588820</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>2.4</v>
+      </c>
+      <c r="U26">
+        <v>2.25</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>1.35</v>
+      </c>
+      <c r="X26">
+        <v>2.95</v>
+      </c>
+      <c r="Y26">
+        <v>2.6</v>
+      </c>
+      <c r="Z26">
+        <v>1.44</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.83</v>
+      </c>
+      <c r="AD26">
+        <v>3.65</v>
+      </c>
+      <c r="AE26">
+        <v>3.75</v>
+      </c>
+      <c r="AF26">
+        <v>1.01</v>
+      </c>
+      <c r="AG26">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH26">
+        <v>1.25</v>
+      </c>
+      <c r="AI26">
+        <v>3.75</v>
+      </c>
+      <c r="AJ26">
+        <v>1.7</v>
+      </c>
+      <c r="AK26">
+        <v>2</v>
+      </c>
+      <c r="AL26">
+        <v>1.7</v>
+      </c>
+      <c r="AM26">
+        <v>2.1</v>
+      </c>
+      <c r="AN26">
+        <v>1.2</v>
+      </c>
+      <c r="AO26">
+        <v>1.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.9</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>2</v>
+      </c>
+      <c r="AT26">
+        <v>0.33</v>
+      </c>
+      <c r="AU26">
+        <v>1.14</v>
+      </c>
+      <c r="AV26">
+        <v>1.06</v>
+      </c>
+      <c r="AW26">
+        <v>2.2</v>
+      </c>
+      <c r="AX26">
+        <v>1.5</v>
+      </c>
+      <c r="AY26">
+        <v>7.5</v>
+      </c>
+      <c r="AZ26">
+        <v>3.3</v>
+      </c>
+      <c r="BA26">
+        <v>1.2</v>
+      </c>
+      <c r="BB26">
+        <v>1.3</v>
+      </c>
+      <c r="BC26">
+        <v>1.54</v>
+      </c>
+      <c r="BD26">
+        <v>1.95</v>
+      </c>
+      <c r="BE26">
+        <v>2.5</v>
+      </c>
+      <c r="BF26">
+        <v>6</v>
+      </c>
+      <c r="BG26">
+        <v>2</v>
+      </c>
+      <c r="BH26">
+        <v>5</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26">
+        <v>11</v>
+      </c>
+      <c r="BK26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6588824</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>14</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
+        <v>2.15</v>
+      </c>
+      <c r="V27">
+        <v>2.95</v>
+      </c>
+      <c r="W27">
+        <v>1.35</v>
+      </c>
+      <c r="X27">
+        <v>2.95</v>
+      </c>
+      <c r="Y27">
+        <v>2.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.44</v>
+      </c>
+      <c r="AA27">
+        <v>6.4</v>
+      </c>
+      <c r="AB27">
+        <v>1.09</v>
+      </c>
+      <c r="AC27">
+        <v>2.45</v>
+      </c>
+      <c r="AD27">
+        <v>3.65</v>
+      </c>
+      <c r="AE27">
+        <v>2.5</v>
+      </c>
+      <c r="AF27">
+        <v>1.05</v>
+      </c>
+      <c r="AG27">
+        <v>9</v>
+      </c>
+      <c r="AH27">
+        <v>1.25</v>
+      </c>
+      <c r="AI27">
+        <v>3.75</v>
+      </c>
+      <c r="AJ27">
+        <v>1.75</v>
+      </c>
+      <c r="AK27">
+        <v>1.95</v>
+      </c>
+      <c r="AL27">
+        <v>1.63</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>1.47</v>
+      </c>
+      <c r="AO27">
+        <v>1.25</v>
+      </c>
+      <c r="AP27">
+        <v>1.45</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>0.5</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <v>0.7</v>
+      </c>
+      <c r="AV27">
+        <v>1.19</v>
+      </c>
+      <c r="AW27">
+        <v>1.89</v>
+      </c>
+      <c r="AX27">
+        <v>1.75</v>
+      </c>
+      <c r="AY27">
+        <v>7.5</v>
+      </c>
+      <c r="AZ27">
+        <v>2.5</v>
+      </c>
+      <c r="BA27">
+        <v>1.17</v>
+      </c>
+      <c r="BB27">
+        <v>1.28</v>
+      </c>
+      <c r="BC27">
+        <v>1.5</v>
+      </c>
+      <c r="BD27">
+        <v>1.88</v>
+      </c>
+      <c r="BE27">
+        <v>2.38</v>
+      </c>
+      <c r="BF27">
+        <v>7</v>
+      </c>
+      <c r="BG27">
+        <v>5</v>
+      </c>
+      <c r="BH27">
+        <v>7</v>
+      </c>
+      <c r="BI27">
+        <v>8</v>
+      </c>
+      <c r="BJ27">
+        <v>14</v>
+      </c>
+      <c r="BK27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6588826</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45150.54166666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28">
+        <v>4.75</v>
+      </c>
+      <c r="U28">
+        <v>2.35</v>
+      </c>
+      <c r="V28">
+        <v>2.1</v>
+      </c>
+      <c r="W28">
+        <v>1.3</v>
+      </c>
+      <c r="X28">
+        <v>3.25</v>
+      </c>
+      <c r="Y28">
+        <v>2.45</v>
+      </c>
+      <c r="Z28">
+        <v>1.49</v>
+      </c>
+      <c r="AA28">
+        <v>5.45</v>
+      </c>
+      <c r="AB28">
+        <v>1.12</v>
+      </c>
+      <c r="AC28">
+        <v>4.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.8</v>
+      </c>
+      <c r="AE28">
+        <v>1.57</v>
+      </c>
+      <c r="AF28">
+        <v>1.05</v>
+      </c>
+      <c r="AG28">
+        <v>9</v>
+      </c>
+      <c r="AH28">
+        <v>1.22</v>
+      </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>1.7</v>
+      </c>
+      <c r="AK28">
+        <v>2</v>
+      </c>
+      <c r="AL28">
+        <v>1.72</v>
+      </c>
+      <c r="AM28">
+        <v>2.05</v>
+      </c>
+      <c r="AN28">
+        <v>2.25</v>
+      </c>
+      <c r="AO28">
+        <v>1.17</v>
+      </c>
+      <c r="AP28">
+        <v>1.15</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>3</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>3</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>3.2</v>
+      </c>
+      <c r="AY28">
+        <v>8</v>
+      </c>
+      <c r="AZ28">
+        <v>1.5</v>
+      </c>
+      <c r="BA28">
+        <v>1.2</v>
+      </c>
+      <c r="BB28">
+        <v>1.29</v>
+      </c>
+      <c r="BC28">
+        <v>1.5</v>
+      </c>
+      <c r="BD28">
+        <v>1.9</v>
+      </c>
+      <c r="BE28">
+        <v>2.43</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>3</v>
+      </c>
+      <c r="BI28">
+        <v>10</v>
+      </c>
+      <c r="BJ28">
+        <v>7</v>
+      </c>
+      <c r="BK28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6588821</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>3.1</v>
+      </c>
+      <c r="U29">
+        <v>2.2</v>
+      </c>
+      <c r="V29">
+        <v>3.4</v>
+      </c>
+      <c r="W29">
+        <v>1.36</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>2.75</v>
+      </c>
+      <c r="Z29">
+        <v>1.4</v>
+      </c>
+      <c r="AA29">
+        <v>7</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>2.34</v>
+      </c>
+      <c r="AD29">
+        <v>3.1</v>
+      </c>
+      <c r="AE29">
+        <v>2.7</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>8.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.28</v>
+      </c>
+      <c r="AI29">
+        <v>3.5</v>
+      </c>
+      <c r="AJ29">
+        <v>1.91</v>
+      </c>
+      <c r="AK29">
+        <v>1.95</v>
+      </c>
+      <c r="AL29">
+        <v>1.67</v>
+      </c>
+      <c r="AM29">
+        <v>2.1</v>
+      </c>
+      <c r="AN29">
+        <v>1.35</v>
+      </c>
+      <c r="AO29">
+        <v>1.32</v>
+      </c>
+      <c r="AP29">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>1.89</v>
+      </c>
+      <c r="AV29">
+        <v>1.01</v>
+      </c>
+      <c r="AW29">
+        <v>2.9</v>
+      </c>
+      <c r="AX29">
+        <v>1.85</v>
+      </c>
+      <c r="AY29">
+        <v>7</v>
+      </c>
+      <c r="AZ29">
+        <v>2.4</v>
+      </c>
+      <c r="BA29">
+        <v>1.16</v>
+      </c>
+      <c r="BB29">
+        <v>1.24</v>
+      </c>
+      <c r="BC29">
+        <v>1.46</v>
+      </c>
+      <c r="BD29">
+        <v>1.88</v>
+      </c>
+      <c r="BE29">
+        <v>2.23</v>
+      </c>
+      <c r="BF29">
+        <v>7</v>
+      </c>
+      <c r="BG29">
+        <v>8</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>4</v>
+      </c>
+      <c r="BJ29">
+        <v>11</v>
+      </c>
+      <c r="BK29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6588822</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>2.1</v>
+      </c>
+      <c r="U30">
+        <v>2.3</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>1.35</v>
+      </c>
+      <c r="X30">
+        <v>2.95</v>
+      </c>
+      <c r="Y30">
+        <v>2.6</v>
+      </c>
+      <c r="Z30">
+        <v>1.44</v>
+      </c>
+      <c r="AA30">
+        <v>6.45</v>
+      </c>
+      <c r="AB30">
+        <v>1.09</v>
+      </c>
+      <c r="AC30">
+        <v>1.55</v>
+      </c>
+      <c r="AD30">
+        <v>3.75</v>
+      </c>
+      <c r="AE30">
+        <v>4.45</v>
+      </c>
+      <c r="AF30">
+        <v>1.05</v>
+      </c>
+      <c r="AG30">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <v>1.25</v>
+      </c>
+      <c r="AI30">
+        <v>3.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.76</v>
+      </c>
+      <c r="AK30">
+        <v>1.89</v>
+      </c>
+      <c r="AL30">
+        <v>1.83</v>
+      </c>
+      <c r="AM30">
+        <v>1.9</v>
+      </c>
+      <c r="AN30">
+        <v>1.11</v>
+      </c>
+      <c r="AO30">
+        <v>1.18</v>
+      </c>
+      <c r="AP30">
+        <v>2.3</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>1.5</v>
+      </c>
+      <c r="AU30">
+        <v>1.82</v>
+      </c>
+      <c r="AV30">
+        <v>1.08</v>
+      </c>
+      <c r="AW30">
+        <v>2.9</v>
+      </c>
+      <c r="AX30">
+        <v>1.33</v>
+      </c>
+      <c r="AY30">
+        <v>8.5</v>
+      </c>
+      <c r="AZ30">
+        <v>4.33</v>
+      </c>
+      <c r="BA30">
+        <v>1.17</v>
+      </c>
+      <c r="BB30">
+        <v>1.27</v>
+      </c>
+      <c r="BC30">
+        <v>1.48</v>
+      </c>
+      <c r="BD30">
+        <v>1.85</v>
+      </c>
+      <c r="BE30">
+        <v>2.35</v>
+      </c>
+      <c r="BF30">
+        <v>6</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>8</v>
+      </c>
+      <c r="BI30">
+        <v>5</v>
+      </c>
+      <c r="BJ30">
+        <v>14</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6588823</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>4.75</v>
+      </c>
+      <c r="U31">
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1.24</v>
+      </c>
+      <c r="X31">
+        <v>3.7</v>
+      </c>
+      <c r="Y31">
+        <v>2.24</v>
+      </c>
+      <c r="Z31">
+        <v>1.59</v>
+      </c>
+      <c r="AA31">
+        <v>4.95</v>
+      </c>
+      <c r="AB31">
+        <v>1.14</v>
+      </c>
+      <c r="AC31">
+        <v>4.35</v>
+      </c>
+      <c r="AD31">
+        <v>4.1</v>
+      </c>
+      <c r="AE31">
+        <v>1.51</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>12</v>
+      </c>
+      <c r="AH31">
+        <v>1.16</v>
+      </c>
+      <c r="AI31">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1.53</v>
+      </c>
+      <c r="AK31">
+        <v>2.2</v>
+      </c>
+      <c r="AL31">
+        <v>1.6</v>
+      </c>
+      <c r="AM31">
+        <v>2.25</v>
+      </c>
+      <c r="AN31">
+        <v>2.35</v>
+      </c>
+      <c r="AO31">
+        <v>1.15</v>
+      </c>
+      <c r="AP31">
+        <v>1.16</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>3</v>
+      </c>
+      <c r="AS31">
+        <v>1.33</v>
+      </c>
+      <c r="AT31">
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <v>1.51</v>
+      </c>
+      <c r="AV31">
+        <v>1.53</v>
+      </c>
+      <c r="AW31">
+        <v>3.04</v>
+      </c>
+      <c r="AX31">
+        <v>3.75</v>
+      </c>
+      <c r="AY31">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31">
+        <v>1.43</v>
+      </c>
+      <c r="BA31">
+        <v>1.18</v>
+      </c>
+      <c r="BB31">
+        <v>1.26</v>
+      </c>
+      <c r="BC31">
+        <v>1.47</v>
+      </c>
+      <c r="BD31">
+        <v>1.83</v>
+      </c>
+      <c r="BE31">
+        <v>2.3</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>7</v>
+      </c>
+      <c r="BH31">
+        <v>4</v>
+      </c>
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>4</v>
+      </c>
+      <c r="BK31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6588825</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>2.4</v>
+      </c>
+      <c r="U32">
+        <v>2.25</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>1.35</v>
+      </c>
+      <c r="X32">
+        <v>2.95</v>
+      </c>
+      <c r="Y32">
+        <v>2.6</v>
+      </c>
+      <c r="Z32">
+        <v>1.44</v>
+      </c>
+      <c r="AA32">
+        <v>6.4</v>
+      </c>
+      <c r="AB32">
+        <v>1.09</v>
+      </c>
+      <c r="AC32">
+        <v>1.8</v>
+      </c>
+      <c r="AD32">
+        <v>3.5</v>
+      </c>
+      <c r="AE32">
+        <v>3.4</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>10.25</v>
+      </c>
+      <c r="AH32">
+        <v>1.25</v>
+      </c>
+      <c r="AI32">
+        <v>3.75</v>
+      </c>
+      <c r="AJ32">
+        <v>1.89</v>
+      </c>
+      <c r="AK32">
+        <v>1.93</v>
+      </c>
+      <c r="AL32">
+        <v>1.7</v>
+      </c>
+      <c r="AM32">
+        <v>2.1</v>
+      </c>
+      <c r="AN32">
+        <v>1.2</v>
+      </c>
+      <c r="AO32">
+        <v>1.2</v>
+      </c>
+      <c r="AP32">
+        <v>1.9</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>1.33</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>1.5</v>
+      </c>
+      <c r="AV32">
+        <v>1.09</v>
+      </c>
+      <c r="AW32">
+        <v>2.59</v>
+      </c>
+      <c r="AX32">
+        <v>1.59</v>
+      </c>
+      <c r="AY32">
+        <v>9</v>
+      </c>
+      <c r="AZ32">
+        <v>2.77</v>
+      </c>
+      <c r="BA32">
+        <v>1.14</v>
+      </c>
+      <c r="BB32">
+        <v>1.21</v>
+      </c>
+      <c r="BC32">
+        <v>1.38</v>
+      </c>
+      <c r="BD32">
+        <v>1.67</v>
+      </c>
+      <c r="BE32">
+        <v>2.1</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BH32">
+        <v>5</v>
+      </c>
+      <c r="BI32">
+        <v>4</v>
+      </c>
+      <c r="BJ32">
+        <v>5</v>
+      </c>
+      <c r="BK32">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['39', '55']</t>
   </si>
   <si>
+    <t>['45+3', '74']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['8', '10', '46', '73', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1003,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1188,7 +1194,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1469,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1761,7 +1767,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1952,7 +1958,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2143,7 +2149,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2525,7 +2531,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2716,7 +2722,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3289,7 +3295,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3480,7 +3486,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3671,7 +3677,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3862,7 +3868,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4053,7 +4059,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4244,7 +4250,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4435,7 +4441,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4626,7 +4632,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4817,7 +4823,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5199,7 +5205,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5390,7 +5396,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5772,7 +5778,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5963,7 +5969,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6089,19 +6095,19 @@
         <v>2.43</v>
       </c>
       <c r="BF28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BK28">
         <v>14</v>
@@ -6154,7 +6160,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6280,22 +6286,22 @@
         <v>2.23</v>
       </c>
       <c r="BF29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG29">
         <v>8</v>
       </c>
       <c r="BH29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ29">
+        <v>9</v>
+      </c>
+      <c r="BK29">
         <v>11</v>
-      </c>
-      <c r="BK29">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6345,7 +6351,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6474,19 +6480,19 @@
         <v>6</v>
       </c>
       <c r="BG30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI30">
         <v>5</v>
       </c>
       <c r="BJ30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6536,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6665,16 +6671,16 @@
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI31">
+        <v>6</v>
+      </c>
+      <c r="BJ31">
         <v>5</v>
-      </c>
-      <c r="BJ31">
-        <v>4</v>
       </c>
       <c r="BK31">
         <v>12</v>
@@ -6853,22 +6859,213 @@
         <v>2.1</v>
       </c>
       <c r="BF32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH32">
+        <v>6</v>
+      </c>
+      <c r="BI32">
+        <v>6</v>
+      </c>
+      <c r="BJ32">
+        <v>9</v>
+      </c>
+      <c r="BK32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6588819</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45151.54166666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="BI32">
-        <v>4</v>
-      </c>
-      <c r="BJ32">
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
         <v>5</v>
       </c>
-      <c r="BK32">
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>4.33</v>
+      </c>
+      <c r="U33">
+        <v>2.4</v>
+      </c>
+      <c r="V33">
+        <v>2.15</v>
+      </c>
+      <c r="W33">
+        <v>1.27</v>
+      </c>
+      <c r="X33">
+        <v>3.45</v>
+      </c>
+      <c r="Y33">
+        <v>2.29</v>
+      </c>
+      <c r="Z33">
+        <v>1.56</v>
+      </c>
+      <c r="AA33">
+        <v>4.95</v>
+      </c>
+      <c r="AB33">
+        <v>1.14</v>
+      </c>
+      <c r="AC33">
+        <v>4.3</v>
+      </c>
+      <c r="AD33">
+        <v>3.9</v>
+      </c>
+      <c r="AE33">
+        <v>1.65</v>
+      </c>
+      <c r="AF33">
+        <v>1.03</v>
+      </c>
+      <c r="AG33">
+        <v>17.75</v>
+      </c>
+      <c r="AH33">
+        <v>1.17</v>
+      </c>
+      <c r="AI33">
+        <v>4.75</v>
+      </c>
+      <c r="AJ33">
+        <v>1.67</v>
+      </c>
+      <c r="AK33">
+        <v>2.05</v>
+      </c>
+      <c r="AL33">
+        <v>1.57</v>
+      </c>
+      <c r="AM33">
+        <v>2.3</v>
+      </c>
+      <c r="AN33">
+        <v>2.2</v>
+      </c>
+      <c r="AO33">
+        <v>1.17</v>
+      </c>
+      <c r="AP33">
+        <v>1.18</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>1.5</v>
+      </c>
+      <c r="AU33">
+        <v>1.17</v>
+      </c>
+      <c r="AV33">
+        <v>1.21</v>
+      </c>
+      <c r="AW33">
+        <v>2.38</v>
+      </c>
+      <c r="AX33">
+        <v>2.7</v>
+      </c>
+      <c r="AY33">
         <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>1.7</v>
+      </c>
+      <c r="BA33">
+        <v>1.14</v>
+      </c>
+      <c r="BB33">
+        <v>1.22</v>
+      </c>
+      <c r="BC33">
+        <v>1.4</v>
+      </c>
+      <c r="BD33">
+        <v>1.68</v>
+      </c>
+      <c r="BE33">
+        <v>2.12</v>
+      </c>
+      <c r="BF33">
+        <v>3</v>
+      </c>
+      <c r="BG33">
+        <v>9</v>
+      </c>
+      <c r="BH33">
+        <v>3</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>6</v>
+      </c>
+      <c r="BK33">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -7053,7 +7053,7 @@
         <v>3</v>
       </c>
       <c r="BG33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH33">
         <v>3</v>
@@ -7065,7 +7065,7 @@
         <v>6</v>
       </c>
       <c r="BK33">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['45+3', '74']</t>
   </si>
   <si>
+    <t>['11', '90+2']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -398,6 +407,12 @@
   </si>
   <si>
     <t>['8', '10', '46', '73', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+2', '53']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1018,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1194,7 +1209,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1281,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1767,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1857,7 +1872,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1958,7 +1973,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2045,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2149,7 +2164,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2236,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2531,7 +2546,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2722,7 +2737,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3003,7 +3018,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3295,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3486,7 +3501,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3677,7 +3692,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3868,7 +3883,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4059,7 +4074,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4146,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4250,7 +4265,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4441,7 +4456,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4528,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>2.09</v>
@@ -4632,7 +4647,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4823,7 +4838,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5104,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5205,7 +5220,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5292,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>3</v>
@@ -5396,7 +5411,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5778,7 +5793,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5969,7 +5984,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6160,7 +6175,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6351,7 +6366,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6542,7 +6557,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6924,7 +6939,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7066,6 +7081,579 @@
       </c>
       <c r="BK33">
         <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6588830</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>2.66</v>
+      </c>
+      <c r="U34">
+        <v>2.17</v>
+      </c>
+      <c r="V34">
+        <v>4.02</v>
+      </c>
+      <c r="W34">
+        <v>1.38</v>
+      </c>
+      <c r="X34">
+        <v>2.91</v>
+      </c>
+      <c r="Y34">
+        <v>2.75</v>
+      </c>
+      <c r="Z34">
+        <v>1.42</v>
+      </c>
+      <c r="AA34">
+        <v>6.85</v>
+      </c>
+      <c r="AB34">
+        <v>1.08</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>3.25</v>
+      </c>
+      <c r="AE34">
+        <v>3.4</v>
+      </c>
+      <c r="AF34">
+        <v>1.05</v>
+      </c>
+      <c r="AG34">
+        <v>9</v>
+      </c>
+      <c r="AH34">
+        <v>1.3</v>
+      </c>
+      <c r="AI34">
+        <v>3.4</v>
+      </c>
+      <c r="AJ34">
+        <v>1.83</v>
+      </c>
+      <c r="AK34">
+        <v>1.95</v>
+      </c>
+      <c r="AL34">
+        <v>1.73</v>
+      </c>
+      <c r="AM34">
+        <v>2.06</v>
+      </c>
+      <c r="AN34">
+        <v>1.32</v>
+      </c>
+      <c r="AO34">
+        <v>1.3</v>
+      </c>
+      <c r="AP34">
+        <v>1.72</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>1.33</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>1.19</v>
+      </c>
+      <c r="AV34">
+        <v>1.59</v>
+      </c>
+      <c r="AW34">
+        <v>2.78</v>
+      </c>
+      <c r="AX34">
+        <v>1.83</v>
+      </c>
+      <c r="AY34">
+        <v>8.5</v>
+      </c>
+      <c r="AZ34">
+        <v>2.2</v>
+      </c>
+      <c r="BA34">
+        <v>1.13</v>
+      </c>
+      <c r="BB34">
+        <v>1.23</v>
+      </c>
+      <c r="BC34">
+        <v>1.48</v>
+      </c>
+      <c r="BD34">
+        <v>1.85</v>
+      </c>
+      <c r="BE34">
+        <v>2.13</v>
+      </c>
+      <c r="BF34">
+        <v>6</v>
+      </c>
+      <c r="BG34">
+        <v>5</v>
+      </c>
+      <c r="BH34">
+        <v>8</v>
+      </c>
+      <c r="BI34">
+        <v>3</v>
+      </c>
+      <c r="BJ34">
+        <v>14</v>
+      </c>
+      <c r="BK34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6588832</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <v>2.35</v>
+      </c>
+      <c r="U35">
+        <v>2.2</v>
+      </c>
+      <c r="V35">
+        <v>4.3</v>
+      </c>
+      <c r="W35">
+        <v>1.35</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>2.6</v>
+      </c>
+      <c r="Z35">
+        <v>1.45</v>
+      </c>
+      <c r="AA35">
+        <v>6.75</v>
+      </c>
+      <c r="AB35">
+        <v>1.1</v>
+      </c>
+      <c r="AC35">
+        <v>1.62</v>
+      </c>
+      <c r="AD35">
+        <v>3.6</v>
+      </c>
+      <c r="AE35">
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <v>1.04</v>
+      </c>
+      <c r="AG35">
+        <v>13.5</v>
+      </c>
+      <c r="AH35">
+        <v>1.26</v>
+      </c>
+      <c r="AI35">
+        <v>3.9</v>
+      </c>
+      <c r="AJ35">
+        <v>1.95</v>
+      </c>
+      <c r="AK35">
+        <v>1.75</v>
+      </c>
+      <c r="AL35">
+        <v>1.72</v>
+      </c>
+      <c r="AM35">
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <v>1.25</v>
+      </c>
+      <c r="AO35">
+        <v>1.28</v>
+      </c>
+      <c r="AP35">
+        <v>1.95</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>1.57</v>
+      </c>
+      <c r="AV35">
+        <v>0.95</v>
+      </c>
+      <c r="AW35">
+        <v>2.52</v>
+      </c>
+      <c r="AX35">
+        <v>1.64</v>
+      </c>
+      <c r="AY35">
+        <v>8.5</v>
+      </c>
+      <c r="AZ35">
+        <v>2.66</v>
+      </c>
+      <c r="BA35">
+        <v>1.14</v>
+      </c>
+      <c r="BB35">
+        <v>1.24</v>
+      </c>
+      <c r="BC35">
+        <v>1.48</v>
+      </c>
+      <c r="BD35">
+        <v>1.83</v>
+      </c>
+      <c r="BE35">
+        <v>2.17</v>
+      </c>
+      <c r="BF35">
+        <v>6</v>
+      </c>
+      <c r="BG35">
+        <v>2</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>4</v>
+      </c>
+      <c r="BJ35">
+        <v>12</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6588833</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>3.6</v>
+      </c>
+      <c r="W36">
+        <v>1.45</v>
+      </c>
+      <c r="X36">
+        <v>2.55</v>
+      </c>
+      <c r="Y36">
+        <v>3.1</v>
+      </c>
+      <c r="Z36">
+        <v>1.32</v>
+      </c>
+      <c r="AA36">
+        <v>9</v>
+      </c>
+      <c r="AB36">
+        <v>1.06</v>
+      </c>
+      <c r="AC36">
+        <v>2.6</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>2.62</v>
+      </c>
+      <c r="AF36">
+        <v>1.07</v>
+      </c>
+      <c r="AG36">
+        <v>9.6</v>
+      </c>
+      <c r="AH36">
+        <v>1.38</v>
+      </c>
+      <c r="AI36">
+        <v>3.07</v>
+      </c>
+      <c r="AJ36">
+        <v>2.3</v>
+      </c>
+      <c r="AK36">
+        <v>1.53</v>
+      </c>
+      <c r="AL36">
+        <v>1.85</v>
+      </c>
+      <c r="AM36">
+        <v>1.85</v>
+      </c>
+      <c r="AN36">
+        <v>1.4</v>
+      </c>
+      <c r="AO36">
+        <v>1.32</v>
+      </c>
+      <c r="AP36">
+        <v>1.58</v>
+      </c>
+      <c r="AQ36">
+        <v>1.5</v>
+      </c>
+      <c r="AR36">
+        <v>0.67</v>
+      </c>
+      <c r="AS36">
+        <v>1.33</v>
+      </c>
+      <c r="AT36">
+        <v>0.75</v>
+      </c>
+      <c r="AU36">
+        <v>1.94</v>
+      </c>
+      <c r="AV36">
+        <v>1.37</v>
+      </c>
+      <c r="AW36">
+        <v>3.31</v>
+      </c>
+      <c r="AX36">
+        <v>1.91</v>
+      </c>
+      <c r="AY36">
+        <v>8.5</v>
+      </c>
+      <c r="AZ36">
+        <v>2.1</v>
+      </c>
+      <c r="BA36">
+        <v>1.17</v>
+      </c>
+      <c r="BB36">
+        <v>1.29</v>
+      </c>
+      <c r="BC36">
+        <v>1.59</v>
+      </c>
+      <c r="BD36">
+        <v>1.9</v>
+      </c>
+      <c r="BE36">
+        <v>2.37</v>
+      </c>
+      <c r="BF36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
+        <v>4</v>
+      </c>
+      <c r="BH36">
+        <v>8</v>
+      </c>
+      <c r="BI36">
+        <v>4</v>
+      </c>
+      <c r="BJ36">
+        <v>11</v>
+      </c>
+      <c r="BK36">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,21 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['45+2', '58', '89']</t>
+  </si>
+  <si>
+    <t>['45+1', '45+3']</t>
+  </si>
+  <si>
+    <t>['45+1', '74']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -349,9 +364,6 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -413,6 +425,12 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1036,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1108,7 +1126,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1209,7 +1227,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1487,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -1782,7 +1800,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1973,7 +1991,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2164,7 +2182,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2445,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2546,7 +2564,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2737,7 +2755,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2827,7 +2845,7 @@
         <v>0.5</v>
       </c>
       <c r="AT11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3310,7 +3328,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3501,7 +3519,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3588,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>3</v>
@@ -3692,7 +3710,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3883,7 +3901,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3970,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
         <v>0.33</v>
@@ -4074,7 +4092,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4164,7 +4182,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.12</v>
@@ -4265,7 +4283,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4456,7 +4474,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4647,7 +4665,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4838,7 +4856,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4925,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5116,7 +5134,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5220,7 +5238,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5310,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>1.87</v>
@@ -5411,7 +5429,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5793,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5984,7 +6002,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6074,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6175,7 +6193,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6366,7 +6384,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6557,7 +6575,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6939,7 +6957,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7026,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <v>1.5</v>
@@ -7130,16 +7148,16 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>5</v>
       </c>
       <c r="S34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T34">
         <v>2.66</v>
@@ -7256,19 +7274,19 @@
         <v>2.13</v>
       </c>
       <c r="BF34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG34">
         <v>5</v>
       </c>
       <c r="BH34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI34">
         <v>3</v>
       </c>
       <c r="BJ34">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK34">
         <v>8</v>
@@ -7327,10 +7345,10 @@
         <v>4</v>
       </c>
       <c r="R35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T35">
         <v>2.35</v>
@@ -7453,16 +7471,16 @@
         <v>2</v>
       </c>
       <c r="BH35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7512,7 +7530,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7644,16 +7662,971 @@
         <v>4</v>
       </c>
       <c r="BH36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI36">
         <v>4</v>
       </c>
       <c r="BJ36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK36">
         <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6588834</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45157.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>5.5</v>
+      </c>
+      <c r="U37">
+        <v>2.4</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>3.3</v>
+      </c>
+      <c r="Y37">
+        <v>2.35</v>
+      </c>
+      <c r="Z37">
+        <v>1.52</v>
+      </c>
+      <c r="AA37">
+        <v>5.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.13</v>
+      </c>
+      <c r="AC37">
+        <v>5.79</v>
+      </c>
+      <c r="AD37">
+        <v>4.4</v>
+      </c>
+      <c r="AE37">
+        <v>1.46</v>
+      </c>
+      <c r="AF37">
+        <v>1.03</v>
+      </c>
+      <c r="AG37">
+        <v>17.5</v>
+      </c>
+      <c r="AH37">
+        <v>1.2</v>
+      </c>
+      <c r="AI37">
+        <v>4.63</v>
+      </c>
+      <c r="AJ37">
+        <v>1.57</v>
+      </c>
+      <c r="AK37">
+        <v>2.25</v>
+      </c>
+      <c r="AL37">
+        <v>1.72</v>
+      </c>
+      <c r="AM37">
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <v>2.55</v>
+      </c>
+      <c r="AO37">
+        <v>1.2</v>
+      </c>
+      <c r="AP37">
+        <v>1.15</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>3</v>
+      </c>
+      <c r="AS37">
+        <v>1.67</v>
+      </c>
+      <c r="AT37">
+        <v>2.33</v>
+      </c>
+      <c r="AU37">
+        <v>0.96</v>
+      </c>
+      <c r="AV37">
+        <v>1.97</v>
+      </c>
+      <c r="AW37">
+        <v>2.93</v>
+      </c>
+      <c r="AX37">
+        <v>4.65</v>
+      </c>
+      <c r="AY37">
+        <v>10</v>
+      </c>
+      <c r="AZ37">
+        <v>1.26</v>
+      </c>
+      <c r="BA37">
+        <v>1.19</v>
+      </c>
+      <c r="BB37">
+        <v>1.43</v>
+      </c>
+      <c r="BC37">
+        <v>1.72</v>
+      </c>
+      <c r="BD37">
+        <v>1.93</v>
+      </c>
+      <c r="BE37">
+        <v>2.46</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>2</v>
+      </c>
+      <c r="BH37">
+        <v>8</v>
+      </c>
+      <c r="BI37">
+        <v>1</v>
+      </c>
+      <c r="BJ37">
+        <v>12</v>
+      </c>
+      <c r="BK37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6588828</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>3.3</v>
+      </c>
+      <c r="U38">
+        <v>2.3</v>
+      </c>
+      <c r="V38">
+        <v>2.8</v>
+      </c>
+      <c r="W38">
+        <v>1.33</v>
+      </c>
+      <c r="X38">
+        <v>3.05</v>
+      </c>
+      <c r="Y38">
+        <v>2.45</v>
+      </c>
+      <c r="Z38">
+        <v>1.49</v>
+      </c>
+      <c r="AA38">
+        <v>5.95</v>
+      </c>
+      <c r="AB38">
+        <v>1.1</v>
+      </c>
+      <c r="AC38">
+        <v>2.68</v>
+      </c>
+      <c r="AD38">
+        <v>3.55</v>
+      </c>
+      <c r="AE38">
+        <v>2.15</v>
+      </c>
+      <c r="AF38">
+        <v>1.04</v>
+      </c>
+      <c r="AG38">
+        <v>14</v>
+      </c>
+      <c r="AH38">
+        <v>1.22</v>
+      </c>
+      <c r="AI38">
+        <v>4</v>
+      </c>
+      <c r="AJ38">
+        <v>1.65</v>
+      </c>
+      <c r="AK38">
+        <v>2.11</v>
+      </c>
+      <c r="AL38">
+        <v>1.55</v>
+      </c>
+      <c r="AM38">
+        <v>2.35</v>
+      </c>
+      <c r="AN38">
+        <v>1.53</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.4</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>3</v>
+      </c>
+      <c r="AS38">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>2</v>
+      </c>
+      <c r="AU38">
+        <v>1.14</v>
+      </c>
+      <c r="AV38">
+        <v>1.49</v>
+      </c>
+      <c r="AW38">
+        <v>2.63</v>
+      </c>
+      <c r="AX38">
+        <v>2.2</v>
+      </c>
+      <c r="AY38">
+        <v>8.5</v>
+      </c>
+      <c r="AZ38">
+        <v>1.91</v>
+      </c>
+      <c r="BA38">
+        <v>1.13</v>
+      </c>
+      <c r="BB38">
+        <v>1.22</v>
+      </c>
+      <c r="BC38">
+        <v>1.5</v>
+      </c>
+      <c r="BD38">
+        <v>1.79</v>
+      </c>
+      <c r="BE38">
+        <v>2.19</v>
+      </c>
+      <c r="BF38">
+        <v>7</v>
+      </c>
+      <c r="BG38">
+        <v>3</v>
+      </c>
+      <c r="BH38">
+        <v>3</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>10</v>
+      </c>
+      <c r="BK38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6588829</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>14</v>
+      </c>
+      <c r="T39">
+        <v>2.1</v>
+      </c>
+      <c r="U39">
+        <v>2.3</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>1.32</v>
+      </c>
+      <c r="X39">
+        <v>3.15</v>
+      </c>
+      <c r="Y39">
+        <v>2.5</v>
+      </c>
+      <c r="Z39">
+        <v>1.48</v>
+      </c>
+      <c r="AA39">
+        <v>6.25</v>
+      </c>
+      <c r="AB39">
+        <v>1.11</v>
+      </c>
+      <c r="AC39">
+        <v>1.54</v>
+      </c>
+      <c r="AD39">
+        <v>3.95</v>
+      </c>
+      <c r="AE39">
+        <v>4.6</v>
+      </c>
+      <c r="AF39">
+        <v>1.04</v>
+      </c>
+      <c r="AG39">
+        <v>15.25</v>
+      </c>
+      <c r="AH39">
+        <v>1.23</v>
+      </c>
+      <c r="AI39">
+        <v>4.2</v>
+      </c>
+      <c r="AJ39">
+        <v>1.68</v>
+      </c>
+      <c r="AK39">
+        <v>2.06</v>
+      </c>
+      <c r="AL39">
+        <v>1.75</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>1.19</v>
+      </c>
+      <c r="AO39">
+        <v>1.24</v>
+      </c>
+      <c r="AP39">
+        <v>2.25</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>1.5</v>
+      </c>
+      <c r="AS39">
+        <v>2.33</v>
+      </c>
+      <c r="AT39">
+        <v>1</v>
+      </c>
+      <c r="AU39">
+        <v>1.72</v>
+      </c>
+      <c r="AV39">
+        <v>0.87</v>
+      </c>
+      <c r="AW39">
+        <v>2.59</v>
+      </c>
+      <c r="AX39">
+        <v>1.31</v>
+      </c>
+      <c r="AY39">
+        <v>10</v>
+      </c>
+      <c r="AZ39">
+        <v>4.11</v>
+      </c>
+      <c r="BA39">
+        <v>1.17</v>
+      </c>
+      <c r="BB39">
+        <v>1.31</v>
+      </c>
+      <c r="BC39">
+        <v>1.43</v>
+      </c>
+      <c r="BD39">
+        <v>1.85</v>
+      </c>
+      <c r="BE39">
+        <v>2.06</v>
+      </c>
+      <c r="BF39">
+        <v>4</v>
+      </c>
+      <c r="BG39">
+        <v>3</v>
+      </c>
+      <c r="BH39">
+        <v>3</v>
+      </c>
+      <c r="BI39">
+        <v>3</v>
+      </c>
+      <c r="BJ39">
+        <v>7</v>
+      </c>
+      <c r="BK39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6588831</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>2.4</v>
+      </c>
+      <c r="U40">
+        <v>2.2</v>
+      </c>
+      <c r="V40">
+        <v>4.2</v>
+      </c>
+      <c r="W40">
+        <v>1.36</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>2.63</v>
+      </c>
+      <c r="Z40">
+        <v>1.44</v>
+      </c>
+      <c r="AA40">
+        <v>7</v>
+      </c>
+      <c r="AB40">
+        <v>1.1</v>
+      </c>
+      <c r="AC40">
+        <v>1.82</v>
+      </c>
+      <c r="AD40">
+        <v>3.5</v>
+      </c>
+      <c r="AE40">
+        <v>3.5</v>
+      </c>
+      <c r="AF40">
+        <v>1.04</v>
+      </c>
+      <c r="AG40">
+        <v>8.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.2</v>
+      </c>
+      <c r="AI40">
+        <v>3.9</v>
+      </c>
+      <c r="AJ40">
+        <v>1.8</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40">
+        <v>1.75</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>1.27</v>
+      </c>
+      <c r="AO40">
+        <v>1.28</v>
+      </c>
+      <c r="AP40">
+        <v>1.88</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>3</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>1.69</v>
+      </c>
+      <c r="AV40">
+        <v>1.06</v>
+      </c>
+      <c r="AW40">
+        <v>2.75</v>
+      </c>
+      <c r="AX40">
+        <v>1.55</v>
+      </c>
+      <c r="AY40">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40">
+        <v>2.91</v>
+      </c>
+      <c r="BA40">
+        <v>1.19</v>
+      </c>
+      <c r="BB40">
+        <v>1.31</v>
+      </c>
+      <c r="BC40">
+        <v>1.66</v>
+      </c>
+      <c r="BD40">
+        <v>1.9</v>
+      </c>
+      <c r="BE40">
+        <v>2.4</v>
+      </c>
+      <c r="BF40">
+        <v>4</v>
+      </c>
+      <c r="BG40">
+        <v>3</v>
+      </c>
+      <c r="BH40">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>8</v>
+      </c>
+      <c r="BJ40">
+        <v>8</v>
+      </c>
+      <c r="BK40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6588827</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45158.54166666666</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>1.6</v>
+      </c>
+      <c r="U41">
+        <v>2.85</v>
+      </c>
+      <c r="V41">
+        <v>7.5</v>
+      </c>
+      <c r="W41">
+        <v>1.21</v>
+      </c>
+      <c r="X41">
+        <v>3.95</v>
+      </c>
+      <c r="Y41">
+        <v>2.08</v>
+      </c>
+      <c r="Z41">
+        <v>1.68</v>
+      </c>
+      <c r="AA41">
+        <v>4.45</v>
+      </c>
+      <c r="AB41">
+        <v>1.17</v>
+      </c>
+      <c r="AC41">
+        <v>1.16</v>
+      </c>
+      <c r="AD41">
+        <v>5.38</v>
+      </c>
+      <c r="AE41">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AF41">
+        <v>1.02</v>
+      </c>
+      <c r="AG41">
+        <v>13</v>
+      </c>
+      <c r="AH41">
+        <v>1.16</v>
+      </c>
+      <c r="AI41">
+        <v>4.75</v>
+      </c>
+      <c r="AJ41">
+        <v>1.53</v>
+      </c>
+      <c r="AK41">
+        <v>2.25</v>
+      </c>
+      <c r="AL41">
+        <v>1.9</v>
+      </c>
+      <c r="AM41">
+        <v>1.87</v>
+      </c>
+      <c r="AN41">
+        <v>1.06</v>
+      </c>
+      <c r="AO41">
+        <v>1.07</v>
+      </c>
+      <c r="AP41">
+        <v>3.6</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>3</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>2.82</v>
+      </c>
+      <c r="AV41">
+        <v>1.54</v>
+      </c>
+      <c r="AW41">
+        <v>4.36</v>
+      </c>
+      <c r="AX41">
+        <v>1.09</v>
+      </c>
+      <c r="AY41">
+        <v>13</v>
+      </c>
+      <c r="AZ41">
+        <v>8.85</v>
+      </c>
+      <c r="BA41">
+        <v>1.12</v>
+      </c>
+      <c r="BB41">
+        <v>1.19</v>
+      </c>
+      <c r="BC41">
+        <v>1.4</v>
+      </c>
+      <c r="BD41">
+        <v>1.68</v>
+      </c>
+      <c r="BE41">
+        <v>2.03</v>
+      </c>
+      <c r="BF41">
+        <v>6</v>
+      </c>
+      <c r="BG41">
+        <v>3</v>
+      </c>
+      <c r="BH41">
+        <v>6</v>
+      </c>
+      <c r="BI41">
+        <v>3</v>
+      </c>
+      <c r="BJ41">
+        <v>12</v>
+      </c>
+      <c r="BK41">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -244,12 +244,12 @@
     <t>Baník Ostrava</t>
   </si>
   <si>
+    <t>Bohemians 1905</t>
+  </si>
+  <si>
     <t>České Budějovice</t>
   </si>
   <si>
-    <t>Bohemians 1905</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>['78', '88']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['53']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['39', '55']</t>
+  </si>
+  <si>
     <t>['55', '74']</t>
   </si>
   <si>
-    <t>['39', '55']</t>
-  </si>
-  <si>
     <t>['45+3', '74']</t>
   </si>
   <si>
@@ -376,24 +376,24 @@
     <t>['8', '42']</t>
   </si>
   <si>
+    <t>['43', '58']</t>
+  </si>
+  <si>
     <t>['13', '73', '84']</t>
   </si>
   <si>
-    <t>['43', '58']</t>
-  </si>
-  <si>
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['6', '19']</t>
+  </si>
+  <si>
     <t>['8', '48']</t>
   </si>
   <si>
-    <t>['65', '73']</t>
-  </si>
-  <si>
-    <t>['6', '19']</t>
-  </si>
-  <si>
     <t>['45+4']</t>
   </si>
   <si>
@@ -409,13 +409,13 @@
     <t>['12', '26', '35', '39', '45+1']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['45+3']</t>
   </si>
   <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['8', '10', '46', '73', '90+2']</t>
@@ -1012,7 +1012,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -3477,7 +3477,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6588807</v>
+        <v>6588808</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3495,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>91</v>
@@ -3522,145 +3522,145 @@
         <v>120</v>
       </c>
       <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>2.1</v>
+      </c>
+      <c r="U15">
+        <v>2.3</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>1.34</v>
+      </c>
+      <c r="X15">
+        <v>3.05</v>
+      </c>
+      <c r="Y15">
+        <v>2.6</v>
+      </c>
+      <c r="Z15">
+        <v>1.44</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>1.1</v>
+      </c>
+      <c r="AC15">
+        <v>1.63</v>
+      </c>
+      <c r="AD15">
+        <v>3.75</v>
+      </c>
+      <c r="AE15">
+        <v>4.9</v>
+      </c>
+      <c r="AF15">
+        <v>1.01</v>
+      </c>
+      <c r="AG15">
+        <v>10.25</v>
+      </c>
+      <c r="AH15">
+        <v>1.25</v>
+      </c>
+      <c r="AI15">
+        <v>3.75</v>
+      </c>
+      <c r="AJ15">
+        <v>1.73</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>1.8</v>
+      </c>
+      <c r="AM15">
+        <v>1.95</v>
+      </c>
+      <c r="AN15">
+        <v>1.11</v>
+      </c>
+      <c r="AO15">
+        <v>1.18</v>
+      </c>
+      <c r="AP15">
+        <v>2.3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1.5</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>1.26</v>
+      </c>
+      <c r="AY15">
+        <v>10</v>
+      </c>
+      <c r="AZ15">
+        <v>4.86</v>
+      </c>
+      <c r="BA15">
+        <v>1.18</v>
+      </c>
+      <c r="BB15">
+        <v>1.26</v>
+      </c>
+      <c r="BC15">
+        <v>1.53</v>
+      </c>
+      <c r="BD15">
+        <v>1.79</v>
+      </c>
+      <c r="BE15">
+        <v>2.18</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
         <v>4</v>
       </c>
-      <c r="R15">
-        <v>4</v>
-      </c>
-      <c r="S15">
+      <c r="BH15">
         <v>8</v>
       </c>
-      <c r="T15">
+      <c r="BI15">
+        <v>2</v>
+      </c>
+      <c r="BJ15">
+        <v>14</v>
+      </c>
+      <c r="BK15">
         <v>6</v>
-      </c>
-      <c r="U15">
-        <v>2.85</v>
-      </c>
-      <c r="V15">
-        <v>1.68</v>
-      </c>
-      <c r="W15">
-        <v>1.2</v>
-      </c>
-      <c r="X15">
-        <v>4.15</v>
-      </c>
-      <c r="Y15">
-        <v>1.99</v>
-      </c>
-      <c r="Z15">
-        <v>1.74</v>
-      </c>
-      <c r="AA15">
-        <v>4.25</v>
-      </c>
-      <c r="AB15">
-        <v>1.19</v>
-      </c>
-      <c r="AC15">
-        <v>8</v>
-      </c>
-      <c r="AD15">
-        <v>5.75</v>
-      </c>
-      <c r="AE15">
-        <v>1.3</v>
-      </c>
-      <c r="AF15">
-        <v>1.02</v>
-      </c>
-      <c r="AG15">
-        <v>13</v>
-      </c>
-      <c r="AH15">
-        <v>1.12</v>
-      </c>
-      <c r="AI15">
-        <v>5.5</v>
-      </c>
-      <c r="AJ15">
-        <v>1.38</v>
-      </c>
-      <c r="AK15">
-        <v>2.9</v>
-      </c>
-      <c r="AL15">
-        <v>1.68</v>
-      </c>
-      <c r="AM15">
-        <v>2.1</v>
-      </c>
-      <c r="AN15">
-        <v>3.4</v>
-      </c>
-      <c r="AO15">
-        <v>1.09</v>
-      </c>
-      <c r="AP15">
-        <v>1.04</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>3</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>5.17</v>
-      </c>
-      <c r="AY15">
-        <v>11</v>
-      </c>
-      <c r="AZ15">
-        <v>1.21</v>
-      </c>
-      <c r="BA15">
-        <v>1.13</v>
-      </c>
-      <c r="BB15">
-        <v>1.22</v>
-      </c>
-      <c r="BC15">
-        <v>1.42</v>
-      </c>
-      <c r="BD15">
-        <v>1.75</v>
-      </c>
-      <c r="BE15">
-        <v>2.12</v>
-      </c>
-      <c r="BF15">
-        <v>4</v>
-      </c>
-      <c r="BG15">
-        <v>6</v>
-      </c>
-      <c r="BH15">
-        <v>3</v>
-      </c>
-      <c r="BI15">
-        <v>5</v>
-      </c>
-      <c r="BJ15">
-        <v>7</v>
-      </c>
-      <c r="BK15">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3668,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6588808</v>
+        <v>6588807</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3686,7 +3686,7 @@
         <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="s">
         <v>92</v>
@@ -3713,145 +3713,145 @@
         <v>121</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>2.85</v>
+      </c>
+      <c r="V16">
+        <v>1.68</v>
+      </c>
+      <c r="W16">
+        <v>1.2</v>
+      </c>
+      <c r="X16">
+        <v>4.15</v>
+      </c>
+      <c r="Y16">
+        <v>1.99</v>
+      </c>
+      <c r="Z16">
+        <v>1.74</v>
+      </c>
+      <c r="AA16">
+        <v>4.25</v>
+      </c>
+      <c r="AB16">
+        <v>1.19</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>5.75</v>
+      </c>
+      <c r="AE16">
+        <v>1.3</v>
+      </c>
+      <c r="AF16">
+        <v>1.02</v>
+      </c>
+      <c r="AG16">
+        <v>13</v>
+      </c>
+      <c r="AH16">
+        <v>1.12</v>
+      </c>
+      <c r="AI16">
+        <v>5.5</v>
+      </c>
+      <c r="AJ16">
+        <v>1.38</v>
+      </c>
+      <c r="AK16">
+        <v>2.9</v>
+      </c>
+      <c r="AL16">
+        <v>1.68</v>
+      </c>
+      <c r="AM16">
+        <v>2.1</v>
+      </c>
+      <c r="AN16">
+        <v>3.4</v>
+      </c>
+      <c r="AO16">
+        <v>1.09</v>
+      </c>
+      <c r="AP16">
+        <v>1.04</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>5.17</v>
+      </c>
+      <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>1.21</v>
+      </c>
+      <c r="BA16">
+        <v>1.13</v>
+      </c>
+      <c r="BB16">
+        <v>1.22</v>
+      </c>
+      <c r="BC16">
+        <v>1.42</v>
+      </c>
+      <c r="BD16">
+        <v>1.75</v>
+      </c>
+      <c r="BE16">
+        <v>2.12</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>6</v>
+      </c>
+      <c r="BH16">
+        <v>3</v>
+      </c>
+      <c r="BI16">
         <v>5</v>
       </c>
-      <c r="S16">
+      <c r="BJ16">
         <v>7</v>
       </c>
-      <c r="T16">
-        <v>2.1</v>
-      </c>
-      <c r="U16">
-        <v>2.3</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>1.34</v>
-      </c>
-      <c r="X16">
-        <v>3.05</v>
-      </c>
-      <c r="Y16">
-        <v>2.6</v>
-      </c>
-      <c r="Z16">
-        <v>1.44</v>
-      </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16">
-        <v>1.1</v>
-      </c>
-      <c r="AC16">
-        <v>1.63</v>
-      </c>
-      <c r="AD16">
-        <v>3.75</v>
-      </c>
-      <c r="AE16">
-        <v>4.9</v>
-      </c>
-      <c r="AF16">
-        <v>1.01</v>
-      </c>
-      <c r="AG16">
-        <v>10.25</v>
-      </c>
-      <c r="AH16">
-        <v>1.25</v>
-      </c>
-      <c r="AI16">
-        <v>3.75</v>
-      </c>
-      <c r="AJ16">
-        <v>1.73</v>
-      </c>
-      <c r="AK16">
-        <v>2</v>
-      </c>
-      <c r="AL16">
-        <v>1.8</v>
-      </c>
-      <c r="AM16">
-        <v>1.95</v>
-      </c>
-      <c r="AN16">
-        <v>1.11</v>
-      </c>
-      <c r="AO16">
-        <v>1.18</v>
-      </c>
-      <c r="AP16">
-        <v>2.3</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>1.5</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>1.26</v>
-      </c>
-      <c r="AY16">
-        <v>10</v>
-      </c>
-      <c r="AZ16">
-        <v>4.86</v>
-      </c>
-      <c r="BA16">
-        <v>1.18</v>
-      </c>
-      <c r="BB16">
-        <v>1.26</v>
-      </c>
-      <c r="BC16">
-        <v>1.53</v>
-      </c>
-      <c r="BD16">
-        <v>1.79</v>
-      </c>
-      <c r="BE16">
-        <v>2.18</v>
-      </c>
-      <c r="BF16">
-        <v>6</v>
-      </c>
-      <c r="BG16">
-        <v>4</v>
-      </c>
-      <c r="BH16">
-        <v>8</v>
-      </c>
-      <c r="BI16">
-        <v>2</v>
-      </c>
-      <c r="BJ16">
-        <v>14</v>
-      </c>
       <c r="BK16">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -4050,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6588818</v>
+        <v>6588813</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -4065,175 +4065,175 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s">
         <v>123</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U18">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="V18">
+        <v>9</v>
+      </c>
+      <c r="W18">
+        <v>1.21</v>
+      </c>
+      <c r="X18">
+        <v>3.95</v>
+      </c>
+      <c r="Y18">
+        <v>2.04</v>
+      </c>
+      <c r="Z18">
+        <v>1.71</v>
+      </c>
+      <c r="AA18">
+        <v>4.25</v>
+      </c>
+      <c r="AB18">
+        <v>1.19</v>
+      </c>
+      <c r="AC18">
+        <v>1.19</v>
+      </c>
+      <c r="AD18">
+        <v>6.9</v>
+      </c>
+      <c r="AE18">
+        <v>11.22</v>
+      </c>
+      <c r="AF18">
+        <v>1.01</v>
+      </c>
+      <c r="AG18">
+        <v>15</v>
+      </c>
+      <c r="AH18">
+        <v>1.17</v>
+      </c>
+      <c r="AI18">
+        <v>4.75</v>
+      </c>
+      <c r="AJ18">
+        <v>1.57</v>
+      </c>
+      <c r="AK18">
+        <v>2.3</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>1.75</v>
+      </c>
+      <c r="AN18">
+        <v>1.02</v>
+      </c>
+      <c r="AO18">
+        <v>1.05</v>
+      </c>
+      <c r="AP18">
         <v>4.2</v>
       </c>
-      <c r="W18">
-        <v>1.4</v>
-      </c>
-      <c r="X18">
-        <v>2.75</v>
-      </c>
-      <c r="Y18">
-        <v>2.8</v>
-      </c>
-      <c r="Z18">
-        <v>1.39</v>
-      </c>
-      <c r="AA18">
-        <v>6.95</v>
-      </c>
-      <c r="AB18">
-        <v>1.07</v>
-      </c>
-      <c r="AC18">
-        <v>1.74</v>
-      </c>
-      <c r="AD18">
-        <v>3.74</v>
-      </c>
-      <c r="AE18">
-        <v>4.46</v>
-      </c>
-      <c r="AF18">
-        <v>1.02</v>
-      </c>
-      <c r="AG18">
-        <v>8.6</v>
-      </c>
-      <c r="AH18">
-        <v>1.3</v>
-      </c>
-      <c r="AI18">
-        <v>3.3</v>
-      </c>
-      <c r="AJ18">
-        <v>1.84</v>
-      </c>
-      <c r="AK18">
-        <v>1.95</v>
-      </c>
-      <c r="AL18">
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>2.28</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>2.28</v>
+      </c>
+      <c r="AX18">
+        <v>1.09</v>
+      </c>
+      <c r="AY18">
+        <v>13</v>
+      </c>
+      <c r="AZ18">
+        <v>8.85</v>
+      </c>
+      <c r="BA18">
+        <v>1.1</v>
+      </c>
+      <c r="BB18">
+        <v>1.18</v>
+      </c>
+      <c r="BC18">
+        <v>1.28</v>
+      </c>
+      <c r="BD18">
+        <v>1.53</v>
+      </c>
+      <c r="BE18">
         <v>1.8</v>
       </c>
-      <c r="AM18">
-        <v>1.95</v>
-      </c>
-      <c r="AN18">
-        <v>1.2</v>
-      </c>
-      <c r="AO18">
-        <v>1.22</v>
-      </c>
-      <c r="AP18">
-        <v>1.85</v>
-      </c>
-      <c r="AQ18">
-        <v>3</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>1.33</v>
-      </c>
-      <c r="AT18">
-        <v>1</v>
-      </c>
-      <c r="AU18">
-        <v>1.12</v>
-      </c>
-      <c r="AV18">
-        <v>0.87</v>
-      </c>
-      <c r="AW18">
-        <v>1.99</v>
-      </c>
-      <c r="AX18">
-        <v>1.45</v>
-      </c>
-      <c r="AY18">
-        <v>9</v>
-      </c>
-      <c r="AZ18">
-        <v>3.32</v>
-      </c>
-      <c r="BA18">
-        <v>1.14</v>
-      </c>
-      <c r="BB18">
-        <v>1.22</v>
-      </c>
-      <c r="BC18">
-        <v>1.42</v>
-      </c>
-      <c r="BD18">
-        <v>1.88</v>
-      </c>
-      <c r="BE18">
-        <v>2.08</v>
-      </c>
       <c r="BF18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BG18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ18">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BK18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4241,7 +4241,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6588813</v>
+        <v>6588814</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -4256,112 +4256,112 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="V19">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="W19">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="X19">
-        <v>3.95</v>
+        <v>2.95</v>
       </c>
       <c r="Y19">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="Z19">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AA19">
-        <v>4.25</v>
+        <v>5.95</v>
       </c>
       <c r="AB19">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AC19">
-        <v>1.19</v>
+        <v>2.99</v>
       </c>
       <c r="AD19">
-        <v>6.9</v>
+        <v>3.56</v>
       </c>
       <c r="AE19">
-        <v>11.22</v>
+        <v>2.24</v>
       </c>
       <c r="AF19">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG19">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH19">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AI19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AJ19">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AK19">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AL19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AM19">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AN19">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="AO19">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="AP19">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -4370,61 +4370,61 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU19">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AV19">
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AX19">
-        <v>1.09</v>
+        <v>2.53</v>
       </c>
       <c r="AY19">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AZ19">
-        <v>8.85</v>
+        <v>1.69</v>
       </c>
       <c r="BA19">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="BB19">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BC19">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BD19">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BE19">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>7</v>
+      </c>
+      <c r="BH19">
+        <v>11</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
         <v>14</v>
       </c>
-      <c r="BG19">
-        <v>4</v>
-      </c>
-      <c r="BH19">
-        <v>7</v>
-      </c>
-      <c r="BI19">
-        <v>3</v>
-      </c>
-      <c r="BJ19">
-        <v>21</v>
-      </c>
       <c r="BK19">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4432,7 +4432,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6588814</v>
+        <v>6588818</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4447,112 +4447,112 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s">
         <v>125</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>2.1</v>
+      </c>
+      <c r="V20">
+        <v>4.2</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>2.75</v>
+      </c>
+      <c r="Y20">
+        <v>2.8</v>
+      </c>
+      <c r="Z20">
+        <v>1.39</v>
+      </c>
+      <c r="AA20">
+        <v>6.95</v>
+      </c>
+      <c r="AB20">
+        <v>1.07</v>
+      </c>
+      <c r="AC20">
+        <v>1.74</v>
+      </c>
+      <c r="AD20">
+        <v>3.74</v>
+      </c>
+      <c r="AE20">
+        <v>4.46</v>
+      </c>
+      <c r="AF20">
+        <v>1.02</v>
+      </c>
+      <c r="AG20">
+        <v>8.6</v>
+      </c>
+      <c r="AH20">
+        <v>1.3</v>
+      </c>
+      <c r="AI20">
         <v>3.3</v>
       </c>
-      <c r="U20">
-        <v>2.2</v>
-      </c>
-      <c r="V20">
-        <v>2.8</v>
-      </c>
-      <c r="W20">
-        <v>1.35</v>
-      </c>
-      <c r="X20">
-        <v>2.95</v>
-      </c>
-      <c r="Y20">
-        <v>2.55</v>
-      </c>
-      <c r="Z20">
-        <v>1.46</v>
-      </c>
-      <c r="AA20">
-        <v>5.95</v>
-      </c>
-      <c r="AB20">
-        <v>1.1</v>
-      </c>
-      <c r="AC20">
-        <v>2.99</v>
-      </c>
-      <c r="AD20">
-        <v>3.56</v>
-      </c>
-      <c r="AE20">
-        <v>2.24</v>
-      </c>
-      <c r="AF20">
-        <v>1.04</v>
-      </c>
-      <c r="AG20">
-        <v>14.5</v>
-      </c>
-      <c r="AH20">
-        <v>1.22</v>
-      </c>
-      <c r="AI20">
-        <v>4</v>
-      </c>
       <c r="AJ20">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AK20">
         <v>1.95</v>
       </c>
       <c r="AL20">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AM20">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AN20">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AO20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="AQ20">
         <v>3</v>
@@ -4564,58 +4564,58 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU20">
-        <v>2.09</v>
+        <v>1.12</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AW20">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AX20">
-        <v>2.53</v>
+        <v>1.45</v>
       </c>
       <c r="AY20">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>1.69</v>
+        <v>3.32</v>
       </c>
       <c r="BA20">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BB20">
         <v>1.22</v>
       </c>
       <c r="BC20">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BD20">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BE20">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="BF20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ20">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BK20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4641,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5214,7 +5214,7 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6588821</v>
+        <v>6588823</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6166,19 +6166,19 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -6196,145 +6196,145 @@
         <v>131</v>
       </c>
       <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>4.75</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.24</v>
+      </c>
+      <c r="X29">
+        <v>3.7</v>
+      </c>
+      <c r="Y29">
+        <v>2.24</v>
+      </c>
+      <c r="Z29">
+        <v>1.59</v>
+      </c>
+      <c r="AA29">
+        <v>4.95</v>
+      </c>
+      <c r="AB29">
+        <v>1.14</v>
+      </c>
+      <c r="AC29">
+        <v>4.35</v>
+      </c>
+      <c r="AD29">
+        <v>4.1</v>
+      </c>
+      <c r="AE29">
+        <v>1.51</v>
+      </c>
+      <c r="AF29">
+        <v>1.02</v>
+      </c>
+      <c r="AG29">
+        <v>12</v>
+      </c>
+      <c r="AH29">
+        <v>1.16</v>
+      </c>
+      <c r="AI29">
+        <v>4.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.53</v>
+      </c>
+      <c r="AK29">
+        <v>2.2</v>
+      </c>
+      <c r="AL29">
+        <v>1.6</v>
+      </c>
+      <c r="AM29">
+        <v>2.25</v>
+      </c>
+      <c r="AN29">
+        <v>2.35</v>
+      </c>
+      <c r="AO29">
+        <v>1.15</v>
+      </c>
+      <c r="AP29">
+        <v>1.16</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>3</v>
+      </c>
+      <c r="AS29">
+        <v>1.33</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29">
+        <v>1.51</v>
+      </c>
+      <c r="AV29">
+        <v>1.53</v>
+      </c>
+      <c r="AW29">
+        <v>3.04</v>
+      </c>
+      <c r="AX29">
+        <v>3.75</v>
+      </c>
+      <c r="AY29">
+        <v>7.5</v>
+      </c>
+      <c r="AZ29">
+        <v>1.43</v>
+      </c>
+      <c r="BA29">
+        <v>1.18</v>
+      </c>
+      <c r="BB29">
+        <v>1.26</v>
+      </c>
+      <c r="BC29">
+        <v>1.47</v>
+      </c>
+      <c r="BD29">
+        <v>1.83</v>
+      </c>
+      <c r="BE29">
+        <v>2.3</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
         <v>6</v>
       </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>8</v>
-      </c>
-      <c r="T29">
-        <v>3.1</v>
-      </c>
-      <c r="U29">
-        <v>2.2</v>
-      </c>
-      <c r="V29">
-        <v>3.4</v>
-      </c>
-      <c r="W29">
-        <v>1.36</v>
-      </c>
-      <c r="X29">
-        <v>3</v>
-      </c>
-      <c r="Y29">
-        <v>2.75</v>
-      </c>
-      <c r="Z29">
-        <v>1.4</v>
-      </c>
-      <c r="AA29">
-        <v>7</v>
-      </c>
-      <c r="AB29">
-        <v>1.1</v>
-      </c>
-      <c r="AC29">
-        <v>2.34</v>
-      </c>
-      <c r="AD29">
-        <v>3.1</v>
-      </c>
-      <c r="AE29">
-        <v>2.7</v>
-      </c>
-      <c r="AF29">
-        <v>1.04</v>
-      </c>
-      <c r="AG29">
-        <v>8.5</v>
-      </c>
-      <c r="AH29">
-        <v>1.28</v>
-      </c>
-      <c r="AI29">
-        <v>3.5</v>
-      </c>
-      <c r="AJ29">
-        <v>1.91</v>
-      </c>
-      <c r="AK29">
-        <v>1.95</v>
-      </c>
-      <c r="AL29">
-        <v>1.67</v>
-      </c>
-      <c r="AM29">
-        <v>2.1</v>
-      </c>
-      <c r="AN29">
-        <v>1.35</v>
-      </c>
-      <c r="AO29">
-        <v>1.32</v>
-      </c>
-      <c r="AP29">
-        <v>1.5</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>2</v>
-      </c>
-      <c r="AU29">
-        <v>1.89</v>
-      </c>
-      <c r="AV29">
-        <v>1.01</v>
-      </c>
-      <c r="AW29">
-        <v>2.9</v>
-      </c>
-      <c r="AX29">
-        <v>1.85</v>
-      </c>
-      <c r="AY29">
-        <v>7</v>
-      </c>
-      <c r="AZ29">
-        <v>2.4</v>
-      </c>
-      <c r="BA29">
-        <v>1.16</v>
-      </c>
-      <c r="BB29">
-        <v>1.24</v>
-      </c>
-      <c r="BC29">
-        <v>1.46</v>
-      </c>
-      <c r="BD29">
-        <v>1.88</v>
-      </c>
-      <c r="BE29">
-        <v>2.23</v>
-      </c>
-      <c r="BF29">
+      <c r="BH29">
+        <v>5</v>
+      </c>
+      <c r="BI29">
         <v>6</v>
       </c>
-      <c r="BG29">
-        <v>8</v>
-      </c>
-      <c r="BH29">
-        <v>3</v>
-      </c>
-      <c r="BI29">
-        <v>3</v>
-      </c>
       <c r="BJ29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BK29">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6342,7 +6342,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6588822</v>
+        <v>6588825</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6357,19 +6357,19 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -6384,25 +6384,25 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="Q30">
         <v>5</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>5</v>
       </c>
-      <c r="S30">
-        <v>10</v>
-      </c>
       <c r="T30">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U30">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W30">
         <v>1.35</v>
@@ -6417,25 +6417,25 @@
         <v>1.44</v>
       </c>
       <c r="AA30">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="AB30">
         <v>1.09</v>
       </c>
       <c r="AC30">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AD30">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AE30">
-        <v>4.45</v>
+        <v>3.4</v>
       </c>
       <c r="AF30">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AH30">
         <v>1.25</v>
@@ -6444,88 +6444,88 @@
         <v>3.75</v>
       </c>
       <c r="AJ30">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AK30">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AL30">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AM30">
+        <v>2.1</v>
+      </c>
+      <c r="AN30">
+        <v>1.2</v>
+      </c>
+      <c r="AO30">
+        <v>1.2</v>
+      </c>
+      <c r="AP30">
         <v>1.9</v>
       </c>
-      <c r="AN30">
-        <v>1.11</v>
-      </c>
-      <c r="AO30">
-        <v>1.18</v>
-      </c>
-      <c r="AP30">
-        <v>2.3</v>
-      </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
         <v>1.5</v>
       </c>
-      <c r="AU30">
-        <v>1.82</v>
-      </c>
       <c r="AV30">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AW30">
-        <v>2.9</v>
+        <v>2.59</v>
       </c>
       <c r="AX30">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="AY30">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
-        <v>4.33</v>
+        <v>2.77</v>
       </c>
       <c r="BA30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BB30">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BC30">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BD30">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BE30">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="BF30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH30">
         <v>6</v>
       </c>
       <c r="BI30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK30">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6533,7 +6533,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6588823</v>
+        <v>6588821</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6548,19 +6548,19 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -6575,148 +6575,148 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
         <v>8</v>
       </c>
-      <c r="S31">
-        <v>10</v>
-      </c>
       <c r="T31">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="U31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2.75</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>1.1</v>
+      </c>
+      <c r="AC31">
+        <v>2.34</v>
+      </c>
+      <c r="AD31">
+        <v>3.1</v>
+      </c>
+      <c r="AE31">
+        <v>2.7</v>
+      </c>
+      <c r="AF31">
+        <v>1.04</v>
+      </c>
+      <c r="AG31">
+        <v>8.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.28</v>
+      </c>
+      <c r="AI31">
+        <v>3.5</v>
+      </c>
+      <c r="AJ31">
+        <v>1.91</v>
+      </c>
+      <c r="AK31">
+        <v>1.95</v>
+      </c>
+      <c r="AL31">
+        <v>1.67</v>
+      </c>
+      <c r="AM31">
+        <v>2.1</v>
+      </c>
+      <c r="AN31">
+        <v>1.35</v>
+      </c>
+      <c r="AO31">
+        <v>1.32</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>2</v>
+      </c>
+      <c r="AU31">
+        <v>1.89</v>
+      </c>
+      <c r="AV31">
+        <v>1.01</v>
+      </c>
+      <c r="AW31">
+        <v>2.9</v>
+      </c>
+      <c r="AX31">
+        <v>1.85</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>2.4</v>
+      </c>
+      <c r="BA31">
+        <v>1.16</v>
+      </c>
+      <c r="BB31">
         <v>1.24</v>
       </c>
-      <c r="X31">
-        <v>3.7</v>
-      </c>
-      <c r="Y31">
-        <v>2.24</v>
-      </c>
-      <c r="Z31">
-        <v>1.59</v>
-      </c>
-      <c r="AA31">
-        <v>4.95</v>
-      </c>
-      <c r="AB31">
-        <v>1.14</v>
-      </c>
-      <c r="AC31">
-        <v>4.35</v>
-      </c>
-      <c r="AD31">
-        <v>4.1</v>
-      </c>
-      <c r="AE31">
-        <v>1.51</v>
-      </c>
-      <c r="AF31">
-        <v>1.02</v>
-      </c>
-      <c r="AG31">
-        <v>12</v>
-      </c>
-      <c r="AH31">
-        <v>1.16</v>
-      </c>
-      <c r="AI31">
-        <v>4.75</v>
-      </c>
-      <c r="AJ31">
-        <v>1.53</v>
-      </c>
-      <c r="AK31">
-        <v>2.2</v>
-      </c>
-      <c r="AL31">
-        <v>1.6</v>
-      </c>
-      <c r="AM31">
-        <v>2.25</v>
-      </c>
-      <c r="AN31">
-        <v>2.35</v>
-      </c>
-      <c r="AO31">
-        <v>1.15</v>
-      </c>
-      <c r="AP31">
-        <v>1.16</v>
-      </c>
-      <c r="AQ31">
-        <v>2</v>
-      </c>
-      <c r="AR31">
-        <v>3</v>
-      </c>
-      <c r="AS31">
-        <v>1.33</v>
-      </c>
-      <c r="AT31">
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <v>1.51</v>
-      </c>
-      <c r="AV31">
-        <v>1.53</v>
-      </c>
-      <c r="AW31">
-        <v>3.04</v>
-      </c>
-      <c r="AX31">
-        <v>3.75</v>
-      </c>
-      <c r="AY31">
-        <v>7.5</v>
-      </c>
-      <c r="AZ31">
-        <v>1.43</v>
-      </c>
-      <c r="BA31">
-        <v>1.18</v>
-      </c>
-      <c r="BB31">
-        <v>1.26</v>
-      </c>
       <c r="BC31">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BD31">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="BE31">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="BF31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6724,7 +6724,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6588825</v>
+        <v>6588822</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -6739,19 +6739,19 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -6766,25 +6766,25 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>5</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>2.1</v>
+      </c>
+      <c r="U32">
+        <v>2.3</v>
+      </c>
+      <c r="V32">
         <v>5</v>
-      </c>
-      <c r="T32">
-        <v>2.4</v>
-      </c>
-      <c r="U32">
-        <v>2.25</v>
-      </c>
-      <c r="V32">
-        <v>4</v>
       </c>
       <c r="W32">
         <v>1.35</v>
@@ -6799,25 +6799,25 @@
         <v>1.44</v>
       </c>
       <c r="AA32">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="AB32">
         <v>1.09</v>
       </c>
       <c r="AC32">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AD32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE32">
-        <v>3.4</v>
+        <v>4.45</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AG32">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AH32">
         <v>1.25</v>
@@ -6826,88 +6826,88 @@
         <v>3.75</v>
       </c>
       <c r="AJ32">
+        <v>1.76</v>
+      </c>
+      <c r="AK32">
         <v>1.89</v>
       </c>
-      <c r="AK32">
-        <v>1.93</v>
-      </c>
       <c r="AL32">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AM32">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AO32">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP32">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS32">
+        <v>3</v>
+      </c>
+      <c r="AT32">
+        <v>1.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.82</v>
+      </c>
+      <c r="AV32">
+        <v>1.08</v>
+      </c>
+      <c r="AW32">
+        <v>2.9</v>
+      </c>
+      <c r="AX32">
         <v>1.33</v>
       </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>1.5</v>
-      </c>
-      <c r="AV32">
-        <v>1.09</v>
-      </c>
-      <c r="AW32">
-        <v>2.59</v>
-      </c>
-      <c r="AX32">
-        <v>1.59</v>
-      </c>
       <c r="AY32">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ32">
-        <v>2.77</v>
+        <v>4.33</v>
       </c>
       <c r="BA32">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BB32">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BC32">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="BD32">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BE32">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="BF32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH32">
         <v>6</v>
       </c>
       <c r="BI32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ32">
+        <v>12</v>
+      </c>
+      <c r="BK32">
         <v>9</v>
-      </c>
-      <c r="BK32">
-        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -6930,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
         <v>78</v>
@@ -7885,10 +7885,10 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
         <v>76</v>
-      </c>
-      <c r="H38" t="s">
-        <v>77</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>6</v>
       </c>
       <c r="BG41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH41">
         <v>6</v>
@@ -8626,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="BK41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,24 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['55', '66']</t>
+  </si>
+  <si>
+    <t>['64', '73']</t>
+  </si>
+  <si>
+    <t>['8', '74']</t>
+  </si>
+  <si>
+    <t>['54', '65']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['6', '27', '87']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -367,9 +385,6 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -431,6 +446,18 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1063,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1123,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1227,7 +1254,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1699,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1800,7 +1827,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2182,7 +2209,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2755,7 +2782,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2842,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>2.33</v>
@@ -3033,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>0.75</v>
@@ -3224,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3328,7 +3355,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3418,7 +3445,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>1.39</v>
@@ -3519,7 +3546,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3606,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3710,7 +3737,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3800,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3901,7 +3928,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3991,7 +4018,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4092,7 +4119,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4283,7 +4310,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4474,7 +4501,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4665,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4856,7 +4883,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5238,7 +5265,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5429,7 +5456,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5707,10 +5734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU26">
         <v>1.14</v>
@@ -5811,7 +5838,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5898,10 +5925,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>0.7</v>
@@ -6002,7 +6029,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6089,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT28">
         <v>2.33</v>
@@ -6193,7 +6220,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6283,7 +6310,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6471,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -6575,7 +6602,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6662,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU31">
         <v>1.89</v>
@@ -6766,7 +6793,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6856,7 +6883,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.82</v>
@@ -6957,7 +6984,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7148,7 +7175,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>12</v>
@@ -7530,7 +7557,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7721,7 +7748,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8103,7 +8130,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8627,6 +8654,1343 @@
       </c>
       <c r="BK41">
         <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6588842</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45164.41666666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>3.75</v>
+      </c>
+      <c r="U42">
+        <v>2.1</v>
+      </c>
+      <c r="V42">
+        <v>2.7</v>
+      </c>
+      <c r="W42">
+        <v>1.37</v>
+      </c>
+      <c r="X42">
+        <v>2.85</v>
+      </c>
+      <c r="Y42">
+        <v>2.75</v>
+      </c>
+      <c r="Z42">
+        <v>1.4</v>
+      </c>
+      <c r="AA42">
+        <v>6.95</v>
+      </c>
+      <c r="AB42">
+        <v>1.07</v>
+      </c>
+      <c r="AC42">
+        <v>2.7</v>
+      </c>
+      <c r="AD42">
+        <v>3.05</v>
+      </c>
+      <c r="AE42">
+        <v>2.36</v>
+      </c>
+      <c r="AF42">
+        <v>1.06</v>
+      </c>
+      <c r="AG42">
+        <v>8</v>
+      </c>
+      <c r="AH42">
+        <v>1.28</v>
+      </c>
+      <c r="AI42">
+        <v>3.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.01</v>
+      </c>
+      <c r="AK42">
+        <v>1.85</v>
+      </c>
+      <c r="AL42">
+        <v>1.72</v>
+      </c>
+      <c r="AM42">
+        <v>2.05</v>
+      </c>
+      <c r="AN42">
+        <v>1.7</v>
+      </c>
+      <c r="AO42">
+        <v>1.25</v>
+      </c>
+      <c r="AP42">
+        <v>1.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>2</v>
+      </c>
+      <c r="AS42">
+        <v>1</v>
+      </c>
+      <c r="AT42">
+        <v>2.33</v>
+      </c>
+      <c r="AU42">
+        <v>1.45</v>
+      </c>
+      <c r="AV42">
+        <v>1.39</v>
+      </c>
+      <c r="AW42">
+        <v>2.84</v>
+      </c>
+      <c r="AX42">
+        <v>2.45</v>
+      </c>
+      <c r="AY42">
+        <v>8.5</v>
+      </c>
+      <c r="AZ42">
+        <v>1.69</v>
+      </c>
+      <c r="BA42">
+        <v>1.1</v>
+      </c>
+      <c r="BB42">
+        <v>1.2</v>
+      </c>
+      <c r="BC42">
+        <v>1.36</v>
+      </c>
+      <c r="BD42">
+        <v>1.69</v>
+      </c>
+      <c r="BE42">
+        <v>2.03</v>
+      </c>
+      <c r="BF42">
+        <v>5</v>
+      </c>
+      <c r="BG42">
+        <v>3</v>
+      </c>
+      <c r="BH42">
+        <v>3</v>
+      </c>
+      <c r="BI42">
+        <v>4</v>
+      </c>
+      <c r="BJ42">
+        <v>8</v>
+      </c>
+      <c r="BK42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6588839</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45164.41666666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>2.7</v>
+      </c>
+      <c r="U43">
+        <v>2.15</v>
+      </c>
+      <c r="V43">
+        <v>3.6</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>2.9</v>
+      </c>
+      <c r="Y43">
+        <v>2.7</v>
+      </c>
+      <c r="Z43">
+        <v>1.41</v>
+      </c>
+      <c r="AA43">
+        <v>6.45</v>
+      </c>
+      <c r="AB43">
+        <v>1.09</v>
+      </c>
+      <c r="AC43">
+        <v>2.09</v>
+      </c>
+      <c r="AD43">
+        <v>3.06</v>
+      </c>
+      <c r="AE43">
+        <v>2.89</v>
+      </c>
+      <c r="AF43">
+        <v>1.01</v>
+      </c>
+      <c r="AG43">
+        <v>9.9</v>
+      </c>
+      <c r="AH43">
+        <v>1.28</v>
+      </c>
+      <c r="AI43">
+        <v>3.5</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.86</v>
+      </c>
+      <c r="AL43">
+        <v>1.7</v>
+      </c>
+      <c r="AM43">
+        <v>2.1</v>
+      </c>
+      <c r="AN43">
+        <v>1.28</v>
+      </c>
+      <c r="AO43">
+        <v>1.22</v>
+      </c>
+      <c r="AP43">
+        <v>1.72</v>
+      </c>
+      <c r="AQ43">
+        <v>0.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.5</v>
+      </c>
+      <c r="AS43">
+        <v>1.33</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>1.31</v>
+      </c>
+      <c r="AV43">
+        <v>1.14</v>
+      </c>
+      <c r="AW43">
+        <v>2.45</v>
+      </c>
+      <c r="AX43">
+        <v>1.64</v>
+      </c>
+      <c r="AY43">
+        <v>8.5</v>
+      </c>
+      <c r="AZ43">
+        <v>2.66</v>
+      </c>
+      <c r="BA43">
+        <v>1.17</v>
+      </c>
+      <c r="BB43">
+        <v>1.32</v>
+      </c>
+      <c r="BC43">
+        <v>1.64</v>
+      </c>
+      <c r="BD43">
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <v>2.47</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>7</v>
+      </c>
+      <c r="BJ43">
+        <v>9</v>
+      </c>
+      <c r="BK43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6588837</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>2.1</v>
+      </c>
+      <c r="U44">
+        <v>2.4</v>
+      </c>
+      <c r="V44">
+        <v>4.5</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>3.4</v>
+      </c>
+      <c r="Y44">
+        <v>2.39</v>
+      </c>
+      <c r="Z44">
+        <v>1.52</v>
+      </c>
+      <c r="AA44">
+        <v>5.45</v>
+      </c>
+      <c r="AB44">
+        <v>1.12</v>
+      </c>
+      <c r="AC44">
+        <v>1.6</v>
+      </c>
+      <c r="AD44">
+        <v>3.9</v>
+      </c>
+      <c r="AE44">
+        <v>4.8</v>
+      </c>
+      <c r="AF44">
+        <v>1.03</v>
+      </c>
+      <c r="AG44">
+        <v>17</v>
+      </c>
+      <c r="AH44">
+        <v>1.18</v>
+      </c>
+      <c r="AI44">
+        <v>4.5</v>
+      </c>
+      <c r="AJ44">
+        <v>1.61</v>
+      </c>
+      <c r="AK44">
+        <v>2.1</v>
+      </c>
+      <c r="AL44">
+        <v>1.65</v>
+      </c>
+      <c r="AM44">
+        <v>2.15</v>
+      </c>
+      <c r="AN44">
+        <v>1.12</v>
+      </c>
+      <c r="AO44">
+        <v>1.17</v>
+      </c>
+      <c r="AP44">
+        <v>2.3</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>2.33</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>1.56</v>
+      </c>
+      <c r="AV44">
+        <v>1.4</v>
+      </c>
+      <c r="AW44">
+        <v>2.96</v>
+      </c>
+      <c r="AX44">
+        <v>1.37</v>
+      </c>
+      <c r="AY44">
+        <v>9.5</v>
+      </c>
+      <c r="AZ44">
+        <v>3.69</v>
+      </c>
+      <c r="BA44">
+        <v>1.12</v>
+      </c>
+      <c r="BB44">
+        <v>1.21</v>
+      </c>
+      <c r="BC44">
+        <v>1.38</v>
+      </c>
+      <c r="BD44">
+        <v>1.72</v>
+      </c>
+      <c r="BE44">
+        <v>2.09</v>
+      </c>
+      <c r="BF44">
+        <v>4</v>
+      </c>
+      <c r="BG44">
+        <v>4</v>
+      </c>
+      <c r="BH44">
+        <v>8</v>
+      </c>
+      <c r="BI44">
+        <v>4</v>
+      </c>
+      <c r="BJ44">
+        <v>12</v>
+      </c>
+      <c r="BK44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6588835</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>4</v>
+      </c>
+      <c r="S45">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>2.4</v>
+      </c>
+      <c r="U45">
+        <v>2.15</v>
+      </c>
+      <c r="V45">
+        <v>4.3</v>
+      </c>
+      <c r="W45">
+        <v>1.35</v>
+      </c>
+      <c r="X45">
+        <v>2.95</v>
+      </c>
+      <c r="Y45">
+        <v>2.6</v>
+      </c>
+      <c r="Z45">
+        <v>1.45</v>
+      </c>
+      <c r="AA45">
+        <v>6.75</v>
+      </c>
+      <c r="AB45">
+        <v>1.1</v>
+      </c>
+      <c r="AC45">
+        <v>1.85</v>
+      </c>
+      <c r="AD45">
+        <v>3.4</v>
+      </c>
+      <c r="AE45">
+        <v>4.1</v>
+      </c>
+      <c r="AF45">
+        <v>1.05</v>
+      </c>
+      <c r="AG45">
+        <v>12.75</v>
+      </c>
+      <c r="AH45">
+        <v>1.26</v>
+      </c>
+      <c r="AI45">
+        <v>3.85</v>
+      </c>
+      <c r="AJ45">
+        <v>1.67</v>
+      </c>
+      <c r="AK45">
+        <v>2.1</v>
+      </c>
+      <c r="AL45">
+        <v>1.75</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>1.12</v>
+      </c>
+      <c r="AO45">
+        <v>1.25</v>
+      </c>
+      <c r="AP45">
+        <v>2.1</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0.33</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>0.25</v>
+      </c>
+      <c r="AU45">
+        <v>1.73</v>
+      </c>
+      <c r="AV45">
+        <v>0.96</v>
+      </c>
+      <c r="AW45">
+        <v>2.69</v>
+      </c>
+      <c r="AX45">
+        <v>1.32</v>
+      </c>
+      <c r="AY45">
+        <v>6.75</v>
+      </c>
+      <c r="AZ45">
+        <v>3.85</v>
+      </c>
+      <c r="BA45">
+        <v>1.16</v>
+      </c>
+      <c r="BB45">
+        <v>1.28</v>
+      </c>
+      <c r="BC45">
+        <v>1.52</v>
+      </c>
+      <c r="BD45">
+        <v>1.98</v>
+      </c>
+      <c r="BE45">
+        <v>2.39</v>
+      </c>
+      <c r="BF45">
+        <v>8</v>
+      </c>
+      <c r="BG45">
+        <v>4</v>
+      </c>
+      <c r="BH45">
+        <v>12</v>
+      </c>
+      <c r="BI45">
+        <v>9</v>
+      </c>
+      <c r="BJ45">
+        <v>20</v>
+      </c>
+      <c r="BK45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6588840</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>12</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
+        <v>2.25</v>
+      </c>
+      <c r="V46">
+        <v>3.75</v>
+      </c>
+      <c r="W46">
+        <v>1.35</v>
+      </c>
+      <c r="X46">
+        <v>2.95</v>
+      </c>
+      <c r="Y46">
+        <v>2.6</v>
+      </c>
+      <c r="Z46">
+        <v>1.44</v>
+      </c>
+      <c r="AA46">
+        <v>6</v>
+      </c>
+      <c r="AB46">
+        <v>1.1</v>
+      </c>
+      <c r="AC46">
+        <v>2.05</v>
+      </c>
+      <c r="AD46">
+        <v>3.3</v>
+      </c>
+      <c r="AE46">
+        <v>3.5</v>
+      </c>
+      <c r="AF46">
+        <v>1.04</v>
+      </c>
+      <c r="AG46">
+        <v>14</v>
+      </c>
+      <c r="AH46">
+        <v>1.25</v>
+      </c>
+      <c r="AI46">
+        <v>3.75</v>
+      </c>
+      <c r="AJ46">
+        <v>1.73</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46">
+        <v>1.66</v>
+      </c>
+      <c r="AM46">
+        <v>2.15</v>
+      </c>
+      <c r="AN46">
+        <v>1.3</v>
+      </c>
+      <c r="AO46">
+        <v>1.3</v>
+      </c>
+      <c r="AP46">
+        <v>1.8</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <v>0.67</v>
+      </c>
+      <c r="AU46">
+        <v>1.72</v>
+      </c>
+      <c r="AV46">
+        <v>1.43</v>
+      </c>
+      <c r="AW46">
+        <v>3.15</v>
+      </c>
+      <c r="AX46">
+        <v>1.32</v>
+      </c>
+      <c r="AY46">
+        <v>6.75</v>
+      </c>
+      <c r="AZ46">
+        <v>3.75</v>
+      </c>
+      <c r="BA46">
+        <v>1.16</v>
+      </c>
+      <c r="BB46">
+        <v>1.26</v>
+      </c>
+      <c r="BC46">
+        <v>1.54</v>
+      </c>
+      <c r="BD46">
+        <v>1.83</v>
+      </c>
+      <c r="BE46">
+        <v>2.26</v>
+      </c>
+      <c r="BF46">
+        <v>5</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+      <c r="BH46">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>3</v>
+      </c>
+      <c r="BJ46">
+        <v>9</v>
+      </c>
+      <c r="BK46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6588841</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>5.5</v>
+      </c>
+      <c r="U47">
+        <v>2.5</v>
+      </c>
+      <c r="V47">
+        <v>1.9</v>
+      </c>
+      <c r="W47">
+        <v>1.27</v>
+      </c>
+      <c r="X47">
+        <v>3.45</v>
+      </c>
+      <c r="Y47">
+        <v>2.29</v>
+      </c>
+      <c r="Z47">
+        <v>1.56</v>
+      </c>
+      <c r="AA47">
+        <v>4.95</v>
+      </c>
+      <c r="AB47">
+        <v>1.14</v>
+      </c>
+      <c r="AC47">
+        <v>8.5</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>1.02</v>
+      </c>
+      <c r="AG47">
+        <v>12</v>
+      </c>
+      <c r="AH47">
+        <v>1.17</v>
+      </c>
+      <c r="AI47">
+        <v>4.75</v>
+      </c>
+      <c r="AJ47">
+        <v>1.55</v>
+      </c>
+      <c r="AK47">
+        <v>2.3</v>
+      </c>
+      <c r="AL47">
+        <v>1.75</v>
+      </c>
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>2.42</v>
+      </c>
+      <c r="AO47">
+        <v>1.14</v>
+      </c>
+      <c r="AP47">
+        <v>1.06</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>3</v>
+      </c>
+      <c r="AS47">
+        <v>0.5</v>
+      </c>
+      <c r="AT47">
+        <v>2.33</v>
+      </c>
+      <c r="AU47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AV47">
+        <v>1.64</v>
+      </c>
+      <c r="AW47">
+        <v>2.45</v>
+      </c>
+      <c r="AX47">
+        <v>5.5</v>
+      </c>
+      <c r="AY47">
+        <v>7.75</v>
+      </c>
+      <c r="AZ47">
+        <v>1.16</v>
+      </c>
+      <c r="BA47">
+        <v>1.16</v>
+      </c>
+      <c r="BB47">
+        <v>1.28</v>
+      </c>
+      <c r="BC47">
+        <v>1.57</v>
+      </c>
+      <c r="BD47">
+        <v>1.93</v>
+      </c>
+      <c r="BE47">
+        <v>2.34</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>2</v>
+      </c>
+      <c r="BH47">
+        <v>6</v>
+      </c>
+      <c r="BI47">
+        <v>7</v>
+      </c>
+      <c r="BJ47">
+        <v>8</v>
+      </c>
+      <c r="BK47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6588838</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45165.54166666666</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>1.48</v>
+      </c>
+      <c r="U48">
+        <v>2.95</v>
+      </c>
+      <c r="V48">
+        <v>11</v>
+      </c>
+      <c r="W48">
+        <v>1.21</v>
+      </c>
+      <c r="X48">
+        <v>4.15</v>
+      </c>
+      <c r="Y48">
+        <v>2.03</v>
+      </c>
+      <c r="Z48">
+        <v>1.74</v>
+      </c>
+      <c r="AA48">
+        <v>4.15</v>
+      </c>
+      <c r="AB48">
+        <v>1.21</v>
+      </c>
+      <c r="AC48">
+        <v>1.16</v>
+      </c>
+      <c r="AD48">
+        <v>7.6</v>
+      </c>
+      <c r="AE48">
+        <v>16</v>
+      </c>
+      <c r="AF48">
+        <v>1.01</v>
+      </c>
+      <c r="AG48">
+        <v>29</v>
+      </c>
+      <c r="AH48">
+        <v>1.08</v>
+      </c>
+      <c r="AI48">
+        <v>6.2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.45</v>
+      </c>
+      <c r="AK48">
+        <v>2.45</v>
+      </c>
+      <c r="AL48">
+        <v>2.15</v>
+      </c>
+      <c r="AM48">
+        <v>1.62</v>
+      </c>
+      <c r="AN48">
+        <v>1.04</v>
+      </c>
+      <c r="AO48">
+        <v>1.03</v>
+      </c>
+      <c r="AP48">
+        <v>4.75</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>3</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>2.51</v>
+      </c>
+      <c r="AV48">
+        <v>1.29</v>
+      </c>
+      <c r="AW48">
+        <v>3.8</v>
+      </c>
+      <c r="AX48">
+        <v>1.08</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>9.5</v>
+      </c>
+      <c r="BA48">
+        <v>1.15</v>
+      </c>
+      <c r="BB48">
+        <v>1.25</v>
+      </c>
+      <c r="BC48">
+        <v>1.47</v>
+      </c>
+      <c r="BD48">
+        <v>1.93</v>
+      </c>
+      <c r="BE48">
+        <v>2.23</v>
+      </c>
+      <c r="BF48">
+        <v>7</v>
+      </c>
+      <c r="BG48">
+        <v>3</v>
+      </c>
+      <c r="BH48">
+        <v>6</v>
+      </c>
+      <c r="BI48">
+        <v>1</v>
+      </c>
+      <c r="BJ48">
+        <v>13</v>
+      </c>
+      <c r="BK48">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -9211,22 +9211,22 @@
         <v>2.09</v>
       </c>
       <c r="BF44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK44">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -9402,22 +9402,22 @@
         <v>2.39</v>
       </c>
       <c r="BF45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG45">
         <v>4</v>
       </c>
       <c r="BH45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI45">
+        <v>5</v>
+      </c>
+      <c r="BJ45">
+        <v>17</v>
+      </c>
+      <c r="BK45">
         <v>9</v>
-      </c>
-      <c r="BJ45">
-        <v>20</v>
-      </c>
-      <c r="BK45">
-        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9470,13 +9470,13 @@
         <v>81</v>
       </c>
       <c r="Q46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R46">
         <v>7</v>
       </c>
       <c r="S46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -9599,16 +9599,16 @@
         <v>5</v>
       </c>
       <c r="BH46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK46">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -9787,19 +9787,19 @@
         <v>2</v>
       </c>
       <c r="BG47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
         <v>7</v>
       </c>
-      <c r="BJ47">
-        <v>8</v>
-      </c>
       <c r="BK47">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:63">
@@ -9975,22 +9975,22 @@
         <v>2.23</v>
       </c>
       <c r="BF48">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BG48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH48">
         <v>6</v>
       </c>
       <c r="BI48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BK48">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,21 @@
     <t>['6', '27', '87']</t>
   </si>
   <si>
+    <t>['20', '56']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['49', '59']</t>
+  </si>
+  <si>
+    <t>['9', '45']</t>
+  </si>
+  <si>
+    <t>['13', '38', '43', '70', '76']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -458,6 +473,12 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['68', '77']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1084,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1153,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1254,7 +1275,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1532,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -1827,7 +1848,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1917,7 +1938,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2105,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2209,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2296,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2782,7 +2803,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2872,7 +2893,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3063,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU12">
         <v>1.83</v>
@@ -3251,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>2.33</v>
@@ -3355,7 +3376,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3546,7 +3567,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3737,7 +3758,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3824,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>2.33</v>
@@ -3928,7 +3949,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4015,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT17">
         <v>0.25</v>
@@ -4119,7 +4140,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4209,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>2.28</v>
@@ -4310,7 +4331,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4400,7 +4421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>2.09</v>
@@ -4501,7 +4522,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4588,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4692,7 +4713,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4883,7 +4904,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4970,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5161,10 +5182,10 @@
         <v>0.5</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5265,7 +5286,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5352,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.87</v>
@@ -5456,7 +5477,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5734,7 +5755,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
         <v>0.25</v>
@@ -5838,7 +5859,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6029,7 +6050,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6119,7 +6140,7 @@
         <v>0.5</v>
       </c>
       <c r="AT28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6220,7 +6241,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6602,7 +6623,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6793,7 +6814,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6984,7 +7005,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7071,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
         <v>1.5</v>
@@ -7175,7 +7196,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>12</v>
@@ -7262,10 +7283,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
+        <v>1.75</v>
+      </c>
+      <c r="AT34">
         <v>1.33</v>
-      </c>
-      <c r="AT34">
-        <v>2</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7453,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.57</v>
@@ -7557,7 +7578,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7647,7 +7668,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU36">
         <v>1.94</v>
@@ -7748,7 +7769,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7835,10 +7856,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU37">
         <v>0.96</v>
@@ -8026,10 +8047,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.14</v>
@@ -8130,7 +8151,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8217,7 +8238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8703,7 +8724,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -8894,7 +8915,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9172,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -9276,7 +9297,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9658,7 +9679,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9849,7 +9870,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -9991,6 +10012,1343 @@
       </c>
       <c r="BK48">
         <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6588850</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>2.8</v>
+      </c>
+      <c r="U49">
+        <v>2.15</v>
+      </c>
+      <c r="V49">
+        <v>3.4</v>
+      </c>
+      <c r="W49">
+        <v>1.35</v>
+      </c>
+      <c r="X49">
+        <v>2.95</v>
+      </c>
+      <c r="Y49">
+        <v>2.6</v>
+      </c>
+      <c r="Z49">
+        <v>1.42</v>
+      </c>
+      <c r="AA49">
+        <v>6.75</v>
+      </c>
+      <c r="AB49">
+        <v>1.11</v>
+      </c>
+      <c r="AC49">
+        <v>2.25</v>
+      </c>
+      <c r="AD49">
+        <v>3.3</v>
+      </c>
+      <c r="AE49">
+        <v>2.68</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>13.25</v>
+      </c>
+      <c r="AH49">
+        <v>1.26</v>
+      </c>
+      <c r="AI49">
+        <v>3.88</v>
+      </c>
+      <c r="AJ49">
+        <v>1.67</v>
+      </c>
+      <c r="AK49">
+        <v>2.15</v>
+      </c>
+      <c r="AL49">
+        <v>1.65</v>
+      </c>
+      <c r="AM49">
+        <v>2.1</v>
+      </c>
+      <c r="AN49">
+        <v>1.33</v>
+      </c>
+      <c r="AO49">
+        <v>1.22</v>
+      </c>
+      <c r="AP49">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49">
+        <v>1.67</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>1.25</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>1.07</v>
+      </c>
+      <c r="AV49">
+        <v>1.01</v>
+      </c>
+      <c r="AW49">
+        <v>2.08</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>8.5</v>
+      </c>
+      <c r="AZ49">
+        <v>2</v>
+      </c>
+      <c r="BA49">
+        <v>1.15</v>
+      </c>
+      <c r="BB49">
+        <v>1.25</v>
+      </c>
+      <c r="BC49">
+        <v>1.52</v>
+      </c>
+      <c r="BD49">
+        <v>1.83</v>
+      </c>
+      <c r="BE49">
+        <v>2.22</v>
+      </c>
+      <c r="BF49">
+        <v>4</v>
+      </c>
+      <c r="BG49">
+        <v>4</v>
+      </c>
+      <c r="BH49">
+        <v>7</v>
+      </c>
+      <c r="BI49">
+        <v>4</v>
+      </c>
+      <c r="BJ49">
+        <v>11</v>
+      </c>
+      <c r="BK49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6588848</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>2.98</v>
+      </c>
+      <c r="U50">
+        <v>2.28</v>
+      </c>
+      <c r="V50">
+        <v>3.14</v>
+      </c>
+      <c r="W50">
+        <v>1.31</v>
+      </c>
+      <c r="X50">
+        <v>3.28</v>
+      </c>
+      <c r="Y50">
+        <v>2.44</v>
+      </c>
+      <c r="Z50">
+        <v>1.52</v>
+      </c>
+      <c r="AA50">
+        <v>5.75</v>
+      </c>
+      <c r="AB50">
+        <v>1.12</v>
+      </c>
+      <c r="AC50">
+        <v>2.45</v>
+      </c>
+      <c r="AD50">
+        <v>3.3</v>
+      </c>
+      <c r="AE50">
+        <v>2.45</v>
+      </c>
+      <c r="AF50">
+        <v>1.03</v>
+      </c>
+      <c r="AG50">
+        <v>16</v>
+      </c>
+      <c r="AH50">
+        <v>1.21</v>
+      </c>
+      <c r="AI50">
+        <v>4.5</v>
+      </c>
+      <c r="AJ50">
+        <v>1.62</v>
+      </c>
+      <c r="AK50">
+        <v>2.2</v>
+      </c>
+      <c r="AL50">
+        <v>1.52</v>
+      </c>
+      <c r="AM50">
+        <v>2.35</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>1.3</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>0.75</v>
+      </c>
+      <c r="AS50">
+        <v>1.5</v>
+      </c>
+      <c r="AT50">
+        <v>0.6</v>
+      </c>
+      <c r="AU50">
+        <v>1.3</v>
+      </c>
+      <c r="AV50">
+        <v>1.31</v>
+      </c>
+      <c r="AW50">
+        <v>2.61</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>8.5</v>
+      </c>
+      <c r="AZ50">
+        <v>2</v>
+      </c>
+      <c r="BA50">
+        <v>1.15</v>
+      </c>
+      <c r="BB50">
+        <v>1.26</v>
+      </c>
+      <c r="BC50">
+        <v>1.54</v>
+      </c>
+      <c r="BD50">
+        <v>1.88</v>
+      </c>
+      <c r="BE50">
+        <v>2.26</v>
+      </c>
+      <c r="BF50">
+        <v>6</v>
+      </c>
+      <c r="BG50">
+        <v>4</v>
+      </c>
+      <c r="BH50">
+        <v>1</v>
+      </c>
+      <c r="BI50">
+        <v>10</v>
+      </c>
+      <c r="BJ50">
+        <v>7</v>
+      </c>
+      <c r="BK50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6588846</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>120</v>
+      </c>
+      <c r="P51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>14</v>
+      </c>
+      <c r="T51">
+        <v>1.95</v>
+      </c>
+      <c r="U51">
+        <v>2.35</v>
+      </c>
+      <c r="V51">
+        <v>5.75</v>
+      </c>
+      <c r="W51">
+        <v>1.32</v>
+      </c>
+      <c r="X51">
+        <v>3.1</v>
+      </c>
+      <c r="Y51">
+        <v>2.5</v>
+      </c>
+      <c r="Z51">
+        <v>1.48</v>
+      </c>
+      <c r="AA51">
+        <v>6.25</v>
+      </c>
+      <c r="AB51">
+        <v>1.11</v>
+      </c>
+      <c r="AC51">
+        <v>1.45</v>
+      </c>
+      <c r="AD51">
+        <v>4.3</v>
+      </c>
+      <c r="AE51">
+        <v>5</v>
+      </c>
+      <c r="AF51">
+        <v>1.04</v>
+      </c>
+      <c r="AG51">
+        <v>15</v>
+      </c>
+      <c r="AH51">
+        <v>1.24</v>
+      </c>
+      <c r="AI51">
+        <v>4.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.73</v>
+      </c>
+      <c r="AK51">
+        <v>2.05</v>
+      </c>
+      <c r="AL51">
+        <v>1.85</v>
+      </c>
+      <c r="AM51">
+        <v>1.85</v>
+      </c>
+      <c r="AN51">
+        <v>1.14</v>
+      </c>
+      <c r="AO51">
+        <v>1.22</v>
+      </c>
+      <c r="AP51">
+        <v>2.55</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>1.75</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>1.29</v>
+      </c>
+      <c r="AV51">
+        <v>1.15</v>
+      </c>
+      <c r="AW51">
+        <v>2.44</v>
+      </c>
+      <c r="AX51">
+        <v>1.34</v>
+      </c>
+      <c r="AY51">
+        <v>9.5</v>
+      </c>
+      <c r="AZ51">
+        <v>4.07</v>
+      </c>
+      <c r="BA51">
+        <v>1.15</v>
+      </c>
+      <c r="BB51">
+        <v>1.26</v>
+      </c>
+      <c r="BC51">
+        <v>1.48</v>
+      </c>
+      <c r="BD51">
+        <v>1.75</v>
+      </c>
+      <c r="BE51">
+        <v>2.18</v>
+      </c>
+      <c r="BF51">
+        <v>7</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+      <c r="BH51">
+        <v>10</v>
+      </c>
+      <c r="BI51">
+        <v>2</v>
+      </c>
+      <c r="BJ51">
+        <v>17</v>
+      </c>
+      <c r="BK51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6588845</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45171.54166666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q52">
+        <v>12</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>22</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>2.25</v>
+      </c>
+      <c r="V52">
+        <v>3.75</v>
+      </c>
+      <c r="W52">
+        <v>1.32</v>
+      </c>
+      <c r="X52">
+        <v>3.2</v>
+      </c>
+      <c r="Y52">
+        <v>2.45</v>
+      </c>
+      <c r="Z52">
+        <v>1.5</v>
+      </c>
+      <c r="AA52">
+        <v>6</v>
+      </c>
+      <c r="AB52">
+        <v>1.12</v>
+      </c>
+      <c r="AC52">
+        <v>2.1</v>
+      </c>
+      <c r="AD52">
+        <v>3.4</v>
+      </c>
+      <c r="AE52">
+        <v>3.1</v>
+      </c>
+      <c r="AF52">
+        <v>1.04</v>
+      </c>
+      <c r="AG52">
+        <v>15.75</v>
+      </c>
+      <c r="AH52">
+        <v>1.21</v>
+      </c>
+      <c r="AI52">
+        <v>4.4</v>
+      </c>
+      <c r="AJ52">
+        <v>1.7</v>
+      </c>
+      <c r="AK52">
+        <v>2.05</v>
+      </c>
+      <c r="AL52">
+        <v>1.58</v>
+      </c>
+      <c r="AM52">
+        <v>2.25</v>
+      </c>
+      <c r="AN52">
+        <v>1.25</v>
+      </c>
+      <c r="AO52">
+        <v>1.22</v>
+      </c>
+      <c r="AP52">
+        <v>1.78</v>
+      </c>
+      <c r="AQ52">
+        <v>2.33</v>
+      </c>
+      <c r="AR52">
+        <v>2</v>
+      </c>
+      <c r="AS52">
+        <v>2.5</v>
+      </c>
+      <c r="AT52">
+        <v>1.33</v>
+      </c>
+      <c r="AU52">
+        <v>1.69</v>
+      </c>
+      <c r="AV52">
+        <v>1.47</v>
+      </c>
+      <c r="AW52">
+        <v>3.16</v>
+      </c>
+      <c r="AX52">
+        <v>1.75</v>
+      </c>
+      <c r="AY52">
+        <v>8.5</v>
+      </c>
+      <c r="AZ52">
+        <v>2.43</v>
+      </c>
+      <c r="BA52">
+        <v>1.19</v>
+      </c>
+      <c r="BB52">
+        <v>1.29</v>
+      </c>
+      <c r="BC52">
+        <v>1.5</v>
+      </c>
+      <c r="BD52">
+        <v>1.88</v>
+      </c>
+      <c r="BE52">
+        <v>2.19</v>
+      </c>
+      <c r="BF52">
+        <v>5</v>
+      </c>
+      <c r="BG52">
+        <v>6</v>
+      </c>
+      <c r="BH52">
+        <v>8</v>
+      </c>
+      <c r="BI52">
+        <v>5</v>
+      </c>
+      <c r="BJ52">
+        <v>13</v>
+      </c>
+      <c r="BK52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6588843</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+      <c r="T53">
+        <v>1.95</v>
+      </c>
+      <c r="U53">
+        <v>2.24</v>
+      </c>
+      <c r="V53">
+        <v>5.5</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>3.4</v>
+      </c>
+      <c r="Y53">
+        <v>2.38</v>
+      </c>
+      <c r="Z53">
+        <v>1.53</v>
+      </c>
+      <c r="AA53">
+        <v>5</v>
+      </c>
+      <c r="AB53">
+        <v>1.14</v>
+      </c>
+      <c r="AC53">
+        <v>1.45</v>
+      </c>
+      <c r="AD53">
+        <v>4.17</v>
+      </c>
+      <c r="AE53">
+        <v>4.74</v>
+      </c>
+      <c r="AF53">
+        <v>1.03</v>
+      </c>
+      <c r="AG53">
+        <v>17.75</v>
+      </c>
+      <c r="AH53">
+        <v>1.19</v>
+      </c>
+      <c r="AI53">
+        <v>4.78</v>
+      </c>
+      <c r="AJ53">
+        <v>1.57</v>
+      </c>
+      <c r="AK53">
+        <v>2.3</v>
+      </c>
+      <c r="AL53">
+        <v>1.72</v>
+      </c>
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>1.06</v>
+      </c>
+      <c r="AO53">
+        <v>1.17</v>
+      </c>
+      <c r="AP53">
+        <v>2.7</v>
+      </c>
+      <c r="AQ53">
+        <v>2.33</v>
+      </c>
+      <c r="AR53">
+        <v>2</v>
+      </c>
+      <c r="AS53">
+        <v>2.5</v>
+      </c>
+      <c r="AT53">
+        <v>1.5</v>
+      </c>
+      <c r="AU53">
+        <v>1.65</v>
+      </c>
+      <c r="AV53">
+        <v>1.38</v>
+      </c>
+      <c r="AW53">
+        <v>3.03</v>
+      </c>
+      <c r="AX53">
+        <v>1.45</v>
+      </c>
+      <c r="AY53">
+        <v>9.5</v>
+      </c>
+      <c r="AZ53">
+        <v>3.31</v>
+      </c>
+      <c r="BA53">
+        <v>1.13</v>
+      </c>
+      <c r="BB53">
+        <v>1.22</v>
+      </c>
+      <c r="BC53">
+        <v>1.44</v>
+      </c>
+      <c r="BD53">
+        <v>1.71</v>
+      </c>
+      <c r="BE53">
+        <v>2.08</v>
+      </c>
+      <c r="BF53">
+        <v>6</v>
+      </c>
+      <c r="BG53">
+        <v>4</v>
+      </c>
+      <c r="BH53">
+        <v>7</v>
+      </c>
+      <c r="BI53">
+        <v>6</v>
+      </c>
+      <c r="BJ53">
+        <v>13</v>
+      </c>
+      <c r="BK53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6588849</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>13</v>
+      </c>
+      <c r="T54">
+        <v>4.5</v>
+      </c>
+      <c r="U54">
+        <v>2.4</v>
+      </c>
+      <c r="V54">
+        <v>2.05</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>3.34</v>
+      </c>
+      <c r="Y54">
+        <v>2.41</v>
+      </c>
+      <c r="Z54">
+        <v>1.53</v>
+      </c>
+      <c r="AA54">
+        <v>5.65</v>
+      </c>
+      <c r="AB54">
+        <v>1.12</v>
+      </c>
+      <c r="AC54">
+        <v>4</v>
+      </c>
+      <c r="AD54">
+        <v>4</v>
+      </c>
+      <c r="AE54">
+        <v>1.61</v>
+      </c>
+      <c r="AF54">
+        <v>1.03</v>
+      </c>
+      <c r="AG54">
+        <v>12</v>
+      </c>
+      <c r="AH54">
+        <v>1.18</v>
+      </c>
+      <c r="AI54">
+        <v>4.25</v>
+      </c>
+      <c r="AJ54">
+        <v>1.6</v>
+      </c>
+      <c r="AK54">
+        <v>2.25</v>
+      </c>
+      <c r="AL54">
+        <v>1.63</v>
+      </c>
+      <c r="AM54">
+        <v>2.2</v>
+      </c>
+      <c r="AN54">
+        <v>2.15</v>
+      </c>
+      <c r="AO54">
+        <v>1.22</v>
+      </c>
+      <c r="AP54">
+        <v>1.18</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>2.33</v>
+      </c>
+      <c r="AS54">
+        <v>1.5</v>
+      </c>
+      <c r="AT54">
+        <v>2.5</v>
+      </c>
+      <c r="AU54">
+        <v>1.53</v>
+      </c>
+      <c r="AV54">
+        <v>1.5</v>
+      </c>
+      <c r="AW54">
+        <v>3.03</v>
+      </c>
+      <c r="AX54">
+        <v>3.48</v>
+      </c>
+      <c r="AY54">
+        <v>9.5</v>
+      </c>
+      <c r="AZ54">
+        <v>1.41</v>
+      </c>
+      <c r="BA54">
+        <v>1.17</v>
+      </c>
+      <c r="BB54">
+        <v>1.3</v>
+      </c>
+      <c r="BC54">
+        <v>1.6</v>
+      </c>
+      <c r="BD54">
+        <v>2</v>
+      </c>
+      <c r="BE54">
+        <v>2.39</v>
+      </c>
+      <c r="BF54">
+        <v>7</v>
+      </c>
+      <c r="BG54">
+        <v>7</v>
+      </c>
+      <c r="BH54">
+        <v>6</v>
+      </c>
+      <c r="BI54">
+        <v>12</v>
+      </c>
+      <c r="BJ54">
+        <v>13</v>
+      </c>
+      <c r="BK54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6588847</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45172.54166666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>9</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>3.05</v>
+      </c>
+      <c r="V55">
+        <v>14</v>
+      </c>
+      <c r="W55">
+        <v>1.22</v>
+      </c>
+      <c r="X55">
+        <v>4.1</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>1.7</v>
+      </c>
+      <c r="AA55">
+        <v>4.3</v>
+      </c>
+      <c r="AB55">
+        <v>1.19</v>
+      </c>
+      <c r="AC55">
+        <v>1.08</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>19</v>
+      </c>
+      <c r="AF55">
+        <v>1.01</v>
+      </c>
+      <c r="AG55">
+        <v>29</v>
+      </c>
+      <c r="AH55">
+        <v>1.13</v>
+      </c>
+      <c r="AI55">
+        <v>6.25</v>
+      </c>
+      <c r="AJ55">
+        <v>1.36</v>
+      </c>
+      <c r="AK55">
+        <v>2.9</v>
+      </c>
+      <c r="AL55">
+        <v>2.4</v>
+      </c>
+      <c r="AM55">
+        <v>1.54</v>
+      </c>
+      <c r="AN55">
+        <v>1.02</v>
+      </c>
+      <c r="AO55">
+        <v>1.06</v>
+      </c>
+      <c r="AP55">
+        <v>6.75</v>
+      </c>
+      <c r="AQ55">
+        <v>3</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>3</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>2.44</v>
+      </c>
+      <c r="AV55">
+        <v>1.22</v>
+      </c>
+      <c r="AW55">
+        <v>3.66</v>
+      </c>
+      <c r="AX55">
+        <v>1.04</v>
+      </c>
+      <c r="AY55">
+        <v>17</v>
+      </c>
+      <c r="AZ55">
+        <v>14.6</v>
+      </c>
+      <c r="BA55">
+        <v>1.13</v>
+      </c>
+      <c r="BB55">
+        <v>1.22</v>
+      </c>
+      <c r="BC55">
+        <v>1.42</v>
+      </c>
+      <c r="BD55">
+        <v>1.73</v>
+      </c>
+      <c r="BE55">
+        <v>2.12</v>
+      </c>
+      <c r="BF55">
+        <v>5</v>
+      </c>
+      <c r="BG55">
+        <v>2</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>1</v>
+      </c>
+      <c r="BJ55">
+        <v>9</v>
+      </c>
+      <c r="BK55">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['13', '38', '43', '70', '76']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
   </si>
   <si>
     <t>['68', '77']</t>
+  </si>
+  <si>
+    <t>['41', '76', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>9</v>
@@ -1275,7 +1281,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1848,7 +1854,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2230,7 +2236,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2511,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2803,7 +2809,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3376,7 +3382,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3567,7 +3573,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3758,7 +3764,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3949,7 +3955,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4140,7 +4146,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4331,7 +4337,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4522,7 +4528,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4612,7 +4618,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>1.12</v>
@@ -4713,7 +4719,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4800,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -4904,7 +4910,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5286,7 +5292,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5477,7 +5483,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5859,7 +5865,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6050,7 +6056,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -6241,7 +6247,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6623,7 +6629,7 @@
         <v>81</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6814,7 +6820,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7005,7 +7011,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7196,7 +7202,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>12</v>
@@ -7578,7 +7584,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7769,7 +7775,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8151,7 +8157,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8241,7 +8247,7 @@
         <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU39">
         <v>1.72</v>
@@ -8429,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -8724,7 +8730,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -8915,7 +8921,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9297,7 +9303,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9679,7 +9685,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9870,7 +9876,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10061,7 +10067,7 @@
         <v>81</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10252,7 +10258,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10760,13 +10766,13 @@
         <v>2.19</v>
       </c>
       <c r="BF52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG52">
         <v>6</v>
       </c>
       <c r="BH52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI52">
         <v>5</v>
@@ -10957,16 +10963,16 @@
         <v>4</v>
       </c>
       <c r="BH53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK53">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:63">
@@ -11016,7 +11022,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11207,16 +11213,16 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T55">
         <v>1.4</v>
@@ -11333,22 +11339,213 @@
         <v>2.12</v>
       </c>
       <c r="BF55">
+        <v>13</v>
+      </c>
+      <c r="BG55">
+        <v>4</v>
+      </c>
+      <c r="BH55">
+        <v>9</v>
+      </c>
+      <c r="BI55">
+        <v>1</v>
+      </c>
+      <c r="BJ55">
+        <v>22</v>
+      </c>
+      <c r="BK55">
         <v>5</v>
       </c>
-      <c r="BG55">
-        <v>2</v>
-      </c>
-      <c r="BH55">
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6588844</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45172.625</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
         <v>4</v>
       </c>
-      <c r="BI55">
-        <v>1</v>
-      </c>
-      <c r="BJ55">
+      <c r="O56" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>11</v>
+      </c>
+      <c r="T56">
+        <v>2.95</v>
+      </c>
+      <c r="U56">
+        <v>2.15</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.38</v>
+      </c>
+      <c r="X56">
+        <v>2.9</v>
+      </c>
+      <c r="Y56">
+        <v>2.65</v>
+      </c>
+      <c r="Z56">
+        <v>1.42</v>
+      </c>
+      <c r="AA56">
+        <v>7</v>
+      </c>
+      <c r="AB56">
+        <v>1.1</v>
+      </c>
+      <c r="AC56">
+        <v>2.5</v>
+      </c>
+      <c r="AD56">
+        <v>3.35</v>
+      </c>
+      <c r="AE56">
+        <v>2.6</v>
+      </c>
+      <c r="AF56">
+        <v>1.03</v>
+      </c>
+      <c r="AG56">
         <v>9</v>
       </c>
-      <c r="BK55">
-        <v>3</v>
+      <c r="AH56">
+        <v>1.29</v>
+      </c>
+      <c r="AI56">
+        <v>3.4</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.9</v>
+      </c>
+      <c r="AL56">
+        <v>1.65</v>
+      </c>
+      <c r="AM56">
+        <v>2.1</v>
+      </c>
+      <c r="AN56">
+        <v>1.44</v>
+      </c>
+      <c r="AO56">
+        <v>1.3</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>3</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>2</v>
+      </c>
+      <c r="AT56">
+        <v>1.5</v>
+      </c>
+      <c r="AU56">
+        <v>1.44</v>
+      </c>
+      <c r="AV56">
+        <v>0.93</v>
+      </c>
+      <c r="AW56">
+        <v>2.37</v>
+      </c>
+      <c r="AX56">
+        <v>1.75</v>
+      </c>
+      <c r="AY56">
+        <v>8.5</v>
+      </c>
+      <c r="AZ56">
+        <v>2.41</v>
+      </c>
+      <c r="BA56">
+        <v>1.17</v>
+      </c>
+      <c r="BB56">
+        <v>1.29</v>
+      </c>
+      <c r="BC56">
+        <v>1.6</v>
+      </c>
+      <c r="BD56">
+        <v>1.94</v>
+      </c>
+      <c r="BE56">
+        <v>2.39</v>
+      </c>
+      <c r="BF56">
+        <v>4</v>
+      </c>
+      <c r="BG56">
+        <v>5</v>
+      </c>
+      <c r="BH56">
+        <v>6</v>
+      </c>
+      <c r="BI56">
+        <v>3</v>
+      </c>
+      <c r="BJ56">
+        <v>10</v>
+      </c>
+      <c r="BK56">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -331,27 +331,27 @@
     <t>['45+3', '74']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['11', '90+2']</t>
   </si>
   <si>
     <t>['13']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['85']</t>
   </si>
   <si>
     <t>['45+2', '58', '89']</t>
   </si>
   <si>
+    <t>['45+1', '74']</t>
+  </si>
+  <si>
     <t>['45+1', '45+3']</t>
   </si>
   <si>
-    <t>['45+1', '74']</t>
-  </si>
-  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -361,24 +361,24 @@
     <t>['64', '73']</t>
   </si>
   <si>
+    <t>['54', '65']</t>
+  </si>
+  <si>
     <t>['8', '74']</t>
   </si>
   <si>
-    <t>['54', '65']</t>
-  </si>
-  <si>
     <t>['44']</t>
   </si>
   <si>
     <t>['6', '27', '87']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['20', '56']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['49', '59']</t>
   </si>
   <si>
@@ -445,19 +445,19 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['8', '10', '46', '73', '90+2']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['45+2', '53']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['34']</t>
@@ -6205,7 +6205,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6588823</v>
+        <v>6588825</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -6220,175 +6220,175 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="U29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W29">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="X29">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="Y29">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="Z29">
+        <v>1.44</v>
+      </c>
+      <c r="AA29">
+        <v>6.4</v>
+      </c>
+      <c r="AB29">
+        <v>1.09</v>
+      </c>
+      <c r="AC29">
+        <v>1.8</v>
+      </c>
+      <c r="AD29">
+        <v>3.5</v>
+      </c>
+      <c r="AE29">
+        <v>3.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>10.25</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.89</v>
+      </c>
+      <c r="AK29">
+        <v>1.93</v>
+      </c>
+      <c r="AL29">
+        <v>1.7</v>
+      </c>
+      <c r="AM29">
+        <v>2.1</v>
+      </c>
+      <c r="AN29">
+        <v>1.2</v>
+      </c>
+      <c r="AO29">
+        <v>1.2</v>
+      </c>
+      <c r="AP29">
+        <v>1.9</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>1.5</v>
+      </c>
+      <c r="AV29">
+        <v>1.09</v>
+      </c>
+      <c r="AW29">
+        <v>2.59</v>
+      </c>
+      <c r="AX29">
         <v>1.59</v>
       </c>
-      <c r="AA29">
-        <v>4.95</v>
-      </c>
-      <c r="AB29">
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>2.77</v>
+      </c>
+      <c r="BA29">
         <v>1.14</v>
       </c>
-      <c r="AC29">
-        <v>4.35</v>
-      </c>
-      <c r="AD29">
-        <v>4.1</v>
-      </c>
-      <c r="AE29">
-        <v>1.51</v>
-      </c>
-      <c r="AF29">
-        <v>1.02</v>
-      </c>
-      <c r="AG29">
-        <v>12</v>
-      </c>
-      <c r="AH29">
-        <v>1.16</v>
-      </c>
-      <c r="AI29">
-        <v>4.75</v>
-      </c>
-      <c r="AJ29">
-        <v>1.53</v>
-      </c>
-      <c r="AK29">
-        <v>2.2</v>
-      </c>
-      <c r="AL29">
-        <v>1.6</v>
-      </c>
-      <c r="AM29">
-        <v>2.25</v>
-      </c>
-      <c r="AN29">
-        <v>2.35</v>
-      </c>
-      <c r="AO29">
-        <v>1.15</v>
-      </c>
-      <c r="AP29">
-        <v>1.16</v>
-      </c>
-      <c r="AQ29">
-        <v>2</v>
-      </c>
-      <c r="AR29">
-        <v>3</v>
-      </c>
-      <c r="AS29">
-        <v>1.33</v>
-      </c>
-      <c r="AT29">
-        <v>2.33</v>
-      </c>
-      <c r="AU29">
-        <v>1.51</v>
-      </c>
-      <c r="AV29">
-        <v>1.53</v>
-      </c>
-      <c r="AW29">
-        <v>3.04</v>
-      </c>
-      <c r="AX29">
-        <v>3.75</v>
-      </c>
-      <c r="AY29">
-        <v>7.5</v>
-      </c>
-      <c r="AZ29">
-        <v>1.43</v>
-      </c>
-      <c r="BA29">
-        <v>1.18</v>
-      </c>
       <c r="BB29">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BC29">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BD29">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="BE29">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BF29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG29">
+        <v>5</v>
+      </c>
+      <c r="BH29">
         <v>6</v>
-      </c>
-      <c r="BH29">
-        <v>5</v>
       </c>
       <c r="BI29">
         <v>6</v>
       </c>
       <c r="BJ29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6396,7 +6396,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6588825</v>
+        <v>6588823</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6411,175 +6411,175 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="P30" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>4.75</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1.24</v>
+      </c>
+      <c r="X30">
+        <v>3.7</v>
+      </c>
+      <c r="Y30">
+        <v>2.24</v>
+      </c>
+      <c r="Z30">
+        <v>1.59</v>
+      </c>
+      <c r="AA30">
+        <v>4.95</v>
+      </c>
+      <c r="AB30">
+        <v>1.14</v>
+      </c>
+      <c r="AC30">
+        <v>4.35</v>
+      </c>
+      <c r="AD30">
+        <v>4.1</v>
+      </c>
+      <c r="AE30">
+        <v>1.51</v>
+      </c>
+      <c r="AF30">
+        <v>1.02</v>
+      </c>
+      <c r="AG30">
+        <v>12</v>
+      </c>
+      <c r="AH30">
+        <v>1.16</v>
+      </c>
+      <c r="AI30">
+        <v>4.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.53</v>
+      </c>
+      <c r="AK30">
+        <v>2.2</v>
+      </c>
+      <c r="AL30">
+        <v>1.6</v>
+      </c>
+      <c r="AM30">
+        <v>2.25</v>
+      </c>
+      <c r="AN30">
+        <v>2.35</v>
+      </c>
+      <c r="AO30">
+        <v>1.15</v>
+      </c>
+      <c r="AP30">
+        <v>1.16</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>1.33</v>
+      </c>
+      <c r="AT30">
+        <v>2.33</v>
+      </c>
+      <c r="AU30">
+        <v>1.51</v>
+      </c>
+      <c r="AV30">
+        <v>1.53</v>
+      </c>
+      <c r="AW30">
+        <v>3.04</v>
+      </c>
+      <c r="AX30">
+        <v>3.75</v>
+      </c>
+      <c r="AY30">
+        <v>7.5</v>
+      </c>
+      <c r="AZ30">
+        <v>1.43</v>
+      </c>
+      <c r="BA30">
+        <v>1.18</v>
+      </c>
+      <c r="BB30">
+        <v>1.26</v>
+      </c>
+      <c r="BC30">
+        <v>1.47</v>
+      </c>
+      <c r="BD30">
+        <v>1.83</v>
+      </c>
+      <c r="BE30">
+        <v>2.3</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>6</v>
+      </c>
+      <c r="BH30">
         <v>5</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>2.4</v>
-      </c>
-      <c r="U30">
-        <v>2.25</v>
-      </c>
-      <c r="V30">
-        <v>4</v>
-      </c>
-      <c r="W30">
-        <v>1.35</v>
-      </c>
-      <c r="X30">
-        <v>2.95</v>
-      </c>
-      <c r="Y30">
-        <v>2.6</v>
-      </c>
-      <c r="Z30">
-        <v>1.44</v>
-      </c>
-      <c r="AA30">
-        <v>6.4</v>
-      </c>
-      <c r="AB30">
-        <v>1.09</v>
-      </c>
-      <c r="AC30">
-        <v>1.8</v>
-      </c>
-      <c r="AD30">
-        <v>3.5</v>
-      </c>
-      <c r="AE30">
-        <v>3.4</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>10.25</v>
-      </c>
-      <c r="AH30">
-        <v>1.25</v>
-      </c>
-      <c r="AI30">
-        <v>3.75</v>
-      </c>
-      <c r="AJ30">
-        <v>1.89</v>
-      </c>
-      <c r="AK30">
-        <v>1.93</v>
-      </c>
-      <c r="AL30">
-        <v>1.7</v>
-      </c>
-      <c r="AM30">
-        <v>2.1</v>
-      </c>
-      <c r="AN30">
-        <v>1.2</v>
-      </c>
-      <c r="AO30">
-        <v>1.2</v>
-      </c>
-      <c r="AP30">
-        <v>1.9</v>
-      </c>
-      <c r="AQ30">
-        <v>0.5</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>1</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>1.5</v>
-      </c>
-      <c r="AV30">
-        <v>1.09</v>
-      </c>
-      <c r="AW30">
-        <v>2.59</v>
-      </c>
-      <c r="AX30">
-        <v>1.59</v>
-      </c>
-      <c r="AY30">
-        <v>9</v>
-      </c>
-      <c r="AZ30">
-        <v>2.77</v>
-      </c>
-      <c r="BA30">
-        <v>1.14</v>
-      </c>
-      <c r="BB30">
-        <v>1.21</v>
-      </c>
-      <c r="BC30">
-        <v>1.38</v>
-      </c>
-      <c r="BD30">
-        <v>1.67</v>
-      </c>
-      <c r="BE30">
-        <v>2.1</v>
-      </c>
-      <c r="BF30">
-        <v>3</v>
-      </c>
-      <c r="BG30">
-        <v>5</v>
-      </c>
-      <c r="BH30">
-        <v>6</v>
       </c>
       <c r="BI30">
         <v>6</v>
       </c>
       <c r="BJ30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BK30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6587,7 +6587,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6588821</v>
+        <v>6588822</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6602,175 +6602,175 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s">
         <v>143</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="U31">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V31">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="W31">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y31">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z31">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA31">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="AB31">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC31">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="AD31">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AE31">
-        <v>2.7</v>
+        <v>4.45</v>
       </c>
       <c r="AF31">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG31">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH31">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ31">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="AK31">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AL31">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AM31">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AN31">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AO31">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT31">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AU31">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="AV31">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AW31">
         <v>2.9</v>
       </c>
       <c r="AX31">
+        <v>1.33</v>
+      </c>
+      <c r="AY31">
+        <v>8.5</v>
+      </c>
+      <c r="AZ31">
+        <v>4.33</v>
+      </c>
+      <c r="BA31">
+        <v>1.17</v>
+      </c>
+      <c r="BB31">
+        <v>1.27</v>
+      </c>
+      <c r="BC31">
+        <v>1.48</v>
+      </c>
+      <c r="BD31">
         <v>1.85</v>
       </c>
-      <c r="AY31">
-        <v>7</v>
-      </c>
-      <c r="AZ31">
-        <v>2.4</v>
-      </c>
-      <c r="BA31">
-        <v>1.16</v>
-      </c>
-      <c r="BB31">
-        <v>1.24</v>
-      </c>
-      <c r="BC31">
-        <v>1.46</v>
-      </c>
-      <c r="BD31">
-        <v>1.88</v>
-      </c>
       <c r="BE31">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="BF31">
         <v>6</v>
       </c>
       <c r="BG31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ31">
+        <v>12</v>
+      </c>
+      <c r="BK31">
         <v>9</v>
-      </c>
-      <c r="BK31">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6778,7 +6778,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6588822</v>
+        <v>6588821</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -6793,175 +6793,175 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
         <v>144</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T32">
+        <v>3.1</v>
+      </c>
+      <c r="U32">
+        <v>2.2</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>2.75</v>
+      </c>
+      <c r="Z32">
+        <v>1.4</v>
+      </c>
+      <c r="AA32">
+        <v>7</v>
+      </c>
+      <c r="AB32">
+        <v>1.1</v>
+      </c>
+      <c r="AC32">
+        <v>2.34</v>
+      </c>
+      <c r="AD32">
+        <v>3.1</v>
+      </c>
+      <c r="AE32">
+        <v>2.7</v>
+      </c>
+      <c r="AF32">
+        <v>1.04</v>
+      </c>
+      <c r="AG32">
+        <v>8.5</v>
+      </c>
+      <c r="AH32">
+        <v>1.28</v>
+      </c>
+      <c r="AI32">
+        <v>3.5</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.95</v>
+      </c>
+      <c r="AL32">
+        <v>1.67</v>
+      </c>
+      <c r="AM32">
         <v>2.1</v>
       </c>
-      <c r="U32">
-        <v>2.3</v>
-      </c>
-      <c r="V32">
-        <v>5</v>
-      </c>
-      <c r="W32">
+      <c r="AN32">
         <v>1.35</v>
       </c>
-      <c r="X32">
-        <v>2.95</v>
-      </c>
-      <c r="Y32">
-        <v>2.6</v>
-      </c>
-      <c r="Z32">
-        <v>1.44</v>
-      </c>
-      <c r="AA32">
-        <v>6.45</v>
-      </c>
-      <c r="AB32">
-        <v>1.09</v>
-      </c>
-      <c r="AC32">
-        <v>1.55</v>
-      </c>
-      <c r="AD32">
-        <v>3.75</v>
-      </c>
-      <c r="AE32">
-        <v>4.45</v>
-      </c>
-      <c r="AF32">
-        <v>1.05</v>
-      </c>
-      <c r="AG32">
-        <v>9</v>
-      </c>
-      <c r="AH32">
-        <v>1.25</v>
-      </c>
-      <c r="AI32">
-        <v>3.75</v>
-      </c>
-      <c r="AJ32">
-        <v>1.76</v>
-      </c>
-      <c r="AK32">
+      <c r="AO32">
+        <v>1.32</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>2.33</v>
+      </c>
+      <c r="AU32">
         <v>1.89</v>
       </c>
-      <c r="AL32">
-        <v>1.83</v>
-      </c>
-      <c r="AM32">
-        <v>1.9</v>
-      </c>
-      <c r="AN32">
-        <v>1.11</v>
-      </c>
-      <c r="AO32">
-        <v>1.18</v>
-      </c>
-      <c r="AP32">
-        <v>2.3</v>
-      </c>
-      <c r="AQ32">
-        <v>3</v>
-      </c>
-      <c r="AR32">
-        <v>3</v>
-      </c>
-      <c r="AS32">
-        <v>3</v>
-      </c>
-      <c r="AT32">
-        <v>1</v>
-      </c>
-      <c r="AU32">
-        <v>1.82</v>
-      </c>
       <c r="AV32">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AW32">
         <v>2.9</v>
       </c>
       <c r="AX32">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="AY32">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AZ32">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="BA32">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BB32">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BC32">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BD32">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BE32">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="BF32">
         <v>6</v>
       </c>
       <c r="BG32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK32">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7160,7 +7160,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6588830</v>
+        <v>6588833</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7175,28 +7175,28 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
         <v>105</v>
@@ -7205,142 +7205,142 @@
         <v>146</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T34">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>4.02</v>
+        <v>3.6</v>
       </c>
       <c r="W34">
+        <v>1.45</v>
+      </c>
+      <c r="X34">
+        <v>2.55</v>
+      </c>
+      <c r="Y34">
+        <v>3.1</v>
+      </c>
+      <c r="Z34">
+        <v>1.32</v>
+      </c>
+      <c r="AA34">
+        <v>9</v>
+      </c>
+      <c r="AB34">
+        <v>1.06</v>
+      </c>
+      <c r="AC34">
+        <v>2.6</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>2.62</v>
+      </c>
+      <c r="AF34">
+        <v>1.07</v>
+      </c>
+      <c r="AG34">
+        <v>9.6</v>
+      </c>
+      <c r="AH34">
         <v>1.38</v>
       </c>
-      <c r="X34">
-        <v>2.91</v>
-      </c>
-      <c r="Y34">
-        <v>2.75</v>
-      </c>
-      <c r="Z34">
-        <v>1.42</v>
-      </c>
-      <c r="AA34">
-        <v>6.85</v>
-      </c>
-      <c r="AB34">
-        <v>1.08</v>
-      </c>
-      <c r="AC34">
-        <v>2</v>
-      </c>
-      <c r="AD34">
-        <v>3.25</v>
-      </c>
-      <c r="AE34">
-        <v>3.4</v>
-      </c>
-      <c r="AF34">
-        <v>1.05</v>
-      </c>
-      <c r="AG34">
-        <v>9</v>
-      </c>
-      <c r="AH34">
-        <v>1.3</v>
-      </c>
       <c r="AI34">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="AJ34">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="AK34">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AL34">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AM34">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AN34">
+        <v>1.4</v>
+      </c>
+      <c r="AO34">
         <v>1.32</v>
       </c>
-      <c r="AO34">
-        <v>1.3</v>
-      </c>
       <c r="AP34">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU34">
-        <v>1.19</v>
+        <v>1.94</v>
       </c>
       <c r="AV34">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AW34">
-        <v>2.78</v>
+        <v>3.31</v>
       </c>
       <c r="AX34">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AY34">
         <v>8.5</v>
       </c>
       <c r="AZ34">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BA34">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="BB34">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="BC34">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="BD34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BE34">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="BF34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH34">
+        <v>7</v>
+      </c>
+      <c r="BI34">
         <v>4</v>
       </c>
-      <c r="BI34">
-        <v>3</v>
-      </c>
       <c r="BJ34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK34">
         <v>8</v>
@@ -7351,7 +7351,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6588832</v>
+        <v>6588830</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7366,163 +7366,163 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T35">
-        <v>2.35</v>
+        <v>2.66</v>
       </c>
       <c r="U35">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="V35">
-        <v>4.3</v>
+        <v>4.02</v>
       </c>
       <c r="W35">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Y35">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Z35">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA35">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="AB35">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC35">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AD35">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AE35">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AF35">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG35">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AH35">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AI35">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AJ35">
+        <v>1.83</v>
+      </c>
+      <c r="AK35">
         <v>1.95</v>
       </c>
-      <c r="AK35">
-        <v>1.75</v>
-      </c>
       <c r="AL35">
+        <v>1.73</v>
+      </c>
+      <c r="AM35">
+        <v>2.06</v>
+      </c>
+      <c r="AN35">
+        <v>1.32</v>
+      </c>
+      <c r="AO35">
+        <v>1.3</v>
+      </c>
+      <c r="AP35">
         <v>1.72</v>
-      </c>
-      <c r="AM35">
-        <v>2</v>
-      </c>
-      <c r="AN35">
-        <v>1.25</v>
-      </c>
-      <c r="AO35">
-        <v>1.28</v>
-      </c>
-      <c r="AP35">
-        <v>1.95</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AV35">
-        <v>0.95</v>
+        <v>1.59</v>
       </c>
       <c r="AW35">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AX35">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AY35">
         <v>8.5</v>
       </c>
       <c r="AZ35">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="BA35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BB35">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BC35">
         <v>1.48</v>
       </c>
       <c r="BD35">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="BE35">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="BF35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH35">
         <v>4</v>
@@ -7531,10 +7531,10 @@
         <v>3</v>
       </c>
       <c r="BJ35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK35">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7542,7 +7542,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6588833</v>
+        <v>6588832</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7557,175 +7557,175 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>14</v>
+      </c>
+      <c r="T36">
+        <v>2.35</v>
+      </c>
+      <c r="U36">
+        <v>2.2</v>
+      </c>
+      <c r="V36">
+        <v>4.3</v>
+      </c>
+      <c r="W36">
+        <v>1.35</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>2.6</v>
+      </c>
+      <c r="Z36">
+        <v>1.45</v>
+      </c>
+      <c r="AA36">
+        <v>6.75</v>
+      </c>
+      <c r="AB36">
+        <v>1.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.62</v>
+      </c>
+      <c r="AD36">
+        <v>3.6</v>
+      </c>
+      <c r="AE36">
         <v>5</v>
       </c>
-      <c r="R36">
-        <v>3</v>
-      </c>
-      <c r="S36">
-        <v>8</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>3.6</v>
-      </c>
-      <c r="W36">
-        <v>1.45</v>
-      </c>
-      <c r="X36">
-        <v>2.55</v>
-      </c>
-      <c r="Y36">
-        <v>3.1</v>
-      </c>
-      <c r="Z36">
-        <v>1.32</v>
-      </c>
-      <c r="AA36">
-        <v>9</v>
-      </c>
-      <c r="AB36">
-        <v>1.06</v>
-      </c>
-      <c r="AC36">
-        <v>2.6</v>
-      </c>
-      <c r="AD36">
-        <v>3</v>
-      </c>
-      <c r="AE36">
-        <v>2.62</v>
-      </c>
       <c r="AF36">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AG36">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AH36">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AI36">
-        <v>3.07</v>
+        <v>3.9</v>
       </c>
       <c r="AJ36">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AK36">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AL36">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AM36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AN36">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO36">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AP36">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
       </c>
       <c r="AR36">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU36">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="AV36">
-        <v>1.37</v>
+        <v>0.95</v>
       </c>
       <c r="AW36">
-        <v>3.31</v>
+        <v>2.52</v>
       </c>
       <c r="AX36">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AY36">
         <v>8.5</v>
       </c>
       <c r="AZ36">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="BA36">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BB36">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BC36">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BD36">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BE36">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="BF36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG36">
+        <v>2</v>
+      </c>
+      <c r="BH36">
         <v>4</v>
       </c>
-      <c r="BH36">
-        <v>7</v>
-      </c>
       <c r="BI36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ36">
         <v>10</v>
       </c>
       <c r="BK36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -8115,7 +8115,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6588829</v>
+        <v>6588831</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -8130,97 +8130,97 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="W39">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X39">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z39">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AA39">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AB39">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC39">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AD39">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AE39">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="AF39">
         <v>1.04</v>
       </c>
       <c r="AG39">
-        <v>15.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH39">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI39">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ39">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AK39">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AL39">
         <v>1.75</v>
@@ -8229,58 +8229,58 @@
         <v>2</v>
       </c>
       <c r="AN39">
+        <v>1.27</v>
+      </c>
+      <c r="AO39">
+        <v>1.28</v>
+      </c>
+      <c r="AP39">
+        <v>1.88</v>
+      </c>
+      <c r="AQ39">
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>2</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>1.69</v>
+      </c>
+      <c r="AV39">
+        <v>1.06</v>
+      </c>
+      <c r="AW39">
+        <v>2.75</v>
+      </c>
+      <c r="AX39">
+        <v>1.55</v>
+      </c>
+      <c r="AY39">
+        <v>8.5</v>
+      </c>
+      <c r="AZ39">
+        <v>2.91</v>
+      </c>
+      <c r="BA39">
         <v>1.19</v>
-      </c>
-      <c r="AO39">
-        <v>1.24</v>
-      </c>
-      <c r="AP39">
-        <v>2.25</v>
-      </c>
-      <c r="AQ39">
-        <v>2</v>
-      </c>
-      <c r="AR39">
-        <v>1.5</v>
-      </c>
-      <c r="AS39">
-        <v>2.5</v>
-      </c>
-      <c r="AT39">
-        <v>1.5</v>
-      </c>
-      <c r="AU39">
-        <v>1.72</v>
-      </c>
-      <c r="AV39">
-        <v>0.87</v>
-      </c>
-      <c r="AW39">
-        <v>2.59</v>
-      </c>
-      <c r="AX39">
-        <v>1.31</v>
-      </c>
-      <c r="AY39">
-        <v>10</v>
-      </c>
-      <c r="AZ39">
-        <v>4.11</v>
-      </c>
-      <c r="BA39">
-        <v>1.17</v>
       </c>
       <c r="BB39">
         <v>1.31</v>
       </c>
       <c r="BC39">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="BD39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BE39">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="BF39">
         <v>4</v>
@@ -8289,16 +8289,16 @@
         <v>3</v>
       </c>
       <c r="BH39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK39">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:63">
@@ -8306,7 +8306,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6588831</v>
+        <v>6588829</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -8321,97 +8321,97 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>2</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" t="s">
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T40">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U40">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V40">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="W40">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Y40">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z40">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AA40">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AB40">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC40">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AD40">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AE40">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="AF40">
         <v>1.04</v>
       </c>
       <c r="AG40">
-        <v>8.5</v>
+        <v>15.25</v>
       </c>
       <c r="AH40">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI40">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ40">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AL40">
         <v>1.75</v>
@@ -8420,58 +8420,58 @@
         <v>2</v>
       </c>
       <c r="AN40">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AO40">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AV40">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AW40">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AX40">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="AY40">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ40">
-        <v>2.91</v>
+        <v>4.11</v>
       </c>
       <c r="BA40">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="BB40">
         <v>1.31</v>
       </c>
       <c r="BC40">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="BD40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BE40">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="BF40">
         <v>4</v>
@@ -8480,16 +8480,16 @@
         <v>3</v>
       </c>
       <c r="BH40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI40">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK40">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:63">
@@ -9261,7 +9261,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6588835</v>
+        <v>6588840</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9276,52 +9276,52 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V45">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="W45">
         <v>1.35</v>
@@ -9333,76 +9333,76 @@
         <v>2.6</v>
       </c>
       <c r="Z45">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA45">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="AB45">
         <v>1.1</v>
       </c>
       <c r="AC45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AD45">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE45">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AF45">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG45">
-        <v>12.75</v>
+        <v>14</v>
       </c>
       <c r="AH45">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AI45">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AJ45">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AL45">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AM45">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN45">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AO45">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP45">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR45">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT45">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AV45">
-        <v>0.96</v>
+        <v>1.43</v>
       </c>
       <c r="AW45">
-        <v>2.69</v>
+        <v>3.15</v>
       </c>
       <c r="AX45">
         <v>1.32</v>
@@ -9411,40 +9411,40 @@
         <v>6.75</v>
       </c>
       <c r="AZ45">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="BA45">
         <v>1.16</v>
       </c>
       <c r="BB45">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BC45">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="BD45">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BE45">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="BF45">
+        <v>5</v>
+      </c>
+      <c r="BG45">
+        <v>5</v>
+      </c>
+      <c r="BH45">
+        <v>3</v>
+      </c>
+      <c r="BI45">
+        <v>2</v>
+      </c>
+      <c r="BJ45">
+        <v>8</v>
+      </c>
+      <c r="BK45">
         <v>7</v>
-      </c>
-      <c r="BG45">
-        <v>4</v>
-      </c>
-      <c r="BH45">
-        <v>10</v>
-      </c>
-      <c r="BI45">
-        <v>5</v>
-      </c>
-      <c r="BJ45">
-        <v>17</v>
-      </c>
-      <c r="BK45">
-        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -9452,7 +9452,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6588840</v>
+        <v>6588835</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -9467,52 +9467,52 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>2</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" t="s">
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U46">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V46">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="W46">
         <v>1.35</v>
@@ -9524,76 +9524,76 @@
         <v>2.6</v>
       </c>
       <c r="Z46">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA46">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AB46">
         <v>1.1</v>
       </c>
       <c r="AC46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AD46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE46">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AF46">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG46">
-        <v>14</v>
+        <v>12.75</v>
       </c>
       <c r="AH46">
+        <v>1.26</v>
+      </c>
+      <c r="AI46">
+        <v>3.85</v>
+      </c>
+      <c r="AJ46">
+        <v>1.67</v>
+      </c>
+      <c r="AK46">
+        <v>2.1</v>
+      </c>
+      <c r="AL46">
+        <v>1.75</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+      <c r="AN46">
+        <v>1.12</v>
+      </c>
+      <c r="AO46">
         <v>1.25</v>
       </c>
-      <c r="AI46">
-        <v>3.75</v>
-      </c>
-      <c r="AJ46">
+      <c r="AP46">
+        <v>2.1</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0.33</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>0.25</v>
+      </c>
+      <c r="AU46">
         <v>1.73</v>
       </c>
-      <c r="AK46">
-        <v>2</v>
-      </c>
-      <c r="AL46">
-        <v>1.66</v>
-      </c>
-      <c r="AM46">
-        <v>2.15</v>
-      </c>
-      <c r="AN46">
-        <v>1.3</v>
-      </c>
-      <c r="AO46">
-        <v>1.3</v>
-      </c>
-      <c r="AP46">
-        <v>1.8</v>
-      </c>
-      <c r="AQ46">
-        <v>3</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AS46">
-        <v>3</v>
-      </c>
-      <c r="AT46">
-        <v>0.67</v>
-      </c>
-      <c r="AU46">
-        <v>1.72</v>
-      </c>
       <c r="AV46">
-        <v>1.43</v>
+        <v>0.96</v>
       </c>
       <c r="AW46">
-        <v>3.15</v>
+        <v>2.69</v>
       </c>
       <c r="AX46">
         <v>1.32</v>
@@ -9602,40 +9602,40 @@
         <v>6.75</v>
       </c>
       <c r="AZ46">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="BA46">
         <v>1.16</v>
       </c>
       <c r="BB46">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BC46">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BD46">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="BE46">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="BF46">
+        <v>7</v>
+      </c>
+      <c r="BG46">
+        <v>4</v>
+      </c>
+      <c r="BH46">
+        <v>10</v>
+      </c>
+      <c r="BI46">
         <v>5</v>
       </c>
-      <c r="BG46">
-        <v>5</v>
-      </c>
-      <c r="BH46">
-        <v>3</v>
-      </c>
-      <c r="BI46">
-        <v>2</v>
-      </c>
       <c r="BJ46">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BK46">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -10025,7 +10025,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6588850</v>
+        <v>6588846</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10040,10 +10040,10 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -10055,160 +10055,160 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
         <v>81</v>
       </c>
-      <c r="P49" t="s">
-        <v>153</v>
-      </c>
       <c r="Q49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T49">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="U49">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="V49">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="W49">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X49">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y49">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z49">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AA49">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="AB49">
         <v>1.11</v>
       </c>
       <c r="AC49">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="AD49">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AE49">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="AF49">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG49">
-        <v>13.25</v>
+        <v>15</v>
       </c>
       <c r="AH49">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AI49">
-        <v>3.88</v>
+        <v>4.1</v>
       </c>
       <c r="AJ49">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK49">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AL49">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AM49">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO49">
         <v>1.22</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AV49">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="AW49">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="AX49">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="AY49">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ49">
-        <v>2</v>
+        <v>4.07</v>
       </c>
       <c r="BA49">
         <v>1.15</v>
       </c>
       <c r="BB49">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BC49">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BD49">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="BE49">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="BF49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG49">
         <v>4</v>
       </c>
       <c r="BH49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:63">
@@ -10255,7 +10255,7 @@
         <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P50" t="s">
         <v>154</v>
@@ -10407,7 +10407,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6588846</v>
+        <v>6588850</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10422,10 +10422,10 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10437,160 +10437,160 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T51">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="U51">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="V51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="W51">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X51">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y51">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z51">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AA51">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB51">
         <v>1.11</v>
       </c>
       <c r="AC51">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="AD51">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="AE51">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="AF51">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG51">
-        <v>15</v>
+        <v>13.25</v>
       </c>
       <c r="AH51">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AI51">
-        <v>4.1</v>
+        <v>3.88</v>
       </c>
       <c r="AJ51">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK51">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AL51">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AM51">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AN51">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO51">
         <v>1.22</v>
       </c>
       <c r="AP51">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU51">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AV51">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AW51">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AX51">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="AY51">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ51">
-        <v>4.07</v>
+        <v>2</v>
       </c>
       <c r="BA51">
         <v>1.15</v>
       </c>
       <c r="BB51">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BC51">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BD51">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="BE51">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="BF51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG51">
         <v>4</v>
       </c>
       <c r="BH51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ51">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BK51">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>2.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.39</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>0.7</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.89</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.17</v>
@@ -9023,7 +9023,7 @@
         <v>0.8</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9632,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.72</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT47" t="n">
         <v>2.5</v>
@@ -12313,16 +12313,16 @@
         <v>6</v>
       </c>
       <c r="BH58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ58" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK58" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -12516,16 +12516,16 @@
         <v>5</v>
       </c>
       <c r="BH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK59" t="n">
         <v>7</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -12590,13 +12590,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
         <v>6</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T60" t="n">
         <v>2.05</v>
@@ -12919,19 +12919,628 @@
         <v>2</v>
       </c>
       <c r="BG61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI61" t="n">
         <v>14</v>
       </c>
       <c r="BJ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6588852</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
         <v>5</v>
       </c>
-      <c r="BK61" t="n">
-        <v>22</v>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['4', '20', '25', '45+1', '49', '57', '86']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7</v>
+      </c>
+      <c r="S62" t="n">
+        <v>12</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6588856</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>7</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6588858</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45186.54166666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['11', '20', '45+1', '70', '81']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>7</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT7" t="n">
         <v>0.25</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT13" t="n">
         <v>1.75</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>2.09</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.12</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT26" t="n">
         <v>0.2</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.82</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
         <v>1.75</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT35" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.19</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.72</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
         <v>0.2</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.69</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT54" t="n">
         <v>2.5</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
         <v>0.25</v>
@@ -13541,6 +13541,1021 @@
       </c>
       <c r="BK64" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6588866</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['2', '18']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>8</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>11</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6588861</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['8', '83']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>9</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>13</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6588862</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['11', '50', '57', '64', '82']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>8</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6588864</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['19', '27', '39']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['9', '11', '51']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6588863</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['36', '71', '77']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['8', '44']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT5" t="n">
         <v>0.2</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>1.83</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT17" t="n">
         <v>0.2</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" t="n">
         <v>2.28</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT22" t="n">
         <v>0.25</v>
@@ -5166,7 +5166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.57</v>
@@ -8008,7 +8008,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU37" t="n">
         <v>0.96</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT40" t="n">
         <v>1.2</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT41" t="n">
         <v>0.25</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.3</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU51" t="n">
         <v>1.07</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11459,7 +11459,7 @@
         <v>1.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1.2</v>
@@ -14134,19 +14134,19 @@
         <v>2.2</v>
       </c>
       <c r="BF67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG67" t="n">
         <v>2</v>
       </c>
       <c r="BH67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI67" t="n">
         <v>1</v>
       </c>
       <c r="BJ67" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BK67" t="n">
         <v>3</v>
@@ -14337,7 +14337,7 @@
         <v>2.25</v>
       </c>
       <c r="BF68" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG68" t="n">
         <v>4</v>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="BJ68" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK68" t="n">
         <v>5</v>
@@ -14540,22 +14540,631 @@
         <v>2.1</v>
       </c>
       <c r="BF69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG69" t="n">
         <v>5</v>
       </c>
-      <c r="BG69" t="n">
+      <c r="BH69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6588859</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" t="n">
+        <v>9</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH70" t="n">
         <v>4</v>
       </c>
-      <c r="BH69" t="n">
+      <c r="BI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK70" t="n">
         <v>7</v>
       </c>
-      <c r="BI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK69" t="n">
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6588860</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
         <v>4</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['23', '27', '45', '53', '82', '85']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['13', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V71" t="n">
+        <v>8</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6588865</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['90+11']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>7</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>9</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -15149,7 +15149,7 @@
         <v>2.63</v>
       </c>
       <c r="BF72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG72" t="n">
         <v>2</v>
@@ -15158,13 +15158,13 @@
         <v>6</v>
       </c>
       <c r="BI72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ72"/>
+  <dimension ref="A1:AZ77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14" t="n">
         <v>1.39</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.75</v>
@@ -4069,7 +4069,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27" t="n">
         <v>0.7</v>
@@ -5256,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.2</v>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.4</v>
@@ -5939,7 +5939,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -6109,7 +6109,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -6276,7 +6276,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -7469,7 +7469,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -7639,7 +7639,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR42" t="n">
         <v>1.45</v>
@@ -7979,7 +7979,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -8146,10 +8146,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -8486,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.5</v>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.4</v>
@@ -10359,7 +10359,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -10696,10 +10696,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.61</v>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -11206,10 +11206,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR63" t="n">
         <v>0.9</v>
@@ -11379,7 +11379,7 @@
         <v>3</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR64" t="n">
         <v>2.5</v>
@@ -12767,6 +12767,856 @@
       </c>
       <c r="AZ72" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6588867</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['11', '29', '77']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6588869</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6588871</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['10', '20']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6588873</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['11', '38', '41', '70', '83']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['14', '47']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6588872</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45199.54166666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['2', '27']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X77" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ77"/>
+  <dimension ref="A1:AZ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -1349,7 +1349,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.5</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.6</v>
@@ -3219,7 +3219,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -4579,7 +4579,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -4919,7 +4919,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -6786,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.2</v>
@@ -6959,7 +6959,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -7636,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.4</v>
@@ -8319,7 +8319,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.73</v>
@@ -8489,7 +8489,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8100000000000001</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.75</v>
@@ -9509,7 +9509,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -10526,10 +10526,10 @@
         <v>0.25</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.22</v>
@@ -10866,10 +10866,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['11', '29', '77']</t>
+          <t>['11', '29', '78']</t>
         </is>
       </c>
       <c r="Q73" t="n">
@@ -12921,22 +12921,22 @@
         <v>2.92</v>
       </c>
       <c r="AU73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV73" t="n">
         <v>6</v>
       </c>
       <c r="AW73" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY73" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -13091,22 +13091,22 @@
         <v>2.58</v>
       </c>
       <c r="AU74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW74" t="n">
         <v>6</v>
       </c>
-      <c r="AW74" t="n">
-        <v>5</v>
-      </c>
       <c r="AX74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -13431,7 +13431,7 @@
         <v>3.23</v>
       </c>
       <c r="AU76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV76" t="n">
         <v>5</v>
@@ -13440,13 +13440,13 @@
         <v>2</v>
       </c>
       <c r="AX76" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ76" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -13617,6 +13617,516 @@
       </c>
       <c r="AZ77" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6588868</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['29', '83']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6588874</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6588870</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -13601,22 +13601,22 @@
         <v>4.42</v>
       </c>
       <c r="AU77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV77" t="n">
         <v>2</v>
       </c>
       <c r="AW77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ77" t="n">
         <v>4</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -13771,22 +13771,22 @@
         <v>2.68</v>
       </c>
       <c r="AU78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV78" t="n">
         <v>3</v>
       </c>
       <c r="AW78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY78" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['64']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q80" t="n">
@@ -14111,22 +14111,22 @@
         <v>2.37</v>
       </c>
       <c r="AU80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ80" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ80"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>11</v>
       </c>
+      <c r="BA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>6</v>
       </c>
+      <c r="BA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>8</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>5</v>
       </c>
+      <c r="BA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>7</v>
       </c>
+      <c r="BA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>11</v>
       </c>
+      <c r="BA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>7</v>
       </c>
+      <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>8</v>
       </c>
+      <c r="BA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>6</v>
       </c>
+      <c r="BA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>14</v>
       </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
+      <c r="BA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>7</v>
       </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>7</v>
       </c>
+      <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
+      <c r="BA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
+      <c r="BA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>8</v>
       </c>
+      <c r="BA17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>7</v>
       </c>
+      <c r="BA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>2.01</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>11</v>
       </c>
+      <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>5</v>
       </c>
+      <c r="BA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>14</v>
       </c>
+      <c r="BA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>9</v>
       </c>
+      <c r="BA22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
+      <c r="BA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
+      <c r="BA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>3</v>
       </c>
+      <c r="BA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>13</v>
       </c>
+      <c r="BA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>14</v>
       </c>
+      <c r="BA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>11</v>
       </c>
+      <c r="BA29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>9</v>
       </c>
+      <c r="BA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>11</v>
       </c>
+      <c r="BA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>16</v>
       </c>
+      <c r="BA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>8</v>
       </c>
+      <c r="BA34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>8</v>
       </c>
+      <c r="BA35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>5</v>
       </c>
+      <c r="BA36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>3</v>
       </c>
+      <c r="BA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>7</v>
       </c>
+      <c r="BA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>11</v>
       </c>
+      <c r="BA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>6</v>
       </c>
+      <c r="BA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>5</v>
       </c>
+      <c r="BA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>7</v>
       </c>
+      <c r="BA42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>12</v>
       </c>
+      <c r="BA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>6</v>
       </c>
+      <c r="BA44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>7</v>
       </c>
+      <c r="BA45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>9</v>
       </c>
+      <c r="BA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>5</v>
       </c>
+      <c r="BA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>6</v>
       </c>
+      <c r="BA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>6</v>
       </c>
+      <c r="BA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>14</v>
       </c>
+      <c r="BA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>8</v>
       </c>
+      <c r="BA51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>11</v>
       </c>
+      <c r="BA52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>8</v>
       </c>
+      <c r="BA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>19</v>
       </c>
+      <c r="BA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>5</v>
       </c>
+      <c r="BA55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>8</v>
       </c>
+      <c r="BA56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>6</v>
       </c>
+      <c r="BA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>9</v>
       </c>
+      <c r="BA58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>7</v>
       </c>
+      <c r="BA59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>9</v>
       </c>
+      <c r="BA60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>23</v>
       </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>16</v>
       </c>
+      <c r="BA62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>16</v>
       </c>
+      <c r="BA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>8</v>
       </c>
+      <c r="BA64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>9</v>
       </c>
+      <c r="BA65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>13</v>
       </c>
+      <c r="BA66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>3</v>
       </c>
+      <c r="BA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>5</v>
       </c>
+      <c r="BA68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>5</v>
       </c>
+      <c r="BA69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>7</v>
       </c>
+      <c r="BA70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>5</v>
       </c>
+      <c r="BA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>8</v>
       </c>
+      <c r="BA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>14</v>
       </c>
+      <c r="BA73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>12</v>
       </c>
+      <c r="BA74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>4</v>
       </c>
+      <c r="BA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>16</v>
       </c>
+      <c r="BA76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>4</v>
       </c>
+      <c r="BA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>6</v>
       </c>
+      <c r="BA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>12</v>
       </c>
+      <c r="BA79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14127,6 +17951,54 @@
       </c>
       <c r="AZ80" t="n">
         <v>9</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.8</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.2</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.4</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.33</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4625,7 +4625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.2</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.2</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.8</v>
@@ -5497,7 +5497,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.2</v>
@@ -5933,7 +5933,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.33</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.4</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -7895,7 +7895,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8549,7 +8549,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.2</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.31</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.2</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.6</v>
@@ -10508,7 +10508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.33</v>
@@ -10729,7 +10729,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8100000000000001</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11601,7 +11601,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -11816,10 +11816,10 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.2</v>
@@ -12252,10 +12252,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.2</v>
@@ -12909,7 +12909,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR57" t="n">
         <v>1.7</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.8</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.2</v>
@@ -13781,7 +13781,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>0</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR66" t="n">
         <v>1.28</v>
@@ -15086,10 +15086,10 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR67" t="n">
         <v>1.77</v>
@@ -15304,10 +15304,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68" t="n">
         <v>1.56</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.2</v>
@@ -15740,10 +15740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16179,7 +16179,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.8</v>
@@ -17705,7 +17705,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.14</v>
@@ -17999,6 +17999,1750 @@
       </c>
       <c r="BP80" t="n">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6588882</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['48', '56']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S81" t="n">
+        <v>6</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6588879</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6588880</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['26', '63', '66', '89']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X83" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6588877</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6588878</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S85" t="n">
+        <v>6</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6588875</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['15', '34', '71']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6588876</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['22', '38', '46']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['30', '34']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6588881</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['5', '8']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['16', '53', '87']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X88" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -19025,22 +19025,22 @@
         <v>3.01</v>
       </c>
       <c r="AU85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY85" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ85" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA85" t="n">
         <v>10</v>
@@ -19243,22 +19243,22 @@
         <v>3.01</v>
       </c>
       <c r="AU86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV86" t="n">
         <v>5</v>
       </c>
-      <c r="AV86" t="n">
-        <v>2</v>
-      </c>
       <c r="AW86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX86" t="n">
         <v>5</v>
       </c>
       <c r="AY86" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ86" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA86" t="n">
         <v>8</v>
@@ -19461,10 +19461,10 @@
         <v>3.19</v>
       </c>
       <c r="AU87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW87" t="n">
         <v>8</v>
@@ -19473,10 +19473,10 @@
         <v>4</v>
       </c>
       <c r="AY87" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA87" t="n">
         <v>7</v>
@@ -19679,22 +19679,22 @@
         <v>3.47</v>
       </c>
       <c r="AU88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX88" t="n">
         <v>5</v>
       </c>
-      <c r="AV88" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>4</v>
-      </c>
       <c r="AY88" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ88" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA88" t="n">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -9504,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>6588842</v>
+        <v>6588839</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -9524,83 +9524,83 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55', '66']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="R42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V42" t="n">
         <v>2.7</v>
       </c>
-      <c r="T42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X42" t="n">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z42" t="n">
-        <v>2.7</v>
+        <v>2.09</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AB42" t="n">
-        <v>2.36</v>
+        <v>2.89</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD42" t="n">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="AE42" t="n">
         <v>1.28</v>
@@ -9609,112 +9609,112 @@
         <v>3.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AI42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM42" t="n">
         <v>1.72</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AN42" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.84</v>
+        <v>2.45</v>
       </c>
       <c r="AU42" t="n">
         <v>5</v>
       </c>
       <c r="AV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB42" t="n">
         <v>3</v>
       </c>
-      <c r="AW42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY42" t="n">
+      <c r="BC42" t="n">
         <v>8</v>
       </c>
-      <c r="AZ42" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>14</v>
-      </c>
       <c r="BD42" t="n">
-        <v>2.45</v>
+        <v>1.64</v>
       </c>
       <c r="BE42" t="n">
         <v>8.5</v>
       </c>
       <c r="BF42" t="n">
-        <v>1.69</v>
+        <v>2.66</v>
       </c>
       <c r="BG42" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="BH42" t="n">
-        <v>6.2</v>
+        <v>4.75</v>
       </c>
       <c r="BI42" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="BJ42" t="n">
-        <v>4.35</v>
+        <v>2.98</v>
       </c>
       <c r="BK42" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="BL42" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="BM42" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="BO42" t="n">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="BP42" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="43">
@@ -9722,7 +9722,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>6588839</v>
+        <v>6588842</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9742,83 +9742,83 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['55', '66']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="Q43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S43" t="n">
         <v>2.7</v>
       </c>
-      <c r="R43" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U43" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="V43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z43" t="n">
         <v>2.7</v>
       </c>
-      <c r="W43" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X43" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>2.09</v>
-      </c>
       <c r="AA43" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AB43" t="n">
-        <v>2.89</v>
+        <v>2.36</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD43" t="n">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
         <v>1.28</v>
@@ -9827,112 +9827,112 @@
         <v>3.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AI43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK43" t="n">
         <v>1.7</v>
       </c>
-      <c r="AJ43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AL43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.45</v>
+        <v>2.84</v>
       </c>
       <c r="AU43" t="n">
         <v>5</v>
       </c>
       <c r="AV43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB43" t="n">
         <v>5</v>
       </c>
-      <c r="AW43" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>3</v>
-      </c>
       <c r="BC43" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.64</v>
+        <v>2.45</v>
       </c>
       <c r="BE43" t="n">
         <v>8.5</v>
       </c>
       <c r="BF43" t="n">
-        <v>2.66</v>
+        <v>1.69</v>
       </c>
       <c r="BG43" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="BH43" t="n">
-        <v>4.75</v>
+        <v>6.2</v>
       </c>
       <c r="BI43" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="BJ43" t="n">
-        <v>2.98</v>
+        <v>4.35</v>
       </c>
       <c r="BK43" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="BL43" t="n">
-        <v>2.22</v>
+        <v>2.79</v>
       </c>
       <c r="BM43" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BN43" t="n">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="BO43" t="n">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="44">
@@ -10158,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6588840</v>
+        <v>6588835</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -10178,50 +10178,50 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['54', '65']</t>
+          <t>['8', '74']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T45" t="n">
         <v>1.35</v>
@@ -10233,103 +10233,103 @@
         <v>2.6</v>
       </c>
       <c r="W45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X45" t="n">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="Y45" t="n">
         <v>1.1</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB45" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD45" t="n">
-        <v>14</v>
+        <v>12.75</v>
       </c>
       <c r="AE45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL45" t="n">
         <v>1.25</v>
       </c>
-      <c r="AF45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG45" t="n">
+      <c r="AM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR45" t="n">
         <v>1.73</v>
       </c>
-      <c r="AH45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>0.96</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.15</v>
+        <v>2.69</v>
       </c>
       <c r="AU45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX45" t="n">
         <v>5</v>
       </c>
-      <c r="AV45" t="n">
+      <c r="AY45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA45" t="n">
         <v>5</v>
       </c>
-      <c r="AW45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>6</v>
-      </c>
       <c r="BB45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC45" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD45" t="n">
         <v>1.32</v>
@@ -10338,37 +10338,37 @@
         <v>6.75</v>
       </c>
       <c r="BF45" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="BG45" t="n">
         <v>1.16</v>
       </c>
       <c r="BH45" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BI45" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ45" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BK45" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BL45" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="BM45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN45" t="n">
         <v>1.83</v>
       </c>
-      <c r="BN45" t="n">
-        <v>1.98</v>
-      </c>
       <c r="BO45" t="n">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="BP45" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="46">
@@ -10376,7 +10376,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6588835</v>
+        <v>6588841</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -10396,12 +10396,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -10414,77 +10414,77 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['8', '74']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="R46" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S46" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="T46" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="U46" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="V46" t="n">
-        <v>2.6</v>
+        <v>2.29</v>
       </c>
       <c r="W46" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="X46" t="n">
-        <v>6.75</v>
+        <v>4.95</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AB46" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD46" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AF46" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="AG46" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AI46" t="n">
         <v>1.75</v>
@@ -10493,76 +10493,76 @@
         <v>2</v>
       </c>
       <c r="AK46" t="n">
-        <v>1.12</v>
+        <v>2.42</v>
       </c>
       <c r="AL46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP46" t="n">
         <v>1.25</v>
       </c>
-      <c r="AM46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AQ46" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.96</v>
+        <v>1.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="AU46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY46" t="n">
         <v>7</v>
       </c>
-      <c r="AV46" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX46" t="n">
+      <c r="AZ46" t="n">
         <v>5</v>
       </c>
-      <c r="AY46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>9</v>
-      </c>
       <c r="BA46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC46" t="n">
         <v>9</v>
       </c>
       <c r="BD46" t="n">
-        <v>1.32</v>
+        <v>5.5</v>
       </c>
       <c r="BE46" t="n">
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="BF46" t="n">
-        <v>3.85</v>
+        <v>1.16</v>
       </c>
       <c r="BG46" t="n">
         <v>1.16</v>
       </c>
       <c r="BH46" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BI46" t="n">
         <v>1.28</v>
@@ -10571,22 +10571,22 @@
         <v>3.2</v>
       </c>
       <c r="BK46" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BL46" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="BM46" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="BN46" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="BO46" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="BP46" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="47">
@@ -10594,7 +10594,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>6588841</v>
+        <v>6588840</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -10614,167 +10614,167 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['54', '65']</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP47" t="n">
         <v>2.5</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X47" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA47" t="n">
+      <c r="AQ47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU47" t="n">
         <v>5</v>
       </c>
-      <c r="AB47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
+      <c r="AV47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW47" t="n">
         <v>3</v>
       </c>
-      <c r="AP47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>5</v>
-      </c>
       <c r="AX47" t="n">
         <v>2</v>
       </c>
       <c r="AY47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ47" t="n">
         <v>7</v>
       </c>
-      <c r="AZ47" t="n">
-        <v>5</v>
-      </c>
       <c r="BA47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB47" t="n">
         <v>7</v>
       </c>
       <c r="BC47" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD47" t="n">
-        <v>5.5</v>
+        <v>1.32</v>
       </c>
       <c r="BE47" t="n">
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="BF47" t="n">
-        <v>1.16</v>
+        <v>3.75</v>
       </c>
       <c r="BG47" t="n">
         <v>1.16</v>
@@ -10783,28 +10783,28 @@
         <v>4.8</v>
       </c>
       <c r="BI47" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ47" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BK47" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="BL47" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="BN47" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BO47" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="BP47" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="48">
@@ -13210,7 +13210,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>6588851</v>
+        <v>6588853</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -13230,197 +13230,197 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['33', '41']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV59" t="n">
         <v>6</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>['5', '14', '21', '48', '80']</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>['56']</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V59" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X59" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>5</v>
       </c>
       <c r="AW59" t="n">
         <v>5</v>
       </c>
       <c r="AX59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC59" t="n">
         <v>11</v>
       </c>
-      <c r="AZ59" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>17</v>
-      </c>
       <c r="BD59" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BE59" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF59" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="BG59" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="BH59" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BI59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BJ59" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BK59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BL59" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BM59" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BN59" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BO59" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BP59" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="60">
@@ -13428,7 +13428,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6588853</v>
+        <v>6588851</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -13448,197 +13448,197 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['33', '41']</t>
+          <t>['5', '14', '21', '48', '80']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="R60" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S60" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U60" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V60" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W60" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="AB60" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF60" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AI60" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AM60" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="AN60" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.97</v>
+        <v>2.26</v>
       </c>
       <c r="AU60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW60" t="n">
         <v>5</v>
       </c>
       <c r="AX60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA60" t="n">
         <v>9</v>
       </c>
-      <c r="BA60" t="n">
+      <c r="BB60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH60" t="n">
         <v>5</v>
       </c>
-      <c r="BB60" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>5.6</v>
-      </c>
       <c r="BI60" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BJ60" t="n">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="BK60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BL60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BM60" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BN60" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BO60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BP60" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="61">
@@ -14518,7 +14518,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>6588866</v>
+        <v>6588861</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -14538,173 +14538,173 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['2', '18']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '83']</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="R65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z65" t="n">
         <v>2.5</v>
       </c>
-      <c r="S65" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X65" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AA65" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB65" t="n">
-        <v>5.2</v>
+        <v>2.39</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD65" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AE65" t="n">
         <v>1.2</v>
       </c>
       <c r="AF65" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG65" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AI65" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="AL65" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM65" t="n">
-        <v>2.9</v>
+        <v>1.44</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR65" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="AU65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW65" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX65" t="n">
         <v>6</v>
       </c>
       <c r="AY65" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AZ65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA65" t="n">
         <v>9</v>
       </c>
-      <c r="BA65" t="n">
-        <v>8</v>
-      </c>
       <c r="BB65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD65" t="n">
-        <v>1.21</v>
+        <v>2.2</v>
       </c>
       <c r="BE65" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF65" t="n">
-        <v>5.17</v>
+        <v>1.91</v>
       </c>
       <c r="BG65" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH65" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BI65" t="n">
         <v>1.23</v>
@@ -14713,22 +14713,22 @@
         <v>3.56</v>
       </c>
       <c r="BK65" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BL65" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="BM65" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="BN65" t="n">
         <v>2</v>
       </c>
       <c r="BO65" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="BP65" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="66">
@@ -14736,7 +14736,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>6588861</v>
+        <v>6588862</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -14756,50 +14756,50 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['11', '50', '57', '64', '82']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>['8', '83']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S66" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="T66" t="n">
         <v>1.29</v>
@@ -14808,10 +14808,10 @@
         <v>3.5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X66" t="n">
         <v>5.5</v>
@@ -14820,25 +14820,25 @@
         <v>1.14</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="AA66" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AB66" t="n">
-        <v>2.39</v>
+        <v>4.4</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD66" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF66" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AG66" t="n">
         <v>1.55</v>
@@ -14847,106 +14847,106 @@
         <v>2.38</v>
       </c>
       <c r="AI66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK66" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD66" t="n">
+      <c r="BL66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO66" t="n">
         <v>2.2</v>
       </c>
-      <c r="BE66" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>2.1</v>
-      </c>
       <c r="BP66" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="67">
@@ -14954,7 +14954,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>6588862</v>
+        <v>6588864</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -14974,77 +14974,77 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
         <v>6</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['11', '50', '57', '64', '82']</t>
+          <t>['19', '27', '39']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['9', '11', '51']</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R67" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T67" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U67" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V67" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W67" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X67" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AA67" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AB67" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="AC67" t="n">
         <v>1.02</v>
@@ -15053,118 +15053,118 @@
         <v>10</v>
       </c>
       <c r="AE67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL67" t="n">
         <v>1.22</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AM67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV67" t="n">
         <v>4</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AW67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK67" t="n">
         <v>1.55</v>
       </c>
-      <c r="AH67" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BL67" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BM67" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BN67" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BO67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BP67" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="68">
@@ -15172,7 +15172,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>6588864</v>
+        <v>6588866</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -15192,197 +15192,197 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['2', '18']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X68" t="n">
         <v>6</v>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>['19', '27', '39']</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>['9', '11', '51']</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U68" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V68" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W68" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X68" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y68" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AA68" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB68" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="AC68" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD68" t="n">
         <v>10</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AF68" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG68" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AH68" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="AI68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN68" t="n">
         <v>1.75</v>
       </c>
-      <c r="AJ68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AO68" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="AU68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA68" t="n">
         <v>8</v>
       </c>
-      <c r="AV68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>9</v>
-      </c>
       <c r="BB68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD68" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="BE68" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="BF68" t="n">
-        <v>2.66</v>
+        <v>5.17</v>
       </c>
       <c r="BG68" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="BH68" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BI68" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BJ68" t="n">
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="BK68" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BL68" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="BN68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BO68" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="BP68" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69">
@@ -16262,7 +16262,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>6588867</v>
+        <v>6588873</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -16282,167 +16282,167 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11', '38', '41', '70', '83']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['11', '29', '78']</t>
+          <t>['14', '47']</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="R73" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S73" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W73" t="n">
         <v>1.35</v>
       </c>
-      <c r="U73" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X73" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="AA73" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD73" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF73" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AG73" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AH73" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AI73" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK73" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AL73" t="n">
         <v>1.25</v>
       </c>
       <c r="AM73" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AN73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR73" t="n">
         <v>1.65</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.92</v>
+        <v>3.23</v>
       </c>
       <c r="AU73" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC73" t="n">
         <v>8</v>
       </c>
-      <c r="AX73" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>14</v>
-      </c>
       <c r="BD73" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BE73" t="n">
         <v>8.5</v>
       </c>
       <c r="BF73" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BG73" t="n">
         <v>0</v>
@@ -16451,28 +16451,28 @@
         <v>0</v>
       </c>
       <c r="BI73" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BJ73" t="n">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="BK73" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="BL73" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="BN73" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BO73" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="BP73" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="74">
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>6588869</v>
+        <v>6588871</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,173 +16500,173 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['10', '20']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="R74" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S74" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T74" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U74" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="V74" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="W74" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X74" t="n">
-        <v>6</v>
+        <v>6.95</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.17</v>
+        <v>2.8</v>
       </c>
       <c r="AA74" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF74" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB74" t="n">
+      <c r="AG74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
         <v>3</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>6</v>
       </c>
       <c r="AX74" t="n">
         <v>4</v>
       </c>
       <c r="AY74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ74" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BA74" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC74" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD74" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BE74" t="n">
         <v>8.5</v>
       </c>
       <c r="BF74" t="n">
-        <v>2.39</v>
+        <v>1.91</v>
       </c>
       <c r="BG74" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BH74" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI74" t="n">
         <v>1.25</v>
@@ -16675,22 +16675,22 @@
         <v>3.42</v>
       </c>
       <c r="BK74" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BL74" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="BM74" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BO74" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="BP74" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="75">
@@ -16698,7 +16698,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>6588871</v>
+        <v>6588869</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -16718,173 +16718,173 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>2</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['10', '20']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R75" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X75" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB75" t="n">
         <v>3</v>
       </c>
-      <c r="T75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U75" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V75" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X75" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AC75" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD75" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF75" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="AG75" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="AI75" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AJ75" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AL75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="AN75" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR75" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AU75" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV75" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX75" t="n">
         <v>4</v>
       </c>
       <c r="AY75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ75" t="n">
         <v>12</v>
       </c>
-      <c r="AZ75" t="n">
+      <c r="BA75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB75" t="n">
         <v>4</v>
       </c>
-      <c r="BA75" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>3</v>
-      </c>
       <c r="BC75" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD75" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="BE75" t="n">
         <v>8.5</v>
       </c>
       <c r="BF75" t="n">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="BG75" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH75" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI75" t="n">
         <v>1.25</v>
@@ -16893,22 +16893,22 @@
         <v>3.42</v>
       </c>
       <c r="BK75" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BL75" t="n">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="BM75" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BN75" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BO75" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="76">
@@ -16916,7 +16916,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>6588873</v>
+        <v>6588867</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -16936,167 +16936,167 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2</v>
-      </c>
       <c r="N76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['11', '38', '41', '70', '83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>['14', '47']</t>
+          <t>['11', '29', '78']</t>
         </is>
       </c>
       <c r="Q76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA76" t="n">
         <v>3.3</v>
       </c>
-      <c r="R76" t="n">
+      <c r="AB76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH76" t="n">
         <v>2.05</v>
       </c>
-      <c r="S76" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X76" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AI76" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AL76" t="n">
         <v>1.25</v>
       </c>
       <c r="AM76" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AN76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.23</v>
+        <v>2.92</v>
       </c>
       <c r="AU76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW76" t="n">
         <v>8</v>
       </c>
-      <c r="AV76" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>2</v>
-      </c>
       <c r="AX76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA76" t="n">
         <v>11</v>
       </c>
-      <c r="AY76" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA76" t="n">
+      <c r="BB76" t="n">
         <v>3</v>
       </c>
-      <c r="BB76" t="n">
-        <v>5</v>
-      </c>
       <c r="BC76" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD76" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BE76" t="n">
         <v>8.5</v>
       </c>
       <c r="BF76" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BG76" t="n">
         <v>0</v>
@@ -17105,28 +17105,28 @@
         <v>0</v>
       </c>
       <c r="BI76" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BJ76" t="n">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="BK76" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="BL76" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="BM76" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="BN76" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BO76" t="n">
-        <v>2.39</v>
+        <v>2.27</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="77">
@@ -17352,7 +17352,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>6588868</v>
+        <v>6588874</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -17372,197 +17372,197 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU78" t="n">
         <v>3</v>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>['29', '83']</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>['60']</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S78" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U78" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X78" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF78" t="n">
+      <c r="AV78" t="n">
         <v>4</v>
       </c>
-      <c r="AG78" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV78" t="n">
+      <c r="AW78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA78" t="n">
         <v>3</v>
       </c>
-      <c r="AW78" t="n">
+      <c r="BB78" t="n">
         <v>5</v>
       </c>
-      <c r="AX78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA78" t="n">
+      <c r="BC78" t="n">
         <v>8</v>
       </c>
-      <c r="BB78" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC78" t="n">
+      <c r="BD78" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BE78" t="n">
         <v>12</v>
       </c>
-      <c r="BD78" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>9</v>
-      </c>
       <c r="BF78" t="n">
-        <v>2.63</v>
+        <v>1.14</v>
       </c>
       <c r="BG78" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH78" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI78" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="BJ78" t="n">
-        <v>3.65</v>
+        <v>2.67</v>
       </c>
       <c r="BK78" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="BL78" t="n">
-        <v>2.69</v>
+        <v>2.02</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="BN78" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="BO78" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BP78" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="79">
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>6588874</v>
+        <v>6588868</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,197 +17590,197 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '83']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="R79" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="n">
-        <v>1.72</v>
+        <v>3.75</v>
       </c>
       <c r="T79" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U79" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="V79" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="X79" t="n">
-        <v>4.95</v>
+        <v>5.95</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z79" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA79" t="n">
         <v>8</v>
       </c>
-      <c r="AA79" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD79" t="n">
+      <c r="BB79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC79" t="n">
         <v>12</v>
       </c>
-      <c r="AE79" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>8</v>
-      </c>
       <c r="BD79" t="n">
-        <v>7.01</v>
+        <v>1.64</v>
       </c>
       <c r="BE79" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BF79" t="n">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="BG79" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI79" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="BJ79" t="n">
-        <v>2.67</v>
+        <v>3.65</v>
       </c>
       <c r="BK79" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="BL79" t="n">
-        <v>2.02</v>
+        <v>2.69</v>
       </c>
       <c r="BM79" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="BN79" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP79" t="n">
         <v>1.8</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>1.57</v>
       </c>
     </row>
     <row r="80">
@@ -18006,7 +18006,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>6588882</v>
+        <v>6588879</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -18026,12 +18026,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -18044,17 +18044,17 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['48', '56']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -18063,19 +18063,19 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S81" t="n">
         <v>6</v>
       </c>
       <c r="T81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V81" t="n">
         <v>2.5</v>
@@ -18084,37 +18084,37 @@
         <v>1.5</v>
       </c>
       <c r="X81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AA81" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AB81" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD81" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF81" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG81" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AH81" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AI81" t="n">
         <v>1.8</v>
@@ -18123,7 +18123,7 @@
         <v>1.95</v>
       </c>
       <c r="AK81" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AL81" t="n">
         <v>1.17</v>
@@ -18132,67 +18132,67 @@
         <v>2.5</v>
       </c>
       <c r="AN81" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO81" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="AU81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY81" t="n">
         <v>12</v>
       </c>
       <c r="AZ81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA81" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC81" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD81" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BE81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BF81" t="n">
-        <v>4.42</v>
+        <v>3.86</v>
       </c>
       <c r="BG81" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="BH81" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="BI81" t="n">
         <v>1.29</v>
@@ -18207,10 +18207,10 @@
         <v>2.45</v>
       </c>
       <c r="BM81" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BN81" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BO81" t="n">
         <v>2.43</v>
@@ -18224,7 +18224,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>6588879</v>
+        <v>6588882</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -18244,12 +18244,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -18262,38 +18262,38 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
+          <t>['48', '56']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R82" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S82" t="n">
         <v>6</v>
       </c>
       <c r="T82" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U82" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V82" t="n">
         <v>2.5</v>
@@ -18302,37 +18302,37 @@
         <v>1.5</v>
       </c>
       <c r="X82" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AA82" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AB82" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AC82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD82" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="AE82" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF82" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG82" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AH82" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AI82" t="n">
         <v>1.8</v>
@@ -18341,7 +18341,7 @@
         <v>1.95</v>
       </c>
       <c r="AK82" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AL82" t="n">
         <v>1.17</v>
@@ -18350,67 +18350,67 @@
         <v>2.5</v>
       </c>
       <c r="AN82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO82" t="n">
         <v>1.4</v>
       </c>
-      <c r="AO82" t="n">
-        <v>0</v>
-      </c>
       <c r="AP82" t="n">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="AU82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY82" t="n">
         <v>12</v>
       </c>
       <c r="AZ82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA82" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC82" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD82" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BE82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BF82" t="n">
-        <v>3.86</v>
+        <v>4.42</v>
       </c>
       <c r="BG82" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BH82" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BI82" t="n">
         <v>1.29</v>
@@ -18425,10 +18425,10 @@
         <v>2.45</v>
       </c>
       <c r="BM82" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BN82" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BO82" t="n">
         <v>2.43</v>
@@ -18442,7 +18442,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>6588880</v>
+        <v>6588877</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -18462,197 +18462,197 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU83" t="n">
         <v>4</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>4</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>['26', '63', '66', '89']</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S83" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U83" t="n">
-        <v>3</v>
-      </c>
-      <c r="V83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X83" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>8</v>
       </c>
       <c r="AV83" t="n">
         <v>4</v>
       </c>
       <c r="AW83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX83" t="n">
         <v>4</v>
       </c>
-      <c r="AX83" t="n">
+      <c r="AY83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB83" t="n">
         <v>3</v>
       </c>
-      <c r="AY83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>5</v>
-      </c>
       <c r="BC83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD83" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="BE83" t="n">
         <v>8.5</v>
       </c>
       <c r="BF83" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="BG83" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="BH83" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="BI83" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="BJ83" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="BK83" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BL83" t="n">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="BM83" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="BN83" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BO83" t="n">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BP83" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="84">
@@ -18660,7 +18660,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>6588877</v>
+        <v>6588880</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -18680,35 +18680,35 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['26', '63', '66', '89']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -18717,160 +18717,160 @@
         </is>
       </c>
       <c r="Q84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN84" t="n">
         <v>2.4</v>
       </c>
-      <c r="R84" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S84" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U84" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V84" t="n">
+      <c r="AO84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP84" t="n">
         <v>2.5</v>
       </c>
-      <c r="W84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X84" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AQ84" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.37</v>
+        <v>3.24</v>
       </c>
       <c r="AU84" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV84" t="n">
         <v>4</v>
       </c>
       <c r="AW84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA84" t="n">
         <v>4</v>
       </c>
-      <c r="AY84" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>7</v>
-      </c>
       <c r="BB84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD84" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="BE84" t="n">
         <v>8.5</v>
       </c>
       <c r="BF84" t="n">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="BG84" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="BH84" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="BI84" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BJ84" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="BK84" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BL84" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="BM84" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="BN84" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="BO84" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="BP84" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="85">
@@ -19314,7 +19314,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>6588876</v>
+        <v>6588881</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -19334,197 +19334,197 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
         <v>3</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2</v>
       </c>
       <c r="N87" t="n">
         <v>5</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['22', '38', '46']</t>
+          <t>['5', '8']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['30', '34']</t>
+          <t>['16', '53', '87']</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="R87" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="S87" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U87" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V87" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.31</v>
+        <v>5.31</v>
       </c>
       <c r="AA87" t="n">
-        <v>5.3</v>
+        <v>4.35</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.52</v>
+        <v>1.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE87" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF87" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG87" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AH87" t="n">
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
       <c r="AI87" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.03</v>
+        <v>2.55</v>
       </c>
       <c r="AL87" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AM87" t="n">
-        <v>3.1</v>
+        <v>1.12</v>
       </c>
       <c r="AN87" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="AU87" t="n">
         <v>8</v>
       </c>
       <c r="AV87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW87" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY87" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ87" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA87" t="n">
         <v>7</v>
       </c>
       <c r="BB87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.34</v>
+        <v>4.11</v>
       </c>
       <c r="BE87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BF87" t="n">
-        <v>4.07</v>
+        <v>1.31</v>
       </c>
       <c r="BG87" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH87" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BI87" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BJ87" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BK87" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BL87" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BO87" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BP87" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="88">
@@ -19532,7 +19532,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>6588881</v>
+        <v>6588876</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -19552,197 +19552,197 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
+        <v>4</v>
+      </c>
+      <c r="L88" t="n">
         <v>3</v>
       </c>
-      <c r="L88" t="n">
-        <v>2</v>
-      </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
         <v>5</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['5', '8']</t>
+          <t>['22', '38', '46']</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>['16', '53', '87']</t>
+          <t>['30', '34']</t>
         </is>
       </c>
       <c r="Q88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X88" t="n">
         <v>5.5</v>
       </c>
-      <c r="R88" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S88" t="n">
-        <v>2</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U88" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V88" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W88" t="n">
+      <c r="Y88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG88" t="n">
         <v>1.5</v>
       </c>
-      <c r="X88" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AH88" t="n">
-        <v>2.11</v>
+        <v>2.41</v>
       </c>
       <c r="AI88" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ88" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK88" t="n">
-        <v>2.55</v>
+        <v>1.03</v>
       </c>
       <c r="AL88" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AM88" t="n">
-        <v>1.12</v>
+        <v>3.1</v>
       </c>
       <c r="AN88" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AO88" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.17</v>
+        <v>2.67</v>
       </c>
       <c r="AQ88" t="n">
-        <v>2.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="AT88" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="AU88" t="n">
         <v>8</v>
       </c>
       <c r="AV88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY88" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ88" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA88" t="n">
         <v>7</v>
       </c>
       <c r="BB88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD88" t="n">
-        <v>4.11</v>
+        <v>1.34</v>
       </c>
       <c r="BE88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BF88" t="n">
-        <v>1.31</v>
+        <v>4.07</v>
       </c>
       <c r="BG88" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH88" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BI88" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BJ88" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BK88" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BL88" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BM88" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="BN88" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BO88" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BP88" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.17</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.33</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.43</v>
@@ -3317,7 +3317,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4843,7 +4843,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR20" t="n">
         <v>1.12</v>
@@ -5061,7 +5061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,7 +5494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.43</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.17</v>
@@ -6151,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.6</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.33</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -7677,7 +7677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.43</v>
@@ -8113,7 +8113,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.8</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.33</v>
@@ -8767,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -9636,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.17</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10075,7 +10075,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -10293,7 +10293,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR45" t="n">
         <v>1.73</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.33</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.8</v>
@@ -11819,7 +11819,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12037,7 +12037,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12252,7 +12252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.33</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0</v>
@@ -12691,7 +12691,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR56" t="n">
         <v>1.44</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.17</v>
@@ -13127,7 +13127,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -13345,7 +13345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.33</v>
@@ -13996,10 +13996,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.6</v>
@@ -14435,7 +14435,7 @@
         <v>3</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR64" t="n">
         <v>2.5</v>
@@ -14653,7 +14653,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.17</v>
@@ -15525,7 +15525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR69" t="n">
         <v>1.68</v>
@@ -16176,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.33</v>
@@ -16394,7 +16394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.6</v>
@@ -16612,10 +16612,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR74" t="n">
         <v>1.12</v>
@@ -16830,10 +16830,10 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17051,7 +17051,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.33</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -17920,10 +17920,10 @@
         <v>0.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR80" t="n">
         <v>1.3</v>
@@ -18795,7 +18795,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.33</v>
@@ -19743,6 +19743,1750 @@
       </c>
       <c r="BP88" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6588883</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['13', '15', '46', '64', '85']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['11', '49', '51', '53', '60', '78', '83', '87', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6588884</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6588887</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6588889</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['17', '67', '86']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6588890</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['78', '90']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6588886</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['17', '45', '46', '76']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6588888</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6588885</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="AV93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW93" t="n">
         <v>7</v>
@@ -20784,7 +20784,7 @@
         <v>11</v>
       </c>
       <c r="AZ93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA93" t="n">
         <v>9</v>
@@ -20987,7 +20987,7 @@
         <v>3.62</v>
       </c>
       <c r="AU94" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV94" t="n">
         <v>0</v>
@@ -20999,7 +20999,7 @@
         <v>10</v>
       </c>
       <c r="AY94" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ94" t="n">
         <v>10</v>
@@ -21205,10 +21205,10 @@
         <v>2.42</v>
       </c>
       <c r="AU95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW95" t="n">
         <v>4</v>
@@ -21217,10 +21217,10 @@
         <v>8</v>
       </c>
       <c r="AY95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA95" t="n">
         <v>2</v>
@@ -21423,19 +21423,19 @@
         <v>2.59</v>
       </c>
       <c r="AU96" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY96" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ96" t="n">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.17</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR14" t="n">
         <v>1.39</v>
@@ -3753,7 +3753,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.33</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.17</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.17</v>
@@ -5933,7 +5933,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6369,7 +6369,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0.7</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.2</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.67</v>
@@ -8331,7 +8331,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.5</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9639,7 +9639,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.31</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.72</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11380,7 +11380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.43</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.17</v>
@@ -12909,7 +12909,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.7</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.17</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>0.9</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.67</v>
@@ -14871,7 +14871,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15089,7 +15089,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.43</v>
@@ -15961,7 +15961,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16397,7 +16397,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR73" t="n">
         <v>1.65</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.17</v>
@@ -18141,7 +18141,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,10 +18356,10 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.56</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.67</v>
@@ -19013,7 +19013,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -19228,7 +19228,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>2.33</v>
@@ -21487,6 +21487,878 @@
       </c>
       <c r="BP96" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6588898</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6588891</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6588893</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6588896</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>6</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.17</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.67</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.29</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.17</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.29</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.17</v>
@@ -7895,7 +7895,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.17</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.17</v>
@@ -10290,7 +10290,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.29</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR46" t="n">
         <v>0.8100000000000001</v>
@@ -10947,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR48" t="n">
         <v>2.51</v>
@@ -11383,7 +11383,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.67</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.5</v>
@@ -12255,7 +12255,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -12473,7 +12473,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR55" t="n">
         <v>2.44</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.17</v>
@@ -13560,7 +13560,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.29</v>
@@ -13781,7 +13781,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.29</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.17</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.17</v>
@@ -16179,7 +16179,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.29</v>
@@ -18577,7 +18577,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR83" t="n">
         <v>1.23</v>
@@ -19010,7 +19010,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.17</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR86" t="n">
         <v>1.46</v>
@@ -19449,7 +19449,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR87" t="n">
         <v>1.63</v>
@@ -19664,10 +19664,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -22359,6 +22359,878 @@
       </c>
       <c r="BP100" t="n">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6588894</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6588892</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S102" t="n">
+        <v>8</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6588897</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['24', '45+1', '86']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6588895</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['20', '67']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -22516,19 +22516,19 @@
         <v>6</v>
       </c>
       <c r="AV101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ101" t="n">
         <v>9</v>
-      </c>
-      <c r="AX101" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY101" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ101" t="n">
-        <v>7</v>
       </c>
       <c r="BA101" t="n">
         <v>11</v>
@@ -22731,22 +22731,22 @@
         <v>3.06</v>
       </c>
       <c r="AU102" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AV102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX102" t="n">
         <v>9</v>
       </c>
-      <c r="AW102" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>10</v>
-      </c>
       <c r="AY102" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AZ102" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA102" t="n">
         <v>11</v>
@@ -22949,19 +22949,19 @@
         <v>2.88</v>
       </c>
       <c r="AU103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW103" t="n">
         <v>4</v>
       </c>
       <c r="AX103" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ103" t="n">
         <v>19</v>
@@ -23170,19 +23170,19 @@
         <v>3</v>
       </c>
       <c r="AV104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW104" t="n">
         <v>2</v>
       </c>
       <c r="AX104" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY104" t="n">
         <v>5</v>
       </c>
       <c r="AZ104" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA104" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.2</v>
@@ -1573,7 +1573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.17</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.75</v>
@@ -4189,7 +4189,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR20" t="n">
         <v>1.12</v>
@@ -5494,7 +5494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.75</v>
@@ -5715,7 +5715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5933,7 +5933,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.43</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>2</v>
@@ -8767,7 +8767,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9203,7 +9203,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.17</v>
@@ -10293,7 +10293,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR45" t="n">
         <v>1.73</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.17</v>
@@ -11819,7 +11819,7 @@
         <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12037,7 +12037,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR56" t="n">
         <v>1.44</v>
@@ -13563,7 +13563,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.43</v>
@@ -14653,7 +14653,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.43</v>
@@ -15525,7 +15525,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR69" t="n">
         <v>1.68</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.43</v>
@@ -17705,7 +17705,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -17920,10 +17920,10 @@
         <v>0.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR80" t="n">
         <v>1.3</v>
@@ -18141,7 +18141,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,7 +18356,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19885,7 +19885,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR89" t="n">
         <v>1.28</v>
@@ -20100,10 +20100,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR90" t="n">
         <v>1.28</v>
@@ -20321,7 +20321,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR91" t="n">
         <v>1.63</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.17</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.67</v>
@@ -22283,7 +22283,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -23231,6 +23231,1096 @@
       </c>
       <c r="BP104" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6588903</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6588900</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6588906</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6588899</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X108" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6588901</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['68', '81']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X109" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.63</v>
@@ -1355,7 +1355,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.38</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.43</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.43</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.29</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.63</v>
@@ -7677,7 +7677,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.75</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.17</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -12252,7 +12252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54" t="n">
         <v>2</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.43</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -13345,7 +13345,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -13999,7 +13999,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
         <v>2</v>
@@ -16394,7 +16394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -16833,7 +16833,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17051,7 +17051,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.43</v>
@@ -20318,7 +20318,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.38</v>
@@ -20536,10 +20536,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR92" t="n">
         <v>1.64</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.17</v>
@@ -20975,7 +20975,7 @@
         <v>3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR94" t="n">
         <v>2.14</v>
@@ -21193,7 +21193,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR95" t="n">
         <v>1.07</v>
@@ -23385,22 +23385,22 @@
         <v>2.65</v>
       </c>
       <c r="AU105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY105" t="n">
         <v>6</v>
       </c>
-      <c r="AV105" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW105" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX105" t="n">
+      <c r="AZ105" t="n">
         <v>5</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>7</v>
       </c>
       <c r="BA105" t="n">
         <v>5</v>
@@ -23606,28 +23606,28 @@
         <v>2</v>
       </c>
       <c r="AV106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ106" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA106" t="n">
         <v>1</v>
       </c>
       <c r="BB106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD106" t="n">
         <v>1.64</v>
@@ -23821,31 +23821,31 @@
         <v>2.78</v>
       </c>
       <c r="AU107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV107" t="n">
         <v>0</v>
       </c>
       <c r="AW107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY107" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA107" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC107" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD107" t="n">
         <v>1.41</v>
@@ -24039,31 +24039,31 @@
         <v>2.2</v>
       </c>
       <c r="AU108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX108" t="n">
         <v>4</v>
       </c>
-      <c r="AV108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>3</v>
-      </c>
       <c r="AY108" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ108" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB108" t="n">
         <v>3</v>
       </c>
       <c r="BC108" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD108" t="n">
         <v>1.51</v>
@@ -24257,22 +24257,22 @@
         <v>3.32</v>
       </c>
       <c r="AU109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ109" t="n">
         <v>7</v>
-      </c>
-      <c r="AX109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>6</v>
       </c>
       <c r="BA109" t="n">
         <v>9</v>
@@ -24321,6 +24321,660 @@
       </c>
       <c r="BP109" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6588902</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['49', '53', '58']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X110" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6588904</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6588905</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['64', '79']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X112" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR14" t="n">
         <v>1.39</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.38</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.14</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.43</v>
@@ -5497,7 +5497,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.38</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR27" t="n">
         <v>0.7</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -7895,7 +7895,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8331,7 +8331,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8549,7 +8549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.29</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.63</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.14</v>
@@ -9636,10 +9636,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR42" t="n">
         <v>1.31</v>
@@ -9857,7 +9857,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.14</v>
@@ -10290,7 +10290,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.38</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR46" t="n">
         <v>0.8100000000000001</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR47" t="n">
         <v>1.72</v>
@@ -10947,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR48" t="n">
         <v>2.51</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11601,7 +11601,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.43</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.29</v>
@@ -12255,7 +12255,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -12473,7 +12473,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR55" t="n">
         <v>2.44</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.14</v>
@@ -12909,7 +12909,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR57" t="n">
         <v>1.7</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.43</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.14</v>
@@ -13560,7 +13560,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.38</v>
@@ -13781,7 +13781,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -13996,7 +13996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR63" t="n">
         <v>0.9</v>
@@ -14435,7 +14435,7 @@
         <v>3</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR64" t="n">
         <v>2.5</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.43</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.63</v>
@@ -15089,7 +15089,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -15307,7 +15307,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.14</v>
@@ -15740,10 +15740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16179,7 +16179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -16397,7 +16397,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR73" t="n">
         <v>1.65</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR74" t="n">
         <v>1.12</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.14</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.43</v>
@@ -17487,7 +17487,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.29</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.63</v>
@@ -18359,7 +18359,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.56</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR83" t="n">
         <v>1.23</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.43</v>
@@ -19010,10 +19010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -19228,10 +19228,10 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR86" t="n">
         <v>1.46</v>
@@ -19449,7 +19449,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.63</v>
@@ -19664,10 +19664,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.43</v>
@@ -20757,7 +20757,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR93" t="n">
         <v>2.29</v>
@@ -21629,7 +21629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR97" t="n">
         <v>1.6</v>
@@ -21844,10 +21844,10 @@
         <v>1.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR98" t="n">
         <v>1.47</v>
@@ -22062,10 +22062,10 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.25</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.63</v>
@@ -22498,10 +22498,10 @@
         <v>0.43</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR101" t="n">
         <v>2.05</v>
@@ -22716,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR102" t="n">
         <v>1.91</v>
@@ -22934,10 +22934,10 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR103" t="n">
         <v>1.39</v>
@@ -23152,10 +23152,10 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR104" t="n">
         <v>1.81</v>
@@ -24975,6 +24975,1750 @@
       </c>
       <c r="BP112" t="n">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6588913</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6588908</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X114" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6588914</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6588907</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X116" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6588911</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6588909</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['43', '63', '66', '72']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X118" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6588910</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X119" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6588912</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['4', '43', '56']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.63</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.38</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.43</v>
@@ -2227,7 +2227,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4843,7 +4843,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR20" t="n">
         <v>1.12</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.78</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.63</v>
@@ -7677,7 +7677,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.78</v>
@@ -8113,7 +8113,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37" t="n">
         <v>2.13</v>
@@ -8767,7 +8767,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.63</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.43</v>
@@ -10075,7 +10075,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12252,7 +12252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.13</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.38</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.44</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.25</v>
@@ -13345,7 +13345,7 @@
         <v>2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -13999,7 +13999,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.25</v>
@@ -15525,7 +15525,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69" t="n">
         <v>1.68</v>
@@ -15740,7 +15740,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.78</v>
@@ -16176,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.13</v>
@@ -16394,7 +16394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.71</v>
@@ -16833,7 +16833,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.5</v>
@@ -17705,7 +17705,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19228,7 +19228,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
         <v>2.13</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.5</v>
@@ -19885,7 +19885,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR89" t="n">
         <v>1.28</v>
@@ -20103,7 +20103,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.28</v>
@@ -20318,7 +20318,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.38</v>
@@ -20536,10 +20536,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR92" t="n">
         <v>1.64</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.43</v>
@@ -20975,7 +20975,7 @@
         <v>3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR94" t="n">
         <v>2.14</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.43</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21844,7 +21844,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.25</v>
@@ -23370,10 +23370,10 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR105" t="n">
         <v>1.03</v>
@@ -23591,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR109" t="n">
         <v>2.14</v>
@@ -24460,7 +24460,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.43</v>
@@ -24678,10 +24678,10 @@
         <v>0.17</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR111" t="n">
         <v>1.66</v>
@@ -24896,10 +24896,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR112" t="n">
         <v>2.19</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.71</v>
@@ -26719,6 +26719,1096 @@
       </c>
       <c r="BP120" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6588915</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6588918</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X122" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6588919</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['7', '46']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X123" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6588920</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['6', '70']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6588916</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['7', '71']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S125" t="n">
+        <v>13</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X125" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.13</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.38</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5933,7 +5933,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.13</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.25</v>
@@ -8331,7 +8331,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8985,7 +8985,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9421,7 +9421,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.5</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11601,7 +11601,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -13127,7 +13127,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.71</v>
@@ -14871,7 +14871,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.38</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.43</v>
@@ -17051,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -18141,7 +18141,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,7 +18356,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.25</v>
@@ -19013,7 +19013,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR95" t="n">
         <v>1.07</v>
@@ -21408,7 +21408,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.71</v>
@@ -22065,7 +22065,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR99" t="n">
         <v>1.25</v>
@@ -22283,7 +22283,7 @@
         <v>2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -23588,7 +23588,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.38</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.38</v>
@@ -24027,7 +24027,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108" t="n">
         <v>1.26</v>
@@ -24463,7 +24463,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>1.62</v>
@@ -25117,7 +25117,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -26873,22 +26873,22 @@
         <v>3.18</v>
       </c>
       <c r="AU121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW121" t="n">
         <v>3</v>
       </c>
-      <c r="AV121" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW121" t="n">
-        <v>2</v>
-      </c>
       <c r="AX121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ121" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA121" t="n">
         <v>2</v>
@@ -27094,16 +27094,16 @@
         <v>8</v>
       </c>
       <c r="AV122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX122" t="n">
         <v>5</v>
       </c>
-      <c r="AW122" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX122" t="n">
-        <v>7</v>
-      </c>
       <c r="AY122" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ122" t="n">
         <v>12</v>
@@ -27312,16 +27312,16 @@
         <v>6</v>
       </c>
       <c r="AV123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW123" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY123" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ123" t="n">
         <v>11</v>
@@ -27527,22 +27527,22 @@
         <v>3.14</v>
       </c>
       <c r="AU124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW124" t="n">
         <v>4</v>
       </c>
       <c r="AX124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY124" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ124" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA124" t="n">
         <v>4</v>
@@ -27745,22 +27745,22 @@
         <v>3.37</v>
       </c>
       <c r="AU125" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV125" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY125" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ125" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA125" t="n">
         <v>11</v>
@@ -27809,6 +27809,660 @@
       </c>
       <c r="BP125" t="n">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6588917</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>16</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['29', '71']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>3</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X126" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6588922</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['36', '75']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X127" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6588921</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['3', '40']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U128" t="n">
+        <v>4</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -27963,7 +27963,7 @@
         <v>3.14</v>
       </c>
       <c r="AU126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV126" t="n">
         <v>2</v>
@@ -27975,7 +27975,7 @@
         <v>6</v>
       </c>
       <c r="AY126" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ126" t="n">
         <v>8</v>
@@ -28181,22 +28181,22 @@
         <v>2.44</v>
       </c>
       <c r="AU127" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ127" t="n">
         <v>8</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY127" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>10</v>
       </c>
       <c r="BA127" t="n">
         <v>6</v>
@@ -28399,19 +28399,19 @@
         <v>3.08</v>
       </c>
       <c r="AU128" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW128" t="n">
         <v>5</v>
       </c>
-      <c r="AW128" t="n">
-        <v>7</v>
-      </c>
       <c r="AX128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY128" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ128" t="n">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -27963,19 +27963,19 @@
         <v>3.14</v>
       </c>
       <c r="AU126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV126" t="n">
         <v>2</v>
       </c>
       <c r="AW126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX126" t="n">
         <v>6</v>
       </c>
       <c r="AY126" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ126" t="n">
         <v>8</v>
@@ -28181,22 +28181,22 @@
         <v>2.44</v>
       </c>
       <c r="AU127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ127" t="n">
         <v>10</v>
-      </c>
-      <c r="AV127" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY127" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>8</v>
       </c>
       <c r="BA127" t="n">
         <v>6</v>
@@ -28399,19 +28399,19 @@
         <v>3.08</v>
       </c>
       <c r="AU128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX128" t="n">
         <v>4</v>
       </c>
-      <c r="AV128" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW128" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX128" t="n">
-        <v>3</v>
-      </c>
       <c r="AY128" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ128" t="n">
         <v>9</v>
@@ -28420,10 +28420,10 @@
         <v>5</v>
       </c>
       <c r="BB128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD128" t="n">
         <v>1.09</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.25</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.38</v>
@@ -2881,7 +2881,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.78</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.38</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.25</v>
@@ -7459,7 +7459,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -8549,7 +8549,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.71</v>
@@ -12255,7 +12255,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.13</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.5</v>
@@ -14435,7 +14435,7 @@
         <v>3</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR64" t="n">
         <v>2.5</v>
@@ -16179,7 +16179,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -16615,7 +16615,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR74" t="n">
         <v>1.12</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17920,7 +17920,7 @@
         <v>0.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.38</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.25</v>
@@ -19231,7 +19231,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR86" t="n">
         <v>1.46</v>
@@ -20100,7 +20100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.38</v>
@@ -20757,7 +20757,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR93" t="n">
         <v>2.29</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.5600000000000001</v>
@@ -22937,7 +22937,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR103" t="n">
         <v>1.39</v>
@@ -24024,7 +24024,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.5600000000000001</v>
@@ -26207,7 +26207,7 @@
         <v>2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR118" t="n">
         <v>1.87</v>
@@ -26425,7 +26425,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26640,7 +26640,7 @@
         <v>2.43</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120" t="n">
         <v>2.5</v>
@@ -28463,6 +28463,442 @@
       </c>
       <c r="BP128" t="n">
         <v>1.89</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6588930</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X129" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6588925</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45263.45833333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['19', '65']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U130" t="n">
+        <v>4</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -26726,7 +26726,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>6588915</v>
+        <v>6588920</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -26746,50 +26746,50 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>['6', '70']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="R121" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S121" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="T121" t="n">
         <v>1.33</v>
@@ -26798,10 +26798,10 @@
         <v>3.25</v>
       </c>
       <c r="V121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X121" t="n">
         <v>6.5</v>
@@ -26810,19 +26810,19 @@
         <v>1.11</v>
       </c>
       <c r="Z121" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="AA121" t="n">
-        <v>3.5</v>
+        <v>3.11</v>
       </c>
       <c r="AB121" t="n">
-        <v>1.87</v>
+        <v>2.51</v>
       </c>
       <c r="AC121" t="n">
         <v>1.04</v>
       </c>
       <c r="AD121" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE121" t="n">
         <v>1.22</v>
@@ -26831,112 +26831,112 @@
         <v>4</v>
       </c>
       <c r="AG121" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH121" t="n">
         <v>2.05</v>
       </c>
       <c r="AI121" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK121" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AL121" t="n">
         <v>1.25</v>
       </c>
       <c r="AM121" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AN121" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AO121" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT121" t="n">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="AU121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV121" t="n">
         <v>7</v>
       </c>
       <c r="AW121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY121" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC121" t="n">
         <v>9</v>
       </c>
       <c r="BD121" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="BE121" t="n">
         <v>8.5</v>
       </c>
       <c r="BF121" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="BG121" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH121" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="BI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
         <v>1.36</v>
       </c>
-      <c r="BJ121" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BL121" t="n">
-        <v>2.22</v>
+        <v>2.79</v>
       </c>
       <c r="BM121" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="BN121" t="n">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="BO121" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="BP121" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="122">
@@ -26944,7 +26944,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>6588918</v>
+        <v>6588915</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -26964,12 +26964,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -26992,169 +26992,169 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U122" t="n">
         <v>3.25</v>
       </c>
-      <c r="R122" t="n">
+      <c r="V122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X122" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH122" t="n">
         <v>2.05</v>
       </c>
-      <c r="S122" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T122" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U122" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V122" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W122" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X122" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AI122" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AL122" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM122" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="AO122" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.22</v>
+        <v>3.18</v>
       </c>
       <c r="AU122" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV122" t="n">
         <v>7</v>
       </c>
       <c r="AW122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX122" t="n">
         <v>6</v>
       </c>
-      <c r="AX122" t="n">
-        <v>5</v>
-      </c>
       <c r="AY122" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB122" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC122" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD122" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BE122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF122" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="BG122" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH122" t="n">
-        <v>4.7</v>
+        <v>4.15</v>
       </c>
       <c r="BI122" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BJ122" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="BK122" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="BL122" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="BM122" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="BO122" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="BP122" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="123">
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6588920</v>
+        <v>6588918</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,131 +27400,131 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['6', '70']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R124" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W124" t="n">
         <v>1.33</v>
       </c>
-      <c r="U124" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V124" t="n">
+      <c r="X124" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB124" t="n">
         <v>2.63</v>
       </c>
-      <c r="W124" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X124" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>2.51</v>
-      </c>
       <c r="AC124" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD124" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE124" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF124" t="n">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="AG124" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="AH124" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AI124" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ124" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AL124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP124" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO124" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP124" t="n">
-        <v>1.78</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="AT124" t="n">
-        <v>3.14</v>
+        <v>2.22</v>
       </c>
       <c r="AU124" t="n">
         <v>8</v>
@@ -27533,64 +27533,64 @@
         <v>7</v>
       </c>
       <c r="AW124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX124" t="n">
         <v>5</v>
       </c>
       <c r="AY124" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ124" t="n">
         <v>12</v>
       </c>
       <c r="BA124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB124" t="n">
         <v>4</v>
       </c>
-      <c r="BB124" t="n">
-        <v>5</v>
-      </c>
       <c r="BC124" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD124" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BE124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF124" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BG124" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH124" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI124" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BJ124" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BK124" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="BL124" t="n">
-        <v>2.79</v>
+        <v>2.34</v>
       </c>
       <c r="BM124" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="BN124" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="BO124" t="n">
-        <v>1.93</v>
+        <v>2.39</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="125">
@@ -27816,7 +27816,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>6588917</v>
+        <v>6588922</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -27836,95 +27836,95 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['29', '71']</t>
+          <t>['36', '75']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="Q126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U126" t="n">
         <v>3</v>
       </c>
-      <c r="R126" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S126" t="n">
+      <c r="V126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X126" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA126" t="n">
         <v>3.75</v>
       </c>
-      <c r="T126" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U126" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V126" t="n">
-        <v>3</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X126" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>3.36</v>
-      </c>
       <c r="AB126" t="n">
-        <v>3.51</v>
+        <v>4.45</v>
       </c>
       <c r="AC126" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD126" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AE126" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AF126" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG126" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AI126" t="n">
         <v>1.75</v>
@@ -27933,70 +27933,70 @@
         <v>2</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AO126" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="AT126" t="n">
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="AU126" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV126" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY126" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ126" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA126" t="n">
         <v>6</v>
       </c>
       <c r="BB126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC126" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD126" t="n">
-        <v>1.91</v>
+        <v>1.51</v>
       </c>
       <c r="BE126" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF126" t="n">
-        <v>2.2</v>
+        <v>3.06</v>
       </c>
       <c r="BG126" t="n">
         <v>0</v>
@@ -28005,28 +28005,28 @@
         <v>0</v>
       </c>
       <c r="BI126" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BJ126" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="BK126" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BL126" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="BM126" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BN126" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BO126" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="BP126" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="127">
@@ -28034,7 +28034,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>6588922</v>
+        <v>6588917</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -28054,95 +28054,95 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['29', '71']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
         <v>3</v>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>['36', '75']</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>['12']</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R127" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S127" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3</v>
+      </c>
+      <c r="W127" t="n">
         <v>1.36</v>
       </c>
-      <c r="U127" t="n">
-        <v>3</v>
-      </c>
-      <c r="V127" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W127" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="AA127" t="n">
-        <v>3.75</v>
+        <v>3.36</v>
       </c>
       <c r="AB127" t="n">
-        <v>4.45</v>
+        <v>3.51</v>
       </c>
       <c r="AC127" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD127" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AE127" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AF127" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AG127" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI127" t="n">
         <v>1.75</v>
@@ -28151,70 +28151,70 @@
         <v>2</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AL127" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM127" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AN127" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AO127" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.44</v>
+        <v>3.14</v>
       </c>
       <c r="AU127" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ127" t="n">
         <v>8</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY127" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>10</v>
       </c>
       <c r="BA127" t="n">
         <v>6</v>
       </c>
       <c r="BB127" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC127" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD127" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="BE127" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF127" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="BG127" t="n">
         <v>0</v>
@@ -28223,28 +28223,28 @@
         <v>0</v>
       </c>
       <c r="BI127" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BJ127" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="BK127" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BL127" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="BM127" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN127" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BO127" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="BP127" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="128">

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.78</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.71</v>
@@ -3753,7 +3753,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.22</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>2.5</v>
@@ -7241,7 +7241,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7677,7 +7677,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -9639,7 +9639,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR42" t="n">
         <v>1.31</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.5</v>
@@ -12909,7 +12909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR57" t="n">
         <v>1.7</v>
@@ -13560,7 +13560,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.38</v>
@@ -13999,7 +13999,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.71</v>
@@ -15089,7 +15089,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.38</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.25</v>
@@ -18359,7 +18359,7 @@
         <v>2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR82" t="n">
         <v>1.56</v>
@@ -20539,7 +20539,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR92" t="n">
         <v>1.64</v>
@@ -21408,7 +21408,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -21847,7 +21847,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR98" t="n">
         <v>1.47</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.22</v>
@@ -23588,7 +23588,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.38</v>
@@ -24899,7 +24899,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR112" t="n">
         <v>2.19</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.88</v>
@@ -25335,7 +25335,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -27079,7 +27079,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR122" t="n">
         <v>1.51</v>
@@ -27948,7 +27948,7 @@
         <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.88</v>
@@ -28899,6 +28899,442 @@
       </c>
       <c r="BP130" t="n">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6588836</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45266.54166666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['5', '51', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V131" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X131" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6588927</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45266.54166666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['16', '45', '86']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['27', '65']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X132" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.25</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.13</v>
@@ -3099,7 +3099,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.38</v>
@@ -5497,7 +5497,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5933,7 +5933,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -7895,7 +7895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.25</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.88</v>
@@ -8767,7 +8767,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -8985,7 +8985,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11383,7 +11383,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12252,7 +12252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.22</v>
@@ -14871,7 +14871,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.11</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.38</v>
@@ -15743,7 +15743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -17705,7 +17705,7 @@
         <v>2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -18141,7 +18141,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,7 +18356,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.11</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.5</v>
@@ -19667,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.63</v>
@@ -21411,7 +21411,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.71</v>
@@ -22283,7 +22283,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -22501,7 +22501,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR101" t="n">
         <v>2.05</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.38</v>
@@ -24027,7 +24027,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.26</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR109" t="n">
         <v>2.14</v>
@@ -24678,7 +24678,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.13</v>
@@ -25553,7 +25553,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -26726,7 +26726,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>6588920</v>
+        <v>6588915</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -26746,50 +26746,50 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['6', '70']</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="R121" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S121" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="T121" t="n">
         <v>1.33</v>
@@ -26798,10 +26798,10 @@
         <v>3.25</v>
       </c>
       <c r="V121" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W121" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X121" t="n">
         <v>6.5</v>
@@ -26810,19 +26810,19 @@
         <v>1.11</v>
       </c>
       <c r="Z121" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="AA121" t="n">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>2.51</v>
+        <v>1.87</v>
       </c>
       <c r="AC121" t="n">
         <v>1.04</v>
       </c>
       <c r="AD121" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE121" t="n">
         <v>1.22</v>
@@ -26831,112 +26831,112 @@
         <v>4</v>
       </c>
       <c r="AG121" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH121" t="n">
         <v>2.05</v>
       </c>
       <c r="AI121" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK121" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AL121" t="n">
         <v>1.25</v>
       </c>
       <c r="AM121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ121" t="n">
         <v>1.63</v>
       </c>
-      <c r="AN121" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AR121" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU121" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV121" t="n">
         <v>7</v>
       </c>
       <c r="AW121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY121" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC121" t="n">
         <v>9</v>
       </c>
       <c r="BD121" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="BE121" t="n">
         <v>8.5</v>
       </c>
       <c r="BF121" t="n">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="BG121" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH121" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="BI121" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BJ121" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BK121" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="BL121" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="BM121" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="BN121" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="BO121" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="BP121" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="122">
@@ -26944,7 +26944,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>6588915</v>
+        <v>6588918</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -26964,12 +26964,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -26992,169 +26992,169 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="T122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W122" t="n">
         <v>1.33</v>
       </c>
-      <c r="U122" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V122" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W122" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X122" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ122" t="n">
         <v>1.11</v>
       </c>
-      <c r="Z122" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM122" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP122" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ122" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AR122" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AT122" t="n">
-        <v>3.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV122" t="n">
         <v>7</v>
       </c>
       <c r="AW122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA122" t="n">
         <v>6</v>
       </c>
-      <c r="AY122" t="n">
+      <c r="BB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE122" t="n">
         <v>8</v>
       </c>
-      <c r="AZ122" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA122" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB122" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC122" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD122" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BE122" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BF122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK122" t="n">
         <v>1.59</v>
       </c>
-      <c r="BG122" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BH122" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="BI122" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BJ122" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BK122" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BL122" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="BM122" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="BO122" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="BP122" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="123">
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6588918</v>
+        <v>6588920</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,131 +27400,131 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['6', '70']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U124" t="n">
         <v>3.25</v>
       </c>
-      <c r="R124" t="n">
+      <c r="V124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH124" t="n">
         <v>2.05</v>
       </c>
-      <c r="S124" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U124" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V124" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W124" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X124" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE124" t="n">
+      <c r="AI124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK124" t="n">
         <v>1.36</v>
       </c>
-      <c r="AF124" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AL124" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM124" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AO124" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.22</v>
+        <v>3.14</v>
       </c>
       <c r="AU124" t="n">
         <v>8</v>
@@ -27533,64 +27533,64 @@
         <v>7</v>
       </c>
       <c r="AW124" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX124" t="n">
         <v>5</v>
       </c>
       <c r="AY124" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ124" t="n">
         <v>12</v>
       </c>
       <c r="BA124" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD124" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BE124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF124" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG124" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BH124" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI124" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BJ124" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="BK124" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="BL124" t="n">
-        <v>2.34</v>
+        <v>2.79</v>
       </c>
       <c r="BM124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO124" t="n">
         <v>1.93</v>
       </c>
-      <c r="BN124" t="n">
+      <c r="BP124" t="n">
         <v>1.88</v>
-      </c>
-      <c r="BO124" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BP124" t="n">
-        <v>1.56</v>
       </c>
     </row>
     <row r="125">
@@ -27816,7 +27816,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>6588922</v>
+        <v>6588917</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -27836,95 +27836,95 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['29', '71']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>3</v>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>['36', '75']</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>['12']</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R126" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S126" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3</v>
+      </c>
+      <c r="W126" t="n">
         <v>1.36</v>
       </c>
-      <c r="U126" t="n">
-        <v>3</v>
-      </c>
-      <c r="V126" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="AA126" t="n">
-        <v>3.75</v>
+        <v>3.36</v>
       </c>
       <c r="AB126" t="n">
-        <v>4.45</v>
+        <v>3.51</v>
       </c>
       <c r="AC126" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD126" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AE126" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AF126" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AG126" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI126" t="n">
         <v>1.75</v>
@@ -27933,70 +27933,70 @@
         <v>2</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AN126" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AO126" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.44</v>
+        <v>3.14</v>
       </c>
       <c r="AU126" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ126" t="n">
         <v>8</v>
-      </c>
-      <c r="AW126" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY126" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ126" t="n">
-        <v>10</v>
       </c>
       <c r="BA126" t="n">
         <v>6</v>
       </c>
       <c r="BB126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC126" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD126" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="BE126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF126" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="BG126" t="n">
         <v>0</v>
@@ -28005,28 +28005,28 @@
         <v>0</v>
       </c>
       <c r="BI126" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BJ126" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="BK126" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BL126" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="BM126" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN126" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BO126" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="BP126" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="127">
@@ -28034,7 +28034,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>6588917</v>
+        <v>6588922</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -28054,95 +28054,95 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>['29', '71']</t>
+          <t>['36', '75']</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="Q127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U127" t="n">
         <v>3</v>
       </c>
-      <c r="R127" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S127" t="n">
+      <c r="V127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X127" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA127" t="n">
         <v>3.75</v>
       </c>
-      <c r="T127" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U127" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V127" t="n">
-        <v>3</v>
-      </c>
-      <c r="W127" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X127" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>3.36</v>
-      </c>
       <c r="AB127" t="n">
-        <v>3.51</v>
+        <v>4.45</v>
       </c>
       <c r="AC127" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD127" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AE127" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AF127" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG127" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AI127" t="n">
         <v>1.75</v>
@@ -28151,70 +28151,70 @@
         <v>2</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL127" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM127" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AO127" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="AT127" t="n">
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="AU127" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV127" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX127" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY127" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA127" t="n">
         <v>6</v>
       </c>
       <c r="BB127" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC127" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD127" t="n">
-        <v>1.91</v>
+        <v>1.51</v>
       </c>
       <c r="BE127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF127" t="n">
-        <v>2.2</v>
+        <v>3.06</v>
       </c>
       <c r="BG127" t="n">
         <v>0</v>
@@ -28223,28 +28223,28 @@
         <v>0</v>
       </c>
       <c r="BI127" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BJ127" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="BK127" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BL127" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="BM127" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BN127" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BO127" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="BP127" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="128">
@@ -28387,7 +28387,7 @@
         <v>3</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR128" t="n">
         <v>2.1</v>
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>6588836</v>
+        <v>6588927</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28922,201 +28922,201 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['45+3']</t>
+          <t>['16', '45', '86']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['5', '51', '90+5']</t>
+          <t>['27', '65']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>3.7</v>
+        <v>2.35</v>
       </c>
       <c r="R131" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U131" t="n">
         <v>2.8</v>
       </c>
-      <c r="T131" t="n">
+      <c r="V131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W131" t="n">
         <v>1.4</v>
       </c>
-      <c r="U131" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V131" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W131" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X131" t="n">
-        <v>7.75</v>
+        <v>6.95</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z131" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="AA131" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF131" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB131" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AG131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI131" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>1.75</v>
       </c>
       <c r="AJ131" t="n">
         <v>1.95</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM131" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AN131" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="AO131" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AP131" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR131" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AT131" t="n">
-        <v>3.14</v>
+        <v>2.68</v>
       </c>
       <c r="AU131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW131" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX131" t="n">
         <v>4</v>
       </c>
       <c r="AY131" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA131" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BB131" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC131" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="BD131" t="n">
-        <v>2.32</v>
+        <v>1.43</v>
       </c>
       <c r="BE131" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="BF131" t="n">
-        <v>1.82</v>
+        <v>3.48</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BH131" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="BJ131" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="BK131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP131" t="n">
         <v>1.44</v>
-      </c>
-      <c r="BL131" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BM131" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BN131" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BO131" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BP131" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>6588927</v>
+        <v>6588836</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29140,201 +29140,855 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
       </c>
       <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
         <v>3</v>
       </c>
-      <c r="L132" t="n">
-        <v>3</v>
-      </c>
-      <c r="M132" t="n">
-        <v>2</v>
-      </c>
       <c r="N132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['16', '45', '86']</t>
+          <t>['45+3']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['27', '65']</t>
+          <t>['5', '51', '90+5']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>2.35</v>
+        <v>3.7</v>
       </c>
       <c r="R132" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S132" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="T132" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U132" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V132" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="W132" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X132" t="n">
-        <v>6.95</v>
+        <v>7.75</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI132" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>1.8</v>
       </c>
       <c r="AJ132" t="n">
         <v>1.95</v>
       </c>
       <c r="AK132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6588938</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>18</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3</v>
+      </c>
+      <c r="L133" t="n">
+        <v>3</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['12', '17', '24']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U133" t="n">
+        <v>4</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X133" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z133" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL132" t="n">
+      <c r="AA133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6588933</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>18</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4</v>
+      </c>
+      <c r="L134" t="n">
+        <v>5</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>7</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['2', '34', '53', '64', '77']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['23', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U134" t="n">
+        <v>3</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI134" t="n">
         <v>1.22</v>
       </c>
-      <c r="AM132" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AS132" t="n">
+      <c r="BJ134" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6588936</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3</v>
+      </c>
+      <c r="L135" t="n">
+        <v>5</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>8</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['7', '27', '63', '78', '90']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['36', '86', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X135" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE135" t="n">
         <v>1.2</v>
       </c>
-      <c r="AT132" t="n">
+      <c r="AF135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT135" t="n">
         <v>2.68</v>
       </c>
-      <c r="AU132" t="n">
+      <c r="AU135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV135" t="n">
         <v>3</v>
       </c>
-      <c r="AV132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW132" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX132" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ132" t="n">
+      <c r="AW135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY135" t="n">
         <v>9</v>
       </c>
-      <c r="BA132" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB132" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC132" t="n">
+      <c r="AZ135" t="n">
         <v>4</v>
       </c>
-      <c r="BD132" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE132" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="BF132" t="n">
+      <c r="BA135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF135" t="n">
         <v>3.48</v>
       </c>
-      <c r="BG132" t="n">
+      <c r="BG135" t="n">
         <v>1.16</v>
       </c>
-      <c r="BH132" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BI132" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BJ132" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="BK132" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BL132" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BM132" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="BN132" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BO132" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BP132" t="n">
-        <v>1.44</v>
+      <c r="BH135" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.38</v>
@@ -2009,7 +2009,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.38</v>
@@ -4625,7 +4625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.5</v>
@@ -8113,7 +8113,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.5</v>
@@ -9200,7 +9200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -10075,7 +10075,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -11819,7 +11819,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.11</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.38</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.38</v>
@@ -13127,7 +13127,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -13345,7 +13345,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.7</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.88</v>
@@ -16176,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.22</v>
@@ -16833,7 +16833,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17051,7 +17051,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -18795,7 +18795,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19228,7 +19228,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
         <v>2.22</v>
@@ -19664,7 +19664,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.7</v>
@@ -19885,7 +19885,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR89" t="n">
         <v>1.28</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.38</v>
@@ -20975,7 +20975,7 @@
         <v>3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR94" t="n">
         <v>2.14</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR95" t="n">
         <v>1.07</v>
@@ -21844,7 +21844,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.11</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.38</v>
@@ -23373,7 +23373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR105" t="n">
         <v>1.03</v>
@@ -24463,7 +24463,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR110" t="n">
         <v>1.62</v>
@@ -24681,7 +24681,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR111" t="n">
         <v>1.66</v>
@@ -24896,7 +24896,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.63</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.71</v>
@@ -26204,7 +26204,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.38</v>
@@ -26858,7 +26858,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.63</v>
@@ -27515,7 +27515,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.65</v>
@@ -27730,10 +27730,10 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR125" t="n">
         <v>2.03</v>
@@ -27951,7 +27951,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR126" t="n">
         <v>1.59</v>
@@ -29489,7 +29489,7 @@
         <v>3.51</v>
       </c>
       <c r="AU133" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV133" t="n">
         <v>3</v>
@@ -29498,13 +29498,13 @@
         <v>6</v>
       </c>
       <c r="AX133" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ133" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ133" t="n">
-        <v>6</v>
       </c>
       <c r="BA133" t="n">
         <v>4</v>
@@ -29707,22 +29707,22 @@
         <v>2.86</v>
       </c>
       <c r="AU134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV134" t="n">
         <v>5</v>
       </c>
-      <c r="AV134" t="n">
-        <v>2</v>
-      </c>
       <c r="AW134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY134" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ134" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA134" t="n">
         <v>4</v>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>['36', '86', '90+5']</t>
+          <t>['36', '86', '90+4']</t>
         </is>
       </c>
       <c r="Q135" t="n">
@@ -29925,22 +29925,22 @@
         <v>2.68</v>
       </c>
       <c r="AU135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ135" t="n">
         <v>7</v>
-      </c>
-      <c r="AV135" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW135" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY135" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ135" t="n">
-        <v>4</v>
       </c>
       <c r="BA135" t="n">
         <v>5</v>
@@ -29989,6 +29989,660 @@
       </c>
       <c r="BP135" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6588932</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>5</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['14', '45+2']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['6', '82', '89']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6588931</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45270.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>5</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['18', '22', '55', '85', '90+4']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S137" t="n">
+        <v>8</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U137" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6588935</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['49', '53']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S138" t="n">
+        <v>7</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X138" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.7</v>
@@ -2663,7 +2663,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR14" t="n">
         <v>1.39</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.11</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.5</v>
@@ -4189,7 +4189,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -6369,7 +6369,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>0.7</v>
@@ -6805,7 +6805,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30" t="n">
         <v>2.5</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.38</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.63</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.11</v>
@@ -10290,10 +10290,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.73</v>
@@ -10729,7 +10729,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR47" t="n">
         <v>1.72</v>
@@ -10947,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR48" t="n">
         <v>2.51</v>
@@ -11380,7 +11380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.7</v>
@@ -12473,7 +12473,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR55" t="n">
         <v>2.44</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.44</v>
@@ -13560,10 +13560,10 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR63" t="n">
         <v>0.9</v>
@@ -14650,7 +14650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.11</v>
@@ -15307,7 +15307,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.38</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR73" t="n">
         <v>1.65</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -17923,7 +17923,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.3</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR83" t="n">
         <v>1.23</v>
@@ -20321,7 +20321,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR91" t="n">
         <v>1.63</v>
@@ -21629,7 +21629,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR97" t="n">
         <v>1.6</v>
@@ -22062,7 +22062,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.88</v>
@@ -22719,7 +22719,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR102" t="n">
         <v>1.91</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.22</v>
@@ -23152,7 +23152,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.5</v>
@@ -23809,7 +23809,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR107" t="n">
         <v>1.63</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.88</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.11</v>
@@ -25771,7 +25771,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -25986,10 +25986,10 @@
         <v>0.43</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR117" t="n">
         <v>1.67</v>
@@ -29256,7 +29256,7 @@
         <v>1.43</v>
       </c>
       <c r="AP132" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.63</v>
@@ -30143,22 +30143,22 @@
         <v>2.95</v>
       </c>
       <c r="AU136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV136" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY136" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ136" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA136" t="n">
         <v>4</v>
@@ -30361,22 +30361,22 @@
         <v>3.16</v>
       </c>
       <c r="AU137" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AV137" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX137" t="n">
         <v>3</v>
       </c>
       <c r="AY137" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ137" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA137" t="n">
         <v>6</v>
@@ -30579,31 +30579,31 @@
         <v>3.65</v>
       </c>
       <c r="AU138" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY138" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ138" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA138" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB138" t="n">
         <v>6</v>
       </c>
       <c r="BC138" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD138" t="n">
         <v>1.07</v>
@@ -30643,6 +30643,660 @@
       </c>
       <c r="BP138" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6588926</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45273.54166666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['25', '64']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['7', '13']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>5</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U139" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X139" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6588923</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45273.54166666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>17</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['4', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X140" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6588928</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45273.58333333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>17</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X141" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -30797,22 +30797,22 @@
         <v>2.69</v>
       </c>
       <c r="AU139" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX139" t="n">
         <v>4</v>
-      </c>
-      <c r="AW139" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX139" t="n">
-        <v>2</v>
       </c>
       <c r="AY139" t="n">
         <v>17</v>
       </c>
       <c r="AZ139" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA139" t="n">
         <v>8</v>
@@ -31015,22 +31015,22 @@
         <v>2.42</v>
       </c>
       <c r="AU140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV140" t="n">
         <v>8</v>
       </c>
       <c r="AW140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX140" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY140" t="n">
         <v>7</v>
       </c>
       <c r="AZ140" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA140" t="n">
         <v>5</v>
@@ -31233,31 +31233,31 @@
         <v>3.2</v>
       </c>
       <c r="AU141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX141" t="n">
         <v>4</v>
       </c>
-      <c r="AW141" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX141" t="n">
-        <v>1</v>
-      </c>
       <c r="AY141" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB141" t="n">
         <v>5</v>
       </c>
-      <c r="BA141" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB141" t="n">
-        <v>3</v>
-      </c>
       <c r="BC141" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD141" t="n">
         <v>1.75</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.11</v>
@@ -1573,7 +1573,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.7</v>
@@ -2227,7 +2227,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.22</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.7</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR14" t="n">
         <v>1.39</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.11</v>
@@ -4189,7 +4189,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0.7</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.22</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30" t="n">
         <v>2.5</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -9636,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.11</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR43" t="n">
         <v>1.45</v>
@@ -10075,7 +10075,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -10290,10 +10290,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.73</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.5</v>
@@ -10729,7 +10729,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.72</v>
@@ -10947,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>2.51</v>
@@ -12473,7 +12473,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR55" t="n">
         <v>2.44</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.44</v>
@@ -13345,7 +13345,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -13560,10 +13560,10 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.5</v>
@@ -13996,7 +13996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.63</v>
@@ -14214,10 +14214,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>0.9</v>
@@ -14435,7 +14435,7 @@
         <v>3</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR64" t="n">
         <v>2.5</v>
@@ -15307,7 +15307,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.38</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR73" t="n">
         <v>1.65</v>
@@ -16612,10 +16612,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR74" t="n">
         <v>1.12</v>
@@ -16830,10 +16830,10 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.11</v>
@@ -17920,10 +17920,10 @@
         <v>0.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR80" t="n">
         <v>1.3</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.23</v>
@@ -19882,7 +19882,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.11</v>
@@ -20100,7 +20100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.38</v>
@@ -20321,7 +20321,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR91" t="n">
         <v>1.63</v>
@@ -20757,7 +20757,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR93" t="n">
         <v>2.29</v>
@@ -20975,7 +20975,7 @@
         <v>3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR94" t="n">
         <v>2.14</v>
@@ -21408,7 +21408,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.11</v>
@@ -21629,7 +21629,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR97" t="n">
         <v>1.6</v>
@@ -22719,7 +22719,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.91</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.22</v>
@@ -23152,7 +23152,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.5</v>
@@ -23588,7 +23588,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.38</v>
@@ -23809,7 +23809,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR107" t="n">
         <v>1.63</v>
@@ -24024,7 +24024,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.5</v>
@@ -24681,7 +24681,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR111" t="n">
         <v>1.66</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.88</v>
@@ -25550,7 +25550,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.7</v>
@@ -25771,7 +25771,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -25986,10 +25986,10 @@
         <v>0.43</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.67</v>
@@ -26207,7 +26207,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR118" t="n">
         <v>1.87</v>
@@ -27733,7 +27733,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR125" t="n">
         <v>2.03</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.88</v>
@@ -28605,7 +28605,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR129" t="n">
         <v>1.69</v>
@@ -28820,7 +28820,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.22</v>
@@ -29038,7 +29038,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.11</v>
@@ -29256,7 +29256,7 @@
         <v>1.43</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.63</v>
@@ -30349,7 +30349,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AR137" t="n">
         <v>1.86</v>
@@ -30782,10 +30782,10 @@
         <v>0.38</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR139" t="n">
         <v>1.46</v>
@@ -31003,7 +31003,7 @@
         <v>1</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -31218,10 +31218,10 @@
         <v>0.71</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR141" t="n">
         <v>1.72</v>
@@ -31296,6 +31296,1096 @@
         <v>2.22</v>
       </c>
       <c r="BP141" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6588945</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S142" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X142" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6588943</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>4</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['13', '25', '40', '42']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X143" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6588942</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X144" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6588944</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['12', '67']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>3</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6588940</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S146" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP146" t="n">
         <v>1.67</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.5</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.56</v>
@@ -3753,7 +3753,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.6</v>
@@ -7023,7 +7023,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -9639,7 +9639,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.31</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.2</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR46" t="n">
         <v>0.8100000000000001</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.11</v>
@@ -12909,7 +12909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.7</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.2</v>
@@ -13781,7 +13781,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -13999,7 +13999,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.5</v>
@@ -15089,7 +15089,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.56</v>
@@ -17048,7 +17048,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.44</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -17487,7 +17487,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -18359,7 +18359,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.56</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.11</v>
@@ -19010,7 +19010,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.88</v>
@@ -19449,7 +19449,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR87" t="n">
         <v>1.63</v>
@@ -20539,7 +20539,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR92" t="n">
         <v>1.64</v>
@@ -21847,7 +21847,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR98" t="n">
         <v>1.47</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.5</v>
@@ -22498,7 +22498,7 @@
         <v>0.43</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.7</v>
@@ -23155,7 +23155,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR104" t="n">
         <v>1.81</v>
@@ -24899,7 +24899,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR112" t="n">
         <v>2.19</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR114" t="n">
         <v>1.2</v>
@@ -26422,7 +26422,7 @@
         <v>2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.22</v>
@@ -26640,10 +26640,10 @@
         <v>2.43</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -26861,7 +26861,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR121" t="n">
         <v>1.51</v>
@@ -28602,7 +28602,7 @@
         <v>1.43</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.56</v>
@@ -29041,7 +29041,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.48</v>
@@ -29259,7 +29259,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR132" t="n">
         <v>1.44</v>
@@ -32387,6 +32387,660 @@
       </c>
       <c r="BP146" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6588941</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45277.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['10', '45', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X147" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6588939</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45277.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>4</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['27', '29']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['26', '45+1', '59']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X148" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6588946</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45277.58333333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['72', '90']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S149" t="n">
+        <v>9</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -32977,22 +32977,22 @@
         <v>3.27</v>
       </c>
       <c r="AU149" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV149" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW149" t="n">
         <v>6</v>
       </c>
       <c r="AX149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY149" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA149" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -26726,7 +26726,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>6588915</v>
+        <v>6588920</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -26746,50 +26746,50 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>['6', '70']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="R121" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S121" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="T121" t="n">
         <v>1.33</v>
@@ -26798,10 +26798,10 @@
         <v>3.25</v>
       </c>
       <c r="V121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X121" t="n">
         <v>6.5</v>
@@ -26810,19 +26810,19 @@
         <v>1.11</v>
       </c>
       <c r="Z121" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="AA121" t="n">
-        <v>3.5</v>
+        <v>3.11</v>
       </c>
       <c r="AB121" t="n">
-        <v>1.87</v>
+        <v>2.51</v>
       </c>
       <c r="AC121" t="n">
         <v>1.04</v>
       </c>
       <c r="AD121" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE121" t="n">
         <v>1.22</v>
@@ -26831,112 +26831,112 @@
         <v>4</v>
       </c>
       <c r="AG121" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH121" t="n">
         <v>2.05</v>
       </c>
       <c r="AI121" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK121" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AL121" t="n">
         <v>1.25</v>
       </c>
       <c r="AM121" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AN121" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AO121" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT121" t="n">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="AU121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV121" t="n">
         <v>7</v>
       </c>
       <c r="AW121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY121" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC121" t="n">
         <v>9</v>
       </c>
       <c r="BD121" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="BE121" t="n">
         <v>8.5</v>
       </c>
       <c r="BF121" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="BG121" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH121" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="BI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
         <v>1.36</v>
       </c>
-      <c r="BJ121" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BL121" t="n">
-        <v>2.22</v>
+        <v>2.79</v>
       </c>
       <c r="BM121" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="BN121" t="n">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="BO121" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="BP121" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="122">
@@ -26944,7 +26944,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>6588918</v>
+        <v>6588919</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -26964,62 +26964,62 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N122" t="n">
         <v>2</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['7', '46']</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R122" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S122" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V122" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W122" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X122" t="n">
         <v>9</v>
@@ -27028,133 +27028,133 @@
         <v>1.07</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="AA122" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="AB122" t="n">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="AC122" t="n">
         <v>1.06</v>
       </c>
       <c r="AD122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF122" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AG122" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="AH122" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="AI122" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="AL122" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM122" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO122" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP122" t="n">
         <v>1.25</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="AU122" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV122" t="n">
         <v>7</v>
       </c>
       <c r="AW122" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY122" t="n">
         <v>14</v>
       </c>
       <c r="AZ122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC122" t="n">
         <v>12</v>
       </c>
-      <c r="BA122" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB122" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC122" t="n">
-        <v>10</v>
-      </c>
       <c r="BD122" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BE122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN122" t="n">
         <v>1.95</v>
       </c>
-      <c r="BG122" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BH122" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BI122" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BJ122" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BK122" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BL122" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BM122" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BN122" t="n">
-        <v>1.88</v>
-      </c>
       <c r="BO122" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="BP122" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="123">
@@ -27162,7 +27162,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>6588919</v>
+        <v>6588918</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -27182,62 +27182,62 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
         <v>2</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>['7', '46']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R123" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S123" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U123" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V123" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W123" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X123" t="n">
         <v>9</v>
@@ -27246,133 +27246,133 @@
         <v>1.07</v>
       </c>
       <c r="Z123" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AA123" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AB123" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="AC123" t="n">
         <v>1.06</v>
       </c>
       <c r="AD123" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF123" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AG123" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="AH123" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="AI123" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM123" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AN123" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AO123" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP123" t="n">
         <v>1.25</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="AU123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV123" t="n">
         <v>7</v>
       </c>
       <c r="AW123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY123" t="n">
         <v>14</v>
       </c>
       <c r="AZ123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC123" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD123" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BE123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BG123" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH123" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI123" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BJ123" t="n">
-        <v>3.34</v>
+        <v>3.08</v>
       </c>
       <c r="BK123" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BL123" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="BM123" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="BN123" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="BP123" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="124">
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6588920</v>
+        <v>6588915</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,50 +27400,50 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['6', '70']</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="R124" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S124" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="T124" t="n">
         <v>1.33</v>
@@ -27452,10 +27452,10 @@
         <v>3.25</v>
       </c>
       <c r="V124" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W124" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X124" t="n">
         <v>6.5</v>
@@ -27464,19 +27464,19 @@
         <v>1.11</v>
       </c>
       <c r="Z124" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="AA124" t="n">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>2.51</v>
+        <v>1.87</v>
       </c>
       <c r="AC124" t="n">
         <v>1.04</v>
       </c>
       <c r="AD124" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE124" t="n">
         <v>1.22</v>
@@ -27485,112 +27485,112 @@
         <v>4</v>
       </c>
       <c r="AG124" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH124" t="n">
         <v>2.05</v>
       </c>
       <c r="AI124" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ124" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AL124" t="n">
         <v>1.25</v>
       </c>
       <c r="AM124" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="AO124" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AU124" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV124" t="n">
         <v>7</v>
       </c>
       <c r="AW124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY124" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC124" t="n">
         <v>9</v>
       </c>
       <c r="BD124" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="BE124" t="n">
         <v>8.5</v>
       </c>
       <c r="BF124" t="n">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="BG124" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH124" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="BI124" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BJ124" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BK124" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="BL124" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="BM124" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="BN124" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="BO124" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="125">
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>6588927</v>
+        <v>6588836</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28922,201 +28922,201 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Mladá Boleslav</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
       </c>
       <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
         <v>3</v>
       </c>
-      <c r="L131" t="n">
-        <v>3</v>
-      </c>
-      <c r="M131" t="n">
-        <v>2</v>
-      </c>
       <c r="N131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['16', '45', '86']</t>
+          <t>['45+3']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['27', '65']</t>
+          <t>['5', '51', '90+5']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>2.35</v>
+        <v>3.7</v>
       </c>
       <c r="R131" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S131" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="T131" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U131" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V131" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="W131" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X131" t="n">
-        <v>6.95</v>
+        <v>7.75</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI131" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AA131" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>1.8</v>
       </c>
       <c r="AJ131" t="n">
         <v>1.95</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM131" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="AO131" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AP131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR131" t="n">
         <v>1.44</v>
       </c>
-      <c r="AQ131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR131" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AS131" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.68</v>
+        <v>3.14</v>
       </c>
       <c r="AU131" t="n">
         <v>5</v>
       </c>
       <c r="AV131" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW131" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX131" t="n">
         <v>4</v>
       </c>
       <c r="AY131" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ131" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA131" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BB131" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC131" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BD131" t="n">
-        <v>1.43</v>
+        <v>2.32</v>
       </c>
       <c r="BE131" t="n">
-        <v>10.2</v>
+        <v>8.5</v>
       </c>
       <c r="BF131" t="n">
-        <v>3.48</v>
+        <v>1.82</v>
       </c>
       <c r="BG131" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="BH131" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BI131" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="BJ131" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="BK131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP131" t="n">
         <v>1.6</v>
-      </c>
-      <c r="BL131" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BM131" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="BN131" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BO131" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BP131" t="n">
-        <v>1.44</v>
       </c>
     </row>
     <row r="132">
@@ -29124,7 +29124,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>6588836</v>
+        <v>6588927</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -29140,201 +29140,201 @@
         <v>45266.54166666666</v>
       </c>
       <c r="F132" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Mladá Boleslav</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['45+3']</t>
+          <t>['16', '45', '86']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['5', '51', '90+5']</t>
+          <t>['27', '65']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>3.7</v>
+        <v>2.35</v>
       </c>
       <c r="R132" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U132" t="n">
         <v>2.8</v>
       </c>
-      <c r="T132" t="n">
+      <c r="V132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W132" t="n">
         <v>1.4</v>
       </c>
-      <c r="U132" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V132" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W132" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X132" t="n">
-        <v>7.75</v>
+        <v>6.95</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z132" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="AA132" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF132" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB132" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AG132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI132" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>1.75</v>
       </c>
       <c r="AJ132" t="n">
         <v>1.95</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AL132" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM132" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AN132" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="AO132" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>3.14</v>
+        <v>2.68</v>
       </c>
       <c r="AU132" t="n">
         <v>5</v>
       </c>
       <c r="AV132" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX132" t="n">
         <v>4</v>
       </c>
       <c r="AY132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ132" t="n">
         <v>11</v>
       </c>
-      <c r="AZ132" t="n">
-        <v>13</v>
-      </c>
       <c r="BA132" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BB132" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC132" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="BD132" t="n">
-        <v>2.32</v>
+        <v>1.43</v>
       </c>
       <c r="BE132" t="n">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="BF132" t="n">
-        <v>1.82</v>
+        <v>3.48</v>
       </c>
       <c r="BG132" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BH132" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI132" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="BJ132" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="BK132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP132" t="n">
         <v>1.44</v>
-      </c>
-      <c r="BL132" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BM132" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BN132" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BO132" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BP132" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="133">
@@ -29342,7 +29342,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>6588938</v>
+        <v>6588936</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -29362,197 +29362,197 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Sparta Praha</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>3</v>
       </c>
       <c r="L133" t="n">
+        <v>5</v>
+      </c>
+      <c r="M133" t="n">
         <v>3</v>
       </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['12', '17', '24']</t>
+          <t>['7', '27', '63', '78', '90']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '86', '90+4']</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="R133" t="n">
-        <v>2.93</v>
+        <v>2.5</v>
       </c>
       <c r="S133" t="n">
-        <v>9.25</v>
+        <v>5.75</v>
       </c>
       <c r="T133" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U133" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="V133" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W133" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="X133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB133" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AC133" t="n">
         <v>1.02</v>
       </c>
       <c r="AD133" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE133" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF133" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AG133" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AH133" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="AI133" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AJ133" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK133" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AL133" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AM133" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="AN133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW133" t="n">
         <v>3</v>
       </c>
-      <c r="AO133" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AP133" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AR133" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AT133" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AU133" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV133" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW133" t="n">
-        <v>6</v>
-      </c>
       <c r="AX133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY133" t="n">
         <v>12</v>
       </c>
       <c r="AZ133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD133" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="BE133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BF133" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="BG133" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH133" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="BI133" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ133" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BK133" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BL133" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="BM133" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="BN133" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BO133" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BP133" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="134">
@@ -29778,7 +29778,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>6588936</v>
+        <v>6588938</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -29798,197 +29798,197 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Sparta Praha</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>3</v>
       </c>
       <c r="L135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
         <v>3</v>
       </c>
-      <c r="N135" t="n">
-        <v>8</v>
-      </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>['7', '27', '63', '78', '90']</t>
+          <t>['12', '17', '24']</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>['36', '86', '90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S135" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U135" t="n">
+        <v>4</v>
+      </c>
+      <c r="V135" t="n">
         <v>1.91</v>
       </c>
-      <c r="R135" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S135" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="T135" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U135" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V135" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W135" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="X135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="AA135" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AC135" t="n">
         <v>1.02</v>
       </c>
       <c r="AD135" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE135" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AF135" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AH135" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AI135" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AJ135" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AK135" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AL135" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AM135" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="AN135" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AR135" t="n">
-        <v>1.67</v>
+        <v>2.09</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.68</v>
+        <v>3.51</v>
       </c>
       <c r="AU135" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW135" t="n">
         <v>6</v>
       </c>
-      <c r="AW135" t="n">
-        <v>3</v>
-      </c>
       <c r="AX135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY135" t="n">
         <v>12</v>
       </c>
       <c r="AZ135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH135" t="n">
         <v>5</v>
       </c>
-      <c r="BB135" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC135" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD135" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BE135" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF135" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="BG135" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="BH135" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BI135" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BJ135" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="BK135" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BL135" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="BM135" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="BN135" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BO135" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BP135" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="136">
@@ -31304,7 +31304,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>6588945</v>
+        <v>6588943</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -31324,197 +31324,197 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Karviná</t>
+          <t>Hradec Králové</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
+          <t>['13', '25', '40', '42']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q142" t="n">
-        <v>2.37</v>
+        <v>3.1</v>
       </c>
       <c r="R142" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>4.54</v>
+        <v>3.25</v>
       </c>
       <c r="T142" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="U142" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="V142" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="W142" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X142" t="n">
-        <v>6</v>
+        <v>6.95</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH142" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AA142" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>2</v>
       </c>
       <c r="AI142" t="n">
         <v>1.7</v>
       </c>
       <c r="AJ142" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL142" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL142" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AM142" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AS142" t="n">
         <v>1.23</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU142" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV142" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX142" t="n">
         <v>5</v>
       </c>
       <c r="AY142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB142" t="n">
         <v>10</v>
       </c>
-      <c r="AZ142" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA142" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB142" t="n">
-        <v>2</v>
-      </c>
       <c r="BC142" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BD142" t="n">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="BE142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF142" t="n">
-        <v>3.28</v>
+        <v>2.1</v>
       </c>
       <c r="BG142" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH142" t="n">
         <v>4.9</v>
       </c>
       <c r="BI142" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BJ142" t="n">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BK142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP142" t="n">
         <v>1.54</v>
-      </c>
-      <c r="BL142" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BM142" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BN142" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BO142" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="BP142" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="143">
@@ -31522,7 +31522,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>6588943</v>
+        <v>6588944</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -31542,35 +31542,35 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Hradec Králové</t>
+          <t>Slovan Liberec</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['13', '25', '40', '42']</t>
+          <t>['12', '67']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -31579,19 +31579,19 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R143" t="n">
         <v>2.1</v>
       </c>
       <c r="S143" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T143" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U143" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V143" t="n">
         <v>2.75</v>
@@ -31606,19 +31606,19 @@
         <v>1.07</v>
       </c>
       <c r="Z143" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AA143" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB143" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="AC143" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD143" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AE143" t="n">
         <v>1.28</v>
@@ -31627,10 +31627,10 @@
         <v>3.5</v>
       </c>
       <c r="AG143" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH143" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI143" t="n">
         <v>1.7</v>
@@ -31639,100 +31639,100 @@
         <v>2.1</v>
       </c>
       <c r="AK143" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AL143" t="n">
         <v>1.25</v>
       </c>
       <c r="AM143" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AN143" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO143" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ143" t="n">
         <v>0.67</v>
       </c>
-      <c r="AP143" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AQ143" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AR143" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="AU143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV143" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX143" t="n">
         <v>5</v>
       </c>
       <c r="AY143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
         <v>7</v>
       </c>
-      <c r="AZ143" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA143" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB143" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC143" t="n">
-        <v>15</v>
-      </c>
       <c r="BD143" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE143" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF143" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BG143" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH143" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="BI143" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BJ143" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="BK143" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="BL143" t="n">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="BM143" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="BN143" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="BO143" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="BP143" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="144">
@@ -31958,7 +31958,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>6588944</v>
+        <v>6588945</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -31978,35 +31978,35 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Slovan Liberec</t>
+          <t>Karviná</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['12', '67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -32015,160 +32015,160 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="R145" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="S145" t="n">
-        <v>3</v>
+        <v>4.54</v>
       </c>
       <c r="T145" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U145" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="V145" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="W145" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X145" t="n">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z145" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="AA145" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB145" t="n">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="AC145" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD145" t="n">
-        <v>8</v>
+        <v>13.75</v>
       </c>
       <c r="AE145" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF145" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AG145" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH145" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AI145" t="n">
         <v>1.7</v>
       </c>
       <c r="AJ145" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK145" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AN145" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO145" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.9</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR145" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV145" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX145" t="n">
         <v>5</v>
       </c>
       <c r="AY145" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ145" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA145" t="n">
         <v>2</v>
       </c>
       <c r="BB145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC145" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BD145" t="n">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="BE145" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF145" t="n">
-        <v>2</v>
+        <v>3.28</v>
       </c>
       <c r="BG145" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH145" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BI145" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BJ145" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BK145" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BL145" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="BM145" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="BN145" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BO145" t="n">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="BP145" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="146">
@@ -32394,7 +32394,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>6588941</v>
+        <v>6588939</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -32414,77 +32414,77 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>2</v>
       </c>
       <c r="K147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147" t="n">
         <v>3</v>
       </c>
       <c r="N147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['27', '29']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>['10', '45', '90+5']</t>
+          <t>['26', '45+1', '59']</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="R147" t="n">
         <v>2.2</v>
       </c>
       <c r="S147" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="T147" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U147" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="V147" t="n">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="W147" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X147" t="n">
-        <v>6.35</v>
+        <v>6.95</v>
       </c>
       <c r="Y147" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z147" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="AA147" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AB147" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AC147" t="n">
         <v>1.05</v>
@@ -32493,118 +32493,118 @@
         <v>9</v>
       </c>
       <c r="AE147" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF147" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AH147" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AI147" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AJ147" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AK147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN147" t="n">
         <v>1.75</v>
       </c>
-      <c r="AL147" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AO147" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AT147" t="n">
-        <v>3.32</v>
+        <v>3.9</v>
       </c>
       <c r="AU147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV147" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW147" t="n">
         <v>2</v>
       </c>
       <c r="AX147" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC147" t="n">
         <v>9</v>
       </c>
-      <c r="AZ147" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA147" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>10</v>
-      </c>
       <c r="BD147" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="BE147" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF147" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="BG147" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="BH147" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="BI147" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BJ147" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BK147" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="BL147" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BM147" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="BN147" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="BO147" t="n">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="BP147" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="148">
@@ -32612,7 +32612,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>6588939</v>
+        <v>6588941</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -32632,77 +32632,77 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>2</v>
       </c>
       <c r="K148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
         <v>3</v>
       </c>
       <c r="N148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>['27', '29']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>['26', '45+1', '59']</t>
+          <t>['10', '45', '90+5']</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R148" t="n">
         <v>2.2</v>
       </c>
       <c r="S148" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="T148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="U148" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="V148" t="n">
-        <v>2.78</v>
+        <v>2.61</v>
       </c>
       <c r="W148" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X148" t="n">
-        <v>6.95</v>
+        <v>6.35</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z148" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="AA148" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="AB148" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AC148" t="n">
         <v>1.05</v>
@@ -32711,118 +32711,118 @@
         <v>9</v>
       </c>
       <c r="AE148" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG148" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AH148" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AI148" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AK148" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM148" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AO148" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="AR148" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT148" t="n">
-        <v>3.9</v>
+        <v>3.32</v>
       </c>
       <c r="AU148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX148" t="n">
         <v>8</v>
       </c>
-      <c r="AV148" t="n">
+      <c r="AY148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC148" t="n">
         <v>10</v>
       </c>
-      <c r="AW148" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX148" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY148" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ148" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA148" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB148" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC148" t="n">
-        <v>9</v>
-      </c>
       <c r="BD148" t="n">
-        <v>3.06</v>
+        <v>2.53</v>
       </c>
       <c r="BE148" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF148" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="BG148" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BH148" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="BI148" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BJ148" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BK148" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="BL148" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BM148" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="BN148" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="BO148" t="n">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="BP148" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="149">

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.78</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.6</v>
@@ -1791,7 +1791,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.2</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.56</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.6</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR20" t="n">
         <v>1.12</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.2</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -5494,10 +5494,10 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6587,7 +6587,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.78</v>
@@ -7892,10 +7892,10 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8546,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9200,10 +9200,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -11819,7 +11819,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12252,10 +12252,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.5</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR56" t="n">
         <v>1.44</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -14871,7 +14871,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -15525,7 +15525,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR69" t="n">
         <v>1.68</v>
@@ -15740,10 +15740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16176,10 +16176,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -16394,7 +16394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -17051,7 +17051,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.56</v>
@@ -17705,7 +17705,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -18141,7 +18141,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,7 +18356,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.5</v>
@@ -18795,7 +18795,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19013,7 +19013,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -19228,10 +19228,10 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR86" t="n">
         <v>1.46</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.56</v>
@@ -19664,10 +19664,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19885,7 +19885,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.28</v>
@@ -20103,7 +20103,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR90" t="n">
         <v>1.28</v>
@@ -20318,7 +20318,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.6</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.78</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.56</v>
@@ -21190,10 +21190,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR95" t="n">
         <v>1.07</v>
@@ -21411,7 +21411,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.67</v>
@@ -21844,7 +21844,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR99" t="n">
         <v>1.25</v>
@@ -22283,7 +22283,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -22501,7 +22501,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR101" t="n">
         <v>2.05</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.5</v>
@@ -22937,7 +22937,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR103" t="n">
         <v>1.39</v>
@@ -23370,10 +23370,10 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.03</v>
@@ -23591,7 +23591,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.6</v>
@@ -24027,7 +24027,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR108" t="n">
         <v>1.26</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR109" t="n">
         <v>2.14</v>
@@ -24460,10 +24460,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR110" t="n">
         <v>1.62</v>
@@ -24678,7 +24678,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.2</v>
@@ -24896,7 +24896,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.78</v>
@@ -25117,7 +25117,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114" t="n">
         <v>1</v>
@@ -25553,7 +25553,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.67</v>
@@ -26204,7 +26204,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.56</v>
@@ -26425,7 +26425,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26858,10 +26858,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR121" t="n">
         <v>1.65</v>
@@ -27076,10 +27076,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR122" t="n">
         <v>1.69</v>
@@ -27294,10 +27294,10 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.05</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.78</v>
@@ -27730,7 +27730,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.2</v>
@@ -27948,10 +27948,10 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR126" t="n">
         <v>1.59</v>
@@ -28169,7 +28169,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR127" t="n">
         <v>1.32</v>
@@ -28387,7 +28387,7 @@
         <v>3</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR128" t="n">
         <v>2.1</v>
@@ -28823,7 +28823,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR130" t="n">
         <v>1.25</v>
@@ -29474,10 +29474,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR133" t="n">
         <v>1.67</v>
@@ -29692,10 +29692,10 @@
         <v>1.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.63</v>
@@ -29913,7 +29913,7 @@
         <v>3</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR135" t="n">
         <v>2.09</v>
@@ -30128,10 +30128,10 @@
         <v>1.25</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR136" t="n">
         <v>1.46</v>
@@ -30346,7 +30346,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.2</v>
@@ -30564,10 +30564,10 @@
         <v>1.25</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR138" t="n">
         <v>2.12</v>
@@ -31000,7 +31000,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.6</v>
@@ -33041,6 +33041,1750 @@
       </c>
       <c r="BP149" t="n">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6588954</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['14', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U150" t="n">
+        <v>3</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X150" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6588952</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['48', '80']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U151" t="n">
+        <v>3</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6588950</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['31', '60', '69']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X152" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6588949</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['56', '66', '69']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>4</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X153" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6588948</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6588951</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['36', '62']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6588947</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['32', '75']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['80', '83']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X156" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6588953</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45333.58333333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>5</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3</v>
+      </c>
+      <c r="N157" t="n">
+        <v>7</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['3', '11', '24', '90+7']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['5', '14', '48']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.45</v>
@@ -1355,7 +1355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.3</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.56</v>
@@ -3971,7 +3971,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.1</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.6</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.67</v>
@@ -7023,7 +7023,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR30" t="n">
         <v>1.51</v>
@@ -7677,7 +7677,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.64</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -9636,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.2</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR46" t="n">
         <v>0.8100000000000001</v>
@@ -11601,7 +11601,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.1</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR61" t="n">
         <v>1.44</v>
@@ -13996,10 +13996,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR62" t="n">
         <v>1.34</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.45</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16394,7 +16394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.2</v>
@@ -17269,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR77" t="n">
         <v>2.36</v>
@@ -17487,7 +17487,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR78" t="n">
         <v>1.14</v>
@@ -19010,10 +19010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR87" t="n">
         <v>1.63</v>
@@ -19882,7 +19882,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.1</v>
@@ -20318,7 +20318,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.6</v>
@@ -20539,7 +20539,7 @@
         <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR92" t="n">
         <v>1.64</v>
@@ -22065,7 +22065,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR99" t="n">
         <v>1.25</v>
@@ -22498,7 +22498,7 @@
         <v>0.43</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.64</v>
@@ -23155,7 +23155,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR104" t="n">
         <v>1.81</v>
@@ -24460,7 +24460,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.3</v>
@@ -24899,7 +24899,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR112" t="n">
         <v>2.19</v>
@@ -25117,7 +25117,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25550,7 +25550,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.64</v>
@@ -26422,7 +26422,7 @@
         <v>2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.3</v>
@@ -26643,7 +26643,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -27076,7 +27076,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.22</v>
@@ -27515,7 +27515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR124" t="n">
         <v>1.51</v>
@@ -28169,7 +28169,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR127" t="n">
         <v>1.32</v>
@@ -29041,7 +29041,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR131" t="n">
         <v>1.44</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.6</v>
@@ -32526,10 +32526,10 @@
         <v>2.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AR147" t="n">
         <v>2.08</v>
@@ -32747,7 +32747,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR148" t="n">
         <v>1.6</v>
@@ -33183,7 +33183,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR150" t="n">
         <v>1.65</v>
@@ -33195,22 +33195,22 @@
         <v>2.82</v>
       </c>
       <c r="AU150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW150" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX150" t="n">
         <v>4</v>
       </c>
       <c r="AY150" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ150" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA150" t="n">
         <v>7</v>
@@ -33416,7 +33416,7 @@
         <v>8</v>
       </c>
       <c r="AV151" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW151" t="n">
         <v>5</v>
@@ -33428,7 +33428,7 @@
         <v>13</v>
       </c>
       <c r="AZ151" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA151" t="n">
         <v>9</v>
@@ -33616,7 +33616,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ152" t="n">
         <v>2.3</v>
@@ -33634,19 +33634,19 @@
         <v>0</v>
       </c>
       <c r="AV152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX152" t="n">
         <v>5</v>
       </c>
       <c r="AY152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ152" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA152" t="n">
         <v>3</v>
@@ -33849,19 +33849,19 @@
         <v>2.91</v>
       </c>
       <c r="AU153" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV153" t="n">
         <v>6</v>
       </c>
       <c r="AW153" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX153" t="n">
         <v>6</v>
       </c>
       <c r="AY153" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ153" t="n">
         <v>12</v>
@@ -34067,22 +34067,22 @@
         <v>3.45</v>
       </c>
       <c r="AU154" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV154" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY154" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ154" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA154" t="n">
         <v>4</v>
@@ -34288,19 +34288,19 @@
         <v>6</v>
       </c>
       <c r="AV155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ155" t="n">
         <v>7</v>
-      </c>
-      <c r="AX155" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY155" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ155" t="n">
-        <v>4</v>
       </c>
       <c r="BA155" t="n">
         <v>8</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>['32', '75']</t>
+          <t>['32', '74']</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -34503,22 +34503,22 @@
         <v>2.66</v>
       </c>
       <c r="AU156" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW156" t="n">
         <v>4</v>
       </c>
       <c r="AX156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY156" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ156" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA156" t="n">
         <v>7</v>
@@ -34721,31 +34721,31 @@
         <v>3.57</v>
       </c>
       <c r="AU157" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV157" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW157" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC157" t="n">
         <v>11</v>
-      </c>
-      <c r="AX157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY157" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ157" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA157" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB157" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC157" t="n">
-        <v>8</v>
       </c>
       <c r="BD157" t="n">
         <v>1.06</v>
@@ -34785,6 +34785,660 @@
       </c>
       <c r="BP157" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6588924</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45335.58333333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X158" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6588937</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45336.54166666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['24', '75', '76']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S159" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6588929</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45336.58333333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U160" t="n">
+        <v>4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X160" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.1</v>
@@ -1573,7 +1573,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.64</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.5</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.64</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.67</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR22" t="n">
         <v>1.75</v>
@@ -6151,7 +6151,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR26" t="n">
         <v>1.14</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.3</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30" t="n">
         <v>2.4</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR41" t="n">
         <v>2.82</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.56</v>
@@ -10075,7 +10075,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR44" t="n">
         <v>1.56</v>
@@ -10293,7 +10293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR45" t="n">
         <v>1.73</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.4</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -13127,7 +13127,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR58" t="n">
         <v>1.81</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR59" t="n">
         <v>1.61</v>
@@ -13560,10 +13560,10 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR60" t="n">
         <v>1.22</v>
@@ -13778,7 +13778,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.4</v>
@@ -14214,7 +14214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.67</v>
@@ -16612,7 +16612,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.56</v>
@@ -16833,7 +16833,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR75" t="n">
         <v>1.19</v>
@@ -17048,10 +17048,10 @@
         <v>0.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR76" t="n">
         <v>1.65</v>
@@ -17702,7 +17702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.1</v>
@@ -17920,10 +17920,10 @@
         <v>0.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR80" t="n">
         <v>1.3</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.1</v>
@@ -20100,7 +20100,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.22</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR91" t="n">
         <v>1.63</v>
@@ -20975,7 +20975,7 @@
         <v>3</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR94" t="n">
         <v>2.14</v>
@@ -21193,7 +21193,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR95" t="n">
         <v>1.07</v>
@@ -21408,7 +21408,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.1</v>
@@ -22280,7 +22280,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.45</v>
@@ -22934,7 +22934,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.3</v>
@@ -23588,7 +23588,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.22</v>
@@ -23809,7 +23809,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR107" t="n">
         <v>1.63</v>
@@ -24024,7 +24024,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.45</v>
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR110" t="n">
         <v>1.62</v>
@@ -24681,7 +24681,7 @@
         <v>2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR111" t="n">
         <v>1.66</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.3</v>
@@ -26640,7 +26640,7 @@
         <v>2.43</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ120" t="n">
         <v>2.4</v>
@@ -27733,7 +27733,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR125" t="n">
         <v>2.03</v>
@@ -27951,7 +27951,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR126" t="n">
         <v>1.59</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.3</v>
@@ -28602,7 +28602,7 @@
         <v>1.43</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.56</v>
@@ -28820,7 +28820,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.3</v>
@@ -29038,7 +29038,7 @@
         <v>1.43</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.9</v>
@@ -29256,7 +29256,7 @@
         <v>1.25</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ132" t="n">
         <v>1</v>
@@ -30131,7 +30131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR136" t="n">
         <v>1.46</v>
@@ -30349,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR137" t="n">
         <v>1.86</v>
@@ -30782,7 +30782,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.5</v>
@@ -31003,7 +31003,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -31439,7 +31439,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR142" t="n">
         <v>1.39</v>
@@ -31654,7 +31654,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.67</v>
@@ -31872,7 +31872,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.56</v>
@@ -32090,7 +32090,7 @@
         <v>0.44</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.5</v>
@@ -32311,7 +32311,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR146" t="n">
         <v>1.65</v>
@@ -32744,7 +32744,7 @@
         <v>1.63</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.9</v>
@@ -33837,7 +33837,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR153" t="n">
         <v>1.34</v>
@@ -35439,6 +35439,878 @@
       </c>
       <c r="BP160" t="n">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6588957</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>21</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['17', '42', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6588960</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>5</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>7</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['8', '47', '57', '72', '90+2']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['18', '62']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S162" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X162" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6588962</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6588956</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X164" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ4" t="n">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.64</v>
@@ -1791,7 +1791,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.45</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.18</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR12" t="n">
         <v>1.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.4</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.45</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.64</v>
@@ -4407,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR18" t="n">
         <v>2.28</v>
@@ -4625,7 +4625,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR19" t="n">
         <v>2.09</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.12</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.18</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.45</v>
@@ -5494,10 +5494,10 @@
         <v>0.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>0.8</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR25" t="n">
         <v>1.72</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.64</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ33" t="n">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR34" t="n">
         <v>1.94</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR35" t="n">
         <v>1.19</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR36" t="n">
         <v>1.57</v>
@@ -8546,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR37" t="n">
         <v>0.96</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR38" t="n">
         <v>1.14</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR39" t="n">
         <v>1.69</v>
@@ -9200,10 +9200,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.45</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.18</v>
@@ -10947,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR48" t="n">
         <v>2.51</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR49" t="n">
         <v>1.29</v>
@@ -11380,10 +11380,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR51" t="n">
         <v>1.07</v>
@@ -11816,10 +11816,10 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR52" t="n">
         <v>1.69</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR53" t="n">
         <v>1.65</v>
@@ -12252,10 +12252,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR54" t="n">
         <v>1.53</v>
@@ -12470,10 +12470,10 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR55" t="n">
         <v>2.44</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR56" t="n">
         <v>1.44</v>
@@ -14650,10 +14650,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR65" t="n">
         <v>1.28</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR66" t="n">
         <v>1.77</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,10 +15304,10 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15525,7 +15525,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1.68</v>
@@ -15740,10 +15740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR71" t="n">
         <v>1.68</v>
@@ -16176,10 +16176,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR72" t="n">
         <v>2.54</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.45</v>
@@ -17705,7 +17705,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -18141,7 +18141,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -18356,7 +18356,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR83" t="n">
         <v>1.23</v>
@@ -18795,7 +18795,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR84" t="n">
         <v>1.67</v>
@@ -19010,10 +19010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR85" t="n">
         <v>1.98</v>
@@ -19228,10 +19228,10 @@
         <v>2.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR86" t="n">
         <v>1.46</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.45</v>
@@ -19664,10 +19664,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19885,7 +19885,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR89" t="n">
         <v>1.28</v>
@@ -20103,7 +20103,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR90" t="n">
         <v>1.28</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>2</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.4</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.45</v>
@@ -21411,7 +21411,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.6</v>
@@ -21844,7 +21844,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>0.8</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR99" t="n">
         <v>1.25</v>
@@ -22283,7 +22283,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR100" t="n">
         <v>1.67</v>
@@ -22498,10 +22498,10 @@
         <v>0.43</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR101" t="n">
         <v>2.05</v>
@@ -22716,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR102" t="n">
         <v>1.91</v>
@@ -22937,7 +22937,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR103" t="n">
         <v>1.39</v>
@@ -23370,10 +23370,10 @@
         <v>1.67</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR105" t="n">
         <v>1.03</v>
@@ -23591,7 +23591,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.64</v>
@@ -24027,7 +24027,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR108" t="n">
         <v>1.26</v>
@@ -24245,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR109" t="n">
         <v>2.14</v>
@@ -24678,7 +24678,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.18</v>
@@ -24896,7 +24896,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ112" t="n">
         <v>2</v>
@@ -25117,7 +25117,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR113" t="n">
         <v>1.43</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114" t="n">
         <v>1</v>
@@ -25553,7 +25553,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR115" t="n">
         <v>1.36</v>
@@ -25768,7 +25768,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.6</v>
@@ -25989,7 +25989,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR117" t="n">
         <v>1.67</v>
@@ -26204,7 +26204,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.4</v>
@@ -26422,10 +26422,10 @@
         <v>2</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -26858,10 +26858,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR121" t="n">
         <v>1.65</v>
@@ -27079,7 +27079,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR122" t="n">
         <v>1.69</v>
@@ -27294,10 +27294,10 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR123" t="n">
         <v>1.05</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ124" t="n">
         <v>2</v>
@@ -27730,7 +27730,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.18</v>
@@ -27948,7 +27948,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.45</v>
@@ -28169,7 +28169,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR127" t="n">
         <v>1.32</v>
@@ -28387,7 +28387,7 @@
         <v>3</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR128" t="n">
         <v>2.1</v>
@@ -28823,7 +28823,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR130" t="n">
         <v>1.25</v>
@@ -29474,10 +29474,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP133" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR133" t="n">
         <v>1.67</v>
@@ -29692,10 +29692,10 @@
         <v>1.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR134" t="n">
         <v>1.63</v>
@@ -29913,7 +29913,7 @@
         <v>3</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR135" t="n">
         <v>2.09</v>
@@ -30128,7 +30128,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.45</v>
@@ -30346,7 +30346,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.18</v>
@@ -30564,10 +30564,10 @@
         <v>1.25</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR138" t="n">
         <v>2.12</v>
@@ -30785,7 +30785,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR139" t="n">
         <v>1.46</v>
@@ -31000,7 +31000,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.64</v>
@@ -32093,7 +32093,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR145" t="n">
         <v>1.47</v>
@@ -32526,7 +32526,7 @@
         <v>2.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147" t="n">
         <v>2.45</v>
@@ -33180,10 +33180,10 @@
         <v>0.88</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR150" t="n">
         <v>1.65</v>
@@ -33398,10 +33398,10 @@
         <v>1.38</v>
       </c>
       <c r="AP151" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.68</v>
@@ -33619,7 +33619,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ152" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR152" t="n">
         <v>1.74</v>
@@ -33834,7 +33834,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.45</v>
@@ -34052,10 +34052,10 @@
         <v>1.11</v>
       </c>
       <c r="AP154" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR154" t="n">
         <v>1.95</v>
@@ -34270,10 +34270,10 @@
         <v>0.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR155" t="n">
         <v>1.16</v>
@@ -34488,10 +34488,10 @@
         <v>1.11</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR156" t="n">
         <v>1.42</v>
@@ -34706,10 +34706,10 @@
         <v>0.7</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR157" t="n">
         <v>2.18</v>
@@ -34924,7 +34924,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ158" t="n">
         <v>2</v>
@@ -35145,7 +35145,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR159" t="n">
         <v>1.63</v>
@@ -37322,10 +37322,10 @@
         <v>1.22</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.23</v>
@@ -37401,6 +37401,1750 @@
       </c>
       <c r="BP169" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6588963</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S170" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X170" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6588966</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X171" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6588967</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Karviná</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['53', '64']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['14', '79']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6588968</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>6</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['72', '85', '90+1']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['13', '58', '73']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X173" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6588964</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>3</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['20', '48', '87']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S174" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U174" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6588965</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['52', '63']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X175" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6588969</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['66', '72', '74']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S176" t="n">
+        <v>13</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U176" t="n">
+        <v>4</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6588970</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['11', '55', '75']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X177" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,12 @@
     <t>['34', '41']</t>
   </si>
   <si>
+    <t>['57', '73']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -734,9 +740,6 @@
   </si>
   <si>
     <t>['66']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['6']</t>
@@ -920,6 +923,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['20', '37']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1746,7 +1752,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2445,7 +2451,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.58</v>
@@ -2776,7 +2782,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -2854,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
         <v>0.17</v>
@@ -3063,7 +3069,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3269,7 +3275,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ10">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3394,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3681,7 +3687,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.55</v>
@@ -4012,7 +4018,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4218,7 +4224,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4296,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4424,7 +4430,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4630,7 +4636,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4836,7 +4842,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -4917,7 +4923,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR18">
         <v>2.28</v>
@@ -5042,7 +5048,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5123,7 +5129,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR19">
         <v>2.09</v>
@@ -5248,7 +5254,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5326,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.12</v>
@@ -5454,7 +5460,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5532,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ21">
         <v>0.17</v>
@@ -5660,7 +5666,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5947,7 +5953,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR23">
         <v>0.8</v>
@@ -6072,7 +6078,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6150,7 +6156,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.08</v>
@@ -6278,7 +6284,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6562,7 +6568,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6896,7 +6902,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7183,7 +7189,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ29">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7308,7 +7314,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7514,7 +7520,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7798,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
         <v>1.55</v>
@@ -7926,7 +7932,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8132,7 +8138,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8213,7 +8219,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR34">
         <v>1.94</v>
@@ -8338,7 +8344,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8416,10 +8422,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ35">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR35">
         <v>1.19</v>
@@ -8622,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8750,7 +8756,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9240,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39">
         <v>0.42</v>
@@ -9449,7 +9455,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9780,7 +9786,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9986,7 +9992,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10270,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>0.17</v>
@@ -10398,7 +10404,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10476,7 +10482,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10604,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -11016,7 +11022,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>1.48</v>
@@ -11097,7 +11103,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ48">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>2.51</v>
@@ -11300,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ49">
         <v>0.42</v>
@@ -11428,7 +11434,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11509,7 +11515,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11634,7 +11640,7 @@
         <v>86</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2.8</v>
@@ -11715,7 +11721,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR51">
         <v>1.07</v>
@@ -11918,10 +11924,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12252,7 +12258,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12330,7 +12336,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>2.36</v>
@@ -12458,7 +12464,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12539,7 +12545,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ55">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12664,7 +12670,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12742,10 +12748,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -12870,7 +12876,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13154,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
         <v>1.58</v>
@@ -13488,7 +13494,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13900,7 +13906,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14106,7 +14112,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14518,7 +14524,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14599,7 +14605,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ65">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR65">
         <v>1.28</v>
@@ -14724,7 +14730,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14802,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>0.42</v>
@@ -14930,7 +14936,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15008,7 +15014,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15214,10 +15220,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ68">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15342,7 +15348,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15420,10 +15426,10 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15626,10 +15632,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15754,7 +15760,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15835,7 +15841,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -15960,7 +15966,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16166,7 +16172,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16578,7 +16584,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16784,7 +16790,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17892,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>0.42</v>
@@ -18098,7 +18104,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18307,7 +18313,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ83">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18513,7 +18519,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ84">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -18716,10 +18722,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>1.98</v>
@@ -18844,7 +18850,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -18922,7 +18928,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ86">
         <v>2.36</v>
@@ -19050,7 +19056,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19128,7 +19134,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>2.33</v>
@@ -19256,7 +19262,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19337,7 +19343,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
         <v>1.83</v>
@@ -19462,7 +19468,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19543,7 +19549,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ89">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19749,7 +19755,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -20158,7 +20164,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>2.08</v>
@@ -20698,7 +20704,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21110,7 +21116,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21188,7 +21194,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ97">
         <v>0.55</v>
@@ -21394,7 +21400,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21603,7 +21609,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -22012,10 +22018,10 @@
         <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR101">
         <v>2.05</v>
@@ -22140,7 +22146,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22221,7 +22227,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ102">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22346,7 +22352,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22552,7 +22558,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22630,7 +22636,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>2.33</v>
@@ -22839,7 +22845,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR105">
         <v>1.03</v>
@@ -22964,7 +22970,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23045,7 +23051,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23248,7 +23254,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23376,7 +23382,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23788,7 +23794,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24072,7 +24078,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.17</v>
@@ -24200,7 +24206,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24487,7 +24493,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ113">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR113">
         <v>1.43</v>
@@ -24612,7 +24618,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24818,7 +24824,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -24899,7 +24905,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25102,7 +25108,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116">
         <v>0.55</v>
@@ -25308,10 +25314,10 @@
         <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25436,7 +25442,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25642,7 +25648,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25720,7 +25726,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119">
         <v>2.36</v>
@@ -25848,7 +25854,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26132,10 +26138,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR121">
         <v>1.65</v>
@@ -26260,7 +26266,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26341,7 +26347,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26672,7 +26678,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26750,7 +26756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ124">
         <v>2.08</v>
@@ -27162,7 +27168,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ126">
         <v>1.58</v>
@@ -27371,7 +27377,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27702,7 +27708,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27908,7 +27914,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28114,7 +28120,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28320,7 +28326,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28526,7 +28532,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28604,7 +28610,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP133">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
         <v>0.42</v>
@@ -28732,7 +28738,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -28810,7 +28816,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134">
         <v>1.08</v>
@@ -29019,7 +29025,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR135">
         <v>2.09</v>
@@ -29144,7 +29150,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29222,7 +29228,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ136">
         <v>1.58</v>
@@ -29637,7 +29643,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ138">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR138">
         <v>2.12</v>
@@ -29762,7 +29768,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29843,7 +29849,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -29968,7 +29974,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30252,7 +30258,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
         <v>0.55</v>
@@ -30792,7 +30798,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -31079,7 +31085,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ145">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR145">
         <v>1.47</v>
@@ -31282,7 +31288,7 @@
         <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ146">
         <v>0.17</v>
@@ -31410,7 +31416,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31488,7 +31494,7 @@
         <v>2.5</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>2.33</v>
@@ -31616,7 +31622,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -32028,7 +32034,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32106,10 +32112,10 @@
         <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ150">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32312,10 +32318,10 @@
         <v>1.38</v>
       </c>
       <c r="AP151">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32440,7 +32446,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32852,7 +32858,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32933,7 +32939,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ154">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR154">
         <v>1.95</v>
@@ -33058,7 +33064,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33264,7 +33270,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33342,7 +33348,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ156">
         <v>1.08</v>
@@ -33470,7 +33476,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33551,7 +33557,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ157">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR157">
         <v>2.18</v>
@@ -33676,7 +33682,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33754,7 +33760,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
         <v>2.08</v>
@@ -33882,7 +33888,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -33963,7 +33969,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ159">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34088,7 +34094,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34294,7 +34300,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34500,7 +34506,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34706,7 +34712,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -35118,7 +35124,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35196,7 +35202,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
         <v>2.08</v>
@@ -35324,7 +35330,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35530,7 +35536,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35736,7 +35742,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36023,7 +36029,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36226,10 +36232,10 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ170">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -36354,7 +36360,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36432,7 +36438,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
         <v>1.08</v>
@@ -36560,7 +36566,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36641,7 +36647,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ172">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -36766,7 +36772,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36844,10 +36850,10 @@
         <v>0.64</v>
       </c>
       <c r="AP173">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -37259,7 +37265,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR175">
         <v>1.39</v>
@@ -37465,7 +37471,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ176">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR176">
         <v>2.25</v>
@@ -37590,7 +37596,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37668,7 +37674,7 @@
         <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ177">
         <v>2.36</v>
@@ -37796,7 +37802,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38002,7 +38008,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38414,7 +38420,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38620,7 +38626,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39032,7 +39038,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39395,6 +39401,1036 @@
       </c>
       <c r="BP185">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>6588980</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>86</v>
+      </c>
+      <c r="P186" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q186">
+        <v>2.83</v>
+      </c>
+      <c r="R186">
+        <v>2.21</v>
+      </c>
+      <c r="S186">
+        <v>3.34</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.62</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>2.25</v>
+      </c>
+      <c r="AA186">
+        <v>3.3</v>
+      </c>
+      <c r="AB186">
+        <v>2.8</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.29</v>
+      </c>
+      <c r="AF186">
+        <v>3.5</v>
+      </c>
+      <c r="AG186">
+        <v>1.78</v>
+      </c>
+      <c r="AH186">
+        <v>1.95</v>
+      </c>
+      <c r="AI186">
+        <v>1.67</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.35</v>
+      </c>
+      <c r="AL186">
+        <v>1.3</v>
+      </c>
+      <c r="AM186">
+        <v>1.62</v>
+      </c>
+      <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
+        <v>1.09</v>
+      </c>
+      <c r="AP186">
+        <v>1.17</v>
+      </c>
+      <c r="AQ186">
+        <v>1.08</v>
+      </c>
+      <c r="AR186">
+        <v>1.62</v>
+      </c>
+      <c r="AS186">
+        <v>1.47</v>
+      </c>
+      <c r="AT186">
+        <v>3.09</v>
+      </c>
+      <c r="AU186">
+        <v>7</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
+        <v>5</v>
+      </c>
+      <c r="BA186">
+        <v>9</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
+        <v>10</v>
+      </c>
+      <c r="BD186">
+        <v>1.75</v>
+      </c>
+      <c r="BE186">
+        <v>8.5</v>
+      </c>
+      <c r="BF186">
+        <v>2.41</v>
+      </c>
+      <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186">
+        <v>0</v>
+      </c>
+      <c r="BI186">
+        <v>1.21</v>
+      </c>
+      <c r="BJ186">
+        <v>4.1</v>
+      </c>
+      <c r="BK186">
+        <v>1.36</v>
+      </c>
+      <c r="BL186">
+        <v>2.79</v>
+      </c>
+      <c r="BM186">
+        <v>1.61</v>
+      </c>
+      <c r="BN186">
+        <v>2.12</v>
+      </c>
+      <c r="BO186">
+        <v>2.02</v>
+      </c>
+      <c r="BP186">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>6588982</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>84</v>
+      </c>
+      <c r="H187" t="s">
+        <v>70</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>217</v>
+      </c>
+      <c r="P187" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q187">
+        <v>2.38</v>
+      </c>
+      <c r="R187">
+        <v>2.14</v>
+      </c>
+      <c r="S187">
+        <v>4.65</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>1.93</v>
+      </c>
+      <c r="AA187">
+        <v>3.3</v>
+      </c>
+      <c r="AB187">
+        <v>3.6</v>
+      </c>
+      <c r="AC187">
+        <v>1.06</v>
+      </c>
+      <c r="AD187">
+        <v>8</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.25</v>
+      </c>
+      <c r="AG187">
+        <v>1.95</v>
+      </c>
+      <c r="AH187">
+        <v>1.78</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.91</v>
+      </c>
+      <c r="AK187">
+        <v>1.25</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.75</v>
+      </c>
+      <c r="AN187">
+        <v>1.45</v>
+      </c>
+      <c r="AO187">
+        <v>1.18</v>
+      </c>
+      <c r="AP187">
+        <v>1.58</v>
+      </c>
+      <c r="AQ187">
+        <v>1.08</v>
+      </c>
+      <c r="AR187">
+        <v>1.48</v>
+      </c>
+      <c r="AS187">
+        <v>1.19</v>
+      </c>
+      <c r="AT187">
+        <v>2.67</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>5</v>
+      </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
+      <c r="AY187">
+        <v>13</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>1.59</v>
+      </c>
+      <c r="BE187">
+        <v>8.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.78</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>0</v>
+      </c>
+      <c r="BI187">
+        <v>1.22</v>
+      </c>
+      <c r="BJ187">
+        <v>4.1</v>
+      </c>
+      <c r="BK187">
+        <v>1.39</v>
+      </c>
+      <c r="BL187">
+        <v>2.67</v>
+      </c>
+      <c r="BM187">
+        <v>1.85</v>
+      </c>
+      <c r="BN187">
+        <v>1.95</v>
+      </c>
+      <c r="BO187">
+        <v>2.09</v>
+      </c>
+      <c r="BP187">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>6588983</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s">
+        <v>85</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>86</v>
+      </c>
+      <c r="P188" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q188">
+        <v>2.48</v>
+      </c>
+      <c r="R188">
+        <v>2.25</v>
+      </c>
+      <c r="S188">
+        <v>4.79</v>
+      </c>
+      <c r="T188">
+        <v>1.35</v>
+      </c>
+      <c r="U188">
+        <v>2.9</v>
+      </c>
+      <c r="V188">
+        <v>2.75</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>6.5</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>1.85</v>
+      </c>
+      <c r="AA188">
+        <v>3.4</v>
+      </c>
+      <c r="AB188">
+        <v>3.75</v>
+      </c>
+      <c r="AC188">
+        <v>1.06</v>
+      </c>
+      <c r="AD188">
+        <v>8</v>
+      </c>
+      <c r="AE188">
+        <v>1.3</v>
+      </c>
+      <c r="AF188">
+        <v>3.4</v>
+      </c>
+      <c r="AG188">
+        <v>1.9</v>
+      </c>
+      <c r="AH188">
+        <v>1.83</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.91</v>
+      </c>
+      <c r="AK188">
+        <v>1.22</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.85</v>
+      </c>
+      <c r="AN188">
+        <v>1.75</v>
+      </c>
+      <c r="AO188">
+        <v>0.67</v>
+      </c>
+      <c r="AP188">
+        <v>1.62</v>
+      </c>
+      <c r="AQ188">
+        <v>0.85</v>
+      </c>
+      <c r="AR188">
+        <v>1.75</v>
+      </c>
+      <c r="AS188">
+        <v>1.37</v>
+      </c>
+      <c r="AT188">
+        <v>3.12</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>5</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
+        <v>11</v>
+      </c>
+      <c r="AZ188">
+        <v>7</v>
+      </c>
+      <c r="BA188">
+        <v>2</v>
+      </c>
+      <c r="BB188">
+        <v>5</v>
+      </c>
+      <c r="BC188">
+        <v>7</v>
+      </c>
+      <c r="BD188">
+        <v>1.64</v>
+      </c>
+      <c r="BE188">
+        <v>8</v>
+      </c>
+      <c r="BF188">
+        <v>2.67</v>
+      </c>
+      <c r="BG188">
+        <v>1.19</v>
+      </c>
+      <c r="BH188">
+        <v>4.4</v>
+      </c>
+      <c r="BI188">
+        <v>1.35</v>
+      </c>
+      <c r="BJ188">
+        <v>2.84</v>
+      </c>
+      <c r="BK188">
+        <v>1.92</v>
+      </c>
+      <c r="BL188">
+        <v>1.88</v>
+      </c>
+      <c r="BM188">
+        <v>2.06</v>
+      </c>
+      <c r="BN188">
+        <v>1.72</v>
+      </c>
+      <c r="BO188">
+        <v>2.67</v>
+      </c>
+      <c r="BP188">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6588985</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>110</v>
+      </c>
+      <c r="P189" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q189">
+        <v>2.11</v>
+      </c>
+      <c r="R189">
+        <v>2.31</v>
+      </c>
+      <c r="S189">
+        <v>5.05</v>
+      </c>
+      <c r="T189">
+        <v>1.33</v>
+      </c>
+      <c r="U189">
+        <v>3.25</v>
+      </c>
+      <c r="V189">
+        <v>2.38</v>
+      </c>
+      <c r="W189">
+        <v>1.53</v>
+      </c>
+      <c r="X189">
+        <v>5.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.12</v>
+      </c>
+      <c r="Z189">
+        <v>1.55</v>
+      </c>
+      <c r="AA189">
+        <v>3.9</v>
+      </c>
+      <c r="AB189">
+        <v>5</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>10</v>
+      </c>
+      <c r="AE189">
+        <v>1.22</v>
+      </c>
+      <c r="AF189">
+        <v>4</v>
+      </c>
+      <c r="AG189">
+        <v>1.67</v>
+      </c>
+      <c r="AH189">
+        <v>2.1</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.1</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>2.5</v>
+      </c>
+      <c r="AN189">
+        <v>1.92</v>
+      </c>
+      <c r="AO189">
+        <v>0.55</v>
+      </c>
+      <c r="AP189">
+        <v>2</v>
+      </c>
+      <c r="AQ189">
+        <v>0.5</v>
+      </c>
+      <c r="AR189">
+        <v>1.67</v>
+      </c>
+      <c r="AS189">
+        <v>1.32</v>
+      </c>
+      <c r="AT189">
+        <v>2.99</v>
+      </c>
+      <c r="AU189">
+        <v>7</v>
+      </c>
+      <c r="AV189">
+        <v>0</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>5</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>6</v>
+      </c>
+      <c r="BB189">
+        <v>5</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>1.41</v>
+      </c>
+      <c r="BE189">
+        <v>9</v>
+      </c>
+      <c r="BF189">
+        <v>3.49</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>0</v>
+      </c>
+      <c r="BI189">
+        <v>1.26</v>
+      </c>
+      <c r="BJ189">
+        <v>3.34</v>
+      </c>
+      <c r="BK189">
+        <v>1.47</v>
+      </c>
+      <c r="BL189">
+        <v>2.42</v>
+      </c>
+      <c r="BM189">
+        <v>1.81</v>
+      </c>
+      <c r="BN189">
+        <v>1.89</v>
+      </c>
+      <c r="BO189">
+        <v>2.28</v>
+      </c>
+      <c r="BP189">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>6588979</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>78</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>218</v>
+      </c>
+      <c r="P190" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q190">
+        <v>2.21</v>
+      </c>
+      <c r="R190">
+        <v>2.21</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>1.36</v>
+      </c>
+      <c r="U190">
+        <v>3</v>
+      </c>
+      <c r="V190">
+        <v>2.62</v>
+      </c>
+      <c r="W190">
+        <v>1.44</v>
+      </c>
+      <c r="X190">
+        <v>6.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.1</v>
+      </c>
+      <c r="Z190">
+        <v>1.87</v>
+      </c>
+      <c r="AA190">
+        <v>3.4</v>
+      </c>
+      <c r="AB190">
+        <v>3.7</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>9</v>
+      </c>
+      <c r="AE190">
+        <v>1.29</v>
+      </c>
+      <c r="AF190">
+        <v>3.5</v>
+      </c>
+      <c r="AG190">
+        <v>1.85</v>
+      </c>
+      <c r="AH190">
+        <v>1.87</v>
+      </c>
+      <c r="AI190">
+        <v>1.73</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.22</v>
+      </c>
+      <c r="AL190">
+        <v>1.29</v>
+      </c>
+      <c r="AM190">
+        <v>1.85</v>
+      </c>
+      <c r="AN190">
+        <v>1.36</v>
+      </c>
+      <c r="AO190">
+        <v>1</v>
+      </c>
+      <c r="AP190">
+        <v>1.25</v>
+      </c>
+      <c r="AQ190">
+        <v>1.17</v>
+      </c>
+      <c r="AR190">
+        <v>1.94</v>
+      </c>
+      <c r="AS190">
+        <v>1.21</v>
+      </c>
+      <c r="AT190">
+        <v>3.15</v>
+      </c>
+      <c r="AU190">
+        <v>9</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>4</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
+      <c r="AZ190">
+        <v>6</v>
+      </c>
+      <c r="BA190">
+        <v>6</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>8</v>
+      </c>
+      <c r="BD190">
+        <v>1.45</v>
+      </c>
+      <c r="BE190">
+        <v>9.5</v>
+      </c>
+      <c r="BF190">
+        <v>3.3</v>
+      </c>
+      <c r="BG190">
+        <v>0</v>
+      </c>
+      <c r="BH190">
+        <v>0</v>
+      </c>
+      <c r="BI190">
+        <v>1.22</v>
+      </c>
+      <c r="BJ190">
+        <v>4</v>
+      </c>
+      <c r="BK190">
+        <v>1.36</v>
+      </c>
+      <c r="BL190">
+        <v>2.79</v>
+      </c>
+      <c r="BM190">
+        <v>1.66</v>
+      </c>
+      <c r="BN190">
+        <v>2.17</v>
+      </c>
+      <c r="BO190">
+        <v>2.04</v>
+      </c>
+      <c r="BP190">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,15 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['2', '75']</t>
+  </si>
+  <si>
+    <t>['38', '42', '57', '90+3']</t>
+  </si>
+  <si>
+    <t>['45', '49', '61', '70']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -926,6 +935,9 @@
   </si>
   <si>
     <t>['20', '37']</t>
+  </si>
+  <si>
+    <t>['7', '90']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1764,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -1833,7 +1845,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ3">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2242,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2782,7 +2794,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3400,7 +3412,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3481,7 +3493,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4018,7 +4030,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4224,7 +4236,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4305,7 +4317,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4430,7 +4442,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4508,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4636,7 +4648,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4714,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4842,7 +4854,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5048,7 +5060,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5254,7 +5266,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5460,7 +5472,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5666,7 +5678,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5744,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1.58</v>
@@ -6078,7 +6090,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6284,7 +6296,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6362,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ25">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6902,7 +6914,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -6983,7 +6995,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ28">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7314,7 +7326,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7520,7 +7532,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7601,7 +7613,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7932,7 +7944,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8010,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>2.08</v>
@@ -8138,7 +8150,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8344,7 +8356,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8756,7 +8768,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8837,7 +8849,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>0.96</v>
@@ -9040,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1.08</v>
@@ -9249,7 +9261,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ39">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR39">
         <v>1.69</v>
@@ -9452,7 +9464,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9658,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ41">
         <v>1.58</v>
@@ -9786,7 +9798,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9867,7 +9879,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR42">
         <v>1.31</v>
@@ -9992,7 +10004,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10404,7 +10416,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10610,7 +10622,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -11309,7 +11321,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ49">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR49">
         <v>1.29</v>
@@ -11434,7 +11446,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11512,7 +11524,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0.85</v>
@@ -12130,7 +12142,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>1.08</v>
@@ -12258,7 +12270,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12339,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12464,7 +12476,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12542,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12670,7 +12682,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12957,7 +12969,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13494,7 +13506,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13906,7 +13918,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14112,7 +14124,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14524,7 +14536,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14602,7 +14614,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.08</v>
@@ -14730,7 +14742,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14811,7 +14823,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14936,7 +14948,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15017,7 +15029,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15348,7 +15360,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15760,7 +15772,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15838,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>1.08</v>
@@ -15966,7 +15978,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16044,10 +16056,10 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ72">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>2.54</v>
@@ -16172,7 +16184,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16584,7 +16596,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16790,7 +16802,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17901,7 +17913,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR81">
         <v>1.81</v>
@@ -18107,7 +18119,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.56</v>
@@ -18310,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -18850,7 +18862,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -18931,7 +18943,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ86">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19056,7 +19068,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19262,7 +19274,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19340,7 +19352,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ88">
         <v>0.85</v>
@@ -19468,7 +19480,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20370,7 +20382,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ93">
         <v>1.55</v>
@@ -20704,7 +20716,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21116,7 +21128,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21403,7 +21415,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -21606,7 +21618,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>1.08</v>
@@ -21815,7 +21827,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22146,7 +22158,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22224,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102">
         <v>0.5</v>
@@ -22352,7 +22364,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22433,7 +22445,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22558,7 +22570,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22970,7 +22982,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23382,7 +23394,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23463,7 +23475,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ108">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR108">
         <v>1.26</v>
@@ -23794,7 +23806,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24206,7 +24218,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24284,7 +24296,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ112">
         <v>2.08</v>
@@ -24618,7 +24630,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24696,10 +24708,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24824,7 +24836,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25442,7 +25454,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25520,7 +25532,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
         <v>1.55</v>
@@ -25648,7 +25660,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25729,7 +25741,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ119">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR119">
         <v>2.07</v>
@@ -25854,7 +25866,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26266,7 +26278,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26678,7 +26690,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26962,7 +26974,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ125">
         <v>0.17</v>
@@ -27583,7 +27595,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ128">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR128">
         <v>2.1</v>
@@ -27708,7 +27720,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27914,7 +27926,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -27995,7 +28007,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ130">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR130">
         <v>1.25</v>
@@ -28120,7 +28132,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28326,7 +28338,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28407,7 +28419,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28532,7 +28544,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28613,7 +28625,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR133">
         <v>1.67</v>
@@ -28738,7 +28750,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29150,7 +29162,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29434,7 +29446,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>0.17</v>
@@ -29640,7 +29652,7 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ138">
         <v>1.08</v>
@@ -29768,7 +29780,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29974,7 +29986,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30052,7 +30064,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30798,7 +30810,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -31416,7 +31428,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31622,7 +31634,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31909,7 +31921,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR149">
         <v>2.03</v>
@@ -32034,7 +32046,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32446,7 +32458,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32527,7 +32539,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ152">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR152">
         <v>1.74</v>
@@ -32730,7 +32742,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
         <v>1.58</v>
@@ -32858,7 +32870,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32936,7 +32948,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ154">
         <v>1.08</v>
@@ -33064,7 +33076,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33145,7 +33157,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR155">
         <v>1.16</v>
@@ -33270,7 +33282,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33476,7 +33488,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33554,7 +33566,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ157">
         <v>0.85</v>
@@ -33682,7 +33694,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33888,7 +33900,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34094,7 +34106,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34300,7 +34312,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34506,7 +34518,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34712,7 +34724,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -34793,7 +34805,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR163">
         <v>1.21</v>
@@ -35124,7 +35136,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35330,7 +35342,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35536,7 +35548,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35742,7 +35754,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36360,7 +36372,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36566,7 +36578,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36772,7 +36784,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37056,10 +37068,10 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR174">
         <v>1.87</v>
@@ -37262,7 +37274,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ175">
         <v>1.17</v>
@@ -37468,7 +37480,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AQ176">
         <v>1.08</v>
@@ -37596,7 +37608,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37677,7 +37689,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ177">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37802,7 +37814,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38008,7 +38020,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38420,7 +38432,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38626,7 +38638,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39038,7 +39050,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -40274,7 +40286,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40431,6 +40443,624 @@
       </c>
       <c r="BP190">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>6588981</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191" t="s">
+        <v>79</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>219</v>
+      </c>
+      <c r="P191" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q191">
+        <v>2.5</v>
+      </c>
+      <c r="R191">
+        <v>2.25</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.33</v>
+      </c>
+      <c r="U191">
+        <v>3.25</v>
+      </c>
+      <c r="V191">
+        <v>2.63</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>6.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.11</v>
+      </c>
+      <c r="Z191">
+        <v>1.91</v>
+      </c>
+      <c r="AA191">
+        <v>3.6</v>
+      </c>
+      <c r="AB191">
+        <v>3.75</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>10.25</v>
+      </c>
+      <c r="AE191">
+        <v>1.25</v>
+      </c>
+      <c r="AF191">
+        <v>3.75</v>
+      </c>
+      <c r="AG191">
+        <v>1.67</v>
+      </c>
+      <c r="AH191">
+        <v>1.99</v>
+      </c>
+      <c r="AI191">
+        <v>1.67</v>
+      </c>
+      <c r="AJ191">
+        <v>2.1</v>
+      </c>
+      <c r="AK191">
+        <v>1.22</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>1.85</v>
+      </c>
+      <c r="AN191">
+        <v>1.36</v>
+      </c>
+      <c r="AO191">
+        <v>0.42</v>
+      </c>
+      <c r="AP191">
+        <v>1.33</v>
+      </c>
+      <c r="AQ191">
+        <v>0.46</v>
+      </c>
+      <c r="AR191">
+        <v>1.4</v>
+      </c>
+      <c r="AS191">
+        <v>1.03</v>
+      </c>
+      <c r="AT191">
+        <v>2.43</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>6</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>12</v>
+      </c>
+      <c r="BA191">
+        <v>4</v>
+      </c>
+      <c r="BB191">
+        <v>6</v>
+      </c>
+      <c r="BC191">
+        <v>10</v>
+      </c>
+      <c r="BD191">
+        <v>1.69</v>
+      </c>
+      <c r="BE191">
+        <v>8.5</v>
+      </c>
+      <c r="BF191">
+        <v>2.62</v>
+      </c>
+      <c r="BG191">
+        <v>1.15</v>
+      </c>
+      <c r="BH191">
+        <v>5.1</v>
+      </c>
+      <c r="BI191">
+        <v>1.26</v>
+      </c>
+      <c r="BJ191">
+        <v>3.6</v>
+      </c>
+      <c r="BK191">
+        <v>1.5</v>
+      </c>
+      <c r="BL191">
+        <v>2.5</v>
+      </c>
+      <c r="BM191">
+        <v>1.95</v>
+      </c>
+      <c r="BN191">
+        <v>1.85</v>
+      </c>
+      <c r="BO191">
+        <v>2.32</v>
+      </c>
+      <c r="BP191">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>6588986</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s">
+        <v>72</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>220</v>
+      </c>
+      <c r="P192" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q192">
+        <v>1.53</v>
+      </c>
+      <c r="R192">
+        <v>2.88</v>
+      </c>
+      <c r="S192">
+        <v>11</v>
+      </c>
+      <c r="T192">
+        <v>1.22</v>
+      </c>
+      <c r="U192">
+        <v>4</v>
+      </c>
+      <c r="V192">
+        <v>2.1</v>
+      </c>
+      <c r="W192">
+        <v>1.67</v>
+      </c>
+      <c r="X192">
+        <v>4.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.18</v>
+      </c>
+      <c r="Z192">
+        <v>1.17</v>
+      </c>
+      <c r="AA192">
+        <v>7</v>
+      </c>
+      <c r="AB192">
+        <v>14</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>23.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.1</v>
+      </c>
+      <c r="AF192">
+        <v>5.7</v>
+      </c>
+      <c r="AG192">
+        <v>1.4</v>
+      </c>
+      <c r="AH192">
+        <v>2.58</v>
+      </c>
+      <c r="AI192">
+        <v>2.1</v>
+      </c>
+      <c r="AJ192">
+        <v>1.67</v>
+      </c>
+      <c r="AK192">
+        <v>1.05</v>
+      </c>
+      <c r="AL192">
+        <v>1.05</v>
+      </c>
+      <c r="AM192">
+        <v>5</v>
+      </c>
+      <c r="AN192">
+        <v>2.55</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>2.58</v>
+      </c>
+      <c r="AQ192">
+        <v>0.92</v>
+      </c>
+      <c r="AR192">
+        <v>2.37</v>
+      </c>
+      <c r="AS192">
+        <v>1.34</v>
+      </c>
+      <c r="AT192">
+        <v>3.71</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
+        <v>2</v>
+      </c>
+      <c r="AW192">
+        <v>9</v>
+      </c>
+      <c r="AX192">
+        <v>8</v>
+      </c>
+      <c r="AY192">
+        <v>16</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>8</v>
+      </c>
+      <c r="BB192">
+        <v>4</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>1.06</v>
+      </c>
+      <c r="BE192">
+        <v>15</v>
+      </c>
+      <c r="BF192">
+        <v>11.3</v>
+      </c>
+      <c r="BG192">
+        <v>1.18</v>
+      </c>
+      <c r="BH192">
+        <v>4.5</v>
+      </c>
+      <c r="BI192">
+        <v>1.31</v>
+      </c>
+      <c r="BJ192">
+        <v>3.04</v>
+      </c>
+      <c r="BK192">
+        <v>1.88</v>
+      </c>
+      <c r="BL192">
+        <v>1.92</v>
+      </c>
+      <c r="BM192">
+        <v>1.92</v>
+      </c>
+      <c r="BN192">
+        <v>1.79</v>
+      </c>
+      <c r="BO192">
+        <v>2.45</v>
+      </c>
+      <c r="BP192">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6588984</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" t="s">
+        <v>77</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193" t="s">
+        <v>221</v>
+      </c>
+      <c r="P193" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q193">
+        <v>3.56</v>
+      </c>
+      <c r="R193">
+        <v>2.2</v>
+      </c>
+      <c r="S193">
+        <v>3.13</v>
+      </c>
+      <c r="T193">
+        <v>1.42</v>
+      </c>
+      <c r="U193">
+        <v>2.87</v>
+      </c>
+      <c r="V193">
+        <v>3.1</v>
+      </c>
+      <c r="W193">
+        <v>1.37</v>
+      </c>
+      <c r="X193">
+        <v>7.4</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>2.92</v>
+      </c>
+      <c r="AA193">
+        <v>3.35</v>
+      </c>
+      <c r="AB193">
+        <v>2.25</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>7.8</v>
+      </c>
+      <c r="AE193">
+        <v>1.33</v>
+      </c>
+      <c r="AF193">
+        <v>3.1</v>
+      </c>
+      <c r="AG193">
+        <v>1.88</v>
+      </c>
+      <c r="AH193">
+        <v>1.82</v>
+      </c>
+      <c r="AI193">
+        <v>1.8</v>
+      </c>
+      <c r="AJ193">
+        <v>1.95</v>
+      </c>
+      <c r="AK193">
+        <v>1.53</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.42</v>
+      </c>
+      <c r="AN193">
+        <v>2.09</v>
+      </c>
+      <c r="AO193">
+        <v>2.36</v>
+      </c>
+      <c r="AP193">
+        <v>2.17</v>
+      </c>
+      <c r="AQ193">
+        <v>2.17</v>
+      </c>
+      <c r="AR193">
+        <v>1.9</v>
+      </c>
+      <c r="AS193">
+        <v>1.64</v>
+      </c>
+      <c r="AT193">
+        <v>3.54</v>
+      </c>
+      <c r="AU193">
+        <v>9</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>3</v>
+      </c>
+      <c r="AY193">
+        <v>14</v>
+      </c>
+      <c r="AZ193">
+        <v>5</v>
+      </c>
+      <c r="BA193">
+        <v>7</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>2</v>
+      </c>
+      <c r="BE193">
+        <v>8</v>
+      </c>
+      <c r="BF193">
+        <v>2</v>
+      </c>
+      <c r="BG193">
+        <v>1.16</v>
+      </c>
+      <c r="BH193">
+        <v>4.7</v>
+      </c>
+      <c r="BI193">
+        <v>1.24</v>
+      </c>
+      <c r="BJ193">
+        <v>3.48</v>
+      </c>
+      <c r="BK193">
+        <v>1.44</v>
+      </c>
+      <c r="BL193">
+        <v>2.51</v>
+      </c>
+      <c r="BM193">
+        <v>2</v>
+      </c>
+      <c r="BN193">
+        <v>1.8</v>
+      </c>
+      <c r="BO193">
+        <v>2.19</v>
+      </c>
+      <c r="BP193">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,21 @@
     <t>['45', '49', '61', '70']</t>
   </si>
   <si>
+    <t>['63', '76']</t>
+  </si>
+  <si>
+    <t>['8', '76']</t>
+  </si>
+  <si>
+    <t>['30', '90+2']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['15', '83', '90']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -835,9 +850,6 @@
     <t>['7', '46']</t>
   </si>
   <si>
-    <t>['73']</t>
-  </si>
-  <si>
     <t>['19', '65']</t>
   </si>
   <si>
@@ -938,6 +950,15 @@
   </si>
   <si>
     <t>['7', '90']</t>
+  </si>
+  <si>
+    <t>['14', '56']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['20', '84']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1764,7 +1785,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -1842,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.46</v>
@@ -2048,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2254,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2460,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ6">
         <v>0.85</v>
@@ -2669,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2794,7 +2815,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -2875,7 +2896,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ8">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3081,7 +3102,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3412,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3490,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>2.17</v>
@@ -3696,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ12">
         <v>0.85</v>
@@ -3905,7 +3926,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4030,7 +4051,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4108,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ14">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>1.39</v>
@@ -4236,7 +4257,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4442,7 +4463,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4648,7 +4669,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4854,7 +4875,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5060,7 +5081,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5138,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.08</v>
@@ -5266,7 +5287,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5347,7 +5368,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR20">
         <v>1.12</v>
@@ -5472,7 +5493,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5553,7 +5574,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5678,7 +5699,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5759,7 +5780,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -5962,7 +5983,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23">
         <v>0.85</v>
@@ -6090,7 +6111,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6296,7 +6317,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6374,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ25">
         <v>0.46</v>
@@ -6786,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>0.7</v>
@@ -6914,7 +6935,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -6992,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
         <v>2.17</v>
@@ -7198,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7326,7 +7347,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7404,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ30">
         <v>2.33</v>
@@ -7532,7 +7553,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7819,7 +7840,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -7944,7 +7965,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8025,7 +8046,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8150,7 +8171,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8228,7 +8249,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0.85</v>
@@ -8356,7 +8377,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8768,7 +8789,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8846,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ37">
         <v>2.17</v>
@@ -9467,7 +9488,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9670,10 +9691,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR41">
         <v>2.82</v>
@@ -9798,7 +9819,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9876,7 +9897,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>0.92</v>
@@ -10004,7 +10025,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10082,10 +10103,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ43">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10291,7 +10312,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10416,7 +10437,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10622,7 +10643,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10700,7 +10721,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ46">
         <v>2.33</v>
@@ -10909,7 +10930,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ47">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11446,7 +11467,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11730,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ51">
         <v>1.08</v>
@@ -12270,7 +12291,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12476,7 +12497,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12554,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12682,7 +12703,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12763,7 +12784,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -12966,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>0.92</v>
@@ -13175,7 +13196,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR58">
         <v>1.81</v>
@@ -13381,7 +13402,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13506,7 +13527,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13584,7 +13605,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13790,7 +13811,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ61">
         <v>2.33</v>
@@ -13918,7 +13939,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -13996,10 +14017,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ62">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14124,7 +14145,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14202,10 +14223,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14411,7 +14432,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ64">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14536,7 +14557,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14742,7 +14763,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14948,7 +14969,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15360,7 +15381,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15441,7 +15462,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15772,7 +15793,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15978,7 +15999,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16056,7 +16077,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ72">
         <v>2.17</v>
@@ -16184,7 +16205,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16262,10 +16283,10 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.65</v>
@@ -16468,10 +16489,10 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.12</v>
@@ -16596,7 +16617,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16674,10 +16695,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16802,7 +16823,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -16883,7 +16904,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ76">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR76">
         <v>1.65</v>
@@ -17089,7 +17110,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ77">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR77">
         <v>2.36</v>
@@ -17292,7 +17313,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ78">
         <v>2.33</v>
@@ -17498,7 +17519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -17704,7 +17725,7 @@
         <v>0.2</v>
       </c>
       <c r="AP80">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -18862,7 +18883,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19068,7 +19089,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19274,7 +19295,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19480,7 +19501,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19558,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
         <v>1.08</v>
@@ -19764,10 +19785,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -19970,7 +19991,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -20179,7 +20200,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR92">
         <v>1.64</v>
@@ -20382,10 +20403,10 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20591,7 +20612,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ94">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20716,7 +20737,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20794,10 +20815,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ95">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR95">
         <v>1.07</v>
@@ -21000,7 +21021,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96">
         <v>1.08</v>
@@ -21128,7 +21149,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21209,7 +21230,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ97">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -22158,7 +22179,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22364,7 +22385,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22442,7 +22463,7 @@
         <v>2.33</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ103">
         <v>2.17</v>
@@ -22570,7 +22591,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22854,7 +22875,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ105">
         <v>1.08</v>
@@ -22982,7 +23003,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23060,10 +23081,10 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23394,7 +23415,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23472,7 +23493,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ108">
         <v>0.46</v>
@@ -23806,7 +23827,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23884,10 +23905,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24093,7 +24114,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24218,7 +24239,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24296,10 +24317,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ112">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR112">
         <v>2.19</v>
@@ -24502,7 +24523,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ113">
         <v>1.08</v>
@@ -24630,7 +24651,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24836,7 +24857,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -24914,7 +24935,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115">
         <v>0.85</v>
@@ -25123,7 +25144,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ116">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25454,7 +25475,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25535,7 +25556,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25660,7 +25681,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25866,7 +25887,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26278,7 +26299,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26356,10 +26377,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26562,7 +26583,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
         <v>1.08</v>
@@ -26690,7 +26711,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>4.5</v>
@@ -26771,7 +26792,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ124">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26974,10 +26995,10 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ125">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27183,7 +27204,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ126">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
         <v>1.59</v>
@@ -27386,7 +27407,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ127">
         <v>1.08</v>
@@ -27720,7 +27741,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27801,7 +27822,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ129">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -27926,7 +27947,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28004,7 +28025,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ130">
         <v>2.17</v>
@@ -28132,7 +28153,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28210,10 +28231,10 @@
         <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ131">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR131">
         <v>1.44</v>
@@ -28338,7 +28359,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28416,7 +28437,7 @@
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ132">
         <v>0.92</v>
@@ -28544,7 +28565,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28750,7 +28771,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29162,7 +29183,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29243,7 +29264,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ136">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29449,7 +29470,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ137">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -29652,7 +29673,7 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ138">
         <v>1.08</v>
@@ -29780,7 +29801,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29858,7 +29879,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139">
         <v>0.5</v>
@@ -29986,7 +30007,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30273,7 +30294,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
         <v>1.72</v>
@@ -30476,7 +30497,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ142">
         <v>0.67</v>
@@ -30682,10 +30703,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ143">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
         <v>1.25</v>
@@ -30810,7 +30831,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -30888,10 +30909,10 @@
         <v>1.38</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ144">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -31094,7 +31115,7 @@
         <v>0.44</v>
       </c>
       <c r="AP145">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ145">
         <v>0.5</v>
@@ -31303,7 +31324,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31428,7 +31449,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31634,7 +31655,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31715,7 +31736,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR148">
         <v>1.6</v>
@@ -32046,7 +32067,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32333,7 +32354,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32458,7 +32479,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32536,7 +32557,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>2.17</v>
@@ -32745,7 +32766,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -32870,7 +32891,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33076,7 +33097,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33154,7 +33175,7 @@
         <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ155">
         <v>0.46</v>
@@ -33282,7 +33303,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33488,7 +33509,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33566,7 +33587,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ157">
         <v>0.85</v>
@@ -33694,7 +33715,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33775,7 +33796,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ158">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR158">
         <v>2.03</v>
@@ -33900,7 +33921,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -33978,7 +33999,7 @@
         <v>1.11</v>
       </c>
       <c r="AP159">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
         <v>1.08</v>
@@ -34106,7 +34127,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34184,7 +34205,7 @@
         <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ160">
         <v>2.33</v>
@@ -34312,7 +34333,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34390,10 +34411,10 @@
         <v>1.3</v>
       </c>
       <c r="AP161">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ161">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34518,7 +34539,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34596,10 +34617,10 @@
         <v>0.2</v>
       </c>
       <c r="AP162">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR162">
         <v>1.5</v>
@@ -34724,7 +34745,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -34802,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ163">
         <v>0.92</v>
@@ -35136,7 +35157,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35217,7 +35238,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR165">
         <v>1.62</v>
@@ -35342,7 +35363,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35420,10 +35441,10 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ166">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35548,7 +35569,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35626,7 +35647,7 @@
         <v>2.4</v>
       </c>
       <c r="AP167">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
         <v>2.33</v>
@@ -35754,7 +35775,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35835,7 +35856,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ168">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR168">
         <v>2.01</v>
@@ -36038,10 +36059,10 @@
         <v>1.22</v>
       </c>
       <c r="AP169">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ169">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36372,7 +36393,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36578,7 +36599,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36656,7 +36677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ172">
         <v>0.5</v>
@@ -36784,7 +36805,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37277,7 +37298,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ175">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR175">
         <v>1.39</v>
@@ -37480,7 +37501,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ176">
         <v>1.08</v>
@@ -37608,7 +37629,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37814,7 +37835,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -37892,10 +37913,10 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38020,7 +38041,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38304,7 +38325,7 @@
         <v>0.64</v>
       </c>
       <c r="AP180">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ180">
         <v>0.67</v>
@@ -38432,7 +38453,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38510,10 +38531,10 @@
         <v>0.18</v>
       </c>
       <c r="AP181">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ181">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR181">
         <v>1.5</v>
@@ -38638,7 +38659,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38716,10 +38737,10 @@
         <v>2</v>
       </c>
       <c r="AP182">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ182">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AR182">
         <v>1.18</v>
@@ -38922,10 +38943,10 @@
         <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ183">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR183">
         <v>1.39</v>
@@ -39050,7 +39071,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39128,10 +39149,10 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -40286,7 +40307,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40367,7 +40388,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ190">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR190">
         <v>1.94</v>
@@ -40492,7 +40513,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40776,7 +40797,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ192">
         <v>0.92</v>
@@ -41061,6 +41082,1448 @@
       </c>
       <c r="BP193">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>6588991</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>79</v>
+      </c>
+      <c r="H194" t="s">
+        <v>81</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>222</v>
+      </c>
+      <c r="P194" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q194">
+        <v>3.58</v>
+      </c>
+      <c r="R194">
+        <v>2.19</v>
+      </c>
+      <c r="S194">
+        <v>3.12</v>
+      </c>
+      <c r="T194">
+        <v>1.41</v>
+      </c>
+      <c r="U194">
+        <v>2.93</v>
+      </c>
+      <c r="V194">
+        <v>3.02</v>
+      </c>
+      <c r="W194">
+        <v>1.39</v>
+      </c>
+      <c r="X194">
+        <v>7.4</v>
+      </c>
+      <c r="Y194">
+        <v>1.07</v>
+      </c>
+      <c r="Z194">
+        <v>2.65</v>
+      </c>
+      <c r="AA194">
+        <v>3.1</v>
+      </c>
+      <c r="AB194">
+        <v>2.5</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>8</v>
+      </c>
+      <c r="AE194">
+        <v>1.33</v>
+      </c>
+      <c r="AF194">
+        <v>3.25</v>
+      </c>
+      <c r="AG194">
+        <v>1.85</v>
+      </c>
+      <c r="AH194">
+        <v>1.79</v>
+      </c>
+      <c r="AI194">
+        <v>1.77</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>1.64</v>
+      </c>
+      <c r="AL194">
+        <v>1.33</v>
+      </c>
+      <c r="AM194">
+        <v>1.33</v>
+      </c>
+      <c r="AN194">
+        <v>1.18</v>
+      </c>
+      <c r="AO194">
+        <v>1.08</v>
+      </c>
+      <c r="AP194">
+        <v>1.17</v>
+      </c>
+      <c r="AQ194">
+        <v>1.08</v>
+      </c>
+      <c r="AR194">
+        <v>1.4</v>
+      </c>
+      <c r="AS194">
+        <v>1.29</v>
+      </c>
+      <c r="AT194">
+        <v>2.69</v>
+      </c>
+      <c r="AU194">
+        <v>6</v>
+      </c>
+      <c r="AV194">
+        <v>6</v>
+      </c>
+      <c r="AW194">
+        <v>7</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>13</v>
+      </c>
+      <c r="AZ194">
+        <v>7</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>6</v>
+      </c>
+      <c r="BC194">
+        <v>10</v>
+      </c>
+      <c r="BD194">
+        <v>2.05</v>
+      </c>
+      <c r="BE194">
+        <v>8.5</v>
+      </c>
+      <c r="BF194">
+        <v>2</v>
+      </c>
+      <c r="BG194">
+        <v>1.16</v>
+      </c>
+      <c r="BH194">
+        <v>4.8</v>
+      </c>
+      <c r="BI194">
+        <v>1.27</v>
+      </c>
+      <c r="BJ194">
+        <v>3.28</v>
+      </c>
+      <c r="BK194">
+        <v>1.56</v>
+      </c>
+      <c r="BL194">
+        <v>2.39</v>
+      </c>
+      <c r="BM194">
+        <v>1.88</v>
+      </c>
+      <c r="BN194">
+        <v>1.92</v>
+      </c>
+      <c r="BO194">
+        <v>2.37</v>
+      </c>
+      <c r="BP194">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>6588992</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" t="s">
+        <v>78</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>223</v>
+      </c>
+      <c r="P195" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q195">
+        <v>2.49</v>
+      </c>
+      <c r="R195">
+        <v>2.36</v>
+      </c>
+      <c r="S195">
+        <v>4.33</v>
+      </c>
+      <c r="T195">
+        <v>1.34</v>
+      </c>
+      <c r="U195">
+        <v>3.3</v>
+      </c>
+      <c r="V195">
+        <v>2.66</v>
+      </c>
+      <c r="W195">
+        <v>1.48</v>
+      </c>
+      <c r="X195">
+        <v>6.4</v>
+      </c>
+      <c r="Y195">
+        <v>1.1</v>
+      </c>
+      <c r="Z195">
+        <v>1.93</v>
+      </c>
+      <c r="AA195">
+        <v>3.45</v>
+      </c>
+      <c r="AB195">
+        <v>3.45</v>
+      </c>
+      <c r="AC195">
+        <v>1.05</v>
+      </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
+      <c r="AE195">
+        <v>1.25</v>
+      </c>
+      <c r="AF195">
+        <v>3.75</v>
+      </c>
+      <c r="AG195">
+        <v>1.72</v>
+      </c>
+      <c r="AH195">
+        <v>1.93</v>
+      </c>
+      <c r="AI195">
+        <v>1.7</v>
+      </c>
+      <c r="AJ195">
+        <v>2.05</v>
+      </c>
+      <c r="AK195">
+        <v>1.25</v>
+      </c>
+      <c r="AL195">
+        <v>1.29</v>
+      </c>
+      <c r="AM195">
+        <v>1.83</v>
+      </c>
+      <c r="AN195">
+        <v>1.67</v>
+      </c>
+      <c r="AO195">
+        <v>1.17</v>
+      </c>
+      <c r="AP195">
+        <v>1.77</v>
+      </c>
+      <c r="AQ195">
+        <v>1.08</v>
+      </c>
+      <c r="AR195">
+        <v>1.54</v>
+      </c>
+      <c r="AS195">
+        <v>1.18</v>
+      </c>
+      <c r="AT195">
+        <v>2.72</v>
+      </c>
+      <c r="AU195">
+        <v>10</v>
+      </c>
+      <c r="AV195">
+        <v>5</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>17</v>
+      </c>
+      <c r="AZ195">
+        <v>7</v>
+      </c>
+      <c r="BA195">
+        <v>5</v>
+      </c>
+      <c r="BB195">
+        <v>7</v>
+      </c>
+      <c r="BC195">
+        <v>12</v>
+      </c>
+      <c r="BD195">
+        <v>1.51</v>
+      </c>
+      <c r="BE195">
+        <v>9</v>
+      </c>
+      <c r="BF195">
+        <v>3.06</v>
+      </c>
+      <c r="BG195">
+        <v>1.1</v>
+      </c>
+      <c r="BH195">
+        <v>6.1</v>
+      </c>
+      <c r="BI195">
+        <v>1.22</v>
+      </c>
+      <c r="BJ195">
+        <v>4</v>
+      </c>
+      <c r="BK195">
+        <v>1.35</v>
+      </c>
+      <c r="BL195">
+        <v>2.84</v>
+      </c>
+      <c r="BM195">
+        <v>1.65</v>
+      </c>
+      <c r="BN195">
+        <v>2.21</v>
+      </c>
+      <c r="BO195">
+        <v>2.03</v>
+      </c>
+      <c r="BP195">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>6588989</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>82</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>224</v>
+      </c>
+      <c r="P196" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q196">
+        <v>2.64</v>
+      </c>
+      <c r="R196">
+        <v>2.42</v>
+      </c>
+      <c r="S196">
+        <v>3.8</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.15</v>
+      </c>
+      <c r="V196">
+        <v>2.61</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>6.1</v>
+      </c>
+      <c r="Y196">
+        <v>1.1</v>
+      </c>
+      <c r="Z196">
+        <v>2.17</v>
+      </c>
+      <c r="AA196">
+        <v>3.3</v>
+      </c>
+      <c r="AB196">
+        <v>2.96</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.22</v>
+      </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2.03</v>
+      </c>
+      <c r="AI196">
+        <v>1.6</v>
+      </c>
+      <c r="AJ196">
+        <v>2.27</v>
+      </c>
+      <c r="AK196">
+        <v>1.36</v>
+      </c>
+      <c r="AL196">
+        <v>1.28</v>
+      </c>
+      <c r="AM196">
+        <v>1.64</v>
+      </c>
+      <c r="AN196">
+        <v>0.83</v>
+      </c>
+      <c r="AO196">
+        <v>0.17</v>
+      </c>
+      <c r="AP196">
+        <v>1</v>
+      </c>
+      <c r="AQ196">
+        <v>0.15</v>
+      </c>
+      <c r="AR196">
+        <v>1.54</v>
+      </c>
+      <c r="AS196">
+        <v>1.38</v>
+      </c>
+      <c r="AT196">
+        <v>2.92</v>
+      </c>
+      <c r="AU196">
+        <v>9</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>7</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>16</v>
+      </c>
+      <c r="AZ196">
+        <v>11</v>
+      </c>
+      <c r="BA196">
+        <v>9</v>
+      </c>
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>1.91</v>
+      </c>
+      <c r="BE196">
+        <v>8.5</v>
+      </c>
+      <c r="BF196">
+        <v>2.1</v>
+      </c>
+      <c r="BG196">
+        <v>1.14</v>
+      </c>
+      <c r="BH196">
+        <v>5.2</v>
+      </c>
+      <c r="BI196">
+        <v>1.24</v>
+      </c>
+      <c r="BJ196">
+        <v>3.48</v>
+      </c>
+      <c r="BK196">
+        <v>1.49</v>
+      </c>
+      <c r="BL196">
+        <v>2.56</v>
+      </c>
+      <c r="BM196">
+        <v>1.92</v>
+      </c>
+      <c r="BN196">
+        <v>1.88</v>
+      </c>
+      <c r="BO196">
+        <v>2.24</v>
+      </c>
+      <c r="BP196">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>6588994</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197" t="s">
+        <v>76</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>129</v>
+      </c>
+      <c r="P197" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q197">
+        <v>3.56</v>
+      </c>
+      <c r="R197">
+        <v>2.1</v>
+      </c>
+      <c r="S197">
+        <v>3.35</v>
+      </c>
+      <c r="T197">
+        <v>1.47</v>
+      </c>
+      <c r="U197">
+        <v>2.69</v>
+      </c>
+      <c r="V197">
+        <v>3.35</v>
+      </c>
+      <c r="W197">
+        <v>1.33</v>
+      </c>
+      <c r="X197">
+        <v>8.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.05</v>
+      </c>
+      <c r="Z197">
+        <v>2.7</v>
+      </c>
+      <c r="AA197">
+        <v>3.2</v>
+      </c>
+      <c r="AB197">
+        <v>2.38</v>
+      </c>
+      <c r="AC197">
+        <v>1.08</v>
+      </c>
+      <c r="AD197">
+        <v>7</v>
+      </c>
+      <c r="AE197">
+        <v>1.4</v>
+      </c>
+      <c r="AF197">
+        <v>2.75</v>
+      </c>
+      <c r="AG197">
+        <v>2.18</v>
+      </c>
+      <c r="AH197">
+        <v>1.61</v>
+      </c>
+      <c r="AI197">
+        <v>1.88</v>
+      </c>
+      <c r="AJ197">
+        <v>1.88</v>
+      </c>
+      <c r="AK197">
+        <v>1.5</v>
+      </c>
+      <c r="AL197">
+        <v>1.33</v>
+      </c>
+      <c r="AM197">
+        <v>1.41</v>
+      </c>
+      <c r="AN197">
+        <v>1.67</v>
+      </c>
+      <c r="AO197">
+        <v>1.55</v>
+      </c>
+      <c r="AP197">
+        <v>1.62</v>
+      </c>
+      <c r="AQ197">
+        <v>1.5</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>1.28</v>
+      </c>
+      <c r="AT197">
+        <v>2.68</v>
+      </c>
+      <c r="AU197">
+        <v>6</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>10</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>16</v>
+      </c>
+      <c r="AZ197">
+        <v>4</v>
+      </c>
+      <c r="BA197">
+        <v>7</v>
+      </c>
+      <c r="BB197">
+        <v>6</v>
+      </c>
+      <c r="BC197">
+        <v>13</v>
+      </c>
+      <c r="BD197">
+        <v>2.1</v>
+      </c>
+      <c r="BE197">
+        <v>8</v>
+      </c>
+      <c r="BF197">
+        <v>1.91</v>
+      </c>
+      <c r="BG197">
+        <v>1.22</v>
+      </c>
+      <c r="BH197">
+        <v>3.8</v>
+      </c>
+      <c r="BI197">
+        <v>1.36</v>
+      </c>
+      <c r="BJ197">
+        <v>2.79</v>
+      </c>
+      <c r="BK197">
+        <v>1.69</v>
+      </c>
+      <c r="BL197">
+        <v>2.14</v>
+      </c>
+      <c r="BM197">
+        <v>2.1</v>
+      </c>
+      <c r="BN197">
+        <v>1.72</v>
+      </c>
+      <c r="BO197">
+        <v>2.67</v>
+      </c>
+      <c r="BP197">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>6588990</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>70</v>
+      </c>
+      <c r="H198" t="s">
+        <v>80</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>86</v>
+      </c>
+      <c r="P198" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q198">
+        <v>4.13</v>
+      </c>
+      <c r="R198">
+        <v>2.36</v>
+      </c>
+      <c r="S198">
+        <v>2.57</v>
+      </c>
+      <c r="T198">
+        <v>1.33</v>
+      </c>
+      <c r="U198">
+        <v>3.31</v>
+      </c>
+      <c r="V198">
+        <v>2.64</v>
+      </c>
+      <c r="W198">
+        <v>1.48</v>
+      </c>
+      <c r="X198">
+        <v>6.35</v>
+      </c>
+      <c r="Y198">
+        <v>1.1</v>
+      </c>
+      <c r="Z198">
+        <v>4.1</v>
+      </c>
+      <c r="AA198">
+        <v>3.6</v>
+      </c>
+      <c r="AB198">
+        <v>1.73</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.22</v>
+      </c>
+      <c r="AF198">
+        <v>3.65</v>
+      </c>
+      <c r="AG198">
+        <v>1.7</v>
+      </c>
+      <c r="AH198">
+        <v>2.05</v>
+      </c>
+      <c r="AI198">
+        <v>1.66</v>
+      </c>
+      <c r="AJ198">
+        <v>2.09</v>
+      </c>
+      <c r="AK198">
+        <v>1.8</v>
+      </c>
+      <c r="AL198">
+        <v>1.27</v>
+      </c>
+      <c r="AM198">
+        <v>1.27</v>
+      </c>
+      <c r="AN198">
+        <v>0.83</v>
+      </c>
+      <c r="AO198">
+        <v>1.58</v>
+      </c>
+      <c r="AP198">
+        <v>0.77</v>
+      </c>
+      <c r="AQ198">
+        <v>1.69</v>
+      </c>
+      <c r="AR198">
+        <v>1.14</v>
+      </c>
+      <c r="AS198">
+        <v>1.67</v>
+      </c>
+      <c r="AT198">
+        <v>2.81</v>
+      </c>
+      <c r="AU198">
+        <v>3</v>
+      </c>
+      <c r="AV198">
+        <v>7</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>10</v>
+      </c>
+      <c r="AY198">
+        <v>9</v>
+      </c>
+      <c r="AZ198">
+        <v>17</v>
+      </c>
+      <c r="BA198">
+        <v>6</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>12</v>
+      </c>
+      <c r="BD198">
+        <v>2.78</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>1.59</v>
+      </c>
+      <c r="BG198">
+        <v>1.14</v>
+      </c>
+      <c r="BH198">
+        <v>5.2</v>
+      </c>
+      <c r="BI198">
+        <v>1.22</v>
+      </c>
+      <c r="BJ198">
+        <v>3.65</v>
+      </c>
+      <c r="BK198">
+        <v>1.41</v>
+      </c>
+      <c r="BL198">
+        <v>2.6</v>
+      </c>
+      <c r="BM198">
+        <v>1.8</v>
+      </c>
+      <c r="BN198">
+        <v>2</v>
+      </c>
+      <c r="BO198">
+        <v>2.14</v>
+      </c>
+      <c r="BP198">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>6588988</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>85</v>
+      </c>
+      <c r="H199" t="s">
+        <v>83</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>225</v>
+      </c>
+      <c r="P199" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q199">
+        <v>3.88</v>
+      </c>
+      <c r="R199">
+        <v>2.51</v>
+      </c>
+      <c r="S199">
+        <v>2.5</v>
+      </c>
+      <c r="T199">
+        <v>1.27</v>
+      </c>
+      <c r="U199">
+        <v>3.45</v>
+      </c>
+      <c r="V199">
+        <v>2.32</v>
+      </c>
+      <c r="W199">
+        <v>1.61</v>
+      </c>
+      <c r="X199">
+        <v>4.95</v>
+      </c>
+      <c r="Y199">
+        <v>1.14</v>
+      </c>
+      <c r="Z199">
+        <v>3</v>
+      </c>
+      <c r="AA199">
+        <v>3.4</v>
+      </c>
+      <c r="AB199">
+        <v>2.1</v>
+      </c>
+      <c r="AC199">
+        <v>1.03</v>
+      </c>
+      <c r="AD199">
+        <v>11</v>
+      </c>
+      <c r="AE199">
+        <v>1.17</v>
+      </c>
+      <c r="AF199">
+        <v>4.75</v>
+      </c>
+      <c r="AG199">
+        <v>1.65</v>
+      </c>
+      <c r="AH199">
+        <v>2.15</v>
+      </c>
+      <c r="AI199">
+        <v>1.5</v>
+      </c>
+      <c r="AJ199">
+        <v>2.5</v>
+      </c>
+      <c r="AK199">
+        <v>1.75</v>
+      </c>
+      <c r="AL199">
+        <v>1.2</v>
+      </c>
+      <c r="AM199">
+        <v>1.33</v>
+      </c>
+      <c r="AN199">
+        <v>1.55</v>
+      </c>
+      <c r="AO199">
+        <v>2.08</v>
+      </c>
+      <c r="AP199">
+        <v>1.42</v>
+      </c>
+      <c r="AQ199">
+        <v>2.15</v>
+      </c>
+      <c r="AR199">
+        <v>1.56</v>
+      </c>
+      <c r="AS199">
+        <v>1.74</v>
+      </c>
+      <c r="AT199">
+        <v>3.3</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>6</v>
+      </c>
+      <c r="AW199">
+        <v>6</v>
+      </c>
+      <c r="AX199">
+        <v>8</v>
+      </c>
+      <c r="AY199">
+        <v>10</v>
+      </c>
+      <c r="AZ199">
+        <v>14</v>
+      </c>
+      <c r="BA199">
+        <v>2</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
+        <v>5</v>
+      </c>
+      <c r="BD199">
+        <v>2.28</v>
+      </c>
+      <c r="BE199">
+        <v>8.5</v>
+      </c>
+      <c r="BF199">
+        <v>1.82</v>
+      </c>
+      <c r="BG199">
+        <v>1.16</v>
+      </c>
+      <c r="BH199">
+        <v>4.8</v>
+      </c>
+      <c r="BI199">
+        <v>1.26</v>
+      </c>
+      <c r="BJ199">
+        <v>3.34</v>
+      </c>
+      <c r="BK199">
+        <v>1.52</v>
+      </c>
+      <c r="BL199">
+        <v>2.45</v>
+      </c>
+      <c r="BM199">
+        <v>1.98</v>
+      </c>
+      <c r="BN199">
+        <v>1.82</v>
+      </c>
+      <c r="BO199">
+        <v>2.29</v>
+      </c>
+      <c r="BP199">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>6588993</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s">
+        <v>75</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>226</v>
+      </c>
+      <c r="P200" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q200">
+        <v>1.57</v>
+      </c>
+      <c r="R200">
+        <v>2.75</v>
+      </c>
+      <c r="S200">
+        <v>10.5</v>
+      </c>
+      <c r="T200">
+        <v>1.25</v>
+      </c>
+      <c r="U200">
+        <v>3.75</v>
+      </c>
+      <c r="V200">
+        <v>2.3</v>
+      </c>
+      <c r="W200">
+        <v>1.58</v>
+      </c>
+      <c r="X200">
+        <v>4.75</v>
+      </c>
+      <c r="Y200">
+        <v>1.15</v>
+      </c>
+      <c r="Z200">
+        <v>1.14</v>
+      </c>
+      <c r="AA200">
+        <v>6.5</v>
+      </c>
+      <c r="AB200">
+        <v>15</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>21.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.17</v>
+      </c>
+      <c r="AF200">
+        <v>5.05</v>
+      </c>
+      <c r="AG200">
+        <v>1.53</v>
+      </c>
+      <c r="AH200">
+        <v>2.38</v>
+      </c>
+      <c r="AI200">
+        <v>2.25</v>
+      </c>
+      <c r="AJ200">
+        <v>1.57</v>
+      </c>
+      <c r="AK200">
+        <v>1.04</v>
+      </c>
+      <c r="AL200">
+        <v>1.1</v>
+      </c>
+      <c r="AM200">
+        <v>4.8</v>
+      </c>
+      <c r="AN200">
+        <v>2.58</v>
+      </c>
+      <c r="AO200">
+        <v>0.55</v>
+      </c>
+      <c r="AP200">
+        <v>2.62</v>
+      </c>
+      <c r="AQ200">
+        <v>0.5</v>
+      </c>
+      <c r="AR200">
+        <v>2.34</v>
+      </c>
+      <c r="AS200">
+        <v>1.43</v>
+      </c>
+      <c r="AT200">
+        <v>3.77</v>
+      </c>
+      <c r="AU200">
+        <v>8</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>13</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>1</v>
+      </c>
+      <c r="BB200">
+        <v>2</v>
+      </c>
+      <c r="BC200">
+        <v>3</v>
+      </c>
+      <c r="BD200">
+        <v>1.06</v>
+      </c>
+      <c r="BE200">
+        <v>15</v>
+      </c>
+      <c r="BF200">
+        <v>11.1</v>
+      </c>
+      <c r="BG200">
+        <v>1.16</v>
+      </c>
+      <c r="BH200">
+        <v>4.8</v>
+      </c>
+      <c r="BI200">
+        <v>1.22</v>
+      </c>
+      <c r="BJ200">
+        <v>3.64</v>
+      </c>
+      <c r="BK200">
+        <v>1.47</v>
+      </c>
+      <c r="BL200">
+        <v>2.59</v>
+      </c>
+      <c r="BM200">
+        <v>1.88</v>
+      </c>
+      <c r="BN200">
+        <v>1.92</v>
+      </c>
+      <c r="BO200">
+        <v>2.2</v>
+      </c>
+      <c r="BP200">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['15', '83', '90']</t>
   </si>
   <si>
+    <t>['16', '47']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -959,6 +962,9 @@
   </si>
   <si>
     <t>['20', '84']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,7 +1791,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2278,7 +2284,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2815,7 +2821,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ9">
         <v>1.08</v>
@@ -3433,7 +3439,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -4051,7 +4057,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4257,7 +4263,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4463,7 +4469,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4669,7 +4675,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4750,7 +4756,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4875,7 +4881,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -4953,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ18">
         <v>1.08</v>
@@ -5081,7 +5087,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5287,7 +5293,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5493,7 +5499,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5699,7 +5705,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6111,7 +6117,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6317,7 +6323,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6604,7 +6610,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6935,7 +6941,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7347,7 +7353,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7553,7 +7559,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7965,7 +7971,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8171,7 +8177,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8377,7 +8383,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8789,7 +8795,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9819,7 +9825,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -10025,7 +10031,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10437,7 +10443,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10518,7 +10524,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10643,7 +10649,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -11133,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11467,7 +11473,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -12291,7 +12297,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12497,7 +12503,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12703,7 +12709,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13527,7 +13533,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13608,7 +13614,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13939,7 +13945,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14145,7 +14151,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14429,7 +14435,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14557,7 +14563,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14763,7 +14769,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14969,7 +14975,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15381,7 +15387,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15793,7 +15799,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15999,7 +16005,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16205,7 +16211,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16617,7 +16623,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16823,7 +16829,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17107,7 +17113,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ77">
         <v>2.15</v>
@@ -17728,7 +17734,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18883,7 +18889,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19089,7 +19095,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19295,7 +19301,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19501,7 +19507,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19994,7 +20000,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR91">
         <v>1.63</v>
@@ -20609,7 +20615,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ94">
         <v>0.15</v>
@@ -20737,7 +20743,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21149,7 +21155,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22179,7 +22185,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22385,7 +22391,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22591,7 +22597,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -23003,7 +23009,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23290,7 +23296,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23415,7 +23421,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23699,7 +23705,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ109">
         <v>1.08</v>
@@ -23827,7 +23833,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24239,7 +24245,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24651,7 +24657,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24857,7 +24863,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25475,7 +25481,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25681,7 +25687,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25887,7 +25893,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26299,7 +26305,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27613,7 +27619,7 @@
         <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ128">
         <v>0.46</v>
@@ -27741,7 +27747,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27947,7 +27953,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28153,7 +28159,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28359,7 +28365,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28565,7 +28571,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28771,7 +28777,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29055,7 +29061,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ135">
         <v>0.85</v>
@@ -29183,7 +29189,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29801,7 +29807,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30007,7 +30013,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30088,7 +30094,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
@@ -30500,7 +30506,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30831,7 +30837,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -31449,7 +31455,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31655,7 +31661,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31939,7 +31945,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ149">
         <v>0.92</v>
@@ -32067,7 +32073,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32479,7 +32485,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32891,7 +32897,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33097,7 +33103,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33303,7 +33309,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33509,7 +33515,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33715,7 +33721,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33921,7 +33927,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34127,7 +34133,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34333,7 +34339,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34539,7 +34545,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34745,7 +34751,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -35032,7 +35038,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ164">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR164">
         <v>1.6</v>
@@ -35157,7 +35163,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35363,7 +35369,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35569,7 +35575,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35775,7 +35781,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35853,7 +35859,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ168">
         <v>0.5</v>
@@ -36393,7 +36399,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36599,7 +36605,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36805,7 +36811,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37629,7 +37635,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37835,7 +37841,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38041,7 +38047,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38328,7 +38334,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ180">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR180">
         <v>1.56</v>
@@ -38453,7 +38459,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38659,7 +38665,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39071,7 +39077,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39355,7 +39361,7 @@
         <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AQ185">
         <v>2.33</v>
@@ -40307,7 +40313,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40513,7 +40519,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41131,7 +41137,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41337,7 +41343,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41842,22 +41848,22 @@
         <v>2.68</v>
       </c>
       <c r="AU197">
+        <v>5</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>8</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+      <c r="AY197">
+        <v>13</v>
+      </c>
+      <c r="AZ197">
         <v>6</v>
-      </c>
-      <c r="AV197">
-        <v>4</v>
-      </c>
-      <c r="AW197">
-        <v>10</v>
-      </c>
-      <c r="AX197">
-        <v>0</v>
-      </c>
-      <c r="AY197">
-        <v>16</v>
-      </c>
-      <c r="AZ197">
-        <v>4</v>
       </c>
       <c r="BA197">
         <v>7</v>
@@ -41955,7 +41961,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42048,31 +42054,31 @@
         <v>2.81</v>
       </c>
       <c r="AU198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV198">
         <v>7</v>
       </c>
       <c r="AW198">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY198">
+        <v>12</v>
+      </c>
+      <c r="AZ198">
+        <v>19</v>
+      </c>
+      <c r="BA198">
+        <v>8</v>
+      </c>
+      <c r="BB198">
         <v>9</v>
       </c>
-      <c r="AZ198">
+      <c r="BC198">
         <v>17</v>
-      </c>
-      <c r="BA198">
-        <v>6</v>
-      </c>
-      <c r="BB198">
-        <v>6</v>
-      </c>
-      <c r="BC198">
-        <v>12</v>
       </c>
       <c r="BD198">
         <v>2.78</v>
@@ -42161,7 +42167,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42254,31 +42260,31 @@
         <v>3.3</v>
       </c>
       <c r="AU199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>7</v>
+      </c>
+      <c r="AX199">
         <v>6</v>
-      </c>
-      <c r="AW199">
-        <v>6</v>
-      </c>
-      <c r="AX199">
-        <v>8</v>
       </c>
       <c r="AY199">
         <v>10</v>
       </c>
       <c r="AZ199">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC199">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD199">
         <v>2.28</v>
@@ -42463,28 +42469,28 @@
         <v>8</v>
       </c>
       <c r="AV200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX200">
         <v>5</v>
       </c>
       <c r="AY200">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ200">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC200">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD200">
         <v>1.06</v>
@@ -42523,6 +42529,212 @@
         <v>2.2</v>
       </c>
       <c r="BP200">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>6588987</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>77</v>
+      </c>
+      <c r="H201" t="s">
+        <v>84</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>227</v>
+      </c>
+      <c r="P201" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q201">
+        <v>1.6</v>
+      </c>
+      <c r="R201">
+        <v>2.75</v>
+      </c>
+      <c r="S201">
+        <v>8</v>
+      </c>
+      <c r="T201">
+        <v>1.24</v>
+      </c>
+      <c r="U201">
+        <v>3.7</v>
+      </c>
+      <c r="V201">
+        <v>2.19</v>
+      </c>
+      <c r="W201">
+        <v>1.61</v>
+      </c>
+      <c r="X201">
+        <v>4.95</v>
+      </c>
+      <c r="Y201">
+        <v>1.14</v>
+      </c>
+      <c r="Z201">
+        <v>1.22</v>
+      </c>
+      <c r="AA201">
+        <v>6.5</v>
+      </c>
+      <c r="AB201">
+        <v>11</v>
+      </c>
+      <c r="AC201">
+        <v>1.02</v>
+      </c>
+      <c r="AD201">
+        <v>12</v>
+      </c>
+      <c r="AE201">
+        <v>1.16</v>
+      </c>
+      <c r="AF201">
+        <v>4.75</v>
+      </c>
+      <c r="AG201">
+        <v>1.53</v>
+      </c>
+      <c r="AH201">
+        <v>2.35</v>
+      </c>
+      <c r="AI201">
+        <v>2.05</v>
+      </c>
+      <c r="AJ201">
+        <v>1.72</v>
+      </c>
+      <c r="AK201">
+        <v>1.02</v>
+      </c>
+      <c r="AL201">
+        <v>1.07</v>
+      </c>
+      <c r="AM201">
+        <v>4</v>
+      </c>
+      <c r="AN201">
+        <v>2.83</v>
+      </c>
+      <c r="AO201">
+        <v>0.67</v>
+      </c>
+      <c r="AP201">
+        <v>2.85</v>
+      </c>
+      <c r="AQ201">
+        <v>0.62</v>
+      </c>
+      <c r="AR201">
+        <v>1.93</v>
+      </c>
+      <c r="AS201">
+        <v>1.38</v>
+      </c>
+      <c r="AT201">
+        <v>3.31</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>8</v>
+      </c>
+      <c r="AW201">
+        <v>5</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>9</v>
+      </c>
+      <c r="AZ201">
+        <v>10</v>
+      </c>
+      <c r="BA201">
+        <v>6</v>
+      </c>
+      <c r="BB201">
+        <v>6</v>
+      </c>
+      <c r="BC201">
+        <v>12</v>
+      </c>
+      <c r="BD201">
+        <v>1.23</v>
+      </c>
+      <c r="BE201">
+        <v>11</v>
+      </c>
+      <c r="BF201">
+        <v>4.89</v>
+      </c>
+      <c r="BG201">
+        <v>1.14</v>
+      </c>
+      <c r="BH201">
+        <v>5.2</v>
+      </c>
+      <c r="BI201">
+        <v>1.25</v>
+      </c>
+      <c r="BJ201">
+        <v>3.42</v>
+      </c>
+      <c r="BK201">
+        <v>1.46</v>
+      </c>
+      <c r="BL201">
+        <v>2.45</v>
+      </c>
+      <c r="BM201">
+        <v>2</v>
+      </c>
+      <c r="BN201">
+        <v>1.8</v>
+      </c>
+      <c r="BO201">
+        <v>2.2</v>
+      </c>
+      <c r="BP201">
         <v>1.65</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -42672,22 +42672,22 @@
         <v>3.31</v>
       </c>
       <c r="AU201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV201">
         <v>8</v>
       </c>
       <c r="AW201">
+        <v>6</v>
+      </c>
+      <c r="AX201">
         <v>5</v>
       </c>
-      <c r="AX201">
-        <v>2</v>
-      </c>
       <c r="AY201">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ201">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA201">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['16', '47']</t>
   </si>
   <si>
+    <t>['22', '40']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -965,6 +968,12 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['32', '90+1']</t>
+  </si>
+  <si>
+    <t>['63', '69', '79']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,7 +1800,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2490,7 +2499,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ6">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2821,7 +2830,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3311,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3439,7 +3448,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3726,7 +3735,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ12">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4057,7 +4066,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4138,7 +4147,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR14">
         <v>1.39</v>
@@ -4263,7 +4272,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4341,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ15">
         <v>0.92</v>
@@ -4469,7 +4478,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4675,7 +4684,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4753,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.62</v>
@@ -4881,7 +4890,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -4962,7 +4971,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ18">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR18">
         <v>2.28</v>
@@ -5087,7 +5096,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5293,7 +5302,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5499,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5705,7 +5714,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5783,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.69</v>
@@ -5992,7 +6001,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR23">
         <v>0.8</v>
@@ -6117,7 +6126,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6323,7 +6332,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6816,7 +6825,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27">
         <v>0.7</v>
@@ -6941,7 +6950,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7353,7 +7362,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7559,7 +7568,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7637,7 +7646,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ31">
         <v>0.92</v>
@@ -7843,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7971,7 +7980,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8177,7 +8186,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8258,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR34">
         <v>1.94</v>
@@ -8383,7 +8392,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8670,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8795,7 +8804,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9491,7 +9500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.08</v>
@@ -9825,7 +9834,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -10031,7 +10040,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10443,7 +10452,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10521,7 +10530,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ45">
         <v>0.62</v>
@@ -10649,7 +10658,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10933,10 +10942,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11473,7 +11482,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11554,7 +11563,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11760,7 +11769,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ51">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR51">
         <v>1.07</v>
@@ -12169,7 +12178,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.08</v>
@@ -12297,7 +12306,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12503,7 +12512,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12709,7 +12718,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13199,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58">
         <v>1.69</v>
@@ -13405,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59">
         <v>0.15</v>
@@ -13533,7 +13542,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13945,7 +13954,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14151,7 +14160,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14232,7 +14241,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14563,7 +14572,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14769,7 +14778,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14975,7 +14984,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15387,7 +15396,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15465,7 +15474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ69">
         <v>1.08</v>
@@ -15674,7 +15683,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ70">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15799,7 +15808,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15877,10 +15886,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16005,7 +16014,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16211,7 +16220,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16292,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73">
         <v>1.65</v>
@@ -16623,7 +16632,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16829,7 +16838,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -16907,7 +16916,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ76">
         <v>1.69</v>
@@ -17937,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ81">
         <v>0.46</v>
@@ -18555,7 +18564,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ84">
         <v>1.08</v>
@@ -18764,7 +18773,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR85">
         <v>1.98</v>
@@ -18889,7 +18898,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19095,7 +19104,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19301,7 +19310,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19379,10 +19388,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR88">
         <v>1.83</v>
@@ -19507,7 +19516,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20743,7 +20752,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21155,7 +21164,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21236,7 +21245,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21648,7 +21657,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -21851,7 +21860,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100">
         <v>0.46</v>
@@ -22060,7 +22069,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR101">
         <v>2.05</v>
@@ -22185,7 +22194,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22263,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.5</v>
@@ -22391,7 +22400,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22597,7 +22606,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22675,7 +22684,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>2.33</v>
@@ -23009,7 +23018,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23421,7 +23430,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23833,7 +23842,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24245,7 +24254,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24532,7 +24541,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ113">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR113">
         <v>1.43</v>
@@ -24657,7 +24666,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24863,7 +24872,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -24944,7 +24953,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ115">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25150,7 +25159,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25353,7 +25362,7 @@
         <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25481,7 +25490,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25559,7 +25568,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -25687,7 +25696,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25893,7 +25902,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -25971,7 +25980,7 @@
         <v>2.43</v>
       </c>
       <c r="AP120">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ120">
         <v>2.33</v>
@@ -26305,7 +26314,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27416,7 +27425,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ127">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27747,7 +27756,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27825,7 +27834,7 @@
         <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27953,7 +27962,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28159,7 +28168,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28365,7 +28374,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28571,7 +28580,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28777,7 +28786,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29064,7 +29073,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ135">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR135">
         <v>2.09</v>
@@ -29189,7 +29198,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29473,7 +29482,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>0.15</v>
@@ -29807,7 +29816,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30013,7 +30022,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30297,10 +30306,10 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR141">
         <v>1.72</v>
@@ -30712,7 +30721,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR143">
         <v>1.25</v>
@@ -30837,7 +30846,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -31327,7 +31336,7 @@
         <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ146">
         <v>0.15</v>
@@ -31455,7 +31464,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31661,7 +31670,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31739,7 +31748,7 @@
         <v>1.63</v>
       </c>
       <c r="AP148">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ148">
         <v>2.15</v>
@@ -32073,7 +32082,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32154,7 +32163,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ150">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32485,7 +32494,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32897,7 +32906,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -32975,7 +32984,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1.08</v>
@@ -33103,7 +33112,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33309,7 +33318,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33515,7 +33524,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33596,7 +33605,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ157">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
         <v>2.18</v>
@@ -33721,7 +33730,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33927,7 +33936,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34008,7 +34017,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34133,7 +34142,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34339,7 +34348,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34545,7 +34554,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34751,7 +34760,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -35035,7 +35044,7 @@
         <v>0.6</v>
       </c>
       <c r="AP164">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ164">
         <v>0.62</v>
@@ -35163,7 +35172,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35241,7 +35250,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ165">
         <v>2.15</v>
@@ -35369,7 +35378,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35575,7 +35584,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35781,7 +35790,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35862,7 +35871,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ168">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR168">
         <v>2.01</v>
@@ -36399,7 +36408,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36605,7 +36614,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36811,7 +36820,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36892,7 +36901,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -37095,7 +37104,7 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
         <v>0.46</v>
@@ -37510,7 +37519,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ176">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR176">
         <v>2.25</v>
@@ -37635,7 +37644,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37841,7 +37850,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38047,7 +38056,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38125,7 +38134,7 @@
         <v>1.09</v>
       </c>
       <c r="AP179">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ179">
         <v>1.08</v>
@@ -38459,7 +38468,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38665,7 +38674,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38952,7 +38961,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183">
         <v>1.39</v>
@@ -39077,7 +39086,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39567,7 +39576,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ186">
         <v>1.08</v>
@@ -39776,7 +39785,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ187">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -39982,7 +39991,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ188">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR188">
         <v>1.75</v>
@@ -40313,7 +40322,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40519,7 +40528,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41009,7 +41018,7 @@
         <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
         <v>2.17</v>
@@ -41137,7 +41146,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41343,7 +41352,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41961,7 +41970,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42167,7 +42176,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42454,7 +42463,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ200">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42579,7 +42588,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42736,6 +42745,624 @@
       </c>
       <c r="BP201">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>6588996</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>78</v>
+      </c>
+      <c r="H202" t="s">
+        <v>70</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>86</v>
+      </c>
+      <c r="P202" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q202">
+        <v>2.11</v>
+      </c>
+      <c r="R202">
+        <v>2.27</v>
+      </c>
+      <c r="S202">
+        <v>5.25</v>
+      </c>
+      <c r="T202">
+        <v>1.35</v>
+      </c>
+      <c r="U202">
+        <v>3.04</v>
+      </c>
+      <c r="V202">
+        <v>2.6</v>
+      </c>
+      <c r="W202">
+        <v>1.46</v>
+      </c>
+      <c r="X202">
+        <v>6.35</v>
+      </c>
+      <c r="Y202">
+        <v>1.1</v>
+      </c>
+      <c r="Z202">
+        <v>1.59</v>
+      </c>
+      <c r="AA202">
+        <v>3.8</v>
+      </c>
+      <c r="AB202">
+        <v>4.4</v>
+      </c>
+      <c r="AC202">
+        <v>1.01</v>
+      </c>
+      <c r="AD202">
+        <v>10.25</v>
+      </c>
+      <c r="AE202">
+        <v>1.22</v>
+      </c>
+      <c r="AF202">
+        <v>3.65</v>
+      </c>
+      <c r="AG202">
+        <v>1.82</v>
+      </c>
+      <c r="AH202">
+        <v>1.98</v>
+      </c>
+      <c r="AI202">
+        <v>1.8</v>
+      </c>
+      <c r="AJ202">
+        <v>1.9</v>
+      </c>
+      <c r="AK202">
+        <v>1.14</v>
+      </c>
+      <c r="AL202">
+        <v>1.22</v>
+      </c>
+      <c r="AM202">
+        <v>2.3</v>
+      </c>
+      <c r="AN202">
+        <v>1.58</v>
+      </c>
+      <c r="AO202">
+        <v>1.08</v>
+      </c>
+      <c r="AP202">
+        <v>1.46</v>
+      </c>
+      <c r="AQ202">
+        <v>1.23</v>
+      </c>
+      <c r="AR202">
+        <v>1.54</v>
+      </c>
+      <c r="AS202">
+        <v>1.19</v>
+      </c>
+      <c r="AT202">
+        <v>2.73</v>
+      </c>
+      <c r="AU202">
+        <v>6</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>7</v>
+      </c>
+      <c r="AY202">
+        <v>15</v>
+      </c>
+      <c r="AZ202">
+        <v>11</v>
+      </c>
+      <c r="BA202">
+        <v>9</v>
+      </c>
+      <c r="BB202">
+        <v>7</v>
+      </c>
+      <c r="BC202">
+        <v>16</v>
+      </c>
+      <c r="BD202">
+        <v>1.5</v>
+      </c>
+      <c r="BE202">
+        <v>8</v>
+      </c>
+      <c r="BF202">
+        <v>3.34</v>
+      </c>
+      <c r="BG202">
+        <v>1.11</v>
+      </c>
+      <c r="BH202">
+        <v>5.9</v>
+      </c>
+      <c r="BI202">
+        <v>1.23</v>
+      </c>
+      <c r="BJ202">
+        <v>3.9</v>
+      </c>
+      <c r="BK202">
+        <v>1.41</v>
+      </c>
+      <c r="BL202">
+        <v>2.8</v>
+      </c>
+      <c r="BM202">
+        <v>1.88</v>
+      </c>
+      <c r="BN202">
+        <v>1.92</v>
+      </c>
+      <c r="BO202">
+        <v>2.05</v>
+      </c>
+      <c r="BP202">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>6588997</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>81</v>
+      </c>
+      <c r="H203" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>228</v>
+      </c>
+      <c r="P203" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q203">
+        <v>2.7</v>
+      </c>
+      <c r="R203">
+        <v>2.15</v>
+      </c>
+      <c r="S203">
+        <v>3.6</v>
+      </c>
+      <c r="T203">
+        <v>1.37</v>
+      </c>
+      <c r="U203">
+        <v>2.85</v>
+      </c>
+      <c r="V203">
+        <v>2.7</v>
+      </c>
+      <c r="W203">
+        <v>1.41</v>
+      </c>
+      <c r="X203">
+        <v>6.45</v>
+      </c>
+      <c r="Y203">
+        <v>1.09</v>
+      </c>
+      <c r="Z203">
+        <v>2.07</v>
+      </c>
+      <c r="AA203">
+        <v>3.35</v>
+      </c>
+      <c r="AB203">
+        <v>2.95</v>
+      </c>
+      <c r="AC203">
+        <v>1.05</v>
+      </c>
+      <c r="AD203">
+        <v>9</v>
+      </c>
+      <c r="AE203">
+        <v>1.28</v>
+      </c>
+      <c r="AF203">
+        <v>3.5</v>
+      </c>
+      <c r="AG203">
+        <v>1.88</v>
+      </c>
+      <c r="AH203">
+        <v>1.92</v>
+      </c>
+      <c r="AI203">
+        <v>1.7</v>
+      </c>
+      <c r="AJ203">
+        <v>2.1</v>
+      </c>
+      <c r="AK203">
+        <v>1.33</v>
+      </c>
+      <c r="AL203">
+        <v>1.25</v>
+      </c>
+      <c r="AM203">
+        <v>1.72</v>
+      </c>
+      <c r="AN203">
+        <v>1.17</v>
+      </c>
+      <c r="AO203">
+        <v>0.85</v>
+      </c>
+      <c r="AP203">
+        <v>1.31</v>
+      </c>
+      <c r="AQ203">
+        <v>0.79</v>
+      </c>
+      <c r="AR203">
+        <v>1.63</v>
+      </c>
+      <c r="AS203">
+        <v>1.35</v>
+      </c>
+      <c r="AT203">
+        <v>2.98</v>
+      </c>
+      <c r="AU203">
+        <v>8</v>
+      </c>
+      <c r="AV203">
+        <v>3</v>
+      </c>
+      <c r="AW203">
+        <v>7</v>
+      </c>
+      <c r="AX203">
+        <v>5</v>
+      </c>
+      <c r="AY203">
+        <v>15</v>
+      </c>
+      <c r="AZ203">
+        <v>8</v>
+      </c>
+      <c r="BA203">
+        <v>6</v>
+      </c>
+      <c r="BB203">
+        <v>4</v>
+      </c>
+      <c r="BC203">
+        <v>10</v>
+      </c>
+      <c r="BD203">
+        <v>1.6</v>
+      </c>
+      <c r="BE203">
+        <v>9.6</v>
+      </c>
+      <c r="BF203">
+        <v>2.66</v>
+      </c>
+      <c r="BG203">
+        <v>1.17</v>
+      </c>
+      <c r="BH203">
+        <v>4.7</v>
+      </c>
+      <c r="BI203">
+        <v>1.32</v>
+      </c>
+      <c r="BJ203">
+        <v>3.2</v>
+      </c>
+      <c r="BK203">
+        <v>1.52</v>
+      </c>
+      <c r="BL203">
+        <v>2.45</v>
+      </c>
+      <c r="BM203">
+        <v>2</v>
+      </c>
+      <c r="BN203">
+        <v>1.8</v>
+      </c>
+      <c r="BO203">
+        <v>2.33</v>
+      </c>
+      <c r="BP203">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>6589001</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>83</v>
+      </c>
+      <c r="H204" t="s">
+        <v>75</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>200</v>
+      </c>
+      <c r="P204" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q204">
+        <v>1.79</v>
+      </c>
+      <c r="R204">
+        <v>2.51</v>
+      </c>
+      <c r="S204">
+        <v>6.75</v>
+      </c>
+      <c r="T204">
+        <v>1.29</v>
+      </c>
+      <c r="U204">
+        <v>3.4</v>
+      </c>
+      <c r="V204">
+        <v>2.36</v>
+      </c>
+      <c r="W204">
+        <v>1.55</v>
+      </c>
+      <c r="X204">
+        <v>5.45</v>
+      </c>
+      <c r="Y204">
+        <v>1.13</v>
+      </c>
+      <c r="Z204">
+        <v>1.33</v>
+      </c>
+      <c r="AA204">
+        <v>4.65</v>
+      </c>
+      <c r="AB204">
+        <v>6.5</v>
+      </c>
+      <c r="AC204">
+        <v>1.02</v>
+      </c>
+      <c r="AD204">
+        <v>10</v>
+      </c>
+      <c r="AE204">
+        <v>1.16</v>
+      </c>
+      <c r="AF204">
+        <v>4.3</v>
+      </c>
+      <c r="AG204">
+        <v>1.6</v>
+      </c>
+      <c r="AH204">
+        <v>2.28</v>
+      </c>
+      <c r="AI204">
+        <v>1.86</v>
+      </c>
+      <c r="AJ204">
+        <v>1.84</v>
+      </c>
+      <c r="AK204">
+        <v>1.06</v>
+      </c>
+      <c r="AL204">
+        <v>1.15</v>
+      </c>
+      <c r="AM204">
+        <v>3.05</v>
+      </c>
+      <c r="AN204">
+        <v>2.17</v>
+      </c>
+      <c r="AO204">
+        <v>0.5</v>
+      </c>
+      <c r="AP204">
+        <v>2</v>
+      </c>
+      <c r="AQ204">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR204">
+        <v>1.92</v>
+      </c>
+      <c r="AS204">
+        <v>1.43</v>
+      </c>
+      <c r="AT204">
+        <v>3.35</v>
+      </c>
+      <c r="AU204">
+        <v>8</v>
+      </c>
+      <c r="AV204">
+        <v>8</v>
+      </c>
+      <c r="AW204">
+        <v>5</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>13</v>
+      </c>
+      <c r="AZ204">
+        <v>12</v>
+      </c>
+      <c r="BA204">
+        <v>7</v>
+      </c>
+      <c r="BB204">
+        <v>5</v>
+      </c>
+      <c r="BC204">
+        <v>12</v>
+      </c>
+      <c r="BD204">
+        <v>1.24</v>
+      </c>
+      <c r="BE204">
+        <v>9.6</v>
+      </c>
+      <c r="BF204">
+        <v>5.57</v>
+      </c>
+      <c r="BG204">
+        <v>1.18</v>
+      </c>
+      <c r="BH204">
+        <v>4.33</v>
+      </c>
+      <c r="BI204">
+        <v>1.29</v>
+      </c>
+      <c r="BJ204">
+        <v>3.7</v>
+      </c>
+      <c r="BK204">
+        <v>1.5</v>
+      </c>
+      <c r="BL204">
+        <v>2.65</v>
+      </c>
+      <c r="BM204">
+        <v>2</v>
+      </c>
+      <c r="BN204">
+        <v>1.8</v>
+      </c>
+      <c r="BO204">
+        <v>2.16</v>
+      </c>
+      <c r="BP204">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,18 @@
     <t>['22', '40']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['11', '15', '90+5']</t>
+  </si>
+  <si>
+    <t>['25', '65']</t>
+  </si>
+  <si>
+    <t>['6', '22', '51', '88']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -974,6 +986,12 @@
   </si>
   <si>
     <t>['63', '69', '79']</t>
+  </si>
+  <si>
+    <t>['29', '44', '56']</t>
+  </si>
+  <si>
+    <t>['39', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1800,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -1881,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2496,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -2830,7 +2848,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -2908,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0.15</v>
@@ -3323,7 +3341,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3448,7 +3466,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3529,7 +3547,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3938,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4066,7 +4084,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4144,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>0.6899999999999999</v>
@@ -4272,7 +4290,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4353,7 +4371,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4478,7 +4496,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4556,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4684,7 +4702,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4890,7 +4908,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5096,7 +5114,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5302,7 +5320,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5380,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.08</v>
@@ -5508,7 +5526,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5586,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
         <v>0.15</v>
@@ -5714,7 +5732,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6126,7 +6144,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6332,7 +6350,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6413,7 +6431,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ25">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6616,7 +6634,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.62</v>
@@ -6950,7 +6968,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7031,7 +7049,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7237,7 +7255,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7362,7 +7380,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7440,10 +7458,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7568,7 +7586,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7649,7 +7667,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ31">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7980,7 +7998,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8058,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ33">
         <v>2.15</v>
@@ -8186,7 +8204,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8392,7 +8410,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8470,7 +8488,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.08</v>
@@ -8804,7 +8822,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8885,7 +8903,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR37">
         <v>0.96</v>
@@ -9088,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ38">
         <v>1.08</v>
@@ -9294,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ39">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR39">
         <v>1.69</v>
@@ -9834,7 +9852,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9915,7 +9933,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR42">
         <v>1.31</v>
@@ -10040,7 +10058,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10324,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.15</v>
@@ -10452,7 +10470,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10658,7 +10676,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10739,7 +10757,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -11151,7 +11169,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR48">
         <v>2.51</v>
@@ -11354,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR49">
         <v>1.29</v>
@@ -11482,7 +11500,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11560,7 +11578,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ50">
         <v>0.79</v>
@@ -11972,7 +11990,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.08</v>
@@ -12306,7 +12324,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12387,7 +12405,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12512,7 +12530,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12593,7 +12611,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12718,7 +12736,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12796,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ56">
         <v>1.08</v>
@@ -13005,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13542,7 +13560,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13620,7 +13638,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>0.62</v>
@@ -13829,7 +13847,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13954,7 +13972,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14160,7 +14178,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14572,7 +14590,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14650,7 +14668,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ65">
         <v>1.08</v>
@@ -14778,7 +14796,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14856,10 +14874,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14984,7 +15002,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15065,7 +15083,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15268,10 +15286,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15396,7 +15414,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15680,7 +15698,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ70">
         <v>0.79</v>
@@ -15808,7 +15826,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16014,7 +16032,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16095,7 +16113,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR72">
         <v>2.54</v>
@@ -16220,7 +16238,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16632,7 +16650,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16838,7 +16856,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17331,7 +17349,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ78">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -17534,7 +17552,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -17949,7 +17967,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ81">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR81">
         <v>1.81</v>
@@ -18152,10 +18170,10 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR82">
         <v>1.56</v>
@@ -18358,10 +18376,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18770,7 +18788,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85">
         <v>1.23</v>
@@ -18898,7 +18916,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -18976,10 +18994,10 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ86">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19104,7 +19122,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19185,7 +19203,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR87">
         <v>1.63</v>
@@ -19310,7 +19328,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19516,7 +19534,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20752,7 +20770,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21164,7 +21182,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21242,7 +21260,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.6899999999999999</v>
@@ -21448,10 +21466,10 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -21654,7 +21672,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ99">
         <v>1.23</v>
@@ -21863,7 +21881,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ100">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22066,7 +22084,7 @@
         <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.79</v>
@@ -22194,7 +22212,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22275,7 +22293,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22400,7 +22418,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22478,10 +22496,10 @@
         <v>2.33</v>
       </c>
       <c r="AP103">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ103">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22606,7 +22624,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22687,7 +22705,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR104">
         <v>1.81</v>
@@ -23018,7 +23036,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23302,7 +23320,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>0.62</v>
@@ -23430,7 +23448,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23511,7 +23529,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ108">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR108">
         <v>1.26</v>
@@ -23842,7 +23860,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24254,7 +24272,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24538,7 +24556,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24666,7 +24684,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24744,10 +24762,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ114">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24872,7 +24890,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25156,7 +25174,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25365,7 +25383,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25490,7 +25508,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25696,7 +25714,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25774,10 +25792,10 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR119">
         <v>2.07</v>
@@ -25902,7 +25920,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -25983,7 +26001,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ120">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26314,7 +26332,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26804,7 +26822,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ124">
         <v>2.15</v>
@@ -27216,7 +27234,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
         <v>1.69</v>
@@ -27631,7 +27649,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ128">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR128">
         <v>2.1</v>
@@ -27756,7 +27774,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27962,7 +27980,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28043,7 +28061,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ130">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR130">
         <v>1.25</v>
@@ -28168,7 +28186,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28246,7 +28264,7 @@
         <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ131">
         <v>2.15</v>
@@ -28374,7 +28392,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28455,7 +28473,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ132">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28580,7 +28598,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28661,7 +28679,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR133">
         <v>1.67</v>
@@ -28786,7 +28804,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -28864,7 +28882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>1.08</v>
@@ -29198,7 +29216,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29276,7 +29294,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ136">
         <v>1.69</v>
@@ -29816,7 +29834,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29894,10 +29912,10 @@
         <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30022,7 +30040,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30100,7 +30118,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ140">
         <v>0.62</v>
@@ -30846,7 +30864,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -30924,7 +30942,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -31133,7 +31151,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ145">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR145">
         <v>1.47</v>
@@ -31464,7 +31482,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31542,10 +31560,10 @@
         <v>2.5</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR147">
         <v>2.08</v>
@@ -31670,7 +31688,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31957,7 +31975,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ149">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR149">
         <v>2.03</v>
@@ -32082,7 +32100,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32160,7 +32178,7 @@
         <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.23</v>
@@ -32494,7 +32512,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32575,7 +32593,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR152">
         <v>1.74</v>
@@ -32778,7 +32796,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ153">
         <v>1.69</v>
@@ -32906,7 +32924,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33112,7 +33130,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33193,7 +33211,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ155">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR155">
         <v>1.16</v>
@@ -33318,7 +33336,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33396,7 +33414,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156">
         <v>1.08</v>
@@ -33524,7 +33542,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33730,7 +33748,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33808,7 +33826,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ158">
         <v>2.15</v>
@@ -33936,7 +33954,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34142,7 +34160,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34223,7 +34241,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ160">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34348,7 +34366,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34426,7 +34444,7 @@
         <v>1.3</v>
       </c>
       <c r="AP161">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ161">
         <v>1.69</v>
@@ -34554,7 +34572,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34760,7 +34778,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -34841,7 +34859,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ163">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR163">
         <v>1.21</v>
@@ -35172,7 +35190,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35378,7 +35396,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35584,7 +35602,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35665,7 +35683,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR167">
         <v>1.63</v>
@@ -35790,7 +35808,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36280,7 +36298,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ170">
         <v>1.08</v>
@@ -36408,7 +36426,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36486,7 +36504,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>1.08</v>
@@ -36614,7 +36632,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36695,7 +36713,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ172">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -36820,7 +36838,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37107,7 +37125,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR174">
         <v>1.87</v>
@@ -37310,7 +37328,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ175">
         <v>1.08</v>
@@ -37644,7 +37662,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37722,10 +37740,10 @@
         <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37850,7 +37868,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38056,7 +38074,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38468,7 +38486,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38546,7 +38564,7 @@
         <v>0.18</v>
       </c>
       <c r="AP181">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181">
         <v>0.15</v>
@@ -38674,7 +38692,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39086,7 +39104,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39373,7 +39391,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ185">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR185">
         <v>2.02</v>
@@ -39782,7 +39800,7 @@
         <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ187">
         <v>1.23</v>
@@ -39988,7 +40006,7 @@
         <v>0.67</v>
       </c>
       <c r="AP188">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>0.79</v>
@@ -40197,7 +40215,7 @@
         <v>2</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -40322,7 +40340,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40400,7 +40418,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ190">
         <v>1.08</v>
@@ -40528,7 +40546,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40606,10 +40624,10 @@
         <v>0.42</v>
       </c>
       <c r="AP191">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ191">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR191">
         <v>1.4</v>
@@ -40815,7 +40833,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ192">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR192">
         <v>2.37</v>
@@ -41021,7 +41039,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR193">
         <v>1.9</v>
@@ -41146,7 +41164,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41352,7 +41370,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41430,7 +41448,7 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ195">
         <v>1.08</v>
@@ -41970,7 +41988,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42176,7 +42194,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42588,7 +42606,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42794,7 +42812,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>2.11</v>
@@ -42890,28 +42908,28 @@
         <v>6</v>
       </c>
       <c r="AV202">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW202">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY202">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ202">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA202">
         <v>9</v>
       </c>
       <c r="BB202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC202">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD202">
         <v>1.5</v>
@@ -43093,22 +43111,22 @@
         <v>2.98</v>
       </c>
       <c r="AU203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>2</v>
+      </c>
+      <c r="AX203">
         <v>3</v>
       </c>
-      <c r="AW203">
+      <c r="AY203">
+        <v>9</v>
+      </c>
+      <c r="AZ203">
         <v>7</v>
-      </c>
-      <c r="AX203">
-        <v>5</v>
-      </c>
-      <c r="AY203">
-        <v>15</v>
-      </c>
-      <c r="AZ203">
-        <v>8</v>
       </c>
       <c r="BA203">
         <v>6</v>
@@ -43206,7 +43224,7 @@
         <v>200</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>1.79</v>
@@ -43299,22 +43317,22 @@
         <v>3.35</v>
       </c>
       <c r="AU204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX204">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY204">
         <v>13</v>
       </c>
       <c r="AZ204">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA204">
         <v>7</v>
@@ -43362,6 +43380,1036 @@
         <v>2.16</v>
       </c>
       <c r="BP204">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>6589002</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s">
+        <v>73</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>229</v>
+      </c>
+      <c r="P205" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q205">
+        <v>5.3</v>
+      </c>
+      <c r="R205">
+        <v>2.1</v>
+      </c>
+      <c r="S205">
+        <v>2.27</v>
+      </c>
+      <c r="T205">
+        <v>1.43</v>
+      </c>
+      <c r="U205">
+        <v>2.7</v>
+      </c>
+      <c r="V205">
+        <v>2.99</v>
+      </c>
+      <c r="W205">
+        <v>1.36</v>
+      </c>
+      <c r="X205">
+        <v>7.8</v>
+      </c>
+      <c r="Y205">
+        <v>1.06</v>
+      </c>
+      <c r="Z205">
+        <v>3.6</v>
+      </c>
+      <c r="AA205">
+        <v>3.4</v>
+      </c>
+      <c r="AB205">
+        <v>1.82</v>
+      </c>
+      <c r="AC205">
+        <v>1.03</v>
+      </c>
+      <c r="AD205">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE205">
+        <v>1.32</v>
+      </c>
+      <c r="AF205">
+        <v>2.98</v>
+      </c>
+      <c r="AG205">
+        <v>2</v>
+      </c>
+      <c r="AH205">
+        <v>1.7</v>
+      </c>
+      <c r="AI205">
+        <v>1.96</v>
+      </c>
+      <c r="AJ205">
+        <v>1.75</v>
+      </c>
+      <c r="AK205">
+        <v>2.07</v>
+      </c>
+      <c r="AL205">
+        <v>1.27</v>
+      </c>
+      <c r="AM205">
+        <v>1.16</v>
+      </c>
+      <c r="AN205">
+        <v>1.62</v>
+      </c>
+      <c r="AO205">
+        <v>2.33</v>
+      </c>
+      <c r="AP205">
+        <v>1.5</v>
+      </c>
+      <c r="AQ205">
+        <v>2.38</v>
+      </c>
+      <c r="AR205">
+        <v>1.72</v>
+      </c>
+      <c r="AS205">
+        <v>1.79</v>
+      </c>
+      <c r="AT205">
+        <v>3.51</v>
+      </c>
+      <c r="AU205">
+        <v>4</v>
+      </c>
+      <c r="AV205">
+        <v>3</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>4</v>
+      </c>
+      <c r="AY205">
+        <v>7</v>
+      </c>
+      <c r="AZ205">
+        <v>7</v>
+      </c>
+      <c r="BA205">
+        <v>4</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>9</v>
+      </c>
+      <c r="BD205">
+        <v>3.4</v>
+      </c>
+      <c r="BE205">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF205">
+        <v>1.41</v>
+      </c>
+      <c r="BG205">
+        <v>1.22</v>
+      </c>
+      <c r="BH205">
+        <v>4</v>
+      </c>
+      <c r="BI205">
+        <v>1.4</v>
+      </c>
+      <c r="BJ205">
+        <v>2.7</v>
+      </c>
+      <c r="BK205">
+        <v>1.71</v>
+      </c>
+      <c r="BL205">
+        <v>2.09</v>
+      </c>
+      <c r="BM205">
+        <v>2.12</v>
+      </c>
+      <c r="BN205">
+        <v>1.69</v>
+      </c>
+      <c r="BO205">
+        <v>2.6</v>
+      </c>
+      <c r="BP205">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>6588995</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45382.41666666666</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>74</v>
+      </c>
+      <c r="H206" t="s">
+        <v>79</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>5</v>
+      </c>
+      <c r="O206" t="s">
+        <v>230</v>
+      </c>
+      <c r="P206" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>2.4</v>
+      </c>
+      <c r="S206">
+        <v>6</v>
+      </c>
+      <c r="T206">
+        <v>1.3</v>
+      </c>
+      <c r="U206">
+        <v>3.4</v>
+      </c>
+      <c r="V206">
+        <v>2.5</v>
+      </c>
+      <c r="W206">
+        <v>1.5</v>
+      </c>
+      <c r="X206">
+        <v>6</v>
+      </c>
+      <c r="Y206">
+        <v>1.13</v>
+      </c>
+      <c r="Z206">
+        <v>1.6</v>
+      </c>
+      <c r="AA206">
+        <v>3.9</v>
+      </c>
+      <c r="AB206">
+        <v>4.9</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>16.75</v>
+      </c>
+      <c r="AE206">
+        <v>1.2</v>
+      </c>
+      <c r="AF206">
+        <v>4.2</v>
+      </c>
+      <c r="AG206">
+        <v>1.74</v>
+      </c>
+      <c r="AH206">
+        <v>2.04</v>
+      </c>
+      <c r="AI206">
+        <v>1.8</v>
+      </c>
+      <c r="AJ206">
+        <v>1.95</v>
+      </c>
+      <c r="AK206">
+        <v>1.07</v>
+      </c>
+      <c r="AL206">
+        <v>1.16</v>
+      </c>
+      <c r="AM206">
+        <v>2.6</v>
+      </c>
+      <c r="AN206">
+        <v>1.77</v>
+      </c>
+      <c r="AO206">
+        <v>0.46</v>
+      </c>
+      <c r="AP206">
+        <v>1.86</v>
+      </c>
+      <c r="AQ206">
+        <v>0.43</v>
+      </c>
+      <c r="AR206">
+        <v>1.59</v>
+      </c>
+      <c r="AS206">
+        <v>1.07</v>
+      </c>
+      <c r="AT206">
+        <v>2.66</v>
+      </c>
+      <c r="AU206">
+        <v>5</v>
+      </c>
+      <c r="AV206">
+        <v>5</v>
+      </c>
+      <c r="AW206">
+        <v>2</v>
+      </c>
+      <c r="AX206">
+        <v>8</v>
+      </c>
+      <c r="AY206">
+        <v>7</v>
+      </c>
+      <c r="AZ206">
+        <v>13</v>
+      </c>
+      <c r="BA206">
+        <v>7</v>
+      </c>
+      <c r="BB206">
+        <v>3</v>
+      </c>
+      <c r="BC206">
+        <v>10</v>
+      </c>
+      <c r="BD206">
+        <v>1.43</v>
+      </c>
+      <c r="BE206">
+        <v>10.25</v>
+      </c>
+      <c r="BF206">
+        <v>3.24</v>
+      </c>
+      <c r="BG206">
+        <v>1.15</v>
+      </c>
+      <c r="BH206">
+        <v>4.75</v>
+      </c>
+      <c r="BI206">
+        <v>1.24</v>
+      </c>
+      <c r="BJ206">
+        <v>3.85</v>
+      </c>
+      <c r="BK206">
+        <v>1.43</v>
+      </c>
+      <c r="BL206">
+        <v>2.7</v>
+      </c>
+      <c r="BM206">
+        <v>1.98</v>
+      </c>
+      <c r="BN206">
+        <v>1.82</v>
+      </c>
+      <c r="BO206">
+        <v>2.16</v>
+      </c>
+      <c r="BP206">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>6588999</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45382.41666666666</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>84</v>
+      </c>
+      <c r="H207" t="s">
+        <v>71</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>231</v>
+      </c>
+      <c r="P207" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q207">
+        <v>2.2</v>
+      </c>
+      <c r="R207">
+        <v>2.25</v>
+      </c>
+      <c r="S207">
+        <v>5.5</v>
+      </c>
+      <c r="T207">
+        <v>1.36</v>
+      </c>
+      <c r="U207">
+        <v>3</v>
+      </c>
+      <c r="V207">
+        <v>2.75</v>
+      </c>
+      <c r="W207">
+        <v>1.4</v>
+      </c>
+      <c r="X207">
+        <v>7</v>
+      </c>
+      <c r="Y207">
+        <v>1.1</v>
+      </c>
+      <c r="Z207">
+        <v>1.55</v>
+      </c>
+      <c r="AA207">
+        <v>3.9</v>
+      </c>
+      <c r="AB207">
+        <v>5</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>9</v>
+      </c>
+      <c r="AE207">
+        <v>1.25</v>
+      </c>
+      <c r="AF207">
+        <v>3.75</v>
+      </c>
+      <c r="AG207">
+        <v>1.86</v>
+      </c>
+      <c r="AH207">
+        <v>1.9</v>
+      </c>
+      <c r="AI207">
+        <v>1.91</v>
+      </c>
+      <c r="AJ207">
+        <v>1.91</v>
+      </c>
+      <c r="AK207">
+        <v>1.15</v>
+      </c>
+      <c r="AL207">
+        <v>1.22</v>
+      </c>
+      <c r="AM207">
+        <v>2.1</v>
+      </c>
+      <c r="AN207">
+        <v>1.58</v>
+      </c>
+      <c r="AO207">
+        <v>0.5</v>
+      </c>
+      <c r="AP207">
+        <v>1.69</v>
+      </c>
+      <c r="AQ207">
+        <v>0.46</v>
+      </c>
+      <c r="AR207">
+        <v>1.51</v>
+      </c>
+      <c r="AS207">
+        <v>1.28</v>
+      </c>
+      <c r="AT207">
+        <v>2.79</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>6</v>
+      </c>
+      <c r="AW207">
+        <v>3</v>
+      </c>
+      <c r="AX207">
+        <v>1</v>
+      </c>
+      <c r="AY207">
+        <v>8</v>
+      </c>
+      <c r="AZ207">
+        <v>7</v>
+      </c>
+      <c r="BA207">
+        <v>10</v>
+      </c>
+      <c r="BB207">
+        <v>3</v>
+      </c>
+      <c r="BC207">
+        <v>13</v>
+      </c>
+      <c r="BD207">
+        <v>1.39</v>
+      </c>
+      <c r="BE207">
+        <v>10.5</v>
+      </c>
+      <c r="BF207">
+        <v>3.44</v>
+      </c>
+      <c r="BG207">
+        <v>1.2</v>
+      </c>
+      <c r="BH207">
+        <v>4</v>
+      </c>
+      <c r="BI207">
+        <v>1.26</v>
+      </c>
+      <c r="BJ207">
+        <v>3.34</v>
+      </c>
+      <c r="BK207">
+        <v>1.49</v>
+      </c>
+      <c r="BL207">
+        <v>2.53</v>
+      </c>
+      <c r="BM207">
+        <v>2</v>
+      </c>
+      <c r="BN207">
+        <v>1.8</v>
+      </c>
+      <c r="BO207">
+        <v>2.27</v>
+      </c>
+      <c r="BP207">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>6589000</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45382.41666666666</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>80</v>
+      </c>
+      <c r="H208" t="s">
+        <v>72</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
+      </c>
+      <c r="O208" t="s">
+        <v>232</v>
+      </c>
+      <c r="P208" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q208">
+        <v>2.2</v>
+      </c>
+      <c r="R208">
+        <v>2.3</v>
+      </c>
+      <c r="S208">
+        <v>5</v>
+      </c>
+      <c r="T208">
+        <v>1.33</v>
+      </c>
+      <c r="U208">
+        <v>3.25</v>
+      </c>
+      <c r="V208">
+        <v>2.63</v>
+      </c>
+      <c r="W208">
+        <v>1.44</v>
+      </c>
+      <c r="X208">
+        <v>6.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.11</v>
+      </c>
+      <c r="Z208">
+        <v>1.55</v>
+      </c>
+      <c r="AA208">
+        <v>4.1</v>
+      </c>
+      <c r="AB208">
+        <v>5.1</v>
+      </c>
+      <c r="AC208">
+        <v>1.04</v>
+      </c>
+      <c r="AD208">
+        <v>8.5</v>
+      </c>
+      <c r="AE208">
+        <v>1.2</v>
+      </c>
+      <c r="AF208">
+        <v>3.9</v>
+      </c>
+      <c r="AG208">
+        <v>1.72</v>
+      </c>
+      <c r="AH208">
+        <v>2.07</v>
+      </c>
+      <c r="AI208">
+        <v>1.75</v>
+      </c>
+      <c r="AJ208">
+        <v>2</v>
+      </c>
+      <c r="AK208">
+        <v>1.11</v>
+      </c>
+      <c r="AL208">
+        <v>1.18</v>
+      </c>
+      <c r="AM208">
+        <v>2.3</v>
+      </c>
+      <c r="AN208">
+        <v>1.25</v>
+      </c>
+      <c r="AO208">
+        <v>0.92</v>
+      </c>
+      <c r="AP208">
+        <v>1.38</v>
+      </c>
+      <c r="AQ208">
+        <v>0.85</v>
+      </c>
+      <c r="AR208">
+        <v>1.93</v>
+      </c>
+      <c r="AS208">
+        <v>1.32</v>
+      </c>
+      <c r="AT208">
+        <v>3.25</v>
+      </c>
+      <c r="AU208">
+        <v>9</v>
+      </c>
+      <c r="AV208">
+        <v>10</v>
+      </c>
+      <c r="AW208">
+        <v>3</v>
+      </c>
+      <c r="AX208">
+        <v>5</v>
+      </c>
+      <c r="AY208">
+        <v>12</v>
+      </c>
+      <c r="AZ208">
+        <v>15</v>
+      </c>
+      <c r="BA208">
+        <v>6</v>
+      </c>
+      <c r="BB208">
+        <v>11</v>
+      </c>
+      <c r="BC208">
+        <v>17</v>
+      </c>
+      <c r="BD208">
+        <v>1.42</v>
+      </c>
+      <c r="BE208">
+        <v>10</v>
+      </c>
+      <c r="BF208">
+        <v>3.32</v>
+      </c>
+      <c r="BG208">
+        <v>1.22</v>
+      </c>
+      <c r="BH208">
+        <v>3.8</v>
+      </c>
+      <c r="BI208">
+        <v>1.25</v>
+      </c>
+      <c r="BJ208">
+        <v>3.42</v>
+      </c>
+      <c r="BK208">
+        <v>1.46</v>
+      </c>
+      <c r="BL208">
+        <v>2.45</v>
+      </c>
+      <c r="BM208">
+        <v>2</v>
+      </c>
+      <c r="BN208">
+        <v>1.8</v>
+      </c>
+      <c r="BO208">
+        <v>2.21</v>
+      </c>
+      <c r="BP208">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>6588998</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45382.54166666666</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
+      </c>
+      <c r="H209" t="s">
+        <v>77</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>86</v>
+      </c>
+      <c r="P209" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q209">
+        <v>7</v>
+      </c>
+      <c r="R209">
+        <v>2.63</v>
+      </c>
+      <c r="S209">
+        <v>1.8</v>
+      </c>
+      <c r="T209">
+        <v>1.25</v>
+      </c>
+      <c r="U209">
+        <v>3.75</v>
+      </c>
+      <c r="V209">
+        <v>2.2</v>
+      </c>
+      <c r="W209">
+        <v>1.62</v>
+      </c>
+      <c r="X209">
+        <v>5</v>
+      </c>
+      <c r="Y209">
+        <v>1.17</v>
+      </c>
+      <c r="Z209">
+        <v>6.3</v>
+      </c>
+      <c r="AA209">
+        <v>4.75</v>
+      </c>
+      <c r="AB209">
+        <v>1.33</v>
+      </c>
+      <c r="AC209">
+        <v>1.02</v>
+      </c>
+      <c r="AD209">
+        <v>22</v>
+      </c>
+      <c r="AE209">
+        <v>1.16</v>
+      </c>
+      <c r="AF209">
+        <v>5.3</v>
+      </c>
+      <c r="AG209">
+        <v>1.45</v>
+      </c>
+      <c r="AH209">
+        <v>2.42</v>
+      </c>
+      <c r="AI209">
+        <v>1.8</v>
+      </c>
+      <c r="AJ209">
+        <v>1.95</v>
+      </c>
+      <c r="AK209">
+        <v>3.1</v>
+      </c>
+      <c r="AL209">
+        <v>1.17</v>
+      </c>
+      <c r="AM209">
+        <v>1.01</v>
+      </c>
+      <c r="AN209">
+        <v>1.33</v>
+      </c>
+      <c r="AO209">
+        <v>2.17</v>
+      </c>
+      <c r="AP209">
+        <v>1.23</v>
+      </c>
+      <c r="AQ209">
+        <v>2.23</v>
+      </c>
+      <c r="AR209">
+        <v>1.39</v>
+      </c>
+      <c r="AS209">
+        <v>1.57</v>
+      </c>
+      <c r="AT209">
+        <v>2.96</v>
+      </c>
+      <c r="AU209">
+        <v>2</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>3</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>5</v>
+      </c>
+      <c r="AZ209">
+        <v>9</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>6</v>
+      </c>
+      <c r="BC209">
+        <v>12</v>
+      </c>
+      <c r="BD209">
+        <v>3.84</v>
+      </c>
+      <c r="BE209">
+        <v>10.75</v>
+      </c>
+      <c r="BF209">
+        <v>1.33</v>
+      </c>
+      <c r="BG209">
+        <v>1.15</v>
+      </c>
+      <c r="BH209">
+        <v>4.75</v>
+      </c>
+      <c r="BI209">
+        <v>1.23</v>
+      </c>
+      <c r="BJ209">
+        <v>3.56</v>
+      </c>
+      <c r="BK209">
+        <v>1.42</v>
+      </c>
+      <c r="BL209">
+        <v>2.57</v>
+      </c>
+      <c r="BM209">
+        <v>1.82</v>
+      </c>
+      <c r="BN209">
+        <v>1.98</v>
+      </c>
+      <c r="BO209">
+        <v>2.19</v>
+      </c>
+      <c r="BP209">
         <v>1.67</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -43523,22 +43523,22 @@
         <v>3.51</v>
       </c>
       <c r="AU205">
+        <v>6</v>
+      </c>
+      <c r="AV205">
+        <v>7</v>
+      </c>
+      <c r="AW205">
         <v>4</v>
       </c>
-      <c r="AV205">
-        <v>3</v>
-      </c>
-      <c r="AW205">
-        <v>3</v>
-      </c>
       <c r="AX205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY205">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ205">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA205">
         <v>4</v>
@@ -44350,19 +44350,19 @@
         <v>2</v>
       </c>
       <c r="AV209">
+        <v>7</v>
+      </c>
+      <c r="AW209">
+        <v>4</v>
+      </c>
+      <c r="AX209">
         <v>5</v>
       </c>
-      <c r="AW209">
-        <v>3</v>
-      </c>
-      <c r="AX209">
-        <v>4</v>
-      </c>
       <c r="AY209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ209">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA209">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,15 @@
     <t>['6', '22', '51', '88']</t>
   </si>
   <si>
+    <t>['35', '55', '66']</t>
+  </si>
+  <si>
+    <t>['6', '23', '56', '85']</t>
+  </si>
+  <si>
+    <t>['55', '67']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -992,6 +1001,12 @@
   </si>
   <si>
     <t>['39', '90+1']</t>
+  </si>
+  <si>
+    <t>['83', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1708,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1818,7 +1833,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2105,7 +2120,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2308,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ5">
         <v>0.62</v>
@@ -2720,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7">
         <v>1.69</v>
@@ -2848,7 +2863,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3135,7 +3150,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3466,7 +3481,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3544,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ11">
         <v>2.23</v>
@@ -3959,7 +3974,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4084,7 +4099,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4290,7 +4305,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4496,7 +4511,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4702,7 +4717,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4908,7 +4923,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5114,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5320,7 +5335,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5401,7 +5416,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.12</v>
@@ -5526,7 +5541,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5732,7 +5747,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6144,7 +6159,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6222,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.87</v>
@@ -6350,7 +6365,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6428,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ25">
         <v>0.43</v>
@@ -6840,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
         <v>0.6899999999999999</v>
@@ -6968,7 +6983,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7380,7 +7395,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7586,7 +7601,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7873,7 +7888,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -7998,7 +8013,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8079,7 +8094,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ33">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8204,7 +8219,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8410,7 +8425,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8694,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ36">
         <v>1.23</v>
@@ -8822,7 +8837,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9109,7 +9124,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.14</v>
@@ -9521,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9724,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ41">
         <v>1.69</v>
@@ -9852,7 +9867,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9930,7 +9945,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ42">
         <v>0.85</v>
@@ -10058,7 +10073,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10139,7 +10154,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10470,7 +10485,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10676,7 +10691,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -11500,7 +11515,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -12199,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12324,7 +12339,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12402,7 +12417,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ54">
         <v>2.23</v>
@@ -12530,7 +12545,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12608,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ55">
         <v>0.46</v>
@@ -12736,7 +12751,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12817,7 +12832,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ56">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -13560,7 +13575,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13972,7 +13987,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14050,10 +14065,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14178,7 +14193,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14465,7 +14480,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14590,7 +14605,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14796,7 +14811,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -15002,7 +15017,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15080,7 +15095,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ67">
         <v>0.85</v>
@@ -15414,7 +15429,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15495,7 +15510,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ69">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15826,7 +15841,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16032,7 +16047,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16110,7 +16125,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ72">
         <v>2.23</v>
@@ -16238,7 +16253,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16525,7 +16540,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
         <v>1.12</v>
@@ -16650,7 +16665,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16728,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75">
         <v>0.15</v>
@@ -16856,7 +16871,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17143,7 +17158,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ77">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR77">
         <v>2.36</v>
@@ -17555,7 +17570,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -18916,7 +18931,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19122,7 +19137,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19200,7 +19215,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ87">
         <v>2.38</v>
@@ -19328,7 +19343,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19534,7 +19549,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19612,7 +19627,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89">
         <v>1.08</v>
@@ -19821,7 +19836,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ90">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -20230,10 +20245,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ92">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR92">
         <v>1.64</v>
@@ -20436,10 +20451,10 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20770,7 +20785,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21057,7 +21072,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ96">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21182,7 +21197,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22212,7 +22227,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22418,7 +22433,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22624,7 +22639,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -23036,7 +23051,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23117,7 +23132,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23448,7 +23463,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23735,7 +23750,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>2.14</v>
@@ -23860,7 +23875,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24144,7 +24159,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ111">
         <v>0.15</v>
@@ -24272,7 +24287,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24350,10 +24365,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ112">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR112">
         <v>2.19</v>
@@ -24684,7 +24699,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24890,7 +24905,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -24968,7 +24983,7 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ115">
         <v>0.79</v>
@@ -25508,7 +25523,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25589,7 +25604,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25714,7 +25729,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25920,7 +25935,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26204,7 +26219,7 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ121">
         <v>1.08</v>
@@ -26332,7 +26347,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26413,7 +26428,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26619,7 +26634,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ123">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.05</v>
@@ -26825,7 +26840,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ124">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27028,7 +27043,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ125">
         <v>0.15</v>
@@ -27774,7 +27789,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27855,7 +27870,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -27980,7 +27995,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28186,7 +28201,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28267,7 +28282,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ131">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR131">
         <v>1.44</v>
@@ -28392,7 +28407,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28598,7 +28613,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28676,7 +28691,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ133">
         <v>0.43</v>
@@ -28804,7 +28819,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -28885,7 +28900,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29216,7 +29231,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29706,7 +29721,7 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ138">
         <v>1.08</v>
@@ -29834,7 +29849,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30040,7 +30055,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30530,7 +30545,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ142">
         <v>0.62</v>
@@ -30864,7 +30879,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -30945,7 +30960,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -31482,7 +31497,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31688,7 +31703,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31769,7 +31784,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ148">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR148">
         <v>1.6</v>
@@ -32100,7 +32115,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32384,10 +32399,10 @@
         <v>1.38</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ151">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32512,7 +32527,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32924,7 +32939,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33130,7 +33145,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33336,7 +33351,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33417,7 +33432,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ156">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.42</v>
@@ -33542,7 +33557,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33620,7 +33635,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ157">
         <v>0.79</v>
@@ -33748,7 +33763,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33829,7 +33844,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ158">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR158">
         <v>2.03</v>
@@ -33954,7 +33969,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34160,7 +34175,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34238,7 +34253,7 @@
         <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ160">
         <v>2.38</v>
@@ -34366,7 +34381,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34572,7 +34587,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34778,7 +34793,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -35190,7 +35205,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35271,7 +35286,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ165">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR165">
         <v>1.62</v>
@@ -35396,7 +35411,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35474,10 +35489,10 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35602,7 +35617,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35808,7 +35823,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36095,7 +36110,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36426,7 +36441,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36507,7 +36522,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.96</v>
@@ -36632,7 +36647,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36838,7 +36853,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36916,7 +36931,7 @@
         <v>0.64</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ173">
         <v>0.79</v>
@@ -37331,7 +37346,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ175">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.39</v>
@@ -37534,7 +37549,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ176">
         <v>1.23</v>
@@ -37662,7 +37677,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37868,7 +37883,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -37949,7 +37964,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38074,7 +38089,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38155,7 +38170,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38486,7 +38501,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38692,7 +38707,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38773,7 +38788,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ182">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR182">
         <v>1.18</v>
@@ -39104,7 +39119,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39182,7 +39197,7 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ184">
         <v>1.69</v>
@@ -40212,7 +40227,7 @@
         <v>0.55</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ189">
         <v>0.46</v>
@@ -40340,7 +40355,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40421,7 +40436,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ190">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.94</v>
@@ -40546,7 +40561,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40830,7 +40845,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ192">
         <v>0.85</v>
@@ -41164,7 +41179,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41242,10 +41257,10 @@
         <v>1.08</v>
       </c>
       <c r="AP194">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ194">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR194">
         <v>1.4</v>
@@ -41370,7 +41385,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41451,7 +41466,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ195">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR195">
         <v>1.54</v>
@@ -41863,7 +41878,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ197">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -41988,7 +42003,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42194,7 +42209,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42275,7 +42290,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ199">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -42478,7 +42493,7 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ200">
         <v>0.6899999999999999</v>
@@ -42606,7 +42621,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42812,7 +42827,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>2.11</v>
@@ -43224,7 +43239,7 @@
         <v>200</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q204">
         <v>1.79</v>
@@ -43430,7 +43445,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43636,7 +43651,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -44048,7 +44063,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44411,6 +44426,830 @@
       </c>
       <c r="BP209">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>6589008</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>79</v>
+      </c>
+      <c r="H210" t="s">
+        <v>78</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210" t="s">
+        <v>233</v>
+      </c>
+      <c r="P210" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q210">
+        <v>3.09</v>
+      </c>
+      <c r="R210">
+        <v>2.21</v>
+      </c>
+      <c r="S210">
+        <v>3.58</v>
+      </c>
+      <c r="T210">
+        <v>1.4</v>
+      </c>
+      <c r="U210">
+        <v>2.96</v>
+      </c>
+      <c r="V210">
+        <v>2.99</v>
+      </c>
+      <c r="W210">
+        <v>1.39</v>
+      </c>
+      <c r="X210">
+        <v>6</v>
+      </c>
+      <c r="Y210">
+        <v>1.09</v>
+      </c>
+      <c r="Z210">
+        <v>2.45</v>
+      </c>
+      <c r="AA210">
+        <v>3.3</v>
+      </c>
+      <c r="AB210">
+        <v>2.75</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>8.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.3</v>
+      </c>
+      <c r="AF210">
+        <v>3.2</v>
+      </c>
+      <c r="AG210">
+        <v>1.95</v>
+      </c>
+      <c r="AH210">
+        <v>1.75</v>
+      </c>
+      <c r="AI210">
+        <v>1.75</v>
+      </c>
+      <c r="AJ210">
+        <v>1.95</v>
+      </c>
+      <c r="AK210">
+        <v>1.45</v>
+      </c>
+      <c r="AL210">
+        <v>1.35</v>
+      </c>
+      <c r="AM210">
+        <v>1.48</v>
+      </c>
+      <c r="AN210">
+        <v>1.17</v>
+      </c>
+      <c r="AO210">
+        <v>1.08</v>
+      </c>
+      <c r="AP210">
+        <v>1.31</v>
+      </c>
+      <c r="AQ210">
+        <v>1</v>
+      </c>
+      <c r="AR210">
+        <v>1.43</v>
+      </c>
+      <c r="AS210">
+        <v>1.18</v>
+      </c>
+      <c r="AT210">
+        <v>2.61</v>
+      </c>
+      <c r="AU210">
+        <v>9</v>
+      </c>
+      <c r="AV210">
+        <v>7</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>13</v>
+      </c>
+      <c r="AZ210">
+        <v>9</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>1.85</v>
+      </c>
+      <c r="BE210">
+        <v>8.5</v>
+      </c>
+      <c r="BF210">
+        <v>2.27</v>
+      </c>
+      <c r="BG210">
+        <v>0</v>
+      </c>
+      <c r="BH210">
+        <v>0</v>
+      </c>
+      <c r="BI210">
+        <v>1.24</v>
+      </c>
+      <c r="BJ210">
+        <v>3.48</v>
+      </c>
+      <c r="BK210">
+        <v>1.44</v>
+      </c>
+      <c r="BL210">
+        <v>2.51</v>
+      </c>
+      <c r="BM210">
+        <v>1.88</v>
+      </c>
+      <c r="BN210">
+        <v>1.92</v>
+      </c>
+      <c r="BO210">
+        <v>2.19</v>
+      </c>
+      <c r="BP210">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>6589010</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>75</v>
+      </c>
+      <c r="H211" t="s">
+        <v>76</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211" t="s">
+        <v>234</v>
+      </c>
+      <c r="P211" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q211">
+        <v>3</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>3.6</v>
+      </c>
+      <c r="T211">
+        <v>1.44</v>
+      </c>
+      <c r="U211">
+        <v>2.6</v>
+      </c>
+      <c r="V211">
+        <v>2.95</v>
+      </c>
+      <c r="W211">
+        <v>1.35</v>
+      </c>
+      <c r="X211">
+        <v>7.4</v>
+      </c>
+      <c r="Y211">
+        <v>1.06</v>
+      </c>
+      <c r="Z211">
+        <v>2.35</v>
+      </c>
+      <c r="AA211">
+        <v>3.1</v>
+      </c>
+      <c r="AB211">
+        <v>3</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE211">
+        <v>1.33</v>
+      </c>
+      <c r="AF211">
+        <v>3.1</v>
+      </c>
+      <c r="AG211">
+        <v>1.85</v>
+      </c>
+      <c r="AH211">
+        <v>1.85</v>
+      </c>
+      <c r="AI211">
+        <v>1.8</v>
+      </c>
+      <c r="AJ211">
+        <v>1.95</v>
+      </c>
+      <c r="AK211">
+        <v>1.36</v>
+      </c>
+      <c r="AL211">
+        <v>1.28</v>
+      </c>
+      <c r="AM211">
+        <v>1.57</v>
+      </c>
+      <c r="AN211">
+        <v>2</v>
+      </c>
+      <c r="AO211">
+        <v>1.5</v>
+      </c>
+      <c r="AP211">
+        <v>2.07</v>
+      </c>
+      <c r="AQ211">
+        <v>1.38</v>
+      </c>
+      <c r="AR211">
+        <v>1.69</v>
+      </c>
+      <c r="AS211">
+        <v>1.27</v>
+      </c>
+      <c r="AT211">
+        <v>2.96</v>
+      </c>
+      <c r="AU211">
+        <v>7</v>
+      </c>
+      <c r="AV211">
+        <v>2</v>
+      </c>
+      <c r="AW211">
+        <v>7</v>
+      </c>
+      <c r="AX211">
+        <v>5</v>
+      </c>
+      <c r="AY211">
+        <v>14</v>
+      </c>
+      <c r="AZ211">
+        <v>7</v>
+      </c>
+      <c r="BA211">
+        <v>2</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>2</v>
+      </c>
+      <c r="BD211">
+        <v>1.82</v>
+      </c>
+      <c r="BE211">
+        <v>8.5</v>
+      </c>
+      <c r="BF211">
+        <v>2.39</v>
+      </c>
+      <c r="BG211">
+        <v>0</v>
+      </c>
+      <c r="BH211">
+        <v>0</v>
+      </c>
+      <c r="BI211">
+        <v>1.3</v>
+      </c>
+      <c r="BJ211">
+        <v>3.08</v>
+      </c>
+      <c r="BK211">
+        <v>1.53</v>
+      </c>
+      <c r="BL211">
+        <v>2.27</v>
+      </c>
+      <c r="BM211">
+        <v>2</v>
+      </c>
+      <c r="BN211">
+        <v>1.8</v>
+      </c>
+      <c r="BO211">
+        <v>2.45</v>
+      </c>
+      <c r="BP211">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>6589004</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>71</v>
+      </c>
+      <c r="H212" t="s">
+        <v>83</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212" t="s">
+        <v>86</v>
+      </c>
+      <c r="P212" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q212">
+        <v>6.06</v>
+      </c>
+      <c r="R212">
+        <v>2.56</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>1.3</v>
+      </c>
+      <c r="U212">
+        <v>3.2</v>
+      </c>
+      <c r="V212">
+        <v>2.52</v>
+      </c>
+      <c r="W212">
+        <v>1.46</v>
+      </c>
+      <c r="X212">
+        <v>5.25</v>
+      </c>
+      <c r="Y212">
+        <v>1.12</v>
+      </c>
+      <c r="Z212">
+        <v>4.5</v>
+      </c>
+      <c r="AA212">
+        <v>4</v>
+      </c>
+      <c r="AB212">
+        <v>1.65</v>
+      </c>
+      <c r="AC212">
+        <v>1.02</v>
+      </c>
+      <c r="AD212">
+        <v>10</v>
+      </c>
+      <c r="AE212">
+        <v>1.2</v>
+      </c>
+      <c r="AF212">
+        <v>4</v>
+      </c>
+      <c r="AG212">
+        <v>1.67</v>
+      </c>
+      <c r="AH212">
+        <v>2.1</v>
+      </c>
+      <c r="AI212">
+        <v>1.7</v>
+      </c>
+      <c r="AJ212">
+        <v>2.05</v>
+      </c>
+      <c r="AK212">
+        <v>2.2</v>
+      </c>
+      <c r="AL212">
+        <v>1.24</v>
+      </c>
+      <c r="AM212">
+        <v>1.2</v>
+      </c>
+      <c r="AN212">
+        <v>1</v>
+      </c>
+      <c r="AO212">
+        <v>2.15</v>
+      </c>
+      <c r="AP212">
+        <v>1</v>
+      </c>
+      <c r="AQ212">
+        <v>2.07</v>
+      </c>
+      <c r="AR212">
+        <v>1.6</v>
+      </c>
+      <c r="AS212">
+        <v>1.75</v>
+      </c>
+      <c r="AT212">
+        <v>3.35</v>
+      </c>
+      <c r="AU212">
+        <v>5</v>
+      </c>
+      <c r="AV212">
+        <v>6</v>
+      </c>
+      <c r="AW212">
+        <v>3</v>
+      </c>
+      <c r="AX212">
+        <v>7</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>13</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>8</v>
+      </c>
+      <c r="BC212">
+        <v>11</v>
+      </c>
+      <c r="BD212">
+        <v>3.06</v>
+      </c>
+      <c r="BE212">
+        <v>9</v>
+      </c>
+      <c r="BF212">
+        <v>1.51</v>
+      </c>
+      <c r="BG212">
+        <v>1.18</v>
+      </c>
+      <c r="BH212">
+        <v>4.33</v>
+      </c>
+      <c r="BI212">
+        <v>1.26</v>
+      </c>
+      <c r="BJ212">
+        <v>3.34</v>
+      </c>
+      <c r="BK212">
+        <v>1.48</v>
+      </c>
+      <c r="BL212">
+        <v>2.4</v>
+      </c>
+      <c r="BM212">
+        <v>1.95</v>
+      </c>
+      <c r="BN212">
+        <v>1.85</v>
+      </c>
+      <c r="BO212">
+        <v>2.3</v>
+      </c>
+      <c r="BP212">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>6589007</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>73</v>
+      </c>
+      <c r="H213" t="s">
+        <v>81</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>235</v>
+      </c>
+      <c r="P213" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q213">
+        <v>1.61</v>
+      </c>
+      <c r="R213">
+        <v>2.89</v>
+      </c>
+      <c r="S213">
+        <v>9.84</v>
+      </c>
+      <c r="T213">
+        <v>1.27</v>
+      </c>
+      <c r="U213">
+        <v>3.5</v>
+      </c>
+      <c r="V213">
+        <v>2.34</v>
+      </c>
+      <c r="W213">
+        <v>1.59</v>
+      </c>
+      <c r="X213">
+        <v>4.9</v>
+      </c>
+      <c r="Y213">
+        <v>1.14</v>
+      </c>
+      <c r="Z213">
+        <v>1.2</v>
+      </c>
+      <c r="AA213">
+        <v>6</v>
+      </c>
+      <c r="AB213">
+        <v>12</v>
+      </c>
+      <c r="AC213">
+        <v>1.02</v>
+      </c>
+      <c r="AD213">
+        <v>19.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.18</v>
+      </c>
+      <c r="AF213">
+        <v>4.88</v>
+      </c>
+      <c r="AG213">
+        <v>1.55</v>
+      </c>
+      <c r="AH213">
+        <v>2.3</v>
+      </c>
+      <c r="AI213">
+        <v>2.1</v>
+      </c>
+      <c r="AJ213">
+        <v>1.65</v>
+      </c>
+      <c r="AK213">
+        <v>1.02</v>
+      </c>
+      <c r="AL213">
+        <v>1.08</v>
+      </c>
+      <c r="AM213">
+        <v>4</v>
+      </c>
+      <c r="AN213">
+        <v>2.62</v>
+      </c>
+      <c r="AO213">
+        <v>1.08</v>
+      </c>
+      <c r="AP213">
+        <v>2.64</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>2.31</v>
+      </c>
+      <c r="AS213">
+        <v>1.29</v>
+      </c>
+      <c r="AT213">
+        <v>3.6</v>
+      </c>
+      <c r="AU213">
+        <v>6</v>
+      </c>
+      <c r="AV213">
+        <v>3</v>
+      </c>
+      <c r="AW213">
+        <v>6</v>
+      </c>
+      <c r="AX213">
+        <v>3</v>
+      </c>
+      <c r="AY213">
+        <v>12</v>
+      </c>
+      <c r="AZ213">
+        <v>6</v>
+      </c>
+      <c r="BA213">
+        <v>7</v>
+      </c>
+      <c r="BB213">
+        <v>1</v>
+      </c>
+      <c r="BC213">
+        <v>8</v>
+      </c>
+      <c r="BD213">
+        <v>1.09</v>
+      </c>
+      <c r="BE213">
+        <v>13</v>
+      </c>
+      <c r="BF213">
+        <v>8.85</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>0</v>
+      </c>
+      <c r="BI213">
+        <v>1.23</v>
+      </c>
+      <c r="BJ213">
+        <v>3.56</v>
+      </c>
+      <c r="BK213">
+        <v>1.43</v>
+      </c>
+      <c r="BL213">
+        <v>2.54</v>
+      </c>
+      <c r="BM213">
+        <v>1.82</v>
+      </c>
+      <c r="BN213">
+        <v>1.98</v>
+      </c>
+      <c r="BO213">
+        <v>2.15</v>
+      </c>
+      <c r="BP213">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['55', '67']</t>
   </si>
   <si>
+    <t>['45+1', '78']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['11', '24', '61']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1833,7 +1839,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>2.07</v>
@@ -2326,7 +2332,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ5">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2738,7 +2744,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ7">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2863,7 +2869,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -2944,7 +2950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3147,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3481,7 +3487,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3765,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ12">
         <v>0.79</v>
@@ -4099,7 +4105,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4305,7 +4311,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4511,7 +4517,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4717,7 +4723,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4798,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4923,7 +4929,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5001,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ18">
         <v>1.23</v>
@@ -5129,7 +5135,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5335,7 +5341,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5541,7 +5547,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5622,7 +5628,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5747,7 +5753,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5828,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -6031,7 +6037,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.79</v>
@@ -6159,7 +6165,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6365,7 +6371,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6652,7 +6658,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6983,7 +6989,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7061,7 +7067,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ28">
         <v>2.23</v>
@@ -7267,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ29">
         <v>0.46</v>
@@ -7395,7 +7401,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7601,7 +7607,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8013,7 +8019,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8219,7 +8225,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8425,7 +8431,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8837,7 +8843,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8915,7 +8921,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>2.23</v>
@@ -9742,7 +9748,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
         <v>2.82</v>
@@ -9867,7 +9873,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -10073,7 +10079,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10151,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10360,7 +10366,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10485,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10566,7 +10572,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ45">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10691,7 +10697,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10769,7 +10775,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ46">
         <v>2.38</v>
@@ -11181,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ48">
         <v>0.46</v>
@@ -11515,7 +11521,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11799,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.23</v>
@@ -12339,7 +12345,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12545,7 +12551,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12751,7 +12757,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13244,7 +13250,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ58">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR58">
         <v>1.81</v>
@@ -13450,7 +13456,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ59">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13575,7 +13581,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13656,7 +13662,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13859,7 +13865,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ61">
         <v>2.38</v>
@@ -13987,7 +13993,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14193,7 +14199,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14271,7 +14277,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ63">
         <v>0.6899999999999999</v>
@@ -14477,7 +14483,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -14605,7 +14611,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14811,7 +14817,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -15017,7 +15023,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15429,7 +15435,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15841,7 +15847,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16047,7 +16053,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16253,7 +16259,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16537,7 +16543,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>1.38</v>
@@ -16665,7 +16671,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16746,7 +16752,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ75">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16871,7 +16877,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -16952,7 +16958,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ76">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR76">
         <v>1.65</v>
@@ -17155,7 +17161,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ77">
         <v>2.07</v>
@@ -17361,7 +17367,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>2.38</v>
@@ -17773,10 +17779,10 @@
         <v>0.2</v>
       </c>
       <c r="AP80">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ80">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18931,7 +18937,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19137,7 +19143,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19343,7 +19349,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19549,7 +19555,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19833,7 +19839,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20042,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR91">
         <v>1.63</v>
@@ -20657,10 +20663,10 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ94">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20785,7 +20791,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20863,10 +20869,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR95">
         <v>1.07</v>
@@ -21069,7 +21075,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21197,7 +21203,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22227,7 +22233,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22433,7 +22439,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22639,7 +22645,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22923,7 +22929,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>1.08</v>
@@ -23051,7 +23057,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23129,7 +23135,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23338,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23463,7 +23469,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23541,7 +23547,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ108">
         <v>0.43</v>
@@ -23747,7 +23753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23875,7 +23881,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23956,7 +23962,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24162,7 +24168,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ111">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24287,7 +24293,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24699,7 +24705,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24905,7 +24911,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25523,7 +25529,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25729,7 +25735,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25935,7 +25941,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26347,7 +26353,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26631,7 +26637,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -27046,7 +27052,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ125">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27252,7 +27258,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR126">
         <v>1.59</v>
@@ -27455,7 +27461,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127">
         <v>1.23</v>
@@ -27661,7 +27667,7 @@
         <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ128">
         <v>0.43</v>
@@ -27789,7 +27795,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27995,7 +28001,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28073,7 +28079,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ130">
         <v>2.23</v>
@@ -28201,7 +28207,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28407,7 +28413,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28485,7 +28491,7 @@
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ132">
         <v>0.85</v>
@@ -28613,7 +28619,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28819,7 +28825,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29103,7 +29109,7 @@
         <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ135">
         <v>0.79</v>
@@ -29231,7 +29237,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29312,7 +29318,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ136">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29518,7 +29524,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -29849,7 +29855,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30055,7 +30061,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30136,7 +30142,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ140">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
@@ -30548,7 +30554,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ142">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30751,7 +30757,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ143">
         <v>0.6899999999999999</v>
@@ -30879,7 +30885,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -31163,7 +31169,7 @@
         <v>0.44</v>
       </c>
       <c r="AP145">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ145">
         <v>0.46</v>
@@ -31372,7 +31378,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ146">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31497,7 +31503,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31703,7 +31709,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31987,7 +31993,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ149">
         <v>0.85</v>
@@ -32115,7 +32121,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32527,7 +32533,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32814,7 +32820,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ153">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR153">
         <v>1.34</v>
@@ -32939,7 +32945,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33145,7 +33151,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33223,7 +33229,7 @@
         <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>0.43</v>
@@ -33351,7 +33357,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33557,7 +33563,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33763,7 +33769,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33969,7 +33975,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34175,7 +34181,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34381,7 +34387,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34462,7 +34468,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ161">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34587,7 +34593,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34665,10 +34671,10 @@
         <v>0.2</v>
       </c>
       <c r="AP162">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ162">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR162">
         <v>1.5</v>
@@ -34793,7 +34799,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -34871,7 +34877,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ163">
         <v>0.85</v>
@@ -35080,7 +35086,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ164">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
         <v>1.6</v>
@@ -35205,7 +35211,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35411,7 +35417,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35617,7 +35623,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35823,7 +35829,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35901,7 +35907,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ168">
         <v>0.6899999999999999</v>
@@ -36107,7 +36113,7 @@
         <v>1.22</v>
       </c>
       <c r="AP169">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36441,7 +36447,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36647,7 +36653,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36725,7 +36731,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>0.46</v>
@@ -36853,7 +36859,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37677,7 +37683,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37883,7 +37889,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38089,7 +38095,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38373,10 +38379,10 @@
         <v>0.64</v>
       </c>
       <c r="AP180">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ180">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR180">
         <v>1.56</v>
@@ -38501,7 +38507,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38582,7 +38588,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ181">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR181">
         <v>1.5</v>
@@ -38707,7 +38713,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38785,7 +38791,7 @@
         <v>2</v>
       </c>
       <c r="AP182">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ182">
         <v>2.07</v>
@@ -38991,7 +38997,7 @@
         <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183">
         <v>0.6899999999999999</v>
@@ -39119,7 +39125,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39200,7 +39206,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ184">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -39403,7 +39409,7 @@
         <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ185">
         <v>2.38</v>
@@ -40355,7 +40361,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40561,7 +40567,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41179,7 +41185,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41385,7 +41391,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41672,7 +41678,7 @@
         <v>1</v>
       </c>
       <c r="AQ196">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AR196">
         <v>1.54</v>
@@ -41875,7 +41881,7 @@
         <v>1.55</v>
       </c>
       <c r="AP197">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
         <v>1.38</v>
@@ -42003,7 +42009,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42081,10 +42087,10 @@
         <v>1.58</v>
       </c>
       <c r="AP198">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ198">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR198">
         <v>1.14</v>
@@ -42209,7 +42215,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42287,7 +42293,7 @@
         <v>2.08</v>
       </c>
       <c r="AP199">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ199">
         <v>2.07</v>
@@ -42621,7 +42627,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42699,10 +42705,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AQ201">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR201">
         <v>1.93</v>
@@ -42827,7 +42833,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>2.11</v>
@@ -43239,7 +43245,7 @@
         <v>200</v>
       </c>
       <c r="P204" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q204">
         <v>1.79</v>
@@ -43445,7 +43451,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43651,7 +43657,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -44063,7 +44069,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44475,7 +44481,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q210">
         <v>3.09</v>
@@ -44568,7 +44574,7 @@
         <v>2.61</v>
       </c>
       <c r="AU210">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV210">
         <v>7</v>
@@ -44580,16 +44586,16 @@
         <v>2</v>
       </c>
       <c r="AY210">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ210">
         <v>9</v>
       </c>
       <c r="BA210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC210">
         <v>7</v>
@@ -45093,7 +45099,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45186,10 +45192,10 @@
         <v>3.6</v>
       </c>
       <c r="AU213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW213">
         <v>6</v>
@@ -45198,10 +45204,10 @@
         <v>3</v>
       </c>
       <c r="AY213">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA213">
         <v>7</v>
@@ -45250,6 +45256,830 @@
       </c>
       <c r="BP213">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>6589006</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>85</v>
+      </c>
+      <c r="H214" t="s">
+        <v>80</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="O214" t="s">
+        <v>236</v>
+      </c>
+      <c r="P214" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q214">
+        <v>2.85</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.1</v>
+      </c>
+      <c r="T214">
+        <v>1.33</v>
+      </c>
+      <c r="U214">
+        <v>3</v>
+      </c>
+      <c r="V214">
+        <v>2.55</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>5.8</v>
+      </c>
+      <c r="Y214">
+        <v>1.1</v>
+      </c>
+      <c r="Z214">
+        <v>2.75</v>
+      </c>
+      <c r="AA214">
+        <v>3.1</v>
+      </c>
+      <c r="AB214">
+        <v>2.4</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>8.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.22</v>
+      </c>
+      <c r="AF214">
+        <v>3.7</v>
+      </c>
+      <c r="AG214">
+        <v>1.8</v>
+      </c>
+      <c r="AH214">
+        <v>1.91</v>
+      </c>
+      <c r="AI214">
+        <v>1.57</v>
+      </c>
+      <c r="AJ214">
+        <v>2.25</v>
+      </c>
+      <c r="AK214">
+        <v>1.47</v>
+      </c>
+      <c r="AL214">
+        <v>1.32</v>
+      </c>
+      <c r="AM214">
+        <v>1.37</v>
+      </c>
+      <c r="AN214">
+        <v>1.42</v>
+      </c>
+      <c r="AO214">
+        <v>1.69</v>
+      </c>
+      <c r="AP214">
+        <v>1.31</v>
+      </c>
+      <c r="AQ214">
+        <v>1.79</v>
+      </c>
+      <c r="AR214">
+        <v>1.55</v>
+      </c>
+      <c r="AS214">
+        <v>1.72</v>
+      </c>
+      <c r="AT214">
+        <v>3.27</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>7</v>
+      </c>
+      <c r="AW214">
+        <v>3</v>
+      </c>
+      <c r="AX214">
+        <v>4</v>
+      </c>
+      <c r="AY214">
+        <v>10</v>
+      </c>
+      <c r="AZ214">
+        <v>11</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>10</v>
+      </c>
+      <c r="BD214">
+        <v>2</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>2.05</v>
+      </c>
+      <c r="BG214">
+        <v>1.19</v>
+      </c>
+      <c r="BH214">
+        <v>4.75</v>
+      </c>
+      <c r="BI214">
+        <v>1.3</v>
+      </c>
+      <c r="BJ214">
+        <v>3.08</v>
+      </c>
+      <c r="BK214">
+        <v>1.53</v>
+      </c>
+      <c r="BL214">
+        <v>2.27</v>
+      </c>
+      <c r="BM214">
+        <v>1.98</v>
+      </c>
+      <c r="BN214">
+        <v>1.82</v>
+      </c>
+      <c r="BO214">
+        <v>2.45</v>
+      </c>
+      <c r="BP214">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6589003</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F215">
+        <v>27</v>
+      </c>
+      <c r="G215" t="s">
+        <v>72</v>
+      </c>
+      <c r="H215" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>86</v>
+      </c>
+      <c r="P215" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q215">
+        <v>2.8</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>3.75</v>
+      </c>
+      <c r="T215">
+        <v>1.44</v>
+      </c>
+      <c r="U215">
+        <v>2.6</v>
+      </c>
+      <c r="V215">
+        <v>2.95</v>
+      </c>
+      <c r="W215">
+        <v>1.35</v>
+      </c>
+      <c r="X215">
+        <v>7.4</v>
+      </c>
+      <c r="Y215">
+        <v>1.06</v>
+      </c>
+      <c r="Z215">
+        <v>2.05</v>
+      </c>
+      <c r="AA215">
+        <v>3.2</v>
+      </c>
+      <c r="AB215">
+        <v>3.3</v>
+      </c>
+      <c r="AC215">
+        <v>1.06</v>
+      </c>
+      <c r="AD215">
+        <v>7.2</v>
+      </c>
+      <c r="AE215">
+        <v>1.33</v>
+      </c>
+      <c r="AF215">
+        <v>3.1</v>
+      </c>
+      <c r="AG215">
+        <v>1.95</v>
+      </c>
+      <c r="AH215">
+        <v>1.75</v>
+      </c>
+      <c r="AI215">
+        <v>1.8</v>
+      </c>
+      <c r="AJ215">
+        <v>1.95</v>
+      </c>
+      <c r="AK215">
+        <v>1.33</v>
+      </c>
+      <c r="AL215">
+        <v>1.25</v>
+      </c>
+      <c r="AM215">
+        <v>1.66</v>
+      </c>
+      <c r="AN215">
+        <v>1.62</v>
+      </c>
+      <c r="AO215">
+        <v>0.62</v>
+      </c>
+      <c r="AP215">
+        <v>1.5</v>
+      </c>
+      <c r="AQ215">
+        <v>0.79</v>
+      </c>
+      <c r="AR215">
+        <v>1.41</v>
+      </c>
+      <c r="AS215">
+        <v>1.4</v>
+      </c>
+      <c r="AT215">
+        <v>2.81</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>2</v>
+      </c>
+      <c r="AW215">
+        <v>7</v>
+      </c>
+      <c r="AX215">
+        <v>4</v>
+      </c>
+      <c r="AY215">
+        <v>13</v>
+      </c>
+      <c r="AZ215">
+        <v>6</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
+        <v>2</v>
+      </c>
+      <c r="BC215">
+        <v>6</v>
+      </c>
+      <c r="BD215">
+        <v>1.95</v>
+      </c>
+      <c r="BE215">
+        <v>8</v>
+      </c>
+      <c r="BF215">
+        <v>2.1</v>
+      </c>
+      <c r="BG215">
+        <v>1.2</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>1.28</v>
+      </c>
+      <c r="BJ215">
+        <v>3.2</v>
+      </c>
+      <c r="BK215">
+        <v>1.51</v>
+      </c>
+      <c r="BL215">
+        <v>2.32</v>
+      </c>
+      <c r="BM215">
+        <v>1.98</v>
+      </c>
+      <c r="BN215">
+        <v>1.82</v>
+      </c>
+      <c r="BO215">
+        <v>2.38</v>
+      </c>
+      <c r="BP215">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>6589005</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F216">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>70</v>
+      </c>
+      <c r="H216" t="s">
+        <v>82</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>164</v>
+      </c>
+      <c r="P216" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q216">
+        <v>2.3</v>
+      </c>
+      <c r="R216">
+        <v>2.25</v>
+      </c>
+      <c r="S216">
+        <v>4</v>
+      </c>
+      <c r="T216">
+        <v>1.3</v>
+      </c>
+      <c r="U216">
+        <v>3.2</v>
+      </c>
+      <c r="V216">
+        <v>2.5</v>
+      </c>
+      <c r="W216">
+        <v>1.45</v>
+      </c>
+      <c r="X216">
+        <v>5.8</v>
+      </c>
+      <c r="Y216">
+        <v>1.1</v>
+      </c>
+      <c r="Z216">
+        <v>1.95</v>
+      </c>
+      <c r="AA216">
+        <v>3.4</v>
+      </c>
+      <c r="AB216">
+        <v>3.4</v>
+      </c>
+      <c r="AC216">
+        <v>1.04</v>
+      </c>
+      <c r="AD216">
+        <v>8.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.2</v>
+      </c>
+      <c r="AF216">
+        <v>3.9</v>
+      </c>
+      <c r="AG216">
+        <v>1.73</v>
+      </c>
+      <c r="AH216">
+        <v>2</v>
+      </c>
+      <c r="AI216">
+        <v>1.6</v>
+      </c>
+      <c r="AJ216">
+        <v>2.2</v>
+      </c>
+      <c r="AK216">
+        <v>1.22</v>
+      </c>
+      <c r="AL216">
+        <v>1.27</v>
+      </c>
+      <c r="AM216">
+        <v>1.8</v>
+      </c>
+      <c r="AN216">
+        <v>0.77</v>
+      </c>
+      <c r="AO216">
+        <v>0.15</v>
+      </c>
+      <c r="AP216">
+        <v>0.79</v>
+      </c>
+      <c r="AQ216">
+        <v>0.21</v>
+      </c>
+      <c r="AR216">
+        <v>1.15</v>
+      </c>
+      <c r="AS216">
+        <v>1.38</v>
+      </c>
+      <c r="AT216">
+        <v>2.53</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>5</v>
+      </c>
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
+        <v>0</v>
+      </c>
+      <c r="AY216">
+        <v>13</v>
+      </c>
+      <c r="AZ216">
+        <v>5</v>
+      </c>
+      <c r="BA216">
+        <v>8</v>
+      </c>
+      <c r="BB216">
+        <v>6</v>
+      </c>
+      <c r="BC216">
+        <v>14</v>
+      </c>
+      <c r="BD216">
+        <v>1.82</v>
+      </c>
+      <c r="BE216">
+        <v>8.5</v>
+      </c>
+      <c r="BF216">
+        <v>2.32</v>
+      </c>
+      <c r="BG216">
+        <v>1.1</v>
+      </c>
+      <c r="BH216">
+        <v>7.03</v>
+      </c>
+      <c r="BI216">
+        <v>1.22</v>
+      </c>
+      <c r="BJ216">
+        <v>4.33</v>
+      </c>
+      <c r="BK216">
+        <v>1.32</v>
+      </c>
+      <c r="BL216">
+        <v>2.98</v>
+      </c>
+      <c r="BM216">
+        <v>1.55</v>
+      </c>
+      <c r="BN216">
+        <v>2.23</v>
+      </c>
+      <c r="BO216">
+        <v>2</v>
+      </c>
+      <c r="BP216">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>6589009</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45389.54166666666</v>
+      </c>
+      <c r="F217">
+        <v>27</v>
+      </c>
+      <c r="G217" t="s">
+        <v>77</v>
+      </c>
+      <c r="H217" t="s">
+        <v>74</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>121</v>
+      </c>
+      <c r="P217" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q217">
+        <v>1.72</v>
+      </c>
+      <c r="R217">
+        <v>2.65</v>
+      </c>
+      <c r="S217">
+        <v>6.5</v>
+      </c>
+      <c r="T217">
+        <v>1.24</v>
+      </c>
+      <c r="U217">
+        <v>3.7</v>
+      </c>
+      <c r="V217">
+        <v>2.19</v>
+      </c>
+      <c r="W217">
+        <v>1.61</v>
+      </c>
+      <c r="X217">
+        <v>4.7</v>
+      </c>
+      <c r="Y217">
+        <v>1.16</v>
+      </c>
+      <c r="Z217">
+        <v>1.29</v>
+      </c>
+      <c r="AA217">
+        <v>5</v>
+      </c>
+      <c r="AB217">
+        <v>7</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>11</v>
+      </c>
+      <c r="AE217">
+        <v>1.11</v>
+      </c>
+      <c r="AF217">
+        <v>5.3</v>
+      </c>
+      <c r="AG217">
+        <v>1.42</v>
+      </c>
+      <c r="AH217">
+        <v>2.54</v>
+      </c>
+      <c r="AI217">
+        <v>1.8</v>
+      </c>
+      <c r="AJ217">
+        <v>1.95</v>
+      </c>
+      <c r="AK217">
+        <v>1.03</v>
+      </c>
+      <c r="AL217">
+        <v>1.1</v>
+      </c>
+      <c r="AM217">
+        <v>3.3</v>
+      </c>
+      <c r="AN217">
+        <v>2.85</v>
+      </c>
+      <c r="AO217">
+        <v>1.08</v>
+      </c>
+      <c r="AP217">
+        <v>2.71</v>
+      </c>
+      <c r="AQ217">
+        <v>1.08</v>
+      </c>
+      <c r="AR217">
+        <v>1.9</v>
+      </c>
+      <c r="AS217">
+        <v>1.41</v>
+      </c>
+      <c r="AT217">
+        <v>3.31</v>
+      </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
+      <c r="AV217">
+        <v>0</v>
+      </c>
+      <c r="AW217">
+        <v>2</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>7</v>
+      </c>
+      <c r="AZ217">
+        <v>2</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>10</v>
+      </c>
+      <c r="BD217">
+        <v>1.26</v>
+      </c>
+      <c r="BE217">
+        <v>10</v>
+      </c>
+      <c r="BF217">
+        <v>4.5</v>
+      </c>
+      <c r="BG217">
+        <v>1.14</v>
+      </c>
+      <c r="BH217">
+        <v>5.78</v>
+      </c>
+      <c r="BI217">
+        <v>1.24</v>
+      </c>
+      <c r="BJ217">
+        <v>3.48</v>
+      </c>
+      <c r="BK217">
+        <v>1.44</v>
+      </c>
+      <c r="BL217">
+        <v>2.51</v>
+      </c>
+      <c r="BM217">
+        <v>1.9</v>
+      </c>
+      <c r="BN217">
+        <v>1.9</v>
+      </c>
+      <c r="BO217">
+        <v>2.19</v>
+      </c>
+      <c r="BP217">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -46016,31 +46016,31 @@
         <v>3.31</v>
       </c>
       <c r="AU217">
+        <v>8</v>
+      </c>
+      <c r="AV217">
+        <v>2</v>
+      </c>
+      <c r="AW217">
+        <v>9</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>17</v>
+      </c>
+      <c r="AZ217">
+        <v>4</v>
+      </c>
+      <c r="BA217">
+        <v>7</v>
+      </c>
+      <c r="BB217">
         <v>5</v>
       </c>
-      <c r="AV217">
-        <v>0</v>
-      </c>
-      <c r="AW217">
-        <v>2</v>
-      </c>
-      <c r="AX217">
-        <v>2</v>
-      </c>
-      <c r="AY217">
-        <v>7</v>
-      </c>
-      <c r="AZ217">
-        <v>2</v>
-      </c>
-      <c r="BA217">
-        <v>6</v>
-      </c>
-      <c r="BB217">
-        <v>4</v>
-      </c>
       <c r="BC217">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD217">
         <v>1.26</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,12 @@
     <t>['45+1', '78']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45', '67', '90+6']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -785,9 +791,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -1013,6 +1016,15 @@
   </si>
   <si>
     <t>['11', '24', '61']</t>
+  </si>
+  <si>
+    <t>['45+2', '48', '74']</t>
+  </si>
+  <si>
+    <t>['69', '78']</t>
+  </si>
+  <si>
+    <t>['6', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1851,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2535,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -2869,7 +2881,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3487,7 +3499,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3568,7 +3580,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4105,7 +4117,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4183,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ14">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR14">
         <v>1.39</v>
@@ -4311,7 +4323,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4389,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ15">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4517,7 +4529,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4595,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16">
         <v>2.38</v>
@@ -4723,7 +4735,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4929,7 +4941,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5135,7 +5147,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5341,7 +5353,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5547,7 +5559,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5753,7 +5765,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6165,7 +6177,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6371,7 +6383,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6864,7 +6876,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR27">
         <v>0.7</v>
@@ -6989,7 +7001,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7070,7 +7082,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7401,7 +7413,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7479,7 +7491,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30">
         <v>2.38</v>
@@ -7607,7 +7619,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7688,7 +7700,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ31">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7891,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ32">
         <v>1.38</v>
@@ -8019,7 +8031,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8097,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ33">
         <v>2.07</v>
@@ -8225,7 +8237,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8431,7 +8443,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8843,7 +8855,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8924,7 +8936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR37">
         <v>0.96</v>
@@ -9127,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9873,7 +9885,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>2.7</v>
@@ -9954,7 +9966,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ42">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.31</v>
@@ -10079,7 +10091,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10491,7 +10503,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10569,7 +10581,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ45">
         <v>0.79</v>
@@ -10697,7 +10709,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10984,7 +10996,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ47">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR47">
         <v>1.72</v>
@@ -11521,7 +11533,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11599,7 +11611,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
         <v>0.79</v>
@@ -12345,7 +12357,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12426,7 +12438,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ54">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12551,7 +12563,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12757,7 +12769,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13044,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13247,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ58">
         <v>1.79</v>
@@ -13581,7 +13593,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13659,7 +13671,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ60">
         <v>0.79</v>
@@ -13993,7 +14005,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14199,7 +14211,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14280,7 +14292,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ63">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14611,7 +14623,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14689,7 +14701,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ65">
         <v>1.08</v>
@@ -14817,7 +14829,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -15023,7 +15035,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15104,7 +15116,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ67">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15435,7 +15447,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15513,7 +15525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15847,7 +15859,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16053,7 +16065,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16134,7 +16146,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ72">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR72">
         <v>2.54</v>
@@ -16259,7 +16271,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16340,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR73">
         <v>1.65</v>
@@ -16671,7 +16683,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16877,7 +16889,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -17573,7 +17585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17985,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ81">
         <v>0.43</v>
@@ -18194,7 +18206,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.56</v>
@@ -18397,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83">
         <v>0.46</v>
@@ -18937,7 +18949,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19018,7 +19030,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ86">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19143,7 +19155,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19349,7 +19361,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19555,7 +19567,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20791,7 +20803,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21203,7 +21215,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21284,7 +21296,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR97">
         <v>1.6</v>
@@ -21490,7 +21502,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -21693,7 +21705,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
         <v>1.23</v>
@@ -22233,7 +22245,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22439,7 +22451,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22517,10 +22529,10 @@
         <v>2.33</v>
       </c>
       <c r="AP103">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22645,7 +22657,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22723,7 +22735,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ104">
         <v>2.38</v>
@@ -23057,7 +23069,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23469,7 +23481,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23881,7 +23893,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24293,7 +24305,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24577,7 +24589,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24705,7 +24717,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24783,10 +24795,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.2</v>
@@ -24911,7 +24923,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25198,7 +25210,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25401,7 +25413,7 @@
         <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ117">
         <v>0.46</v>
@@ -25529,7 +25541,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25735,7 +25747,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25816,7 +25828,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR119">
         <v>2.07</v>
@@ -25941,7 +25953,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26353,7 +26365,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27795,7 +27807,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28001,7 +28013,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28082,7 +28094,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ130">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR130">
         <v>1.25</v>
@@ -28207,7 +28219,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28285,7 +28297,7 @@
         <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131">
         <v>2.07</v>
@@ -28413,7 +28425,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28494,7 +28506,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ132">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28619,7 +28631,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28825,7 +28837,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29237,7 +29249,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29855,7 +29867,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29933,7 +29945,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ139">
         <v>0.46</v>
@@ -30061,7 +30073,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30139,7 +30151,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ140">
         <v>0.79</v>
@@ -30345,10 +30357,10 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR141">
         <v>1.72</v>
@@ -30760,7 +30772,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ143">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR143">
         <v>1.25</v>
@@ -30885,7 +30897,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -30963,7 +30975,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ144">
         <v>1.38</v>
@@ -31375,7 +31387,7 @@
         <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ146">
         <v>0.21</v>
@@ -31503,7 +31515,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31709,7 +31721,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31996,7 +32008,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ149">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>2.03</v>
@@ -32121,7 +32133,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32533,7 +32545,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32614,7 +32626,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR152">
         <v>1.74</v>
@@ -32817,7 +32829,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ153">
         <v>1.79</v>
@@ -32945,7 +32957,7 @@
         <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -33151,7 +33163,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33357,7 +33369,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33563,7 +33575,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33769,7 +33781,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33975,7 +33987,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34181,7 +34193,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34387,7 +34399,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34465,7 +34477,7 @@
         <v>1.3</v>
       </c>
       <c r="AP161">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161">
         <v>1.79</v>
@@ -34593,7 +34605,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34799,7 +34811,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -34880,7 +34892,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ163">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.21</v>
@@ -35211,7 +35223,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35289,7 +35301,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ165">
         <v>2.07</v>
@@ -35417,7 +35429,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35623,7 +35635,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35829,7 +35841,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35910,7 +35922,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ168">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR168">
         <v>2.01</v>
@@ -36447,7 +36459,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36653,7 +36665,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36859,7 +36871,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37349,7 +37361,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37683,7 +37695,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37764,7 +37776,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37889,7 +37901,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38095,7 +38107,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38507,7 +38519,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38585,7 +38597,7 @@
         <v>0.18</v>
       </c>
       <c r="AP181">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ181">
         <v>0.21</v>
@@ -38713,7 +38725,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39000,7 +39012,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR183">
         <v>1.39</v>
@@ -39125,7 +39137,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39615,7 +39627,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
         <v>1.08</v>
@@ -40361,7 +40373,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40567,7 +40579,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -40645,7 +40657,7 @@
         <v>0.42</v>
       </c>
       <c r="AP191">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ191">
         <v>0.43</v>
@@ -40854,7 +40866,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ192">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>2.37</v>
@@ -41060,7 +41072,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR193">
         <v>1.9</v>
@@ -41185,7 +41197,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41391,7 +41403,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41469,7 +41481,7 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -42009,7 +42021,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42215,7 +42227,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42502,7 +42514,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ200">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42627,7 +42639,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42833,7 +42845,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q202">
         <v>2.11</v>
@@ -43117,7 +43129,7 @@
         <v>0.85</v>
       </c>
       <c r="AP203">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ203">
         <v>0.79</v>
@@ -43245,7 +43257,7 @@
         <v>200</v>
       </c>
       <c r="P204" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q204">
         <v>1.79</v>
@@ -43326,7 +43338,7 @@
         <v>2</v>
       </c>
       <c r="AQ204">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR204">
         <v>1.92</v>
@@ -43451,7 +43463,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43657,7 +43669,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43735,7 +43747,7 @@
         <v>0.46</v>
       </c>
       <c r="AP206">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ206">
         <v>0.43</v>
@@ -44069,7 +44081,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44150,7 +44162,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ208">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR208">
         <v>1.93</v>
@@ -44353,10 +44365,10 @@
         <v>2.17</v>
       </c>
       <c r="AP209">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ209">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44481,7 +44493,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q210">
         <v>3.09</v>
@@ -45099,7 +45111,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45305,7 +45317,7 @@
         <v>236</v>
       </c>
       <c r="P214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45511,7 +45523,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q215">
         <v>2.8</v>
@@ -46080,6 +46092,624 @@
       </c>
       <c r="BP217">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>6589013</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F218">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>81</v>
+      </c>
+      <c r="H218" t="s">
+        <v>77</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218" t="s">
+        <v>229</v>
+      </c>
+      <c r="P218" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q218">
+        <v>5.25</v>
+      </c>
+      <c r="R218">
+        <v>2.38</v>
+      </c>
+      <c r="S218">
+        <v>2.05</v>
+      </c>
+      <c r="T218">
+        <v>1.3</v>
+      </c>
+      <c r="U218">
+        <v>3.2</v>
+      </c>
+      <c r="V218">
+        <v>2.4</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>5.5</v>
+      </c>
+      <c r="Y218">
+        <v>1.11</v>
+      </c>
+      <c r="Z218">
+        <v>5.2</v>
+      </c>
+      <c r="AA218">
+        <v>4.1</v>
+      </c>
+      <c r="AB218">
+        <v>1.53</v>
+      </c>
+      <c r="AC218">
+        <v>1.02</v>
+      </c>
+      <c r="AD218">
+        <v>10</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>3.8</v>
+      </c>
+      <c r="AG218">
+        <v>1.68</v>
+      </c>
+      <c r="AH218">
+        <v>2.12</v>
+      </c>
+      <c r="AI218">
+        <v>1.75</v>
+      </c>
+      <c r="AJ218">
+        <v>1.95</v>
+      </c>
+      <c r="AK218">
+        <v>2.38</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.17</v>
+      </c>
+      <c r="AN218">
+        <v>1.31</v>
+      </c>
+      <c r="AO218">
+        <v>2.23</v>
+      </c>
+      <c r="AP218">
+        <v>1.21</v>
+      </c>
+      <c r="AQ218">
+        <v>2.29</v>
+      </c>
+      <c r="AR218">
+        <v>1.63</v>
+      </c>
+      <c r="AS218">
+        <v>1.57</v>
+      </c>
+      <c r="AT218">
+        <v>3.2</v>
+      </c>
+      <c r="AU218">
+        <v>0</v>
+      </c>
+      <c r="AV218">
+        <v>6</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>5</v>
+      </c>
+      <c r="AZ218">
+        <v>10</v>
+      </c>
+      <c r="BA218">
+        <v>3</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>7</v>
+      </c>
+      <c r="BD218">
+        <v>2.56</v>
+      </c>
+      <c r="BE218">
+        <v>9.5</v>
+      </c>
+      <c r="BF218">
+        <v>1.64</v>
+      </c>
+      <c r="BG218">
+        <v>1.2</v>
+      </c>
+      <c r="BH218">
+        <v>4</v>
+      </c>
+      <c r="BI218">
+        <v>1.26</v>
+      </c>
+      <c r="BJ218">
+        <v>3.34</v>
+      </c>
+      <c r="BK218">
+        <v>1.51</v>
+      </c>
+      <c r="BL218">
+        <v>2.51</v>
+      </c>
+      <c r="BM218">
+        <v>1.98</v>
+      </c>
+      <c r="BN218">
+        <v>1.82</v>
+      </c>
+      <c r="BO218">
+        <v>2.26</v>
+      </c>
+      <c r="BP218">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>6589015</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>74</v>
+      </c>
+      <c r="H219" t="s">
+        <v>72</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>237</v>
+      </c>
+      <c r="P219" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q219">
+        <v>2.25</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>4.5</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3</v>
+      </c>
+      <c r="V219">
+        <v>2.6</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>5.75</v>
+      </c>
+      <c r="Y219">
+        <v>1.1</v>
+      </c>
+      <c r="Z219">
+        <v>1.6</v>
+      </c>
+      <c r="AA219">
+        <v>3.9</v>
+      </c>
+      <c r="AB219">
+        <v>4.75</v>
+      </c>
+      <c r="AC219">
+        <v>1.02</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>3.6</v>
+      </c>
+      <c r="AG219">
+        <v>1.77</v>
+      </c>
+      <c r="AH219">
+        <v>2</v>
+      </c>
+      <c r="AI219">
+        <v>1.73</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>1.22</v>
+      </c>
+      <c r="AL219">
+        <v>1.29</v>
+      </c>
+      <c r="AM219">
+        <v>2</v>
+      </c>
+      <c r="AN219">
+        <v>1.86</v>
+      </c>
+      <c r="AO219">
+        <v>0.85</v>
+      </c>
+      <c r="AP219">
+        <v>1.73</v>
+      </c>
+      <c r="AQ219">
+        <v>1</v>
+      </c>
+      <c r="AR219">
+        <v>1.58</v>
+      </c>
+      <c r="AS219">
+        <v>1.39</v>
+      </c>
+      <c r="AT219">
+        <v>2.97</v>
+      </c>
+      <c r="AU219">
+        <v>4</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>8</v>
+      </c>
+      <c r="AX219">
+        <v>5</v>
+      </c>
+      <c r="AY219">
+        <v>12</v>
+      </c>
+      <c r="AZ219">
+        <v>8</v>
+      </c>
+      <c r="BA219">
+        <v>12</v>
+      </c>
+      <c r="BB219">
+        <v>5</v>
+      </c>
+      <c r="BC219">
+        <v>17</v>
+      </c>
+      <c r="BD219">
+        <v>1.51</v>
+      </c>
+      <c r="BE219">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF219">
+        <v>2.93</v>
+      </c>
+      <c r="BG219">
+        <v>1.15</v>
+      </c>
+      <c r="BH219">
+        <v>4.75</v>
+      </c>
+      <c r="BI219">
+        <v>1.25</v>
+      </c>
+      <c r="BJ219">
+        <v>3.42</v>
+      </c>
+      <c r="BK219">
+        <v>1.45</v>
+      </c>
+      <c r="BL219">
+        <v>2.48</v>
+      </c>
+      <c r="BM219">
+        <v>1.95</v>
+      </c>
+      <c r="BN219">
+        <v>1.85</v>
+      </c>
+      <c r="BO219">
+        <v>2.24</v>
+      </c>
+      <c r="BP219">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6589016</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220" t="s">
+        <v>75</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>238</v>
+      </c>
+      <c r="P220" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q220">
+        <v>3.83</v>
+      </c>
+      <c r="R220">
+        <v>2.38</v>
+      </c>
+      <c r="S220">
+        <v>2.67</v>
+      </c>
+      <c r="T220">
+        <v>1.33</v>
+      </c>
+      <c r="U220">
+        <v>3.32</v>
+      </c>
+      <c r="V220">
+        <v>2.56</v>
+      </c>
+      <c r="W220">
+        <v>1.51</v>
+      </c>
+      <c r="X220">
+        <v>5.5</v>
+      </c>
+      <c r="Y220">
+        <v>1.11</v>
+      </c>
+      <c r="Z220">
+        <v>3.05</v>
+      </c>
+      <c r="AA220">
+        <v>3.5</v>
+      </c>
+      <c r="AB220">
+        <v>2.12</v>
+      </c>
+      <c r="AC220">
+        <v>1.02</v>
+      </c>
+      <c r="AD220">
+        <v>10</v>
+      </c>
+      <c r="AE220">
+        <v>1.22</v>
+      </c>
+      <c r="AF220">
+        <v>3.8</v>
+      </c>
+      <c r="AG220">
+        <v>1.68</v>
+      </c>
+      <c r="AH220">
+        <v>2.1</v>
+      </c>
+      <c r="AI220">
+        <v>1.57</v>
+      </c>
+      <c r="AJ220">
+        <v>2.25</v>
+      </c>
+      <c r="AK220">
+        <v>1.7</v>
+      </c>
+      <c r="AL220">
+        <v>1.29</v>
+      </c>
+      <c r="AM220">
+        <v>1.36</v>
+      </c>
+      <c r="AN220">
+        <v>1.23</v>
+      </c>
+      <c r="AO220">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP220">
+        <v>1.36</v>
+      </c>
+      <c r="AQ220">
+        <v>0.64</v>
+      </c>
+      <c r="AR220">
+        <v>1.35</v>
+      </c>
+      <c r="AS220">
+        <v>1.45</v>
+      </c>
+      <c r="AT220">
+        <v>2.8</v>
+      </c>
+      <c r="AU220">
+        <v>3</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>2</v>
+      </c>
+      <c r="AX220">
+        <v>2</v>
+      </c>
+      <c r="AY220">
+        <v>5</v>
+      </c>
+      <c r="AZ220">
+        <v>6</v>
+      </c>
+      <c r="BA220">
+        <v>6</v>
+      </c>
+      <c r="BB220">
+        <v>6</v>
+      </c>
+      <c r="BC220">
+        <v>12</v>
+      </c>
+      <c r="BD220">
+        <v>2.02</v>
+      </c>
+      <c r="BE220">
+        <v>9.5</v>
+      </c>
+      <c r="BF220">
+        <v>1.98</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>1.22</v>
+      </c>
+      <c r="BJ220">
+        <v>3.65</v>
+      </c>
+      <c r="BK220">
+        <v>1.41</v>
+      </c>
+      <c r="BL220">
+        <v>2.6</v>
+      </c>
+      <c r="BM220">
+        <v>1.76</v>
+      </c>
+      <c r="BN220">
+        <v>2.04</v>
+      </c>
+      <c r="BO220">
+        <v>2.19</v>
+      </c>
+      <c r="BP220">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,15 @@
     <t>['45', '67', '90+6']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['19', '74']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -863,9 +872,6 @@
   </si>
   <si>
     <t>['20', '67']</t>
-  </si>
-  <si>
-    <t>['18']</t>
   </si>
   <si>
     <t>['49', '53', '58']</t>
@@ -1025,6 +1031,9 @@
   </si>
   <si>
     <t>['6', '90+3']</t>
+  </si>
+  <si>
+    <t>['62', '80']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1860,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2550,7 +2559,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2881,7 +2890,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>2.05</v>
@@ -3371,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3499,7 +3508,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3577,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>2.29</v>
@@ -3786,7 +3795,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ12">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -3989,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4117,7 +4126,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4323,7 +4332,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4529,7 +4538,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4610,7 +4619,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ16">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4735,7 +4744,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4813,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ17">
         <v>0.79</v>
@@ -4941,7 +4950,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5022,7 +5031,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ18">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR18">
         <v>2.28</v>
@@ -5147,7 +5156,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5353,7 +5362,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5559,7 +5568,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5637,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ21">
         <v>0.21</v>
@@ -5765,7 +5774,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -5843,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ22">
         <v>1.79</v>
@@ -6052,7 +6061,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR23">
         <v>0.8</v>
@@ -6177,7 +6186,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6383,7 +6392,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6667,7 +6676,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ26">
         <v>0.79</v>
@@ -6873,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>0.64</v>
@@ -7001,7 +7010,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7288,7 +7297,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ29">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7413,7 +7422,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7494,7 +7503,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ30">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR30">
         <v>1.51</v>
@@ -7619,7 +7628,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7697,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7906,7 +7915,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -8031,7 +8040,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8237,7 +8246,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8318,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR34">
         <v>1.94</v>
@@ -8443,7 +8452,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>2.66</v>
@@ -8730,7 +8739,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8855,7 +8864,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9345,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ39">
         <v>0.43</v>
@@ -9551,7 +9560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9963,7 +9972,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10091,7 +10100,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10172,7 +10181,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10375,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>0.21</v>
@@ -10503,7 +10512,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10709,7 +10718,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>5.5</v>
@@ -10790,7 +10799,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ46">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10993,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47">
         <v>0.64</v>
@@ -11202,7 +11211,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ48">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>2.51</v>
@@ -11533,7 +11542,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>2.98</v>
@@ -11614,7 +11623,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11820,7 +11829,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR51">
         <v>1.07</v>
@@ -12023,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52">
         <v>1.08</v>
@@ -12229,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12357,7 +12366,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12563,7 +12572,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12644,7 +12653,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ55">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12769,7 +12778,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12847,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13465,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>0.21</v>
@@ -13593,7 +13602,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13880,7 +13889,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ61">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14005,7 +14014,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14083,7 +14092,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>2.07</v>
@@ -14211,7 +14220,7 @@
         <v>97</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14498,7 +14507,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14623,7 +14632,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14829,7 +14838,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14907,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ66">
         <v>0.43</v>
@@ -15035,7 +15044,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15322,7 +15331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.49</v>
@@ -15447,7 +15456,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15731,10 +15740,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15859,7 +15868,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -15937,10 +15946,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ71">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -16065,7 +16074,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16271,7 +16280,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16558,7 +16567,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ74">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>1.12</v>
@@ -16683,7 +16692,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16761,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>0.21</v>
@@ -16889,7 +16898,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>2.85</v>
@@ -16967,7 +16976,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>1.79</v>
@@ -17382,7 +17391,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -18412,7 +18421,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ83">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18615,7 +18624,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>1.08</v>
@@ -18821,10 +18830,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ85">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR85">
         <v>1.98</v>
@@ -18949,7 +18958,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19027,7 +19036,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ86">
         <v>2.29</v>
@@ -19155,7 +19164,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19236,7 +19245,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ87">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR87">
         <v>1.63</v>
@@ -19361,7 +19370,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19439,10 +19448,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ88">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.83</v>
@@ -19567,7 +19576,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19645,7 +19654,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
         <v>1.08</v>
@@ -20472,7 +20481,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20803,7 +20812,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21215,7 +21224,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21499,7 +21508,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21708,7 +21717,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ99">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -21911,7 +21920,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>0.43</v>
@@ -22117,10 +22126,10 @@
         <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>2.05</v>
@@ -22245,7 +22254,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22323,10 +22332,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ102">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22451,7 +22460,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22657,7 +22666,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22738,7 +22747,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ104">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR104">
         <v>1.81</v>
@@ -23069,7 +23078,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23481,7 +23490,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q108">
         <v>2.36</v>
@@ -23893,7 +23902,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24305,7 +24314,7 @@
         <v>112</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24592,7 +24601,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ113">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR113">
         <v>1.43</v>
@@ -24717,7 +24726,7 @@
         <v>86</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>2.7</v>
@@ -24923,7 +24932,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25001,10 +25010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ115">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR115">
         <v>1.36</v>
@@ -25207,7 +25216,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ116">
         <v>0.64</v>
@@ -25416,7 +25425,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ117">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25541,7 +25550,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25619,10 +25628,10 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25747,7 +25756,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25825,7 +25834,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
         <v>2.29</v>
@@ -25953,7 +25962,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26031,10 +26040,10 @@
         <v>2.43</v>
       </c>
       <c r="AP120">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ120">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26365,7 +26374,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26855,7 +26864,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124">
         <v>2.07</v>
@@ -27476,7 +27485,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27807,7 +27816,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27885,10 +27894,10 @@
         <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28013,7 +28022,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28219,7 +28228,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28425,7 +28434,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28631,7 +28640,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q133">
         <v>1.91</v>
@@ -28837,7 +28846,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>2.22</v>
@@ -29124,7 +29133,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ135">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR135">
         <v>2.09</v>
@@ -29249,7 +29258,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29327,7 +29336,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ136">
         <v>1.79</v>
@@ -29533,7 +29542,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ137">
         <v>0.21</v>
@@ -29867,7 +29876,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -29948,7 +29957,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30073,7 +30082,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30563,7 +30572,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
         <v>0.79</v>
@@ -30897,7 +30906,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>2.89</v>
@@ -30978,7 +30987,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR144">
         <v>1.58</v>
@@ -31184,7 +31193,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ145">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR145">
         <v>1.47</v>
@@ -31515,7 +31524,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>4.75</v>
@@ -31593,10 +31602,10 @@
         <v>2.5</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR147">
         <v>2.08</v>
@@ -31721,7 +31730,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31799,7 +31808,7 @@
         <v>1.63</v>
       </c>
       <c r="AP148">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ148">
         <v>2.07</v>
@@ -32133,7 +32142,7 @@
         <v>163</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32214,7 +32223,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32545,7 +32554,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33035,7 +33044,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ154">
         <v>1.08</v>
@@ -33163,7 +33172,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33369,7 +33378,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33447,7 +33456,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33575,7 +33584,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33656,7 +33665,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ157">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR157">
         <v>2.18</v>
@@ -33781,7 +33790,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33859,7 +33868,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ158">
         <v>2.07</v>
@@ -33987,7 +33996,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34068,7 +34077,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34193,7 +34202,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34271,10 +34280,10 @@
         <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ160">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34399,7 +34408,7 @@
         <v>88</v>
       </c>
       <c r="P161" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>2.8</v>
@@ -34605,7 +34614,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>2.16</v>
@@ -34811,7 +34820,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>2.9</v>
@@ -35095,7 +35104,7 @@
         <v>0.6</v>
       </c>
       <c r="AP164">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ164">
         <v>0.79</v>
@@ -35223,7 +35232,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35429,7 +35438,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35507,10 +35516,10 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35635,7 +35644,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35716,7 +35725,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR167">
         <v>1.63</v>
@@ -35841,7 +35850,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36331,7 +36340,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ170">
         <v>1.08</v>
@@ -36459,7 +36468,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36537,7 +36546,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36665,7 +36674,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36746,7 +36755,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -36871,7 +36880,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36952,7 +36961,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ173">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -37155,7 +37164,7 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ174">
         <v>0.43</v>
@@ -37570,7 +37579,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ176">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR176">
         <v>2.25</v>
@@ -37695,7 +37704,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37901,7 +37910,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -37982,7 +37991,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38107,7 +38116,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>2.7</v>
@@ -38185,7 +38194,7 @@
         <v>1.09</v>
       </c>
       <c r="AP179">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38519,7 +38528,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q181">
         <v>1.84</v>
@@ -38725,7 +38734,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39137,7 +39146,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39215,7 +39224,7 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184">
         <v>1.79</v>
@@ -39424,7 +39433,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ185">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR185">
         <v>2.02</v>
@@ -39833,10 +39842,10 @@
         <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ187">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -40042,7 +40051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR188">
         <v>1.75</v>
@@ -40248,7 +40257,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ189">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -40373,7 +40382,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40451,7 +40460,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40579,7 +40588,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>2.5</v>
@@ -41069,7 +41078,7 @@
         <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ193">
         <v>2.29</v>
@@ -41197,7 +41206,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>3.58</v>
@@ -41275,7 +41284,7 @@
         <v>1.08</v>
       </c>
       <c r="AP194">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41403,7 +41412,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q195">
         <v>2.49</v>
@@ -41896,7 +41905,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42021,7 +42030,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q198">
         <v>4.13</v>
@@ -42227,7 +42236,7 @@
         <v>225</v>
       </c>
       <c r="P199" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>3.88</v>
@@ -42639,7 +42648,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42845,7 +42854,7 @@
         <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q202">
         <v>2.11</v>
@@ -42923,10 +42932,10 @@
         <v>1.08</v>
       </c>
       <c r="AP202">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ202">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR202">
         <v>1.54</v>
@@ -43132,7 +43141,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ203">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR203">
         <v>1.63</v>
@@ -43257,7 +43266,7 @@
         <v>200</v>
       </c>
       <c r="P204" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>1.79</v>
@@ -43335,7 +43344,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ204">
         <v>0.64</v>
@@ -43463,7 +43472,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43544,7 +43553,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ205">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR205">
         <v>1.72</v>
@@ -43669,7 +43678,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43953,10 +43962,10 @@
         <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ207">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR207">
         <v>1.51</v>
@@ -44081,7 +44090,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44159,7 +44168,7 @@
         <v>0.92</v>
       </c>
       <c r="AP208">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44493,7 +44502,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q210">
         <v>3.09</v>
@@ -44571,7 +44580,7 @@
         <v>1.08</v>
       </c>
       <c r="AP210">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -44780,7 +44789,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ211">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR211">
         <v>1.69</v>
@@ -45111,7 +45120,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45317,7 +45326,7 @@
         <v>236</v>
       </c>
       <c r="P214" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45523,7 +45532,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q215">
         <v>2.8</v>
@@ -46141,7 +46150,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46234,31 +46243,31 @@
         <v>3.2</v>
       </c>
       <c r="AU218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV218">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW218">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX218">
         <v>4</v>
       </c>
       <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>15</v>
+      </c>
+      <c r="BA218">
+        <v>6</v>
+      </c>
+      <c r="BB218">
         <v>5</v>
       </c>
-      <c r="AZ218">
-        <v>10</v>
-      </c>
-      <c r="BA218">
-        <v>3</v>
-      </c>
-      <c r="BB218">
-        <v>4</v>
-      </c>
       <c r="BC218">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD218">
         <v>2.56</v>
@@ -46347,7 +46356,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46440,22 +46449,22 @@
         <v>2.97</v>
       </c>
       <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
         <v>4</v>
       </c>
-      <c r="AV219">
-        <v>3</v>
-      </c>
       <c r="AW219">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX219">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY219">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ219">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA219">
         <v>12</v>
@@ -46553,7 +46562,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46646,31 +46655,31 @@
         <v>2.8</v>
       </c>
       <c r="AU220">
+        <v>4</v>
+      </c>
+      <c r="AV220">
+        <v>5</v>
+      </c>
+      <c r="AW220">
         <v>3</v>
       </c>
-      <c r="AV220">
-        <v>4</v>
-      </c>
-      <c r="AW220">
-        <v>2</v>
-      </c>
       <c r="AX220">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY220">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ220">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA220">
         <v>6</v>
       </c>
       <c r="BB220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC220">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD220">
         <v>2.02</v>
@@ -46710,6 +46719,1036 @@
       </c>
       <c r="BP220">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6589018</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>84</v>
+      </c>
+      <c r="H221" t="s">
+        <v>76</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>239</v>
+      </c>
+      <c r="P221" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q221">
+        <v>2.96</v>
+      </c>
+      <c r="R221">
+        <v>2.14</v>
+      </c>
+      <c r="S221">
+        <v>3.96</v>
+      </c>
+      <c r="T221">
+        <v>1.44</v>
+      </c>
+      <c r="U221">
+        <v>2.79</v>
+      </c>
+      <c r="V221">
+        <v>3.21</v>
+      </c>
+      <c r="W221">
+        <v>1.35</v>
+      </c>
+      <c r="X221">
+        <v>6.5</v>
+      </c>
+      <c r="Y221">
+        <v>1.08</v>
+      </c>
+      <c r="Z221">
+        <v>2.23</v>
+      </c>
+      <c r="AA221">
+        <v>3.05</v>
+      </c>
+      <c r="AB221">
+        <v>3.25</v>
+      </c>
+      <c r="AC221">
+        <v>1.06</v>
+      </c>
+      <c r="AD221">
+        <v>7.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.36</v>
+      </c>
+      <c r="AF221">
+        <v>2.9</v>
+      </c>
+      <c r="AG221">
+        <v>2.12</v>
+      </c>
+      <c r="AH221">
+        <v>1.68</v>
+      </c>
+      <c r="AI221">
+        <v>1.85</v>
+      </c>
+      <c r="AJ221">
+        <v>1.85</v>
+      </c>
+      <c r="AK221">
+        <v>1.4</v>
+      </c>
+      <c r="AL221">
+        <v>1.33</v>
+      </c>
+      <c r="AM221">
+        <v>1.57</v>
+      </c>
+      <c r="AN221">
+        <v>1.69</v>
+      </c>
+      <c r="AO221">
+        <v>1.38</v>
+      </c>
+      <c r="AP221">
+        <v>1.79</v>
+      </c>
+      <c r="AQ221">
+        <v>1.29</v>
+      </c>
+      <c r="AR221">
+        <v>1.5</v>
+      </c>
+      <c r="AS221">
+        <v>1.23</v>
+      </c>
+      <c r="AT221">
+        <v>2.73</v>
+      </c>
+      <c r="AU221">
+        <v>5</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>3</v>
+      </c>
+      <c r="AY221">
+        <v>10</v>
+      </c>
+      <c r="AZ221">
+        <v>7</v>
+      </c>
+      <c r="BA221">
+        <v>7</v>
+      </c>
+      <c r="BB221">
+        <v>2</v>
+      </c>
+      <c r="BC221">
+        <v>9</v>
+      </c>
+      <c r="BD221">
+        <v>1.78</v>
+      </c>
+      <c r="BE221">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF221">
+        <v>2.3</v>
+      </c>
+      <c r="BG221">
+        <v>1.22</v>
+      </c>
+      <c r="BH221">
+        <v>3.8</v>
+      </c>
+      <c r="BI221">
+        <v>1.3</v>
+      </c>
+      <c r="BJ221">
+        <v>3.08</v>
+      </c>
+      <c r="BK221">
+        <v>1.57</v>
+      </c>
+      <c r="BL221">
+        <v>2.36</v>
+      </c>
+      <c r="BM221">
+        <v>1.92</v>
+      </c>
+      <c r="BN221">
+        <v>1.87</v>
+      </c>
+      <c r="BO221">
+        <v>2.42</v>
+      </c>
+      <c r="BP221">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>6589011</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
+        <v>70</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>240</v>
+      </c>
+      <c r="P222" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q222">
+        <v>2.52</v>
+      </c>
+      <c r="R222">
+        <v>2.3</v>
+      </c>
+      <c r="S222">
+        <v>4.43</v>
+      </c>
+      <c r="T222">
+        <v>1.36</v>
+      </c>
+      <c r="U222">
+        <v>3.14</v>
+      </c>
+      <c r="V222">
+        <v>2.81</v>
+      </c>
+      <c r="W222">
+        <v>1.43</v>
+      </c>
+      <c r="X222">
+        <v>6.5</v>
+      </c>
+      <c r="Y222">
+        <v>1.1</v>
+      </c>
+      <c r="Z222">
+        <v>1.92</v>
+      </c>
+      <c r="AA222">
+        <v>3.45</v>
+      </c>
+      <c r="AB222">
+        <v>3.85</v>
+      </c>
+      <c r="AC222">
+        <v>1.07</v>
+      </c>
+      <c r="AD222">
+        <v>7.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.29</v>
+      </c>
+      <c r="AF222">
+        <v>3.3</v>
+      </c>
+      <c r="AG222">
+        <v>1.95</v>
+      </c>
+      <c r="AH222">
+        <v>1.89</v>
+      </c>
+      <c r="AI222">
+        <v>1.85</v>
+      </c>
+      <c r="AJ222">
+        <v>1.85</v>
+      </c>
+      <c r="AK222">
+        <v>1.29</v>
+      </c>
+      <c r="AL222">
+        <v>1.3</v>
+      </c>
+      <c r="AM222">
+        <v>1.88</v>
+      </c>
+      <c r="AN222">
+        <v>1.31</v>
+      </c>
+      <c r="AO222">
+        <v>1.23</v>
+      </c>
+      <c r="AP222">
+        <v>1.29</v>
+      </c>
+      <c r="AQ222">
+        <v>1.21</v>
+      </c>
+      <c r="AR222">
+        <v>1.47</v>
+      </c>
+      <c r="AS222">
+        <v>1.22</v>
+      </c>
+      <c r="AT222">
+        <v>2.69</v>
+      </c>
+      <c r="AU222">
+        <v>5</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>8</v>
+      </c>
+      <c r="AX222">
+        <v>7</v>
+      </c>
+      <c r="AY222">
+        <v>13</v>
+      </c>
+      <c r="AZ222">
+        <v>11</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>3</v>
+      </c>
+      <c r="BC222">
+        <v>10</v>
+      </c>
+      <c r="BD222">
+        <v>1.7</v>
+      </c>
+      <c r="BE222">
+        <v>9.4</v>
+      </c>
+      <c r="BF222">
+        <v>2.43</v>
+      </c>
+      <c r="BG222">
+        <v>1.12</v>
+      </c>
+      <c r="BH222">
+        <v>5.6</v>
+      </c>
+      <c r="BI222">
+        <v>1.22</v>
+      </c>
+      <c r="BJ222">
+        <v>3.64</v>
+      </c>
+      <c r="BK222">
+        <v>1.42</v>
+      </c>
+      <c r="BL222">
+        <v>2.57</v>
+      </c>
+      <c r="BM222">
+        <v>1.9</v>
+      </c>
+      <c r="BN222">
+        <v>1.9</v>
+      </c>
+      <c r="BO222">
+        <v>2.14</v>
+      </c>
+      <c r="BP222">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>6589012</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>78</v>
+      </c>
+      <c r="H223" t="s">
+        <v>85</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
+        <v>225</v>
+      </c>
+      <c r="P223" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q223">
+        <v>2.73</v>
+      </c>
+      <c r="R223">
+        <v>2.24</v>
+      </c>
+      <c r="S223">
+        <v>3.89</v>
+      </c>
+      <c r="T223">
+        <v>1.39</v>
+      </c>
+      <c r="U223">
+        <v>3.01</v>
+      </c>
+      <c r="V223">
+        <v>2.93</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>7</v>
+      </c>
+      <c r="Y223">
+        <v>1.08</v>
+      </c>
+      <c r="Z223">
+        <v>2.13</v>
+      </c>
+      <c r="AA223">
+        <v>3.35</v>
+      </c>
+      <c r="AB223">
+        <v>3.3</v>
+      </c>
+      <c r="AC223">
+        <v>1.04</v>
+      </c>
+      <c r="AD223">
+        <v>7.8</v>
+      </c>
+      <c r="AE223">
+        <v>1.25</v>
+      </c>
+      <c r="AF223">
+        <v>3.5</v>
+      </c>
+      <c r="AG223">
+        <v>2.01</v>
+      </c>
+      <c r="AH223">
+        <v>1.83</v>
+      </c>
+      <c r="AI223">
+        <v>1.72</v>
+      </c>
+      <c r="AJ223">
+        <v>1.97</v>
+      </c>
+      <c r="AK223">
+        <v>1.25</v>
+      </c>
+      <c r="AL223">
+        <v>1.33</v>
+      </c>
+      <c r="AM223">
+        <v>1.62</v>
+      </c>
+      <c r="AN223">
+        <v>1.46</v>
+      </c>
+      <c r="AO223">
+        <v>0.79</v>
+      </c>
+      <c r="AP223">
+        <v>1.57</v>
+      </c>
+      <c r="AQ223">
+        <v>0.73</v>
+      </c>
+      <c r="AR223">
+        <v>1.56</v>
+      </c>
+      <c r="AS223">
+        <v>1.35</v>
+      </c>
+      <c r="AT223">
+        <v>2.91</v>
+      </c>
+      <c r="AU223">
+        <v>7</v>
+      </c>
+      <c r="AV223">
+        <v>3</v>
+      </c>
+      <c r="AW223">
+        <v>6</v>
+      </c>
+      <c r="AX223">
+        <v>3</v>
+      </c>
+      <c r="AY223">
+        <v>13</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>6</v>
+      </c>
+      <c r="BB223">
+        <v>12</v>
+      </c>
+      <c r="BC223">
+        <v>18</v>
+      </c>
+      <c r="BD223">
+        <v>1.75</v>
+      </c>
+      <c r="BE223">
+        <v>9.4</v>
+      </c>
+      <c r="BF223">
+        <v>2.34</v>
+      </c>
+      <c r="BG223">
+        <v>1.15</v>
+      </c>
+      <c r="BH223">
+        <v>5.1</v>
+      </c>
+      <c r="BI223">
+        <v>1.29</v>
+      </c>
+      <c r="BJ223">
+        <v>3.4</v>
+      </c>
+      <c r="BK223">
+        <v>1.48</v>
+      </c>
+      <c r="BL223">
+        <v>2.55</v>
+      </c>
+      <c r="BM223">
+        <v>1.8</v>
+      </c>
+      <c r="BN223">
+        <v>2</v>
+      </c>
+      <c r="BO223">
+        <v>2.23</v>
+      </c>
+      <c r="BP223">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6589014</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>80</v>
+      </c>
+      <c r="H224" t="s">
+        <v>71</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>241</v>
+      </c>
+      <c r="P224" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q224">
+        <v>1.8</v>
+      </c>
+      <c r="R224">
+        <v>2.5</v>
+      </c>
+      <c r="S224">
+        <v>6.5</v>
+      </c>
+      <c r="T224">
+        <v>1.3</v>
+      </c>
+      <c r="U224">
+        <v>3.4</v>
+      </c>
+      <c r="V224">
+        <v>2.39</v>
+      </c>
+      <c r="W224">
+        <v>1.55</v>
+      </c>
+      <c r="X224">
+        <v>4.9</v>
+      </c>
+      <c r="Y224">
+        <v>1.14</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>5</v>
+      </c>
+      <c r="AB224">
+        <v>7.4</v>
+      </c>
+      <c r="AC224">
+        <v>1.03</v>
+      </c>
+      <c r="AD224">
+        <v>19.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.19</v>
+      </c>
+      <c r="AF224">
+        <v>4.83</v>
+      </c>
+      <c r="AG224">
+        <v>1.55</v>
+      </c>
+      <c r="AH224">
+        <v>2.3</v>
+      </c>
+      <c r="AI224">
+        <v>1.82</v>
+      </c>
+      <c r="AJ224">
+        <v>1.88</v>
+      </c>
+      <c r="AK224">
+        <v>1.03</v>
+      </c>
+      <c r="AL224">
+        <v>1.13</v>
+      </c>
+      <c r="AM224">
+        <v>3.2</v>
+      </c>
+      <c r="AN224">
+        <v>1.38</v>
+      </c>
+      <c r="AO224">
+        <v>0.46</v>
+      </c>
+      <c r="AP224">
+        <v>1.36</v>
+      </c>
+      <c r="AQ224">
+        <v>0.5</v>
+      </c>
+      <c r="AR224">
+        <v>1.93</v>
+      </c>
+      <c r="AS224">
+        <v>1.28</v>
+      </c>
+      <c r="AT224">
+        <v>3.21</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>8</v>
+      </c>
+      <c r="AW224">
+        <v>6</v>
+      </c>
+      <c r="AX224">
+        <v>4</v>
+      </c>
+      <c r="AY224">
+        <v>11</v>
+      </c>
+      <c r="AZ224">
+        <v>12</v>
+      </c>
+      <c r="BA224">
+        <v>9</v>
+      </c>
+      <c r="BB224">
+        <v>5</v>
+      </c>
+      <c r="BC224">
+        <v>14</v>
+      </c>
+      <c r="BD224">
+        <v>1.29</v>
+      </c>
+      <c r="BE224">
+        <v>11</v>
+      </c>
+      <c r="BF224">
+        <v>4.2</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>1.25</v>
+      </c>
+      <c r="BJ224">
+        <v>3.42</v>
+      </c>
+      <c r="BK224">
+        <v>1.48</v>
+      </c>
+      <c r="BL224">
+        <v>2.57</v>
+      </c>
+      <c r="BM224">
+        <v>1.82</v>
+      </c>
+      <c r="BN224">
+        <v>1.98</v>
+      </c>
+      <c r="BO224">
+        <v>2.24</v>
+      </c>
+      <c r="BP224">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>6589017</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45396.54166666666</v>
+      </c>
+      <c r="F225">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>83</v>
+      </c>
+      <c r="H225" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>148</v>
+      </c>
+      <c r="P225" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q225">
+        <v>4.2</v>
+      </c>
+      <c r="R225">
+        <v>2.25</v>
+      </c>
+      <c r="S225">
+        <v>2.25</v>
+      </c>
+      <c r="T225">
+        <v>1.36</v>
+      </c>
+      <c r="U225">
+        <v>2.9</v>
+      </c>
+      <c r="V225">
+        <v>2.62</v>
+      </c>
+      <c r="W225">
+        <v>1.42</v>
+      </c>
+      <c r="X225">
+        <v>6</v>
+      </c>
+      <c r="Y225">
+        <v>1.09</v>
+      </c>
+      <c r="Z225">
+        <v>3.27</v>
+      </c>
+      <c r="AA225">
+        <v>3.32</v>
+      </c>
+      <c r="AB225">
+        <v>2.16</v>
+      </c>
+      <c r="AC225">
+        <v>1.03</v>
+      </c>
+      <c r="AD225">
+        <v>9</v>
+      </c>
+      <c r="AE225">
+        <v>1.29</v>
+      </c>
+      <c r="AF225">
+        <v>3.3</v>
+      </c>
+      <c r="AG225">
+        <v>1.93</v>
+      </c>
+      <c r="AH225">
+        <v>1.85</v>
+      </c>
+      <c r="AI225">
+        <v>1.8</v>
+      </c>
+      <c r="AJ225">
+        <v>1.91</v>
+      </c>
+      <c r="AK225">
+        <v>2.05</v>
+      </c>
+      <c r="AL225">
+        <v>1.27</v>
+      </c>
+      <c r="AM225">
+        <v>1.11</v>
+      </c>
+      <c r="AN225">
+        <v>2</v>
+      </c>
+      <c r="AO225">
+        <v>2.38</v>
+      </c>
+      <c r="AP225">
+        <v>2.07</v>
+      </c>
+      <c r="AQ225">
+        <v>2.21</v>
+      </c>
+      <c r="AR225">
+        <v>1.93</v>
+      </c>
+      <c r="AS225">
+        <v>1.78</v>
+      </c>
+      <c r="AT225">
+        <v>3.71</v>
+      </c>
+      <c r="AU225">
+        <v>2</v>
+      </c>
+      <c r="AV225">
+        <v>3</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>8</v>
+      </c>
+      <c r="AY225">
+        <v>5</v>
+      </c>
+      <c r="AZ225">
+        <v>11</v>
+      </c>
+      <c r="BA225">
+        <v>5</v>
+      </c>
+      <c r="BB225">
+        <v>8</v>
+      </c>
+      <c r="BC225">
+        <v>13</v>
+      </c>
+      <c r="BD225">
+        <v>2.82</v>
+      </c>
+      <c r="BE225">
+        <v>9.4</v>
+      </c>
+      <c r="BF225">
+        <v>1.55</v>
+      </c>
+      <c r="BG225">
+        <v>1.17</v>
+      </c>
+      <c r="BH225">
+        <v>4.7</v>
+      </c>
+      <c r="BI225">
+        <v>1.3</v>
+      </c>
+      <c r="BJ225">
+        <v>3.08</v>
+      </c>
+      <c r="BK225">
+        <v>1.59</v>
+      </c>
+      <c r="BL225">
+        <v>2.29</v>
+      </c>
+      <c r="BM225">
+        <v>1.95</v>
+      </c>
+      <c r="BN225">
+        <v>1.85</v>
+      </c>
+      <c r="BO225">
+        <v>2.44</v>
+      </c>
+      <c r="BP225">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -46864,19 +46864,19 @@
         <v>5</v>
       </c>
       <c r="AV221">
+        <v>2</v>
+      </c>
+      <c r="AW221">
+        <v>6</v>
+      </c>
+      <c r="AX221">
         <v>4</v>
       </c>
-      <c r="AW221">
-        <v>5</v>
-      </c>
-      <c r="AX221">
-        <v>3</v>
-      </c>
       <c r="AY221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ221">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA221">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -47685,22 +47685,22 @@
         <v>3.71</v>
       </c>
       <c r="AU225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX225">
+        <v>7</v>
+      </c>
+      <c r="AY225">
         <v>8</v>
       </c>
-      <c r="AY225">
-        <v>5</v>
-      </c>
       <c r="AZ225">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA225">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['33', '40']</t>
   </si>
   <si>
+    <t>['77', '84']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1046,6 +1049,12 @@
   </si>
   <si>
     <t>['25', '67']</t>
+  </si>
+  <si>
+    <t>['52', '66']</t>
+  </si>
+  <si>
+    <t>['7', '37']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1872,7 +1881,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2159,7 +2168,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2362,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ5">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2774,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2980,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
         <v>0.27</v>
@@ -3520,7 +3529,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>5.25</v>
@@ -3804,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ12">
         <v>0.73</v>
@@ -4138,7 +4147,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4344,7 +4353,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4550,7 +4559,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4756,7 +4765,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4837,7 +4846,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ17">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4962,7 +4971,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>1.5</v>
@@ -5168,7 +5177,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -5249,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR19">
         <v>2.09</v>
@@ -5374,7 +5383,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5452,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5580,7 +5589,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5786,7 +5795,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6198,7 +6207,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>2.6</v>
@@ -6276,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6404,7 +6413,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6482,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="AQ25">
         <v>0.47</v>
@@ -6691,7 +6700,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ26">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -7022,7 +7031,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7306,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7434,7 +7443,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q30">
         <v>4.75</v>
@@ -7640,7 +7649,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8052,7 +8061,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8133,7 +8142,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ33">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8258,7 +8267,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8464,7 +8473,7 @@
         <v>111</v>
       </c>
       <c r=